--- a/results/12-2020/xx.xlsx
+++ b/results/12-2020/xx.xlsx
@@ -707,37 +707,37 @@
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
+          <t>jgf_g</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>jgs_g</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>jc_g</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
           <t>gsrpt_g</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>gsrpri_g</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>gsrcp_g</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>gsrs_g</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>jgf_g</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>jgs_g</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>jc_g</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
@@ -35332,25 +35332,25 @@
         <v>0.0009637862445146528</v>
       </c>
       <c r="BQ190">
-        <v>0.008660580290144937</v>
+        <v>0.004135056230114564</v>
       </c>
       <c r="BR190">
-        <v>0.008660580290144937</v>
+        <v>0.00363299075745438</v>
       </c>
       <c r="BS190">
-        <v>0.008660580290144937</v>
+        <v>0.002286456286272998</v>
       </c>
       <c r="BT190">
-        <v>0.008660580290144937</v>
+        <v>-0.03833333333333344</v>
       </c>
       <c r="BU190">
-        <v>0.004135056230114564</v>
+        <v>0.01096545469535815</v>
       </c>
       <c r="BV190">
-        <v>0.00363299075745438</v>
+        <v>-0.02578268876611411</v>
       </c>
       <c r="BW190">
-        <v>0.002286456286272998</v>
+        <v>-0.005000000000000115</v>
       </c>
       <c r="CI190">
         <v>0</v>
@@ -35607,25 +35607,25 @@
         <v>0.0009637862445146528</v>
       </c>
       <c r="BQ191">
-        <v>0.008660580290144937</v>
+        <v>0.004135056230114564</v>
       </c>
       <c r="BR191">
-        <v>0.008660580290144937</v>
+        <v>0.00363299075745438</v>
       </c>
       <c r="BS191">
-        <v>0.008660580290144937</v>
+        <v>0.002286456286272998</v>
       </c>
       <c r="BT191">
-        <v>0.008660580290144937</v>
+        <v>-0.03833333333333344</v>
       </c>
       <c r="BU191">
-        <v>0.004135056230114564</v>
+        <v>0.01096545469535815</v>
       </c>
       <c r="BV191">
-        <v>0.00363299075745438</v>
+        <v>-0.02578268876611411</v>
       </c>
       <c r="BW191">
-        <v>0.002286456286272998</v>
+        <v>-0.005000000000000115</v>
       </c>
       <c r="BX191">
         <v>0.003860721863454319</v>
@@ -35888,25 +35888,25 @@
         <v>0.005338741728637908</v>
       </c>
       <c r="BQ192">
-        <v>0.01317896738063506</v>
+        <v>0.005055088423257414</v>
       </c>
       <c r="BR192">
-        <v>0.01317896738063506</v>
+        <v>0.00803007361770991</v>
       </c>
       <c r="BS192">
-        <v>0.01317896738063529</v>
+        <v>0.004145686088636857</v>
       </c>
       <c r="BT192">
-        <v>0.01317896738063506</v>
+        <v>0.05793513245852933</v>
       </c>
       <c r="BU192">
-        <v>0.005055088423257414</v>
+        <v>0.009215462404175367</v>
       </c>
       <c r="BV192">
-        <v>0.00803007361770991</v>
+        <v>0.02268431001890359</v>
       </c>
       <c r="BW192">
-        <v>0.004145686088636857</v>
+        <v>0.005025125628140836</v>
       </c>
       <c r="BX192">
         <v>0.02152658936914853</v>
@@ -36172,25 +36172,25 @@
         <v>0.00776384858661272</v>
       </c>
       <c r="BQ193">
-        <v>0.0156641188678186</v>
+        <v>0.008057035860422834</v>
       </c>
       <c r="BR193">
-        <v>0.01566411886781882</v>
+        <v>0.01148564106586103</v>
       </c>
       <c r="BS193">
-        <v>0.01566411886781882</v>
+        <v>0.00660545112018962</v>
       </c>
       <c r="BT193">
-        <v>0.01566411886781882</v>
+        <v>0.1163117247835244</v>
       </c>
       <c r="BU193">
-        <v>0.008057035860422834</v>
+        <v>0.01454545454545464</v>
       </c>
       <c r="BV193">
-        <v>0.01148564106586103</v>
+        <v>0.0240295748613677</v>
       </c>
       <c r="BW193">
-        <v>0.00660545112018962</v>
+        <v>0.01000000000000023</v>
       </c>
       <c r="BX193">
         <v>0.03141893398577955</v>
@@ -36483,25 +36483,25 @@
         <v>0.007995211769987076</v>
       </c>
       <c r="BQ194">
-        <v>-0.08117823926922207</v>
+        <v>0.01090103433127432</v>
       </c>
       <c r="BR194">
-        <v>-0.00932872723478384</v>
+        <v>0.009122313931293258</v>
       </c>
       <c r="BS194">
-        <v>0.1004563731125971</v>
+        <v>0.006253726822063044</v>
       </c>
       <c r="BT194">
-        <v>0.0266236176202217</v>
+        <v>0.02096436058700202</v>
       </c>
       <c r="BU194">
-        <v>0.01090103433127432</v>
+        <v>0.01011549183592186</v>
       </c>
       <c r="BV194">
-        <v>0.009122313931293258</v>
+        <v>0</v>
       </c>
       <c r="BW194">
-        <v>0.006253726822063044</v>
+        <v>0.009900990099009688</v>
       </c>
       <c r="BX194">
         <v>0.03236643595847233</v>
@@ -36794,25 +36794,25 @@
         <v>0.00532798395185563</v>
       </c>
       <c r="BQ195">
-        <v>0.01720956990953826</v>
+        <v>0.00708529244933076</v>
       </c>
       <c r="BR195">
-        <v>0.01720956990953826</v>
+        <v>0.01076659899376375</v>
       </c>
       <c r="BS195">
-        <v>0.01720956990953826</v>
+        <v>0.005464358412212045</v>
       </c>
       <c r="BT195">
-        <v>0.01720956990953826</v>
+        <v>-0.06468172484599588</v>
       </c>
       <c r="BU195">
-        <v>0.00708529244933076</v>
+        <v>0.007569783945749808</v>
       </c>
       <c r="BV195">
-        <v>0.01076659899376375</v>
+        <v>0.09747292418772568</v>
       </c>
       <c r="BW195">
-        <v>0.005464358412212045</v>
+        <v>0.01960784313725505</v>
       </c>
       <c r="BX195">
         <v>0.02148286608193861</v>
@@ -37105,25 +37105,25 @@
         <v>0.004988466665070357</v>
       </c>
       <c r="BQ196">
-        <v>0.01168199237452572</v>
+        <v>0.006377352851393958</v>
       </c>
       <c r="BR196">
-        <v>0.01168199237452572</v>
+        <v>0.008208800786170034</v>
       </c>
       <c r="BS196">
-        <v>0.01168199237452572</v>
+        <v>0.003938359457344776</v>
       </c>
       <c r="BT196">
-        <v>0.01168199237452572</v>
+        <v>0.03666300768386388</v>
       </c>
       <c r="BU196">
-        <v>0.006377352851393958</v>
+        <v>0.006886836750665148</v>
       </c>
       <c r="BV196">
-        <v>0.008208800786170034</v>
+        <v>0.02138157894736858</v>
       </c>
       <c r="BW196">
-        <v>0.003938359457344776</v>
+        <v>0.01923076923076916</v>
       </c>
       <c r="BX196">
         <v>0.02010367262552015</v>
@@ -37416,25 +37416,25 @@
         <v>0.003696967771653625</v>
       </c>
       <c r="BQ197">
-        <v>0.00713259886842299</v>
+        <v>0.006951988977225598</v>
       </c>
       <c r="BR197">
-        <v>0.007132598868422768</v>
+        <v>0.007195932127832538</v>
       </c>
       <c r="BS197">
-        <v>0.007132598868422768</v>
+        <v>0.003310265205517471</v>
       </c>
       <c r="BT197">
-        <v>0.007132598868422768</v>
+        <v>-0.03324862346463364</v>
       </c>
       <c r="BU197">
-        <v>0.006951988977225598</v>
+        <v>0.006917456863049898</v>
       </c>
       <c r="BV197">
-        <v>0.007195932127832538</v>
+        <v>0.02254428341384851</v>
       </c>
       <c r="BW197">
-        <v>0.003310265205517471</v>
+        <v>0.01886792452830188</v>
       </c>
       <c r="BX197">
         <v>0.01487007881191849</v>
@@ -37727,25 +37727,25 @@
         <v>0.002140378779786456</v>
       </c>
       <c r="BQ198">
-        <v>0.0215210630765863</v>
+        <v>0.01123868241402115</v>
       </c>
       <c r="BR198">
-        <v>-0.004186178979908917</v>
+        <v>-0.001498029111450472</v>
       </c>
       <c r="BS198">
-        <v>0.0842213479616396</v>
+        <v>0.0009932534075183241</v>
       </c>
       <c r="BT198">
-        <v>-0.05275562528273159</v>
+        <v>0.04096385542168668</v>
       </c>
       <c r="BU198">
-        <v>0.01123868241402115</v>
+        <v>0.004708606715553731</v>
       </c>
       <c r="BV198">
-        <v>-0.001498029111450472</v>
+        <v>0.07874015748031504</v>
       </c>
       <c r="BW198">
-        <v>0.0009932534075183241</v>
+        <v>0.01851851851851838</v>
       </c>
       <c r="BX198">
         <v>0.008589041690254762</v>
@@ -38044,25 +38044,25 @@
         <v>0.007500986971969992</v>
       </c>
       <c r="BQ199">
-        <v>0.01144614859612858</v>
+        <v>-0.005294380535718068</v>
       </c>
       <c r="BR199">
-        <v>0.0114461485961288</v>
+        <v>0.01011989618787412</v>
       </c>
       <c r="BS199">
-        <v>0.0114461485961288</v>
+        <v>0.005904570515103735</v>
       </c>
       <c r="BT199">
-        <v>0.01144614859612858</v>
+        <v>0.09301346801346799</v>
       </c>
       <c r="BU199">
-        <v>-0.005294380535718068</v>
+        <v>0.008297480024585191</v>
       </c>
       <c r="BV199">
-        <v>0.01011989618787412</v>
+        <v>0.002919708029197166</v>
       </c>
       <c r="BW199">
-        <v>0.005904570515103735</v>
+        <v>0.004545454545454408</v>
       </c>
       <c r="BX199">
         <v>0.03034322805322409</v>
@@ -38361,25 +38361,25 @@
         <v>0.004310344827586299</v>
       </c>
       <c r="BQ200">
-        <v>0.009475030810251139</v>
+        <v>0.003739211099353046</v>
       </c>
       <c r="BR200">
-        <v>0.009475030810250917</v>
+        <v>0.004019806445718199</v>
       </c>
       <c r="BS200">
-        <v>0.009475030810250917</v>
+        <v>0.003698442027993742</v>
       </c>
       <c r="BT200">
-        <v>0.009475030810251139</v>
+        <v>-0.06834809395456298</v>
       </c>
       <c r="BU200">
-        <v>0.003739211099353046</v>
+        <v>0.01074367570862544</v>
       </c>
       <c r="BV200">
-        <v>0.004019806445718199</v>
+        <v>0.01601164483260553</v>
       </c>
       <c r="BW200">
-        <v>0.003698442027993742</v>
+        <v>-0.013574660633484</v>
       </c>
       <c r="BX200">
         <v>0.01735317441956008</v>
@@ -38678,25 +38678,25 @@
         <v>0.005852516582130374</v>
       </c>
       <c r="BQ201">
-        <v>0.008661947313450158</v>
+        <v>0.003925347353803676</v>
       </c>
       <c r="BR201">
-        <v>0.008661947313450158</v>
+        <v>0.004985097894305568</v>
       </c>
       <c r="BS201">
-        <v>0.008661947313450158</v>
+        <v>0.003396179839167512</v>
       </c>
       <c r="BT201">
-        <v>0.008661947313450158</v>
+        <v>-0.006199628022318771</v>
       </c>
       <c r="BU201">
-        <v>0.003925347353803676</v>
+        <v>0.002940067847719607</v>
       </c>
       <c r="BV201">
-        <v>0.004985097894305568</v>
+        <v>0.01719197707736386</v>
       </c>
       <c r="BW201">
-        <v>0.003396179839167512</v>
+        <v>-0.03211009174311918</v>
       </c>
       <c r="BX201">
         <v>0.0236163810442116</v>
@@ -38995,25 +38995,25 @@
         <v>0.003103180760279267</v>
       </c>
       <c r="BQ202">
-        <v>-0.008716421756998605</v>
+        <v>0.00222072571695997</v>
       </c>
       <c r="BR202">
-        <v>-0.008716421756998605</v>
+        <v>0.01041228186073351</v>
       </c>
       <c r="BS202">
-        <v>-0.008716421756998605</v>
+        <v>0.003252404301999023</v>
       </c>
       <c r="BT202">
-        <v>-0.008716421756998716</v>
+        <v>0.03098357246828876</v>
       </c>
       <c r="BU202">
-        <v>0.00222072571695997</v>
+        <v>0.01187612748045708</v>
       </c>
       <c r="BV202">
-        <v>0.01041228186073351</v>
+        <v>-0.1169014084507042</v>
       </c>
       <c r="BW202">
-        <v>0.003252404301999023</v>
+        <v>-0.03317535545023709</v>
       </c>
       <c r="BX202">
         <v>0.01247062105001628</v>
@@ -39315,25 +39315,25 @@
         <v>-0.007733952049497339</v>
       </c>
       <c r="BQ203">
-        <v>-0.1064963764583537</v>
+        <v>-0.001268877009791836</v>
       </c>
       <c r="BR203">
-        <v>-0.1064963764583537</v>
+        <v>-0.007866439229973432</v>
       </c>
       <c r="BS203">
-        <v>-0.1064963764583536</v>
+        <v>-0.004915047367050174</v>
       </c>
       <c r="BT203">
-        <v>-0.1064963764583537</v>
+        <v>0.001210165389269768</v>
       </c>
       <c r="BU203">
-        <v>-0.001268877009791836</v>
+        <v>-0.06083791412865847</v>
       </c>
       <c r="BV203">
-        <v>-0.007866439229973432</v>
+        <v>-0.1355661881977671</v>
       </c>
       <c r="BW203">
-        <v>-0.004915047367050174</v>
+        <v>-0.06372549019607832</v>
       </c>
       <c r="BX203">
         <v>-0.0305787709293236</v>
@@ -39635,25 +39635,25 @@
         <v>0.006625097427903404</v>
       </c>
       <c r="BQ204">
-        <v>0.04346922445416679</v>
+        <v>0.005588168524176318</v>
       </c>
       <c r="BR204">
-        <v>0.04346922445416679</v>
+        <v>0.002391852213436962</v>
       </c>
       <c r="BS204">
-        <v>0.04346922445416679</v>
+        <v>0.004015571909309346</v>
       </c>
       <c r="BT204">
-        <v>0.04346922445416679</v>
+        <v>0.006043513295729275</v>
       </c>
       <c r="BU204">
-        <v>0.005588168524176318</v>
+        <v>0.04192043027762393</v>
       </c>
       <c r="BV204">
-        <v>0.002391852213436962</v>
+        <v>0.4594095940959408</v>
       </c>
       <c r="BW204">
-        <v>0.004015571909309346</v>
+        <v>0.05759162303664889</v>
       </c>
       <c r="BX204">
         <v>0.02676490628656647</v>
@@ -39793,7 +39793,7 @@
         <v>2204.038466636743</v>
       </c>
       <c r="U205">
-        <v>1490.738044351792</v>
+        <v>1490.738044351791</v>
       </c>
       <c r="V205">
         <v>296.1311906338681</v>
@@ -39829,13 +39829,13 @@
         <v>733.7521447987803</v>
       </c>
       <c r="AJ205">
-        <v>509.4987103135083</v>
+        <v>509.4987103135082</v>
       </c>
       <c r="AK205">
-        <v>1343.93802782536</v>
+        <v>1343.938027825359</v>
       </c>
       <c r="AL205">
-        <v>80.69953541409393</v>
+        <v>80.69953541409392</v>
       </c>
       <c r="AM205">
         <v>20.60847807035016</v>
@@ -39913,25 +39913,25 @@
         <v>0.001935733643050774</v>
       </c>
       <c r="BQ205">
+        <v>0.003650663071831373</v>
+      </c>
+      <c r="BR205">
+        <v>0.003458823943076839</v>
+      </c>
+      <c r="BS205">
+        <v>0.001666424545003986</v>
+      </c>
+      <c r="BT205">
+        <v>0.02022168665099766</v>
+      </c>
+      <c r="BU205">
+        <v>0.02022168665099766</v>
+      </c>
+      <c r="BV205">
+        <v>0.02022168665099766</v>
+      </c>
+      <c r="BW205">
         <v>0.02022168665099788</v>
-      </c>
-      <c r="BR205">
-        <v>0.02022168665099788</v>
-      </c>
-      <c r="BS205">
-        <v>0.02022168665099788</v>
-      </c>
-      <c r="BT205">
-        <v>0.02022168665099788</v>
-      </c>
-      <c r="BU205">
-        <v>0.003650663071831373</v>
-      </c>
-      <c r="BV205">
-        <v>0.003458823943076839</v>
-      </c>
-      <c r="BW205">
-        <v>0.001666424545003986</v>
       </c>
       <c r="BX205">
         <v>0.00776544598794171</v>
@@ -40074,7 +40074,7 @@
         <v>2219.828214992802</v>
       </c>
       <c r="U206">
-        <v>1515.127156803014</v>
+        <v>1515.127156803013</v>
       </c>
       <c r="V206">
         <v>307.6012406670113</v>
@@ -40110,13 +40110,13 @@
         <v>736.6971955181332</v>
       </c>
       <c r="AJ206">
-        <v>517.948702346333</v>
+        <v>517.9487023463329</v>
       </c>
       <c r="AK206">
         <v>1366.227123750149</v>
       </c>
       <c r="AL206">
-        <v>82.03793022746285</v>
+        <v>82.03793022746284</v>
       </c>
       <c r="AM206">
         <v>20.95026789626738</v>
@@ -40194,25 +40194,25 @@
         <v>0.002318392581143636</v>
       </c>
       <c r="BQ206">
-        <v>0.01658491348805424</v>
+        <v>0.003938982612060604</v>
       </c>
       <c r="BR206">
-        <v>0.01658491348805424</v>
+        <v>0.0031885362715387</v>
       </c>
       <c r="BS206">
-        <v>0.01658491348805424</v>
+        <v>0.002172328543681434</v>
       </c>
       <c r="BT206">
         <v>0.01658491348805424</v>
       </c>
       <c r="BU206">
-        <v>0.003938982612060604</v>
+        <v>0.01658491348805424</v>
       </c>
       <c r="BV206">
-        <v>0.0031885362715387</v>
+        <v>0.01658491348805424</v>
       </c>
       <c r="BW206">
-        <v>0.002172328543681434</v>
+        <v>0.01658491348805424</v>
       </c>
       <c r="BX206">
         <v>0.009305869863349026</v>
@@ -40391,13 +40391,13 @@
         <v>740.0767619173906</v>
       </c>
       <c r="AJ207">
-        <v>526.1848334860374</v>
+        <v>526.1848334860373</v>
       </c>
       <c r="AK207">
         <v>1387.952104828108</v>
       </c>
       <c r="AL207">
-        <v>83.34245159941042</v>
+        <v>83.34245159941041</v>
       </c>
       <c r="AM207">
         <v>21.28340736166992</v>
@@ -40475,25 +40475,25 @@
         <v>0.004626060138781973</v>
       </c>
       <c r="BQ207">
-        <v>0.01590144178833608</v>
+        <v>0.00541033706720695</v>
       </c>
       <c r="BR207">
-        <v>0.01590144178833608</v>
+        <v>0.005802914123625325</v>
       </c>
       <c r="BS207">
-        <v>0.01590144178833608</v>
+        <v>0.003434875674763305</v>
       </c>
       <c r="BT207">
         <v>0.01590144178833608</v>
       </c>
       <c r="BU207">
-        <v>0.00541033706720695</v>
+        <v>0.0159014417883363</v>
       </c>
       <c r="BV207">
-        <v>0.005802914123625325</v>
+        <v>0.01590144178833608</v>
       </c>
       <c r="BW207">
-        <v>0.003434875674763305</v>
+        <v>0.01590144178833608</v>
       </c>
       <c r="BX207">
         <v>0.01863303960630147</v>
@@ -40672,7 +40672,7 @@
         <v>744.0356825565207</v>
       </c>
       <c r="AJ208">
-        <v>534.9879446679679</v>
+        <v>534.9879446679678</v>
       </c>
       <c r="AK208">
         <v>1411.172646197665</v>
@@ -40756,25 +40756,25 @@
         <v>0.004988488104374245</v>
       </c>
       <c r="BQ208">
-        <v>0.01673007396205017</v>
+        <v>0.004676012656119388</v>
       </c>
       <c r="BR208">
-        <v>0.01673007396204995</v>
+        <v>0.005585189534516033</v>
       </c>
       <c r="BS208">
-        <v>0.01673007396204995</v>
+        <v>0.003821926349092397</v>
       </c>
       <c r="BT208">
         <v>0.01673007396205017</v>
       </c>
       <c r="BU208">
-        <v>0.004676012656119388</v>
+        <v>0.01673007396205017</v>
       </c>
       <c r="BV208">
-        <v>0.005585189534516033</v>
+        <v>0.01673007396205017</v>
       </c>
       <c r="BW208">
-        <v>0.003821926349092397</v>
+        <v>0.01673007396205017</v>
       </c>
       <c r="BX208">
         <v>0.02010375967254241</v>
@@ -40917,7 +40917,7 @@
         <v>2278.96600413909</v>
       </c>
       <c r="U209">
-        <v>1583.583825651546</v>
+        <v>1583.583825651547</v>
       </c>
       <c r="V209">
         <v>374.4471167693226</v>
@@ -40953,13 +40953,13 @@
         <v>749.7462776422768</v>
       </c>
       <c r="AJ209">
-        <v>540.8840397562044</v>
+        <v>540.8840397562042</v>
       </c>
       <c r="AK209">
         <v>1426.725161335298</v>
       </c>
       <c r="AL209">
-        <v>85.67065988128905</v>
+        <v>85.67065988128908</v>
       </c>
       <c r="AM209">
         <v>21.87796876867306</v>
@@ -41037,25 +41037,25 @@
         <v>0.003818251240931714</v>
       </c>
       <c r="BQ209">
-        <v>0.01102098682222796</v>
+        <v>0.004663517061526345</v>
       </c>
       <c r="BR209">
-        <v>0.01102098682222774</v>
+        <v>0.005492326385298174</v>
       </c>
       <c r="BS209">
-        <v>0.01102098682222774</v>
+        <v>0.003422428967105207</v>
       </c>
       <c r="BT209">
         <v>0.01102098682222774</v>
       </c>
       <c r="BU209">
-        <v>0.004663517061526345</v>
+        <v>0.01102098682222774</v>
       </c>
       <c r="BV209">
-        <v>0.005492326385298174</v>
+        <v>0.01102098682222796</v>
       </c>
       <c r="BW209">
-        <v>0.003422428967105207</v>
+        <v>0.01102098682222774</v>
       </c>
       <c r="BX209">
         <v>0.01536070209729767</v>
@@ -41198,7 +41198,7 @@
         <v>2305.885200648469</v>
       </c>
       <c r="U210">
-        <v>1601.576484532106</v>
+        <v>1601.576484532107</v>
       </c>
       <c r="V210">
         <v>418.2516663583094</v>
@@ -41234,13 +41234,13 @@
         <v>756.250632039193</v>
       </c>
       <c r="AJ210">
-        <v>546.2802971756363</v>
+        <v>546.2802971756362</v>
       </c>
       <c r="AK210">
         <v>1440.959222005338</v>
       </c>
       <c r="AL210">
-        <v>86.52537346133926</v>
+        <v>86.52537346133927</v>
       </c>
       <c r="AM210">
         <v>22.09623949328765</v>
@@ -41318,25 +41318,25 @@
         <v>0.004184100418410219</v>
       </c>
       <c r="BQ210">
+        <v>0.005207433285125074</v>
+      </c>
+      <c r="BR210">
+        <v>0.006507269187908227</v>
+      </c>
+      <c r="BS210">
+        <v>0.003938803826607495</v>
+      </c>
+      <c r="BT210">
+        <v>0.009976736273942022</v>
+      </c>
+      <c r="BU210">
+        <v>0.009976736273942022</v>
+      </c>
+      <c r="BV210">
         <v>0.0099767362739418</v>
       </c>
-      <c r="BR210">
-        <v>0.009976736273942022</v>
-      </c>
-      <c r="BS210">
-        <v>0.009976736273942022</v>
-      </c>
-      <c r="BT210">
+      <c r="BW210">
         <v>0.0099767362739418</v>
-      </c>
-      <c r="BU210">
-        <v>0.005207433285125074</v>
-      </c>
-      <c r="BV210">
-        <v>0.006507269187908227</v>
-      </c>
-      <c r="BW210">
-        <v>0.003938803826607495</v>
       </c>
       <c r="BX210">
         <v>0.01684173515709486</v>
@@ -41515,13 +41515,13 @@
         <v>762.8367986466193</v>
       </c>
       <c r="AJ211">
-        <v>551.6218459945027</v>
+        <v>551.6218459945025</v>
       </c>
       <c r="AK211">
         <v>1455.048974226188</v>
       </c>
       <c r="AL211">
-        <v>87.37142174242121</v>
+        <v>87.37142174242122</v>
       </c>
       <c r="AM211">
         <v>22.31229733497988</v>
@@ -41599,25 +41599,25 @@
         <v>0.004924242424242387</v>
       </c>
       <c r="BQ211">
+        <v>0.005185091302505995</v>
+      </c>
+      <c r="BR211">
+        <v>0.007003781629901784</v>
+      </c>
+      <c r="BS211">
+        <v>0.004387388405960646</v>
+      </c>
+      <c r="BT211">
+        <v>0.009778036745024421</v>
+      </c>
+      <c r="BU211">
         <v>0.009778036745024643</v>
       </c>
-      <c r="BR211">
+      <c r="BV211">
         <v>0.009778036745024643</v>
       </c>
-      <c r="BS211">
+      <c r="BW211">
         <v>0.009778036745024643</v>
-      </c>
-      <c r="BT211">
-        <v>0.009778036745024643</v>
-      </c>
-      <c r="BU211">
-        <v>0.005185091302505995</v>
-      </c>
-      <c r="BV211">
-        <v>0.007003781629901784</v>
-      </c>
-      <c r="BW211">
-        <v>0.004387388405960646</v>
       </c>
       <c r="BX211">
         <v>0.01984293688100003</v>
@@ -41713,7 +41713,7 @@
         <v>3209.919542274507</v>
       </c>
       <c r="DC211">
-        <v>2292.910414994503</v>
+        <v>2292.910414994502</v>
       </c>
     </row>
     <row r="212">
@@ -41757,7 +41757,7 @@
         <v>3551.62261108946</v>
       </c>
       <c r="T212">
-        <v>2359.857878414072</v>
+        <v>2359.857878414071</v>
       </c>
       <c r="U212">
         <v>1637.916013941236</v>
@@ -41796,16 +41796,16 @@
         <v>770.1532346556107</v>
       </c>
       <c r="AJ212">
-        <v>557.2070967613433</v>
+        <v>557.2070967613431</v>
       </c>
       <c r="AK212">
-        <v>1469.781554993427</v>
+        <v>1469.781554993428</v>
       </c>
       <c r="AL212">
-        <v>88.25606999163443</v>
+        <v>88.25606999163445</v>
       </c>
       <c r="AM212">
-        <v>22.53821256423535</v>
+        <v>22.53821256423534</v>
       </c>
       <c r="AN212">
         <v>871.2016242713022</v>
@@ -41880,25 +41880,25 @@
         <v>0.005277044854881119</v>
       </c>
       <c r="BQ212">
-        <v>0.0101251442585113</v>
+        <v>0.005265472378314096</v>
       </c>
       <c r="BR212">
-        <v>0.01012514425851108</v>
+        <v>0.007232591441219238</v>
       </c>
       <c r="BS212">
-        <v>0.01012514425851108</v>
+        <v>0.004542217518557434</v>
       </c>
       <c r="BT212">
         <v>0.0101251442585113</v>
       </c>
       <c r="BU212">
-        <v>0.005265472378314096</v>
+        <v>0.0101251442585113</v>
       </c>
       <c r="BV212">
-        <v>0.007232591441219238</v>
+        <v>0.01012514425851108</v>
       </c>
       <c r="BW212">
-        <v>0.004542217518557434</v>
+        <v>0.01012514425851108</v>
       </c>
       <c r="BX212">
         <v>0.02127585121313835</v>
@@ -42041,7 +42041,7 @@
         <v>2388.240229358662</v>
       </c>
       <c r="U213">
-        <v>1653.872485042518</v>
+        <v>1653.872485042519</v>
       </c>
       <c r="V213">
         <v>531.4009080357172</v>
@@ -42077,16 +42077,16 @@
         <v>776.8847561165927</v>
       </c>
       <c r="AJ213">
-        <v>562.8744104290325</v>
+        <v>562.8744104290322</v>
       </c>
       <c r="AK213">
-        <v>1484.73059843445</v>
+        <v>1484.730598434451</v>
       </c>
       <c r="AL213">
-        <v>89.15371618930007</v>
+        <v>89.15371618930008</v>
       </c>
       <c r="AM213">
-        <v>22.76744711787436</v>
+        <v>22.76744711787435</v>
       </c>
       <c r="AN213">
         <v>878.3493252582214</v>
@@ -42161,25 +42161,25 @@
         <v>0.005249343832021136</v>
       </c>
       <c r="BQ213">
-        <v>0.01017092872762992</v>
+        <v>0.005415567668292987</v>
       </c>
       <c r="BR213">
-        <v>0.01017092872762992</v>
+        <v>0.00740178586374185</v>
       </c>
       <c r="BS213">
-        <v>0.01017092872762992</v>
+        <v>0.004367582454179786</v>
       </c>
       <c r="BT213">
         <v>0.0101709287276297</v>
       </c>
       <c r="BU213">
-        <v>0.005415567668292987</v>
+        <v>0.01017092872762992</v>
       </c>
       <c r="BV213">
-        <v>0.00740178586374185</v>
+        <v>0.01017092872762992</v>
       </c>
       <c r="BW213">
-        <v>0.004367582454179786</v>
+        <v>0.01017092872762992</v>
       </c>
       <c r="BX213">
         <v>0.0211632883468964</v>
@@ -42322,7 +42322,7 @@
         <v>2416.652421358107</v>
       </c>
       <c r="U214">
-        <v>1669.907669843357</v>
+        <v>1669.907669843358</v>
       </c>
       <c r="V214">
         <v>556.9245076916663</v>
@@ -42358,13 +42358,13 @@
         <v>784.3612746822325</v>
       </c>
       <c r="AJ214">
-        <v>568.5715651515757</v>
+        <v>568.5715651515753</v>
       </c>
       <c r="AK214">
         <v>1499.758355575031</v>
       </c>
       <c r="AL214">
-        <v>90.05608891367564</v>
+        <v>90.05608891367565</v>
       </c>
       <c r="AM214">
         <v>22.99788869856192</v>
@@ -42442,25 +42442,25 @@
         <v>0.005221932114882311</v>
       </c>
       <c r="BQ214">
-        <v>0.01012153797896165</v>
+        <v>0.005224429633956973</v>
       </c>
       <c r="BR214">
-        <v>0.01012153797896165</v>
+        <v>0.007453234698204803</v>
       </c>
       <c r="BS214">
-        <v>0.01012153797896165</v>
+        <v>0.004377037061640721</v>
       </c>
       <c r="BT214">
         <v>0.01012153797896165</v>
       </c>
       <c r="BU214">
-        <v>0.005224429633956973</v>
+        <v>0.01012153797896165</v>
       </c>
       <c r="BV214">
-        <v>0.007453234698204803</v>
+        <v>0.01012153797896165</v>
       </c>
       <c r="BW214">
-        <v>0.004377037061640721</v>
+        <v>0.01012153797896165</v>
       </c>
       <c r="BX214">
         <v>0.02105191023176944</v>
@@ -42556,7 +42556,7 @@
         <v>3231.647590349547</v>
       </c>
       <c r="DC214">
-        <v>2375.315580151576</v>
+        <v>2375.315580151575</v>
       </c>
     </row>
     <row r="215">
@@ -42600,7 +42600,7 @@
         <v>3611.056315508343</v>
       </c>
       <c r="T215">
-        <v>2444.828371673291</v>
+        <v>2444.82837167329</v>
       </c>
       <c r="U215">
         <v>1685.319704522698</v>
@@ -42639,16 +42639,16 @@
         <v>791.2209639585725</v>
       </c>
       <c r="AJ215">
-        <v>574.0324781898579</v>
+        <v>574.0324781898576</v>
       </c>
       <c r="AK215">
-        <v>1514.162962594112</v>
+        <v>1514.162962594113</v>
       </c>
       <c r="AL215">
-        <v>90.92104330159738</v>
+        <v>90.92104330159741</v>
       </c>
       <c r="AM215">
-        <v>23.21877464844839</v>
+        <v>23.21877464844838</v>
       </c>
       <c r="AN215">
         <v>892.9292128434793</v>
@@ -42723,25 +42723,25 @@
         <v>0.005565862708719838</v>
       </c>
       <c r="BQ215">
-        <v>0.009604618614415639</v>
+        <v>0.005191015047577352</v>
       </c>
       <c r="BR215">
-        <v>0.009604618614415639</v>
+        <v>0.007524245191184997</v>
       </c>
       <c r="BS215">
-        <v>0.009604618614415417</v>
+        <v>0.004568350795890463</v>
       </c>
       <c r="BT215">
         <v>0.009604618614415639</v>
       </c>
       <c r="BU215">
-        <v>0.005191015047577352</v>
+        <v>0.009604618614415639</v>
       </c>
       <c r="BV215">
-        <v>0.007524245191184997</v>
+        <v>0.009604618614415639</v>
       </c>
       <c r="BW215">
-        <v>0.004568350795890463</v>
+        <v>0.009604618614415639</v>
       </c>
       <c r="BX215">
         <v>0.02245001445632822</v>
@@ -42884,7 +42884,7 @@
         <v>2473.394742456148</v>
       </c>
       <c r="U216">
-        <v>1701.761576771253</v>
+        <v>1701.761576771254</v>
       </c>
       <c r="V216">
         <v>607.9587090551122</v>
@@ -42920,16 +42920,16 @@
         <v>798.8326408490778</v>
       </c>
       <c r="AJ216">
-        <v>579.8838116958135</v>
+        <v>579.8838116958131</v>
       </c>
       <c r="AK216">
-        <v>1529.597407182408</v>
+        <v>1529.597407182409</v>
       </c>
       <c r="AL216">
-        <v>91.84783641397439</v>
+        <v>91.84783641397445</v>
       </c>
       <c r="AM216">
-        <v>23.45545253555352</v>
+        <v>23.45545253555351</v>
       </c>
       <c r="AN216">
         <v>900.5392029489554</v>
@@ -43004,25 +43004,25 @@
         <v>0.005535055350553542</v>
       </c>
       <c r="BQ216">
-        <v>0.01019338404754921</v>
+        <v>0.005296940975914266</v>
       </c>
       <c r="BR216">
-        <v>0.01019338404754899</v>
+        <v>0.007621453444226045</v>
       </c>
       <c r="BS216">
-        <v>0.01019338404754899</v>
+        <v>0.004604202777531485</v>
       </c>
       <c r="BT216">
         <v>0.01019338404754899</v>
       </c>
       <c r="BU216">
-        <v>0.005296940975914266</v>
+        <v>0.01019338404754899</v>
       </c>
       <c r="BV216">
-        <v>0.007621453444226045</v>
+        <v>0.01019338404754921</v>
       </c>
       <c r="BW216">
-        <v>0.004604202777531485</v>
+        <v>0.01019338404754899</v>
       </c>
       <c r="BX216">
         <v>0.02232472167360267</v>
@@ -43162,7 +43162,7 @@
         <v>3665.105947510324</v>
       </c>
       <c r="T217">
-        <v>2496.710799367636</v>
+        <v>2496.710799367635</v>
       </c>
       <c r="U217">
         <v>1721.159716359891</v>
@@ -43201,16 +43201,16 @@
         <v>806.5319388433021</v>
       </c>
       <c r="AJ217">
-        <v>586.0683703143051</v>
+        <v>586.0683703143048</v>
       </c>
       <c r="AK217">
         <v>1545.910821415767</v>
       </c>
       <c r="AL217">
-        <v>92.82740907461255</v>
+        <v>92.8274090746126</v>
       </c>
       <c r="AM217">
-        <v>23.70560889136756</v>
+        <v>23.70560889136755</v>
       </c>
       <c r="AN217">
         <v>908.2203144572863</v>
@@ -43285,25 +43285,25 @@
         <v>0.005504587155963359</v>
       </c>
       <c r="BQ217">
-        <v>0.01066516859714617</v>
+        <v>0.00530104656996544</v>
       </c>
       <c r="BR217">
-        <v>0.01066516859714639</v>
+        <v>0.007679180459608803</v>
       </c>
       <c r="BS217">
-        <v>0.01066516859714639</v>
+        <v>0.004579968154993619</v>
       </c>
       <c r="BT217">
         <v>0.01066516859714639</v>
       </c>
       <c r="BU217">
-        <v>0.00530104656996544</v>
+        <v>0.01066516859714639</v>
       </c>
       <c r="BV217">
-        <v>0.007679180459608803</v>
+        <v>0.01066516859714639</v>
       </c>
       <c r="BW217">
-        <v>0.004579968154993619</v>
+        <v>0.01066516859714639</v>
       </c>
       <c r="BX217">
         <v>0.0222008195870449</v>
@@ -43443,13 +43443,13 @@
         <v>3695.823143958989</v>
       </c>
       <c r="T218">
-        <v>2520.342674109662</v>
+        <v>2520.342674109661</v>
       </c>
       <c r="U218">
-        <v>1741.390909268849</v>
+        <v>1741.39090926885</v>
       </c>
       <c r="V218">
-        <v>636.3937682612285</v>
+        <v>636.3937682612286</v>
       </c>
       <c r="W218">
         <v>4310.613324694959</v>
@@ -43482,13 +43482,13 @@
         <v>814.307732890513</v>
       </c>
       <c r="AJ218">
-        <v>592.5687467633352</v>
+        <v>592.5687467633348</v>
       </c>
       <c r="AK218">
         <v>1563.057288969446</v>
       </c>
       <c r="AL218">
-        <v>93.85700414293106</v>
+        <v>93.85700414293113</v>
       </c>
       <c r="AM218">
         <v>23.96853961677886</v>
@@ -43566,25 +43566,25 @@
         <v>0.005474452554744547</v>
       </c>
       <c r="BQ218">
-        <v>0.011091498497938</v>
+        <v>0.005328511369082856</v>
       </c>
       <c r="BR218">
-        <v>0.01109149849793778</v>
+        <v>0.007777654808511558</v>
       </c>
       <c r="BS218">
-        <v>0.01109149849793778</v>
+        <v>0.004772860746296681</v>
       </c>
       <c r="BT218">
         <v>0.01109149849793778</v>
       </c>
       <c r="BU218">
-        <v>0.005328511369082856</v>
+        <v>0.01109149849793778</v>
       </c>
       <c r="BV218">
-        <v>0.007777654808511558</v>
+        <v>0.01109149849793778</v>
       </c>
       <c r="BW218">
-        <v>0.004772860746296681</v>
+        <v>0.01109149849793778</v>
       </c>
       <c r="BX218">
         <v>0.02207828517108879</v>
@@ -43727,10 +43727,10 @@
         <v>2543.860158141414</v>
       </c>
       <c r="U219">
-        <v>1761.320366329502</v>
+        <v>1761.320366329503</v>
       </c>
       <c r="V219">
-        <v>650.6181907157387</v>
+        <v>650.6181907157388</v>
       </c>
       <c r="W219">
         <v>4345.127078609224</v>
@@ -43763,16 +43763,16 @@
         <v>822.1287274629184</v>
       </c>
       <c r="AJ219">
-        <v>598.9547325020915</v>
+        <v>598.9547325020911</v>
       </c>
       <c r="AK219">
-        <v>1579.902020674819</v>
+        <v>1579.902020674821</v>
       </c>
       <c r="AL219">
-        <v>94.86848085886145</v>
+        <v>94.86848085886152</v>
       </c>
       <c r="AM219">
-        <v>24.22684340517069</v>
+        <v>24.22684340517068</v>
       </c>
       <c r="AN219">
         <v>924.8271620239093</v>
@@ -43847,25 +43847,25 @@
         <v>0.005807622504537369</v>
       </c>
       <c r="BQ219">
-        <v>0.01077678459020515</v>
+        <v>0.005142112820335054</v>
       </c>
       <c r="BR219">
-        <v>0.01077678459020515</v>
+        <v>0.007777406892435224</v>
       </c>
       <c r="BS219">
-        <v>0.01077678459020537</v>
+        <v>0.00483868059847814</v>
       </c>
       <c r="BT219">
         <v>0.01077678459020515</v>
       </c>
       <c r="BU219">
-        <v>0.005142112820335054</v>
+        <v>0.01077678459020537</v>
       </c>
       <c r="BV219">
-        <v>0.007777406892435224</v>
+        <v>0.01077678459020537</v>
       </c>
       <c r="BW219">
-        <v>0.00483868059847814</v>
+        <v>0.01077678459020515</v>
       </c>
       <c r="BX219">
         <v>0.02343364555978944</v>
@@ -43961,7 +43961,7 @@
         <v>3332.194580973957</v>
       </c>
       <c r="DC219">
-        <v>2500.357599002092</v>
+        <v>2500.357599002091</v>
       </c>
     </row>
     <row r="220">
@@ -44005,13 +44005,13 @@
         <v>3750.18494355034</v>
       </c>
       <c r="T220">
-        <v>2567.322933572601</v>
+        <v>2567.3229335726</v>
       </c>
       <c r="U220">
-        <v>1781.105514940966</v>
+        <v>1781.105514940967</v>
       </c>
       <c r="V220">
-        <v>664.8339478712805</v>
+        <v>664.8339478712807</v>
       </c>
       <c r="W220">
         <v>4381.495302883061</v>
@@ -44044,16 +44044,16 @@
         <v>830.0070606085214</v>
       </c>
       <c r="AJ220">
-        <v>605.2860096402823</v>
+        <v>605.2860096402817</v>
       </c>
       <c r="AK220">
-        <v>1596.602443931004</v>
+        <v>1596.602443931005</v>
       </c>
       <c r="AL220">
-        <v>95.87129227582355</v>
+        <v>95.87129227582362</v>
       </c>
       <c r="AM220">
-        <v>24.48293431064016</v>
+        <v>24.48293431064015</v>
       </c>
       <c r="AN220">
         <v>933.8951408879112</v>
@@ -44128,25 +44128,25 @@
         <v>0.005413208228076449</v>
       </c>
       <c r="BQ220">
+        <v>0.005230960708315413</v>
+      </c>
+      <c r="BR220">
+        <v>0.007860818824388716</v>
+      </c>
+      <c r="BS220">
+        <v>0.004818874444163512</v>
+      </c>
+      <c r="BT220">
+        <v>0.01057054363982091</v>
+      </c>
+      <c r="BU220">
         <v>0.01057054363982113</v>
       </c>
-      <c r="BR220">
+      <c r="BV220">
+        <v>0.01057054363982091</v>
+      </c>
+      <c r="BW220">
         <v>0.01057054363982113</v>
-      </c>
-      <c r="BS220">
-        <v>0.01057054363982091</v>
-      </c>
-      <c r="BT220">
-        <v>0.01057054363982113</v>
-      </c>
-      <c r="BU220">
-        <v>0.005230960708315413</v>
-      </c>
-      <c r="BV220">
-        <v>0.007860818824388716</v>
-      </c>
-      <c r="BW220">
-        <v>0.004818874444163512</v>
       </c>
       <c r="BX220">
         <v>0.02182928520002148</v>
@@ -44289,10 +44289,10 @@
         <v>2600.295187424959</v>
       </c>
       <c r="U221">
-        <v>1797.79785450116</v>
+        <v>1797.797854501162</v>
       </c>
       <c r="V221">
-        <v>678.5360954597539</v>
+        <v>678.5360954597541</v>
       </c>
       <c r="W221">
         <v>4418.275631681246</v>
@@ -44325,13 +44325,13 @@
         <v>837.9430301913528</v>
       </c>
       <c r="AJ221">
-        <v>611.7341642433177</v>
+        <v>611.7341642433172</v>
       </c>
       <c r="AK221">
-        <v>1613.611162510457</v>
+        <v>1613.611162510458</v>
       </c>
       <c r="AL221">
-        <v>96.89261592239966</v>
+        <v>96.89261592239974</v>
       </c>
       <c r="AM221">
         <v>24.74375273871648</v>
@@ -44409,25 +44409,25 @@
         <v>0.005743000717874924</v>
       </c>
       <c r="BQ221">
+        <v>0.005181221993932006</v>
+      </c>
+      <c r="BR221">
+        <v>0.00788354634122701</v>
+      </c>
+      <c r="BS221">
+        <v>0.004848764702921171</v>
+      </c>
+      <c r="BT221">
+        <v>0.01065307061510912</v>
+      </c>
+      <c r="BU221">
         <v>0.01065307061510889</v>
       </c>
-      <c r="BR221">
-        <v>0.01065307061510889</v>
-      </c>
-      <c r="BS221">
+      <c r="BV221">
         <v>0.01065307061510912</v>
       </c>
-      <c r="BT221">
-        <v>0.01065307061510889</v>
-      </c>
-      <c r="BU221">
-        <v>0.005181221993932006</v>
-      </c>
-      <c r="BV221">
-        <v>0.00788354634122701</v>
-      </c>
       <c r="BW221">
-        <v>0.004848764702921171</v>
+        <v>0.01065307061510912</v>
       </c>
       <c r="BX221">
         <v>0.0231706539667027</v>
@@ -44567,13 +44567,13 @@
         <v>3904.540016031237</v>
       </c>
       <c r="T222">
-        <v>2633.578285598714</v>
+        <v>2633.578285598713</v>
       </c>
       <c r="U222">
-        <v>1815.310128431749</v>
+        <v>1815.31012843175</v>
       </c>
       <c r="V222">
-        <v>692.2874777014559</v>
+        <v>692.2874777014561</v>
       </c>
       <c r="W222">
         <v>4454.643855955082</v>
@@ -44606,16 +44606,16 @@
         <v>846.614460877178</v>
       </c>
       <c r="AJ222">
-        <v>618.493163167749</v>
+        <v>618.4931631677485</v>
       </c>
       <c r="AK222">
-        <v>1631.439815460303</v>
+        <v>1631.439815460305</v>
       </c>
       <c r="AL222">
-        <v>97.96317422220447</v>
+        <v>97.96317422220453</v>
       </c>
       <c r="AM222">
-        <v>25.0171443652153</v>
+        <v>25.01714436521531</v>
       </c>
       <c r="AN222">
         <v>952.1733414216249</v>
@@ -44690,25 +44690,25 @@
         <v>0.005710206995003686</v>
       </c>
       <c r="BQ222">
+        <v>0.005249029001187733</v>
+      </c>
+      <c r="BR222">
+        <v>0.007865304326518441</v>
+      </c>
+      <c r="BS222">
+        <v>0.004799421140593729</v>
+      </c>
+      <c r="BT222">
         <v>0.01104891523067364</v>
       </c>
-      <c r="BR222">
+      <c r="BU222">
+        <v>0.01104891523067364</v>
+      </c>
+      <c r="BV222">
         <v>0.01104891523067342</v>
       </c>
-      <c r="BS222">
+      <c r="BW222">
         <v>0.01104891523067364</v>
-      </c>
-      <c r="BT222">
-        <v>0.01104891523067342</v>
-      </c>
-      <c r="BU222">
-        <v>0.005249029001187733</v>
-      </c>
-      <c r="BV222">
-        <v>0.007865304326518441</v>
-      </c>
-      <c r="BW222">
-        <v>0.004799421140593729</v>
       </c>
       <c r="BX222">
         <v>0.0230372125853846</v>
@@ -44851,10 +44851,10 @@
         <v>2666.940959918745</v>
       </c>
       <c r="U223">
-        <v>1833.032305561158</v>
+        <v>1833.03230556116</v>
       </c>
       <c r="V223">
-        <v>706.0514640143845</v>
+        <v>706.0514640143846</v>
       </c>
       <c r="W223">
         <v>4491.939315408705</v>
@@ -44887,13 +44887,13 @@
         <v>854.6167970617449</v>
       </c>
       <c r="AJ223">
-        <v>625.3317382384578</v>
+        <v>625.3317382384572</v>
       </c>
       <c r="AK223">
-        <v>1649.478371608971</v>
+        <v>1649.478371608972</v>
       </c>
       <c r="AL223">
-        <v>99.04633659323581</v>
+        <v>99.04633659323589</v>
       </c>
       <c r="AM223">
         <v>25.29375473051029</v>
@@ -44971,25 +44971,25 @@
         <v>0.005677785663591006</v>
       </c>
       <c r="BQ223">
-        <v>0.01105683211708186</v>
+        <v>0.005275288895317365</v>
       </c>
       <c r="BR223">
-        <v>0.01105683211708186</v>
+        <v>0.007876640045119343</v>
       </c>
       <c r="BS223">
-        <v>0.01105683211708164</v>
+        <v>0.00485518025101328</v>
       </c>
       <c r="BT223">
         <v>0.01105683211708186</v>
       </c>
       <c r="BU223">
-        <v>0.005275288895317365</v>
+        <v>0.01105683211708164</v>
       </c>
       <c r="BV223">
-        <v>0.007876640045119343</v>
+        <v>0.01105683211708186</v>
       </c>
       <c r="BW223">
-        <v>0.00485518025101328</v>
+        <v>0.01105683211708186</v>
       </c>
       <c r="BX223">
         <v>0.02290529933863894</v>
@@ -45085,7 +45085,7 @@
         <v>3572.609450652172</v>
       </c>
       <c r="DC223">
-        <v>2621.275384238458</v>
+        <v>2621.275384238457</v>
       </c>
     </row>
     <row r="224">
@@ -45132,10 +45132,10 @@
         <v>2700.370776612198</v>
       </c>
       <c r="U224">
-        <v>1850.931588514573</v>
+        <v>1850.931588514575</v>
       </c>
       <c r="V224">
-        <v>719.8260850124104</v>
+        <v>719.8260850124105</v>
       </c>
       <c r="W224">
         <v>4530.162010042114</v>
@@ -45168,16 +45168,16 @@
         <v>862.6608072115934</v>
       </c>
       <c r="AJ224">
-        <v>632.237455682588</v>
+        <v>632.2374556825874</v>
       </c>
       <c r="AK224">
-        <v>1667.694033581643</v>
+        <v>1667.694033581645</v>
       </c>
       <c r="AL224">
-        <v>100.1401336493646</v>
+        <v>100.1401336493647</v>
       </c>
       <c r="AM224">
-        <v>25.57308090666453</v>
+        <v>25.57308090666454</v>
       </c>
       <c r="AN224">
         <v>971.26943808817</v>
@@ -45252,25 +45252,25 @@
         <v>0.005292872265349358</v>
       </c>
       <c r="BQ224">
+        <v>0.005315753708131643</v>
+      </c>
+      <c r="BR224">
+        <v>0.007869746767241503</v>
+      </c>
+      <c r="BS224">
+        <v>0.004873393326910058</v>
+      </c>
+      <c r="BT224">
         <v>0.01104328634203577</v>
       </c>
-      <c r="BR224">
+      <c r="BU224">
         <v>0.01104328634203577</v>
       </c>
-      <c r="BS224">
+      <c r="BV224">
         <v>0.01104328634203577</v>
       </c>
-      <c r="BT224">
+      <c r="BW224">
         <v>0.01104328634203555</v>
-      </c>
-      <c r="BU224">
-        <v>0.005315753708131643</v>
-      </c>
-      <c r="BV224">
-        <v>0.007869746767241503</v>
-      </c>
-      <c r="BW224">
-        <v>0.004873393326910058</v>
       </c>
       <c r="BX224">
         <v>0.02134016993572629</v>
@@ -45366,7 +45366,7 @@
         <v>3632.614851063287</v>
       </c>
       <c r="DC224">
-        <v>2654.111924682588</v>
+        <v>2654.111924682587</v>
       </c>
     </row>
     <row r="225">
@@ -45413,10 +45413,10 @@
         <v>2734.204870175961</v>
       </c>
       <c r="U225">
-        <v>1870.472334736348</v>
+        <v>1870.47233473635</v>
       </c>
       <c r="V225">
-        <v>723.1363248170026</v>
+        <v>723.1363248170027</v>
       </c>
       <c r="W225">
         <v>4569.724044379658</v>
@@ -45449,16 +45449,16 @@
         <v>870.7424418384411</v>
       </c>
       <c r="AJ225">
-        <v>639.2028552364261</v>
+        <v>639.2028552364255</v>
       </c>
       <c r="AK225">
-        <v>1686.067122953431</v>
+        <v>1686.067122953433</v>
       </c>
       <c r="AL225">
-        <v>101.2433837589132</v>
+        <v>101.2433837589133</v>
       </c>
       <c r="AM225">
-        <v>25.85482113691589</v>
+        <v>25.8548211369159</v>
       </c>
       <c r="AN225">
         <v>981.2619951892857</v>
@@ -45533,25 +45533,25 @@
         <v>0.005616005616005726</v>
       </c>
       <c r="BQ225">
+        <v>0.005280606422179535</v>
+      </c>
+      <c r="BR225">
+        <v>0.007918427008111628</v>
+      </c>
+      <c r="BS225">
+        <v>0.004856739420501466</v>
+      </c>
+      <c r="BT225">
         <v>0.0110170624837751</v>
       </c>
-      <c r="BR225">
-        <v>0.0110170624837751</v>
-      </c>
-      <c r="BS225">
+      <c r="BU225">
         <v>0.01101706248377532</v>
       </c>
-      <c r="BT225">
+      <c r="BV225">
         <v>0.01101706248377532</v>
       </c>
-      <c r="BU225">
-        <v>0.005280606422179535</v>
-      </c>
-      <c r="BV225">
-        <v>0.007918427008111628</v>
-      </c>
       <c r="BW225">
-        <v>0.004856739420501466</v>
+        <v>0.01101706248377532</v>
       </c>
       <c r="BX225">
         <v>0.02265396907770323</v>
@@ -45694,10 +45694,10 @@
         <v>2802.590193057722</v>
       </c>
       <c r="U226">
-        <v>1890.163948882277</v>
+        <v>1890.163948882278</v>
       </c>
       <c r="V226">
-        <v>726.4556237977888</v>
+        <v>726.4556237977889</v>
       </c>
       <c r="W226">
         <v>4608.770948061766</v>
@@ -45730,13 +45730,13 @@
         <v>879.5597836386368</v>
       </c>
       <c r="AJ226">
-        <v>646.2254501454013</v>
+        <v>646.2254501454005</v>
       </c>
       <c r="AK226">
-        <v>1704.591080249372</v>
+        <v>1704.591080249374</v>
       </c>
       <c r="AL226">
-        <v>102.355693044656</v>
+        <v>102.3556930446561</v>
       </c>
       <c r="AM226">
         <v>26.138874835677</v>
@@ -45814,25 +45814,25 @@
         <v>0.005584642233857018</v>
       </c>
       <c r="BQ226">
+        <v>0.005349497728112329</v>
+      </c>
+      <c r="BR226">
+        <v>0.007907534504572267</v>
+      </c>
+      <c r="BS226">
+        <v>0.0048583156851707</v>
+      </c>
+      <c r="BT226">
+        <v>0.01098648864197815</v>
+      </c>
+      <c r="BU226">
+        <v>0.01098648864197815</v>
+      </c>
+      <c r="BV226">
         <v>0.01098648864197838</v>
       </c>
-      <c r="BR226">
-        <v>0.01098648864197838</v>
-      </c>
-      <c r="BS226">
-        <v>0.01098648864197838</v>
-      </c>
-      <c r="BT226">
-        <v>0.01098648864197838</v>
-      </c>
-      <c r="BU226">
-        <v>0.005349497728112329</v>
-      </c>
-      <c r="BV226">
-        <v>0.007907534504572267</v>
-      </c>
       <c r="BW226">
-        <v>0.0048583156851707</v>
+        <v>0.01098648864197815</v>
       </c>
       <c r="BX226">
         <v>0.02252639598181561</v>
@@ -45928,7 +45928,7 @@
         <v>3714.271951462992</v>
       </c>
       <c r="DC226">
-        <v>2786.541555145401</v>
+        <v>2786.5415551454</v>
       </c>
     </row>
     <row r="227">
@@ -45972,10 +45972,10 @@
         <v>4168.814497715043</v>
       </c>
       <c r="T227">
-        <v>2871.020277521764</v>
+        <v>2871.020277521763</v>
       </c>
       <c r="U227">
-        <v>1909.973633577542</v>
+        <v>1909.973633577543</v>
       </c>
       <c r="V227">
         <v>729.7820125686401</v>
@@ -46011,13 +46011,13 @@
         <v>887.6990075178636</v>
       </c>
       <c r="AJ227">
-        <v>653.2928066366572</v>
+        <v>653.2928066366566</v>
       </c>
       <c r="AK227">
-        <v>1723.233108094649</v>
+        <v>1723.233108094651</v>
       </c>
       <c r="AL227">
-        <v>103.4750921204637</v>
+        <v>103.4750921204638</v>
       </c>
       <c r="AM227">
         <v>26.42473907501095</v>
@@ -46095,25 +46095,25 @@
         <v>0.005553627212773193</v>
       </c>
       <c r="BQ227">
+        <v>0.00529809740029008</v>
+      </c>
+      <c r="BR227">
+        <v>0.00785853090722477</v>
+      </c>
+      <c r="BS227">
+        <v>0.004849237582313926</v>
+      </c>
+      <c r="BT227">
+        <v>0.01093636360138084</v>
+      </c>
+      <c r="BU227">
         <v>0.01093636360138062</v>
       </c>
-      <c r="BR227">
-        <v>0.01093636360138062</v>
-      </c>
-      <c r="BS227">
+      <c r="BV227">
         <v>0.01093636360138084</v>
       </c>
-      <c r="BT227">
-        <v>0.01093636360138062</v>
-      </c>
-      <c r="BU227">
-        <v>0.00529809740029008</v>
-      </c>
-      <c r="BV227">
-        <v>0.00785853090722477</v>
-      </c>
       <c r="BW227">
-        <v>0.004849237582313926</v>
+        <v>0.01093636360138084</v>
       </c>
       <c r="BX227">
         <v>0.02240025161078329</v>
@@ -46253,13 +46253,13 @@
         <v>4218.558798013613</v>
       </c>
       <c r="T228">
-        <v>2939.505070586371</v>
+        <v>2939.50507058637</v>
       </c>
       <c r="U228">
-        <v>1929.927626721996</v>
+        <v>1929.927626721998</v>
       </c>
       <c r="V228">
-        <v>733.1170666384594</v>
+        <v>733.1170666384595</v>
       </c>
       <c r="W228">
         <v>4690.882774538388</v>
@@ -46292,16 +46292,16 @@
         <v>896.5716001620206</v>
       </c>
       <c r="AJ228">
-        <v>660.4148717284789</v>
+        <v>660.414871728478</v>
       </c>
       <c r="AK228">
-        <v>1742.019444389116</v>
+        <v>1742.019444389118</v>
       </c>
       <c r="AL228">
-        <v>104.6031564952396</v>
+        <v>104.6031564952397</v>
       </c>
       <c r="AM228">
-        <v>26.71281619726725</v>
+        <v>26.71281619726726</v>
       </c>
       <c r="AN228">
         <v>1012.164244729747</v>
@@ -46376,25 +46376,25 @@
         <v>0.005522954780807776</v>
       </c>
       <c r="BQ228">
+        <v>0.005305132669470858</v>
+      </c>
+      <c r="BR228">
+        <v>0.007933469139841387</v>
+      </c>
+      <c r="BS228">
+        <v>0.004841011818470964</v>
+      </c>
+      <c r="BT228">
+        <v>0.01090179628410115</v>
+      </c>
+      <c r="BU228">
         <v>0.01090179628410137</v>
       </c>
-      <c r="BR228">
+      <c r="BV228">
+        <v>0.01090179628410115</v>
+      </c>
+      <c r="BW228">
         <v>0.01090179628410137</v>
-      </c>
-      <c r="BS228">
-        <v>0.01090179628410137</v>
-      </c>
-      <c r="BT228">
-        <v>0.01090179628410137</v>
-      </c>
-      <c r="BU228">
-        <v>0.005305132669470858</v>
-      </c>
-      <c r="BV228">
-        <v>0.007933469139841387</v>
-      </c>
-      <c r="BW228">
-        <v>0.004841011818470964</v>
       </c>
       <c r="BX228">
         <v>0.02227551209814171</v>
@@ -46490,7 +46490,7 @@
         <v>3805.62869866697</v>
       </c>
       <c r="DC228">
-        <v>2919.172612728479</v>
+        <v>2919.172612728478</v>
       </c>
     </row>
     <row r="229">
@@ -46534,13 +46534,13 @@
         <v>4267.490441952797</v>
       </c>
       <c r="T229">
-        <v>3008.0570060244</v>
+        <v>3008.057006024399</v>
       </c>
       <c r="U229">
-        <v>1947.418122222991</v>
+        <v>1947.418122222992</v>
       </c>
       <c r="V229">
-        <v>735.7330393190035</v>
+        <v>735.7330393190036</v>
       </c>
       <c r="W229">
         <v>4732.814409890942</v>
@@ -46573,13 +46573,13 @@
         <v>904.7887213064911</v>
       </c>
       <c r="AJ229">
-        <v>667.6040791937221</v>
+        <v>667.6040791937213</v>
       </c>
       <c r="AK229">
-        <v>1760.982886507588</v>
+        <v>1760.982886507589</v>
       </c>
       <c r="AL229">
-        <v>105.7418555551129</v>
+        <v>105.741855555113</v>
       </c>
       <c r="AM229">
         <v>27.00360913038282</v>
@@ -46657,25 +46657,25 @@
         <v>0.005492619292825074</v>
       </c>
       <c r="BQ229">
-        <v>0.01088589578006793</v>
+        <v>0.0053270255671658</v>
       </c>
       <c r="BR229">
-        <v>0.01088589578006816</v>
+        <v>0.007921302453546053</v>
       </c>
       <c r="BS229">
-        <v>0.01088589578006816</v>
+        <v>0.004831425804252776</v>
       </c>
       <c r="BT229">
         <v>0.01088589578006816</v>
       </c>
       <c r="BU229">
-        <v>0.0053270255671658</v>
+        <v>0.01088589578006793</v>
       </c>
       <c r="BV229">
-        <v>0.007921302453546053</v>
+        <v>0.01088589578006816</v>
       </c>
       <c r="BW229">
-        <v>0.004831425804252776</v>
+        <v>0.01088589578006816</v>
       </c>
       <c r="BX229">
         <v>0.02215215410603322</v>
@@ -46771,7 +46771,7 @@
         <v>3851.780444466433</v>
       </c>
       <c r="DC229">
-        <v>2983.241523443722</v>
+        <v>2983.241523443721</v>
       </c>
     </row>
     <row r="230">
@@ -46818,10 +46818,10 @@
         <v>3074.252781950398</v>
       </c>
       <c r="U230">
-        <v>1965.092283022953</v>
+        <v>1965.092283022954</v>
       </c>
       <c r="V230">
-        <v>738.3600405618708</v>
+        <v>738.360040561871</v>
       </c>
       <c r="W230">
         <v>4774.53999298132</v>
@@ -46854,16 +46854,16 @@
         <v>913.0685592536303</v>
       </c>
       <c r="AJ230">
-        <v>674.8629157869581</v>
+        <v>674.8629157869573</v>
       </c>
       <c r="AK230">
-        <v>1780.129993925028</v>
+        <v>1780.129993925029</v>
       </c>
       <c r="AL230">
-        <v>106.8915831773095</v>
+        <v>106.8915831773096</v>
       </c>
       <c r="AM230">
-        <v>27.29721845994502</v>
+        <v>27.29721845994503</v>
       </c>
       <c r="AN230">
         <v>1033.536226287649</v>
@@ -46938,25 +46938,25 @@
         <v>0.005462615227040057</v>
       </c>
       <c r="BQ230">
+        <v>0.005348301242839471</v>
+      </c>
+      <c r="BR230">
+        <v>0.007859204547876475</v>
+      </c>
+      <c r="BS230">
+        <v>0.004834328707909341</v>
+      </c>
+      <c r="BT230">
         <v>0.01087296620775979</v>
       </c>
-      <c r="BR230">
+      <c r="BU230">
         <v>0.01087296620775957</v>
       </c>
-      <c r="BS230">
+      <c r="BV230">
+        <v>0.01087296620775979</v>
+      </c>
+      <c r="BW230">
         <v>0.01087296620775957</v>
-      </c>
-      <c r="BT230">
-        <v>0.01087296620775957</v>
-      </c>
-      <c r="BU230">
-        <v>0.005348301242839471</v>
-      </c>
-      <c r="BV230">
-        <v>0.007859204547876475</v>
-      </c>
-      <c r="BW230">
-        <v>0.004834328707909341</v>
       </c>
       <c r="BX230">
         <v>0.02203015481066917</v>
@@ -47052,7 +47052,7 @@
         <v>3898.237424124799</v>
       </c>
       <c r="DC230">
-        <v>3047.380063286958</v>
+        <v>3047.380063286957</v>
       </c>
     </row>
     <row r="231">
@@ -47096,13 +47096,13 @@
         <v>4364.198396042354</v>
       </c>
       <c r="T231">
-        <v>3140.513213495246</v>
+        <v>3140.513213495245</v>
       </c>
       <c r="U231">
-        <v>1982.936990171958</v>
+        <v>1982.936990171959</v>
       </c>
       <c r="V231">
-        <v>740.9972826126096</v>
+        <v>740.9972826126098</v>
       </c>
       <c r="W231">
         <v>4816.986758989311</v>
@@ -47135,16 +47135,16 @@
         <v>922.1165875520156</v>
       </c>
       <c r="AJ231">
-        <v>682.1864079990441</v>
+        <v>682.1864079990434</v>
       </c>
       <c r="AK231">
-        <v>1799.44764769151</v>
+        <v>1799.447647691511</v>
       </c>
       <c r="AL231">
-        <v>108.0515516073776</v>
+        <v>108.0515516073777</v>
       </c>
       <c r="AM231">
-        <v>27.59344301477911</v>
+        <v>27.5934430147791</v>
       </c>
       <c r="AN231">
         <v>1044.346679521597</v>
@@ -47219,25 +47219,25 @@
         <v>0.005772495755517859</v>
       </c>
       <c r="BQ231">
+        <v>0.005351990730869893</v>
+      </c>
+      <c r="BR231">
+        <v>0.007881971946499533</v>
+      </c>
+      <c r="BS231">
+        <v>0.004826207588718656</v>
+      </c>
+      <c r="BT231">
         <v>0.01085182196379275</v>
       </c>
-      <c r="BR231">
+      <c r="BU231">
         <v>0.01085182196379275</v>
       </c>
-      <c r="BS231">
+      <c r="BV231">
         <v>0.01085182196379297</v>
       </c>
-      <c r="BT231">
-        <v>0.01085182196379297</v>
-      </c>
-      <c r="BU231">
-        <v>0.005351990730869893</v>
-      </c>
-      <c r="BV231">
-        <v>0.007881971946499533</v>
-      </c>
       <c r="BW231">
-        <v>0.004826207588718656</v>
+        <v>0.01085182196379275</v>
       </c>
       <c r="BX231">
         <v>0.02329068377354715</v>
@@ -47333,7 +47333,7 @@
         <v>3942.964162977977</v>
       </c>
       <c r="DC231">
-        <v>3111.583258749044</v>
+        <v>3111.583258749043</v>
       </c>
     </row>
     <row r="232">
@@ -47380,10 +47380,10 @@
         <v>3206.860681450084</v>
       </c>
       <c r="U232">
-        <v>2001.011278944673</v>
+        <v>2001.011278944674</v>
       </c>
       <c r="V232">
-        <v>743.6483103662525</v>
+        <v>743.6483103662526</v>
       </c>
       <c r="W232">
         <v>4859.433524997301</v>
@@ -47416,13 +47416,13 @@
         <v>930.5175197330805</v>
       </c>
       <c r="AJ232">
-        <v>689.5969366211212</v>
+        <v>689.5969366211204</v>
       </c>
       <c r="AK232">
-        <v>1818.994883081702</v>
+        <v>1818.994883081704</v>
       </c>
       <c r="AL232">
-        <v>109.2253057403498</v>
+        <v>109.2253057403499</v>
       </c>
       <c r="AM232">
         <v>27.89318806517149</v>
@@ -47500,25 +47500,25 @@
         <v>0.005401755570560551</v>
       </c>
       <c r="BQ232">
-        <v>0.01086290863491879</v>
+        <v>0.005314002348562719</v>
       </c>
       <c r="BR232">
-        <v>0.01086290863491879</v>
+        <v>0.007891736758132595</v>
       </c>
       <c r="BS232">
-        <v>0.01086290863491879</v>
+        <v>0.004817941848624274</v>
       </c>
       <c r="BT232">
         <v>0.01086290863491879</v>
       </c>
       <c r="BU232">
-        <v>0.005314002348562719</v>
+        <v>0.01086290863491879</v>
       </c>
       <c r="BV232">
-        <v>0.007891736758132595</v>
+        <v>0.01086290863491879</v>
       </c>
       <c r="BW232">
-        <v>0.004817941848624274</v>
+        <v>0.01086290863491879</v>
       </c>
       <c r="BX232">
         <v>0.02178272738362752</v>
@@ -47614,7 +47614,7 @@
         <v>3987.238030036545</v>
       </c>
       <c r="DC232">
-        <v>3175.873490621121</v>
+        <v>3175.87349062112</v>
       </c>
     </row>
     <row r="233">
@@ -47661,7 +47661,7 @@
         <v>3273.220583177779</v>
       </c>
       <c r="U233">
-        <v>2016.629143410273</v>
+        <v>2016.629143410274</v>
       </c>
       <c r="V233">
         <v>750.3981547671365</v>
@@ -47697,10 +47697,10 @@
         <v>939.7234321455406</v>
       </c>
       <c r="AJ233">
-        <v>697.0198990160541</v>
+        <v>697.0198990160533</v>
       </c>
       <c r="AK233">
-        <v>1838.574915846711</v>
+        <v>1838.574915846712</v>
       </c>
       <c r="AL233">
         <v>110.4010292594511</v>
@@ -47781,25 +47781,25 @@
         <v>0.005708529214237812</v>
       </c>
       <c r="BQ233">
-        <v>0.01076420442251935</v>
+        <v>0.005294042929165466</v>
       </c>
       <c r="BR233">
-        <v>0.01076420442251935</v>
+        <v>0.00789330463445026</v>
       </c>
       <c r="BS233">
-        <v>0.01076420442251935</v>
+        <v>0.004831132629393053</v>
       </c>
       <c r="BT233">
         <v>0.01076420442251935</v>
       </c>
       <c r="BU233">
-        <v>0.005294042929165466</v>
+        <v>0.01076420442251935</v>
       </c>
       <c r="BV233">
-        <v>0.00789330463445026</v>
+        <v>0.01076420442251935</v>
       </c>
       <c r="BW233">
-        <v>0.004831132629393053</v>
+        <v>0.01076420442251935</v>
       </c>
       <c r="BX233">
         <v>0.02303038585597106</v>
@@ -47895,7 +47895,7 @@
         <v>4075.016622531758</v>
       </c>
       <c r="DC233">
-        <v>3209.330105016054</v>
+        <v>3209.330105016053</v>
       </c>
     </row>
     <row r="234">
@@ -47939,13 +47939,13 @@
         <v>4587.379275669371</v>
       </c>
       <c r="T234">
-        <v>3307.469582447481</v>
+        <v>3307.46958244748</v>
       </c>
       <c r="U234">
-        <v>2031.853439378085</v>
+        <v>2031.853439378086</v>
       </c>
       <c r="V234">
-        <v>757.1243665344706</v>
+        <v>757.1243665344707</v>
       </c>
       <c r="W234">
         <v>4944.945213799807</v>
@@ -47978,13 +47978,13 @@
         <v>948.2683609986685</v>
       </c>
       <c r="AJ234">
-        <v>704.2936561367168</v>
+        <v>704.2936561367162</v>
       </c>
       <c r="AK234">
-        <v>1857.76138011393</v>
+        <v>1857.761380113931</v>
       </c>
       <c r="AL234">
-        <v>111.5531201450026</v>
+        <v>111.5531201450027</v>
       </c>
       <c r="AM234">
         <v>28.48764888658726</v>
@@ -48062,25 +48062,25 @@
         <v>0.005342237061769728</v>
       </c>
       <c r="BQ234">
-        <v>0.01043550855711683</v>
+        <v>0.005388942587977175</v>
       </c>
       <c r="BR234">
-        <v>0.01043550855711706</v>
+        <v>0.007782702368469563</v>
       </c>
       <c r="BS234">
-        <v>0.01043550855711706</v>
+        <v>0.004812461242434507</v>
       </c>
       <c r="BT234">
         <v>0.01043550855711706</v>
       </c>
       <c r="BU234">
-        <v>0.005388942587977175</v>
+        <v>0.01043550855711706</v>
       </c>
       <c r="BV234">
-        <v>0.007782702368469563</v>
+        <v>0.01043550855711706</v>
       </c>
       <c r="BW234">
-        <v>0.004812461242434507</v>
+        <v>0.01043550855711706</v>
       </c>
       <c r="BX234">
         <v>0.02154079590155722</v>
@@ -48176,7 +48176,7 @@
         <v>4157.944597197526</v>
       </c>
       <c r="DC234">
-        <v>3242.637514136717</v>
+        <v>3242.637514136716</v>
       </c>
     </row>
     <row r="235">
@@ -48220,13 +48220,13 @@
         <v>4669.086535752209</v>
       </c>
       <c r="T235">
-        <v>3341.522128106061</v>
+        <v>3341.52212810606</v>
       </c>
       <c r="U235">
-        <v>2046.559536823807</v>
+        <v>2046.559536823809</v>
       </c>
       <c r="V235">
-        <v>763.8194620009641</v>
+        <v>763.8194620009642</v>
       </c>
       <c r="W235">
         <v>4988.010136594322</v>
@@ -48259,16 +48259,16 @@
         <v>957.6343615651296</v>
       </c>
       <c r="AJ235">
-        <v>711.3709596462576</v>
+        <v>711.370959646257</v>
       </c>
       <c r="AK235">
-        <v>1876.42964585906</v>
+        <v>1876.429645859061</v>
       </c>
       <c r="AL235">
-        <v>112.6740947297136</v>
+        <v>112.6740947297137</v>
       </c>
       <c r="AM235">
-        <v>28.77391546827073</v>
+        <v>28.77391546827072</v>
       </c>
       <c r="AN235">
         <v>1088.050781575943</v>
@@ -48343,25 +48343,25 @@
         <v>0.00564596479574897</v>
       </c>
       <c r="BQ235">
-        <v>0.01004879633356648</v>
+        <v>0.00533397314748596</v>
       </c>
       <c r="BR235">
-        <v>0.01004879633356648</v>
+        <v>0.007875726512924119</v>
       </c>
       <c r="BS235">
-        <v>0.01004879633356648</v>
+        <v>0.004808407555258576</v>
       </c>
       <c r="BT235">
         <v>0.01004879633356648</v>
       </c>
       <c r="BU235">
-        <v>0.00533397314748596</v>
+        <v>0.01004879633356648</v>
       </c>
       <c r="BV235">
-        <v>0.007875726512924119</v>
+        <v>0.01004879633356648</v>
       </c>
       <c r="BW235">
-        <v>0.004808407555258576</v>
+        <v>0.01004879633356626</v>
       </c>
       <c r="BX235">
         <v>0.02277584161382085</v>
@@ -48501,10 +48501,10 @@
         <v>4746.073261626363</v>
       </c>
       <c r="T236">
-        <v>3375.512504900362</v>
+        <v>3375.512504900361</v>
       </c>
       <c r="U236">
-        <v>2061.101647395451</v>
+        <v>2061.101647395452</v>
       </c>
       <c r="V236">
         <v>770.5047105368121</v>
@@ -48540,16 +48540,16 @@
         <v>967.0807541678432</v>
       </c>
       <c r="AJ236">
-        <v>718.3860942915193</v>
+        <v>718.3860942915185</v>
       </c>
       <c r="AK236">
-        <v>1894.933924730111</v>
+        <v>1894.933924730112</v>
       </c>
       <c r="AL236">
-        <v>113.7852223837788</v>
+        <v>113.7852223837789</v>
       </c>
       <c r="AM236">
-        <v>29.05766741026969</v>
+        <v>29.05766741026968</v>
       </c>
       <c r="AN236">
         <v>1099.039038317027</v>
@@ -48624,25 +48624,25 @@
         <v>0.005284015852047519</v>
       </c>
       <c r="BQ236">
-        <v>0.009861429610157346</v>
+        <v>0.005371518023409294</v>
       </c>
       <c r="BR236">
-        <v>0.009861429610157124</v>
+        <v>0.007793086512110303</v>
       </c>
       <c r="BS236">
-        <v>0.009861429610157124</v>
+        <v>0.004811965145586017</v>
       </c>
       <c r="BT236">
         <v>0.009861429610157124</v>
       </c>
       <c r="BU236">
-        <v>0.005371518023409294</v>
+        <v>0.009861429610157124</v>
       </c>
       <c r="BV236">
-        <v>0.007793086512110303</v>
+        <v>0.009861429610157124</v>
       </c>
       <c r="BW236">
-        <v>0.004811965145586017</v>
+        <v>0.009861429610157124</v>
       </c>
       <c r="BX236">
         <v>0.02130417926520711</v>
@@ -48738,7 +48738,7 @@
         <v>4311.146914483914</v>
       </c>
       <c r="DC236">
-        <v>3308.797256291519</v>
+        <v>3308.797256291518</v>
       </c>
     </row>
     <row r="237">
@@ -48782,13 +48782,13 @@
         <v>4719.900978986762</v>
       </c>
       <c r="T237">
-        <v>3409.502881694662</v>
+        <v>3409.502881694661</v>
       </c>
       <c r="U237">
-        <v>2079.301745933582</v>
+        <v>2079.301745933583</v>
       </c>
       <c r="V237">
-        <v>775.8438202653326</v>
+        <v>775.8438202653327</v>
       </c>
       <c r="W237">
         <v>5074.346034445527</v>
@@ -48821,16 +48821,16 @@
         <v>975.8709903825484</v>
       </c>
       <c r="AJ237">
-        <v>725.4012289367807</v>
+        <v>725.4012289367799</v>
       </c>
       <c r="AK237">
-        <v>1913.438203601162</v>
+        <v>1913.438203601164</v>
       </c>
       <c r="AL237">
-        <v>114.8963500378441</v>
+        <v>114.8963500378442</v>
       </c>
       <c r="AM237">
-        <v>29.34141935226866</v>
+        <v>29.34141935226864</v>
       </c>
       <c r="AN237">
         <v>1110.06285575954</v>
@@ -48905,25 +48905,25 @@
         <v>0.005584756898817433</v>
       </c>
       <c r="BQ237">
-        <v>0.009765131453692621</v>
+        <v>0.005260470448521737</v>
       </c>
       <c r="BR237">
-        <v>0.009765131453692621</v>
+        <v>0.007825526846757747</v>
       </c>
       <c r="BS237">
-        <v>0.009765131453692621</v>
+        <v>0.004815838035924891</v>
       </c>
       <c r="BT237">
         <v>0.009765131453692621</v>
       </c>
       <c r="BU237">
-        <v>0.005260470448521737</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BV237">
-        <v>0.007825526846757747</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BW237">
-        <v>0.004815838035924891</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BX237">
         <v>0.02252686236908463</v>
@@ -49019,7 +49019,7 @@
         <v>4282.696574149915</v>
       </c>
       <c r="DC237">
-        <v>3343.712208686781</v>
+        <v>3343.71220868678</v>
       </c>
     </row>
     <row r="238">
@@ -49063,13 +49063,13 @@
         <v>4705.232094592178</v>
       </c>
       <c r="T238">
-        <v>3445.349830690202</v>
+        <v>3445.349830690201</v>
       </c>
       <c r="U238">
-        <v>2097.298500747854</v>
+        <v>2097.298500747856</v>
       </c>
       <c r="V238">
-        <v>781.1707197998525</v>
+        <v>781.1707197998526</v>
       </c>
       <c r="W238">
         <v>5117.720035633303</v>
@@ -49102,16 +49102,16 @@
         <v>985.472124041594</v>
       </c>
       <c r="AJ238">
-        <v>732.3392741903361</v>
+        <v>732.3392741903353</v>
       </c>
       <c r="AK238">
-        <v>1931.739138748356</v>
+        <v>1931.739138748357</v>
       </c>
       <c r="AL238">
-        <v>115.9952674979086</v>
+        <v>115.9952674979087</v>
       </c>
       <c r="AM238">
-        <v>29.62205314105884</v>
+        <v>29.62205314105883</v>
       </c>
       <c r="AN238">
         <v>1121.086673202052</v>
@@ -49186,25 +49186,25 @@
         <v>0.005553740607644464</v>
       </c>
       <c r="BQ238">
-        <v>0.009564424454759246</v>
+        <v>0.005354199170647167</v>
       </c>
       <c r="BR238">
-        <v>0.009564424454759246</v>
+        <v>0.007778657809615952</v>
       </c>
       <c r="BS238">
-        <v>0.009564424454759246</v>
+        <v>0.004813366632087535</v>
       </c>
       <c r="BT238">
         <v>0.009564424454759246</v>
       </c>
       <c r="BU238">
-        <v>0.005354199170647167</v>
+        <v>0.009564424454759246</v>
       </c>
       <c r="BV238">
-        <v>0.007778657809615952</v>
+        <v>0.009564424454759246</v>
       </c>
       <c r="BW238">
-        <v>0.004813366632087535</v>
+        <v>0.009564424454759246</v>
       </c>
       <c r="BX238">
         <v>0.02240071278942724</v>
@@ -49300,7 +49300,7 @@
         <v>4265.749632060934</v>
       </c>
       <c r="DC238">
-        <v>3378.550071690336</v>
+        <v>3378.550071690335</v>
       </c>
     </row>
     <row r="239">
@@ -49347,10 +49347,10 @@
         <v>3481.256461795449</v>
       </c>
       <c r="U239">
-        <v>2115.452682961243</v>
+        <v>2115.452682961245</v>
       </c>
       <c r="V239">
-        <v>786.5070723877923</v>
+        <v>786.5070723877924</v>
       </c>
       <c r="W239">
         <v>5161.403115214343</v>
@@ -49383,16 +49383,16 @@
         <v>994.3982597686056</v>
       </c>
       <c r="AJ239">
-        <v>739.3370015535995</v>
+        <v>739.3370015535987</v>
       </c>
       <c r="AK239">
-        <v>1950.197501294665</v>
+        <v>1950.197501294667</v>
       </c>
       <c r="AL239">
-        <v>117.1036380113931</v>
+        <v>117.1036380113932</v>
       </c>
       <c r="AM239">
-        <v>29.90510098394615</v>
+        <v>29.90510098394613</v>
       </c>
       <c r="AN239">
         <v>1132.181612047419</v>
@@ -49467,25 +49467,25 @@
         <v>0.005523066926575559</v>
       </c>
       <c r="BQ239">
-        <v>0.009555308051722333</v>
+        <v>0.00533435188942688</v>
       </c>
       <c r="BR239">
-        <v>0.009555308051722111</v>
+        <v>0.007796718513509715</v>
       </c>
       <c r="BS239">
-        <v>0.009555308051722333</v>
+        <v>0.004807316748978385</v>
       </c>
       <c r="BT239">
         <v>0.009555308051722333</v>
       </c>
       <c r="BU239">
-        <v>0.00533435188942688</v>
+        <v>0.009555308051722333</v>
       </c>
       <c r="BV239">
-        <v>0.007796718513509715</v>
+        <v>0.009555308051722333</v>
       </c>
       <c r="BW239">
-        <v>0.004807316748978385</v>
+        <v>0.009555308051722111</v>
       </c>
       <c r="BX239">
         <v>0.02227596815492605</v>
@@ -49625,13 +49625,13 @@
         <v>4713.908586965312</v>
       </c>
       <c r="T240">
-        <v>3517.207854482977</v>
+        <v>3517.207854482976</v>
       </c>
       <c r="U240">
-        <v>2133.724935723968</v>
+        <v>2133.72493572397</v>
       </c>
       <c r="V240">
-        <v>791.8505147657969</v>
+        <v>791.850514765797</v>
       </c>
       <c r="W240">
         <v>5204.777116402118</v>
@@ -49664,16 +49664,16 @@
         <v>1004.09845288792</v>
       </c>
       <c r="AJ240">
-        <v>746.3794904991438</v>
+        <v>746.3794904991432</v>
       </c>
       <c r="AK240">
-        <v>1968.773934390311</v>
+        <v>1968.773934390313</v>
       </c>
       <c r="AL240">
-        <v>118.2190983149424</v>
+        <v>118.2190983149426</v>
       </c>
       <c r="AM240">
-        <v>30.18995936740629</v>
+        <v>30.18995936740627</v>
       </c>
       <c r="AN240">
         <v>1143.134308087076</v>
@@ -49748,25 +49748,25 @@
         <v>0.005815831987076026</v>
       </c>
       <c r="BQ240">
-        <v>0.009525411186976473</v>
+        <v>0.005351358434948494</v>
       </c>
       <c r="BR240">
+        <v>0.007769019117373155</v>
+      </c>
+      <c r="BS240">
+        <v>0.004806150687212574</v>
+      </c>
+      <c r="BT240">
         <v>0.009525411186976696</v>
       </c>
-      <c r="BS240">
-        <v>0.009525411186976473</v>
-      </c>
-      <c r="BT240">
-        <v>0.009525411186976473</v>
-      </c>
       <c r="BU240">
-        <v>0.005351358434948494</v>
+        <v>0.009525411186976696</v>
       </c>
       <c r="BV240">
-        <v>0.007769019117373155</v>
+        <v>0.009525411186976696</v>
       </c>
       <c r="BW240">
-        <v>0.004806150687212574</v>
+        <v>0.009525411186976696</v>
       </c>
       <c r="BX240">
         <v>0.02346705935908955</v>
@@ -49862,7 +49862,7 @@
         <v>4269.870009045273</v>
       </c>
       <c r="DC240">
-        <v>3448.389923499144</v>
+        <v>3448.389923499143</v>
       </c>
     </row>
     <row r="241">
@@ -49906,13 +49906,13 @@
         <v>4831.547370297839</v>
       </c>
       <c r="T241">
-        <v>3553.206495507358</v>
+        <v>3553.206495507357</v>
       </c>
       <c r="U241">
-        <v>2152.425998843914</v>
+        <v>2152.425998843916</v>
       </c>
       <c r="V241">
-        <v>796.9953718262771</v>
+        <v>796.9953718262772</v>
       </c>
       <c r="W241">
         <v>5248.357169852069</v>
@@ -49945,16 +49945,16 @@
         <v>1013.845439796806</v>
       </c>
       <c r="AJ241">
-        <v>753.4692277815403</v>
+        <v>753.4692277815395</v>
       </c>
       <c r="AK241">
-        <v>1987.474997510257</v>
+        <v>1987.474997510259</v>
       </c>
       <c r="AL241">
-        <v>119.3420422857826</v>
+        <v>119.3420422857827</v>
       </c>
       <c r="AM241">
-        <v>30.47672887702665</v>
+        <v>30.47672887702664</v>
       </c>
       <c r="AN241">
         <v>1154.087004126733</v>
@@ -50029,25 +50029,25 @@
         <v>0.005460970125281017</v>
       </c>
       <c r="BQ241">
+        <v>0.005387634651406126</v>
+      </c>
+      <c r="BR241">
+        <v>0.007727534437687478</v>
+      </c>
+      <c r="BS241">
+        <v>0.004807759286974411</v>
+      </c>
+      <c r="BT241">
+        <v>0.00949883721705036</v>
+      </c>
+      <c r="BU241">
         <v>0.009498837217050582</v>
       </c>
-      <c r="BR241">
+      <c r="BV241">
         <v>0.009498837217050582</v>
       </c>
-      <c r="BS241">
+      <c r="BW241">
         <v>0.009498837217050582</v>
-      </c>
-      <c r="BT241">
-        <v>0.009498837217050582</v>
-      </c>
-      <c r="BU241">
-        <v>0.005387634651406126</v>
-      </c>
-      <c r="BV241">
-        <v>0.007727534437687478</v>
-      </c>
-      <c r="BW241">
-        <v>0.004807759286974411</v>
       </c>
       <c r="BX241">
         <v>0.0220234659912002</v>
@@ -50143,7 +50143,7 @@
         <v>4386.10355941756</v>
       </c>
       <c r="DC241">
-        <v>3483.19172478154</v>
+        <v>3483.191724781539</v>
       </c>
     </row>
     <row r="242">
@@ -50187,13 +50187,13 @@
         <v>4938.939382689393</v>
       </c>
       <c r="T242">
-        <v>3589.072760932159</v>
+        <v>3589.072760932158</v>
       </c>
       <c r="U242">
-        <v>2171.291048837939</v>
+        <v>2171.291048837941</v>
       </c>
       <c r="V242">
-        <v>802.1500758174031</v>
+        <v>802.1500758174033</v>
       </c>
       <c r="W242">
         <v>5292.555380088545</v>
@@ -50226,16 +50226,16 @@
         <v>1022.885432077503</v>
       </c>
       <c r="AJ242">
-        <v>760.6211339282162</v>
+        <v>760.6211339282153</v>
       </c>
       <c r="AK242">
-        <v>2006.340047504282</v>
+        <v>2006.340047504284</v>
       </c>
       <c r="AL242">
-        <v>120.4748331872685</v>
+        <v>120.4748331872686</v>
       </c>
       <c r="AM242">
-        <v>30.76601302633152</v>
+        <v>30.76601302633151</v>
       </c>
       <c r="AN242">
         <v>1165.1819429721</v>
@@ -50310,25 +50310,25 @@
         <v>0.005431309904153414</v>
       </c>
       <c r="BQ242">
-        <v>0.009491968461317724</v>
+        <v>0.005289830061614875</v>
       </c>
       <c r="BR242">
-        <v>0.009491968461317724</v>
+        <v>0.007763194306464216</v>
       </c>
       <c r="BS242">
-        <v>0.009491968461317724</v>
+        <v>0.00481078258466705</v>
       </c>
       <c r="BT242">
         <v>0.009491968461317724</v>
       </c>
       <c r="BU242">
-        <v>0.005289830061614875</v>
+        <v>0.009491968461317724</v>
       </c>
       <c r="BV242">
-        <v>0.007763194306464216</v>
+        <v>0.009491968461317724</v>
       </c>
       <c r="BW242">
-        <v>0.00481078258466705</v>
+        <v>0.009491968461317724</v>
       </c>
       <c r="BX242">
         <v>0.02190287612607045</v>
@@ -50424,7 +50424,7 @@
         <v>4491.948096043166</v>
       </c>
       <c r="DC242">
-        <v>3518.055694928216</v>
+        <v>3518.055694928215</v>
       </c>
     </row>
     <row r="243">
@@ -50468,13 +50468,13 @@
         <v>5030.347586451406</v>
       </c>
       <c r="T243">
-        <v>3624.978814430098</v>
+        <v>3624.978814430097</v>
       </c>
       <c r="U243">
-        <v>2190.261050431374</v>
+        <v>2190.261050431375</v>
       </c>
       <c r="V243">
-        <v>807.3110818441424</v>
+        <v>807.3110818441426</v>
       </c>
       <c r="W243">
         <v>5336.341485800672</v>
@@ -50507,16 +50507,16 @@
         <v>1032.70918970005</v>
       </c>
       <c r="AJ243">
-        <v>767.8128281480306</v>
+        <v>767.8128281480296</v>
       </c>
       <c r="AK243">
-        <v>2025.310049097717</v>
+        <v>2025.310049097718</v>
       </c>
       <c r="AL243">
-        <v>121.6139261243676</v>
+        <v>121.6139261243678</v>
       </c>
       <c r="AM243">
-        <v>31.05690654503447</v>
+        <v>31.05690654503445</v>
       </c>
       <c r="AN243">
         <v>1176.09907831033</v>
@@ -50591,25 +50591,25 @@
         <v>0.005719733079122991</v>
       </c>
       <c r="BQ243">
-        <v>0.009455028132958843</v>
+        <v>0.005378877548608996</v>
       </c>
       <c r="BR243">
-        <v>0.009455028132958843</v>
+        <v>0.007759251022763536</v>
       </c>
       <c r="BS243">
-        <v>0.009455028132958843</v>
+        <v>0.004810962817452857</v>
       </c>
       <c r="BT243">
         <v>0.009455028132958843</v>
       </c>
       <c r="BU243">
-        <v>0.005378877548608996</v>
+        <v>0.009455028132958621</v>
       </c>
       <c r="BV243">
-        <v>0.007759251022763536</v>
+        <v>0.009455028132958843</v>
       </c>
       <c r="BW243">
-        <v>0.004810962817452857</v>
+        <v>0.009455028132958843</v>
       </c>
       <c r="BX243">
         <v>0.02307597395796246</v>
@@ -50705,7 +50705,7 @@
         <v>4581.986627546366</v>
       </c>
       <c r="DC243">
-        <v>3552.959453148031</v>
+        <v>3552.95945314803</v>
       </c>
     </row>
     <row r="244">
@@ -50752,10 +50752,10 @@
         <v>3660.922169246604</v>
       </c>
       <c r="U244">
-        <v>2209.329444149256</v>
+        <v>2209.329444149258</v>
       </c>
       <c r="V244">
-        <v>812.4779960292691</v>
+        <v>812.4779960292693</v>
       </c>
       <c r="W244">
         <v>5380.333643774972</v>
@@ -50788,16 +50788,16 @@
         <v>1042.557002146181</v>
       </c>
       <c r="AJ244">
-        <v>775.0418236864123</v>
+        <v>775.0418236864115</v>
       </c>
       <c r="AK244">
-        <v>2044.378442815599</v>
+        <v>2044.3784428156</v>
       </c>
       <c r="AL244">
-        <v>122.7589272198542</v>
+        <v>122.7589272198544</v>
       </c>
       <c r="AM244">
-        <v>31.34930884754811</v>
+        <v>31.3493088475481</v>
       </c>
       <c r="AN244">
         <v>1187.087335051415</v>
@@ -50872,25 +50872,25 @@
         <v>0.005371248025276332</v>
       </c>
       <c r="BQ244">
-        <v>0.009415049180433899</v>
+        <v>0.005265899552212128</v>
       </c>
       <c r="BR244">
-        <v>0.009415049180434121</v>
+        <v>0.007782567668160878</v>
       </c>
       <c r="BS244">
-        <v>0.009415049180434121</v>
+        <v>0.004812751356425338</v>
       </c>
       <c r="BT244">
         <v>0.009415049180434121</v>
       </c>
       <c r="BU244">
-        <v>0.005265899552212128</v>
+        <v>0.009415049180434121</v>
       </c>
       <c r="BV244">
-        <v>0.007782567668160878</v>
+        <v>0.009415049180434121</v>
       </c>
       <c r="BW244">
-        <v>0.004812751356425338</v>
+        <v>0.009415049180434121</v>
       </c>
       <c r="BX244">
         <v>0.02165871461412228</v>
@@ -51033,16 +51033,16 @@
         <v>1052.437608556385</v>
       </c>
       <c r="AJ245">
-        <v>782.313094052504</v>
+        <v>782.3130940525032</v>
       </c>
       <c r="AK245">
-        <v>2063.558347607855</v>
+        <v>2063.558347607856</v>
       </c>
       <c r="AL245">
-        <v>123.9106242281799</v>
+        <v>123.9106242281801</v>
       </c>
       <c r="AM245">
-        <v>31.64342110504722</v>
+        <v>31.6434211050472</v>
       </c>
       <c r="AN245">
         <v>1198.075591792499</v>
@@ -51111,25 +51111,25 @@
         <v>0.00565681961030795</v>
       </c>
       <c r="BQ245">
-        <v>0.009381778045869371</v>
+        <v>0.005439619606030011</v>
       </c>
       <c r="BR245">
-        <v>0.009381778045869371</v>
+        <v>0.007745763876292555</v>
       </c>
       <c r="BS245">
-        <v>0.009381778045869371</v>
+        <v>0.00481098007921954</v>
       </c>
       <c r="BT245">
         <v>0.009381778045869371</v>
       </c>
       <c r="BU245">
-        <v>0.005439619606030011</v>
+        <v>0.009381778045869371</v>
       </c>
       <c r="BV245">
-        <v>0.007745763876292555</v>
+        <v>0.009381778045869371</v>
       </c>
       <c r="BW245">
-        <v>0.00481098007921954</v>
+        <v>0.009381778045869371</v>
       </c>
       <c r="CI245">
         <v>0</v>

--- a/results/12-2020/xx.xlsx
+++ b/results/12-2020/xx.xlsx
@@ -915,7 +915,7 @@
         <v>21.286</v>
       </c>
       <c r="E2">
-        <v>631.7</v>
+        <v>631.7000000000001</v>
       </c>
       <c r="F2">
         <v>3065.1</v>
@@ -1163,7 +1163,7 @@
         <v>117.4</v>
       </c>
       <c r="AB3">
-        <v>695.2</v>
+        <v>695.2000000000001</v>
       </c>
       <c r="AC3">
         <v>838.9</v>
@@ -1342,7 +1342,7 @@
         <v>122.2</v>
       </c>
       <c r="AB4">
-        <v>686.7</v>
+        <v>686.7000000000001</v>
       </c>
       <c r="AC4">
         <v>858.1</v>
@@ -1452,7 +1452,7 @@
         <v>22.055</v>
       </c>
       <c r="E5">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="F5">
         <v>3097.5</v>
@@ -1631,7 +1631,7 @@
         <v>22.389</v>
       </c>
       <c r="E6">
-        <v>679.2</v>
+        <v>679.2000000000001</v>
       </c>
       <c r="F6">
         <v>3157</v>
@@ -1810,7 +1810,7 @@
         <v>22.689</v>
       </c>
       <c r="E7">
-        <v>693.2</v>
+        <v>693.2000000000001</v>
       </c>
       <c r="F7">
         <v>3186</v>
@@ -2168,7 +2168,7 @@
         <v>23.107</v>
       </c>
       <c r="E9">
-        <v>721.7</v>
+        <v>721.7000000000001</v>
       </c>
       <c r="F9">
         <v>3264.7</v>
@@ -2318,7 +2318,7 @@
         <v>0.569081404</v>
       </c>
       <c r="CX9">
-        <v>4.154294249199999</v>
+        <v>4.1542942492</v>
       </c>
       <c r="CY9">
         <v>3.1457057508</v>
@@ -2416,7 +2416,7 @@
         <v>140.8</v>
       </c>
       <c r="AB10">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AC10">
         <v>888.8</v>
@@ -2509,7 +2509,7 @@
         <v>22.8661111416</v>
       </c>
       <c r="DB10">
-        <v>68.5338888584</v>
+        <v>68.53388885840001</v>
       </c>
     </row>
     <row r="11">
@@ -2855,7 +2855,7 @@
         <v>0.546908828</v>
       </c>
       <c r="CX12">
-        <v>4.703415920799999</v>
+        <v>4.7034159208</v>
       </c>
       <c r="CY12">
         <v>3.8965840792</v>
@@ -2956,7 +2956,7 @@
         <v>617.9</v>
       </c>
       <c r="AC13">
-        <v>906.7</v>
+        <v>906.7000000000001</v>
       </c>
       <c r="AD13">
         <v>105.3</v>
@@ -3848,7 +3848,7 @@
         <v>171.9</v>
       </c>
       <c r="AB18">
-        <v>609.7</v>
+        <v>609.7000000000001</v>
       </c>
       <c r="AC18">
         <v>944.9</v>
@@ -4388,7 +4388,7 @@
         <v>617.6</v>
       </c>
       <c r="AC21">
-        <v>955.2</v>
+        <v>955.2000000000001</v>
       </c>
       <c r="AD21">
         <v>132</v>
@@ -4495,7 +4495,7 @@
         <v>29.142</v>
       </c>
       <c r="E22">
-        <v>985.2</v>
+        <v>985.2000000000001</v>
       </c>
       <c r="F22">
         <v>3540.6</v>
@@ -5101,7 +5101,7 @@
         <v>214.8</v>
       </c>
       <c r="AB25">
-        <v>622.7</v>
+        <v>622.7000000000001</v>
       </c>
       <c r="AC25">
         <v>1002.1</v>
@@ -5817,7 +5817,7 @@
         <v>220.6</v>
       </c>
       <c r="AB29">
-        <v>616.7</v>
+        <v>616.7000000000001</v>
       </c>
       <c r="AC29">
         <v>986</v>
@@ -6262,7 +6262,7 @@
         <v>7.5836005525</v>
       </c>
       <c r="CZ31">
-        <v>43.7836005525</v>
+        <v>43.78360055250001</v>
       </c>
       <c r="DA31">
         <v>39.3596005525</v>
@@ -6533,7 +6533,7 @@
         <v>240.5</v>
       </c>
       <c r="AB33">
-        <v>630.7</v>
+        <v>630.7000000000001</v>
       </c>
       <c r="AC33">
         <v>1002.4</v>
@@ -7106,7 +7106,7 @@
         <v>3.5</v>
       </c>
       <c r="AN36">
-        <v>49.67599999999999</v>
+        <v>49.676</v>
       </c>
       <c r="AO36">
         <v>313.5</v>
@@ -7786,7 +7786,7 @@
         <v>289.4</v>
       </c>
       <c r="AB40">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="AC40">
         <v>1049.6</v>
@@ -8234,7 +8234,7 @@
         <v>53.647165036</v>
       </c>
       <c r="DA42">
-        <v>47.351165036</v>
+        <v>47.35116503600001</v>
       </c>
       <c r="DB42">
         <v>203.848834964</v>
@@ -8487,7 +8487,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="W44">
-        <v>592.2</v>
+        <v>592.2000000000001</v>
       </c>
       <c r="X44">
         <v>168</v>
@@ -8950,7 +8950,7 @@
         <v>56.721137037</v>
       </c>
       <c r="DA46">
-        <v>56.38113703699999</v>
+        <v>56.381137037</v>
       </c>
       <c r="DB46">
         <v>239.718862963</v>
@@ -9024,7 +9024,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="W47">
-        <v>648.7</v>
+        <v>648.7000000000001</v>
       </c>
       <c r="X47">
         <v>194.8</v>
@@ -9382,7 +9382,7 @@
         <v>58.9</v>
       </c>
       <c r="W49">
-        <v>677.7</v>
+        <v>677.7000000000001</v>
       </c>
       <c r="X49">
         <v>202.2</v>
@@ -9886,13 +9886,13 @@
         <v>45.84</v>
       </c>
       <c r="L52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="O52">
         <v>51.8</v>
@@ -10021,7 +10021,7 @@
         <v>13.6320139956</v>
       </c>
       <c r="CZ52">
-        <v>48.43201399559999</v>
+        <v>48.4320139956</v>
       </c>
       <c r="DA52">
         <v>70.05201399559999</v>
@@ -10635,7 +10635,7 @@
         <v>70.7</v>
       </c>
       <c r="W56">
-        <v>782.2</v>
+        <v>782.2000000000001</v>
       </c>
       <c r="X56">
         <v>228.9</v>
@@ -10650,7 +10650,7 @@
         <v>387.8</v>
       </c>
       <c r="AB56">
-        <v>808.7</v>
+        <v>808.7000000000001</v>
       </c>
       <c r="AC56">
         <v>1043.2</v>
@@ -11008,7 +11008,7 @@
         <v>401.6</v>
       </c>
       <c r="AB58">
-        <v>789.2</v>
+        <v>789.2000000000001</v>
       </c>
       <c r="AC58">
         <v>1057.1</v>
@@ -11318,7 +11318,7 @@
         <v>46.312</v>
       </c>
       <c r="L60">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="M60">
         <v>0.71</v>
@@ -11351,7 +11351,7 @@
         <v>71.3</v>
       </c>
       <c r="W60">
-        <v>835.7</v>
+        <v>835.7000000000001</v>
       </c>
       <c r="X60">
         <v>261.8</v>
@@ -11763,7 +11763,7 @@
         <v>89.304</v>
       </c>
       <c r="AO62">
-        <v>542.7</v>
+        <v>542.7000000000001</v>
       </c>
       <c r="AR62">
         <v>17.044</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="CL62">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CX62">
         <v>21.193775808</v>
@@ -11939,10 +11939,10 @@
         <v>4.8</v>
       </c>
       <c r="AN63">
-        <v>90.73999999999999</v>
+        <v>90.74</v>
       </c>
       <c r="AO63">
-        <v>557.7</v>
+        <v>557.7000000000001</v>
       </c>
       <c r="AR63">
         <v>19.408</v>
@@ -11981,13 +11981,13 @@
         <v>0</v>
       </c>
       <c r="CL63">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CX63">
         <v>21.635312804</v>
       </c>
       <c r="CY63">
-        <v>17.564687196</v>
+        <v>17.56468719600001</v>
       </c>
       <c r="CZ63">
         <v>53.664687196</v>
@@ -12037,7 +12037,7 @@
         <v>1.93</v>
       </c>
       <c r="M64">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="N64">
         <v>1.26</v>
@@ -12082,7 +12082,7 @@
         <v>464.3</v>
       </c>
       <c r="AB64">
-        <v>894.2</v>
+        <v>894.2000000000001</v>
       </c>
       <c r="AC64">
         <v>1152.7</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="CL64">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CX64">
         <v>22.1320419245</v>
@@ -12169,7 +12169,7 @@
         <v>17.9679580755</v>
       </c>
       <c r="CZ64">
-        <v>54.2679580755</v>
+        <v>54.26795807550001</v>
       </c>
       <c r="DA64">
         <v>70.4839580755</v>
@@ -12261,7 +12261,7 @@
         <v>472.1</v>
       </c>
       <c r="AB65">
-        <v>894.7</v>
+        <v>894.7000000000001</v>
       </c>
       <c r="AC65">
         <v>1161.5</v>
@@ -12300,7 +12300,7 @@
         <v>94.88799999999999</v>
       </c>
       <c r="AO65">
-        <v>582.2</v>
+        <v>582.2000000000001</v>
       </c>
       <c r="AR65">
         <v>21.184</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="CL65">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CX65">
         <v>22.6839631695</v>
@@ -12440,7 +12440,7 @@
         <v>482.8</v>
       </c>
       <c r="AB66">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AC66">
         <v>1182.9</v>
@@ -13601,13 +13601,13 @@
         <v>21.6054430768</v>
       </c>
       <c r="CZ72">
-        <v>51.4054430768</v>
+        <v>51.40544307680001</v>
       </c>
       <c r="DA72">
         <v>78.79744307679999</v>
       </c>
       <c r="DB72">
-        <v>370.7025569231999</v>
+        <v>370.7025569232</v>
       </c>
     </row>
     <row r="73">
@@ -13687,13 +13687,13 @@
         <v>56.718</v>
       </c>
       <c r="Z73">
-        <v>513.7</v>
+        <v>513.7000000000001</v>
       </c>
       <c r="AA73">
         <v>542.3</v>
       </c>
       <c r="AB73">
-        <v>975.7</v>
+        <v>975.7000000000001</v>
       </c>
       <c r="AC73">
         <v>1238.9</v>
@@ -13872,7 +13872,7 @@
         <v>551.1</v>
       </c>
       <c r="AB74">
-        <v>947.7</v>
+        <v>947.7000000000001</v>
       </c>
       <c r="AC74">
         <v>1252.6</v>
@@ -14269,7 +14269,7 @@
         <v>112.276</v>
       </c>
       <c r="AO76">
-        <v>703.2</v>
+        <v>703.2000000000001</v>
       </c>
       <c r="AR76">
         <v>20.388</v>
@@ -14385,7 +14385,7 @@
         <v>15.4</v>
       </c>
       <c r="T77">
-        <v>517.2</v>
+        <v>517.2000000000001</v>
       </c>
       <c r="U77">
         <v>382.6</v>
@@ -14546,7 +14546,7 @@
         <v>0.35</v>
       </c>
       <c r="N78">
-        <v>-0.6899999999999999</v>
+        <v>-0.69</v>
       </c>
       <c r="O78">
         <v>93.8</v>
@@ -14585,7 +14585,7 @@
         <v>519.9</v>
       </c>
       <c r="AA78">
-        <v>596.7</v>
+        <v>596.7000000000001</v>
       </c>
       <c r="AB78">
         <v>944.5</v>
@@ -14737,13 +14737,13 @@
         <v>13.7</v>
       </c>
       <c r="R79">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="S79">
         <v>16.3</v>
       </c>
       <c r="T79">
-        <v>566.7</v>
+        <v>566.7000000000001</v>
       </c>
       <c r="U79">
         <v>397.5</v>
@@ -14767,7 +14767,7 @@
         <v>611.5</v>
       </c>
       <c r="AB79">
-        <v>963.7</v>
+        <v>963.7000000000001</v>
       </c>
       <c r="AC79">
         <v>1314.2</v>
@@ -14916,7 +14916,7 @@
         <v>14.6</v>
       </c>
       <c r="R80">
-        <v>524.7</v>
+        <v>524.7000000000001</v>
       </c>
       <c r="S80">
         <v>16.7</v>
@@ -14943,7 +14943,7 @@
         <v>541.4</v>
       </c>
       <c r="AA80">
-        <v>623.2</v>
+        <v>623.2000000000001</v>
       </c>
       <c r="AB80">
         <v>971.6</v>
@@ -15039,7 +15039,7 @@
         <v>90.172442221</v>
       </c>
       <c r="DB80">
-        <v>434.5275577789999</v>
+        <v>434.527557779</v>
       </c>
     </row>
     <row r="81">
@@ -15122,7 +15122,7 @@
         <v>540.8</v>
       </c>
       <c r="AA81">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AB81">
         <v>967.1</v>
@@ -15259,7 +15259,7 @@
         <v>1.33</v>
       </c>
       <c r="M82">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="N82">
         <v>0.63</v>
@@ -15274,7 +15274,7 @@
         <v>16.4</v>
       </c>
       <c r="R82">
-        <v>556.2</v>
+        <v>556.2000000000001</v>
       </c>
       <c r="S82">
         <v>17.3</v>
@@ -15298,13 +15298,13 @@
         <v>62.319</v>
       </c>
       <c r="Z82">
-        <v>553.7</v>
+        <v>553.7000000000001</v>
       </c>
       <c r="AA82">
         <v>658.8</v>
       </c>
       <c r="AB82">
-        <v>983.2</v>
+        <v>983.2000000000001</v>
       </c>
       <c r="AC82">
         <v>1365.4</v>
@@ -15590,7 +15590,7 @@
         <v>9398.5</v>
       </c>
       <c r="D84">
-        <v>64.004</v>
+        <v>64.00400000000001</v>
       </c>
       <c r="E84">
         <v>3846.7</v>
@@ -15638,7 +15638,7 @@
         <v>18.7</v>
       </c>
       <c r="T84">
-        <v>600.7</v>
+        <v>600.7000000000001</v>
       </c>
       <c r="U84">
         <v>426.8</v>
@@ -15656,7 +15656,7 @@
         <v>63.685</v>
       </c>
       <c r="Z84">
-        <v>562.2</v>
+        <v>562.2000000000001</v>
       </c>
       <c r="AA84">
         <v>680.3</v>
@@ -15769,7 +15769,7 @@
         <v>9312.9</v>
       </c>
       <c r="D85">
-        <v>64.49299999999999</v>
+        <v>64.493</v>
       </c>
       <c r="E85">
         <v>3867.9</v>
@@ -15835,7 +15835,7 @@
         <v>64.527</v>
       </c>
       <c r="Z85">
-        <v>569.7</v>
+        <v>569.7000000000001</v>
       </c>
       <c r="AA85">
         <v>698.8</v>
@@ -15948,7 +15948,7 @@
         <v>9269.4</v>
       </c>
       <c r="D86">
-        <v>65.12</v>
+        <v>65.12000000000001</v>
       </c>
       <c r="E86">
         <v>3873.6</v>
@@ -16354,7 +16354,7 @@
         <v>23.1</v>
       </c>
       <c r="T88">
-        <v>590.2</v>
+        <v>590.2000000000001</v>
       </c>
       <c r="U88">
         <v>461.3</v>
@@ -16396,7 +16396,7 @@
         <v>423.7</v>
       </c>
       <c r="AH88">
-        <v>469.736</v>
+        <v>469.7360000000001</v>
       </c>
       <c r="AI88">
         <v>127</v>
@@ -16417,7 +16417,7 @@
         <v>183.964</v>
       </c>
       <c r="AO88">
-        <v>919.2</v>
+        <v>919.2000000000001</v>
       </c>
       <c r="AR88">
         <v>21.056</v>
@@ -16515,7 +16515,7 @@
         <v>0.33</v>
       </c>
       <c r="N89">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="O89">
         <v>122.5</v>
@@ -16533,7 +16533,7 @@
         <v>24.2</v>
       </c>
       <c r="T89">
-        <v>598.7</v>
+        <v>598.7000000000001</v>
       </c>
       <c r="U89">
         <v>471.5</v>
@@ -16664,7 +16664,7 @@
         <v>9534.299999999999</v>
       </c>
       <c r="D90">
-        <v>66.74299999999999</v>
+        <v>66.743</v>
       </c>
       <c r="E90">
         <v>4100.4</v>
@@ -16852,7 +16852,7 @@
         <v>6203.2</v>
       </c>
       <c r="G91">
-        <v>66.998</v>
+        <v>66.99800000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -16891,7 +16891,7 @@
         <v>25.8</v>
       </c>
       <c r="T91">
-        <v>607.2</v>
+        <v>607.2000000000001</v>
       </c>
       <c r="U91">
         <v>481.2</v>
@@ -16933,7 +16933,7 @@
         <v>445.1</v>
       </c>
       <c r="AH91">
-        <v>525.0839999999999</v>
+        <v>525.084</v>
       </c>
       <c r="AI91">
         <v>139</v>
@@ -16954,7 +16954,7 @@
         <v>204.016</v>
       </c>
       <c r="AO91">
-        <v>975.2</v>
+        <v>975.2000000000001</v>
       </c>
       <c r="AR91">
         <v>22.8</v>
@@ -17070,7 +17070,7 @@
         <v>26.4</v>
       </c>
       <c r="T92">
-        <v>616.2</v>
+        <v>616.2000000000001</v>
       </c>
       <c r="U92">
         <v>486</v>
@@ -17088,7 +17088,7 @@
         <v>67.419</v>
       </c>
       <c r="Z92">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA92">
         <v>759.8</v>
@@ -17133,7 +17133,7 @@
         <v>211.16</v>
       </c>
       <c r="AO92">
-        <v>988.2</v>
+        <v>988.2000000000001</v>
       </c>
       <c r="AR92">
         <v>22.288</v>
@@ -17452,7 +17452,7 @@
         <v>771.5</v>
       </c>
       <c r="AB94">
-        <v>942.2</v>
+        <v>942.2000000000001</v>
       </c>
       <c r="AC94">
         <v>1438.9</v>
@@ -17607,7 +17607,7 @@
         <v>35.5</v>
       </c>
       <c r="R95">
-        <v>771.7</v>
+        <v>771.7000000000001</v>
       </c>
       <c r="S95">
         <v>28.3</v>
@@ -17631,7 +17631,7 @@
         <v>68.753</v>
       </c>
       <c r="Z95">
-        <v>576.7</v>
+        <v>576.7000000000001</v>
       </c>
       <c r="AA95">
         <v>782.3</v>
@@ -17798,7 +17798,7 @@
         <v>28.7</v>
       </c>
       <c r="T96">
-        <v>659.2</v>
+        <v>659.2000000000001</v>
       </c>
       <c r="U96">
         <v>504.9</v>
@@ -17816,10 +17816,10 @@
         <v>69.05200000000001</v>
       </c>
       <c r="Z96">
-        <v>578.7</v>
+        <v>578.7000000000001</v>
       </c>
       <c r="AA96">
-        <v>788.7</v>
+        <v>788.7000000000001</v>
       </c>
       <c r="AB96">
         <v>928.8</v>
@@ -17864,7 +17864,7 @@
         <v>1028.1</v>
       </c>
       <c r="AP96">
-        <v>85.251</v>
+        <v>85.25100000000001</v>
       </c>
       <c r="AQ96">
         <v>80.604</v>
@@ -17935,7 +17935,7 @@
         <v>10091</v>
       </c>
       <c r="D97">
-        <v>69.495</v>
+        <v>69.49500000000001</v>
       </c>
       <c r="E97">
         <v>4552.7</v>
@@ -18168,7 +18168,7 @@
         <v>30.1</v>
       </c>
       <c r="T98">
-        <v>673.7</v>
+        <v>673.7000000000001</v>
       </c>
       <c r="U98">
         <v>531.5</v>
@@ -18198,7 +18198,7 @@
         <v>1471.3</v>
       </c>
       <c r="AD98">
-        <v>526.7</v>
+        <v>526.7000000000001</v>
       </c>
       <c r="AE98">
         <v>75.5</v>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="CL98">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CX98">
         <v>78.94799999999999</v>
@@ -18461,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="CL99">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CX99">
         <v>81.77200000000001</v>
@@ -18568,7 +18568,7 @@
         <v>1505.6</v>
       </c>
       <c r="AD100">
-        <v>544.2</v>
+        <v>544.2000000000001</v>
       </c>
       <c r="AE100">
         <v>80.5</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="CL100">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CX100">
         <v>82.892</v>
@@ -18747,7 +18747,7 @@
         <v>847.1</v>
       </c>
       <c r="AB101">
-        <v>891.7</v>
+        <v>891.7000000000001</v>
       </c>
       <c r="AC101">
         <v>1511.1</v>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="CL101">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CX101">
         <v>85.54000000000001</v>
@@ -18860,7 +18860,7 @@
         <v>10543.6</v>
       </c>
       <c r="D102">
-        <v>71.35599999999999</v>
+        <v>71.356</v>
       </c>
       <c r="E102">
         <v>4862.4</v>
@@ -18872,7 +18872,7 @@
         <v>71.274</v>
       </c>
       <c r="H102">
-        <v>65.11499999999999</v>
+        <v>65.115</v>
       </c>
       <c r="I102">
         <v>56.378</v>
@@ -18920,7 +18920,7 @@
         <v>1437.6</v>
       </c>
       <c r="X102">
-        <v>528.2</v>
+        <v>528.2000000000001</v>
       </c>
       <c r="Y102">
         <v>71.27</v>
@@ -18932,13 +18932,13 @@
         <v>858.5</v>
       </c>
       <c r="AB102">
-        <v>889.2</v>
+        <v>889.2000000000001</v>
       </c>
       <c r="AC102">
         <v>1522.9</v>
       </c>
       <c r="AD102">
-        <v>567.7</v>
+        <v>567.7000000000001</v>
       </c>
       <c r="AE102">
         <v>76.59999999999999</v>
@@ -18947,7 +18947,7 @@
         <v>155.3</v>
       </c>
       <c r="AG102">
-        <v>514.2</v>
+        <v>514.2000000000001</v>
       </c>
       <c r="AH102">
         <v>617.456</v>
@@ -19105,7 +19105,7 @@
         <v>1452.9</v>
       </c>
       <c r="X103">
-        <v>532.7</v>
+        <v>532.7000000000001</v>
       </c>
       <c r="Y103">
         <v>71.685</v>
@@ -19117,7 +19117,7 @@
         <v>871.9</v>
       </c>
       <c r="AB103">
-        <v>886.2</v>
+        <v>886.2000000000001</v>
       </c>
       <c r="AC103">
         <v>1534.9</v>
@@ -19159,7 +19159,7 @@
         <v>1132.8</v>
       </c>
       <c r="AP103">
-        <v>94.48399999999999</v>
+        <v>94.484</v>
       </c>
       <c r="AQ103">
         <v>90.54000000000001</v>
@@ -19216,7 +19216,7 @@
         <v>151.016</v>
       </c>
       <c r="DB103">
-        <v>714.5839999999999</v>
+        <v>714.584</v>
       </c>
     </row>
     <row r="104">
@@ -19239,7 +19239,7 @@
         <v>6944.7</v>
       </c>
       <c r="G104">
-        <v>71.98099999999999</v>
+        <v>71.981</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -19272,13 +19272,13 @@
         <v>22</v>
       </c>
       <c r="R104">
-        <v>870.7</v>
+        <v>870.7000000000001</v>
       </c>
       <c r="S104">
         <v>32.9</v>
       </c>
       <c r="T104">
-        <v>752.2</v>
+        <v>752.2000000000001</v>
       </c>
       <c r="U104">
         <v>558.9</v>
@@ -19642,13 +19642,13 @@
         <v>23</v>
       </c>
       <c r="R106">
-        <v>893.2</v>
+        <v>893.2000000000001</v>
       </c>
       <c r="S106">
         <v>34</v>
       </c>
       <c r="T106">
-        <v>801.7</v>
+        <v>801.7000000000001</v>
       </c>
       <c r="U106">
         <v>570.4</v>
@@ -19690,7 +19690,7 @@
         <v>532.9</v>
       </c>
       <c r="AH106">
-        <v>652.724</v>
+        <v>652.7240000000001</v>
       </c>
       <c r="AI106">
         <v>177.1</v>
@@ -19836,7 +19836,7 @@
         <v>839.6</v>
       </c>
       <c r="U107">
-        <v>577.7</v>
+        <v>577.7000000000001</v>
       </c>
       <c r="V107">
         <v>205.5</v>
@@ -19872,7 +19872,7 @@
         <v>171.9</v>
       </c>
       <c r="AG107">
-        <v>541.7</v>
+        <v>541.7000000000001</v>
       </c>
       <c r="AH107">
         <v>658.652</v>
@@ -19902,7 +19902,7 @@
         <v>102.461</v>
       </c>
       <c r="AQ107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="AR107">
         <v>27.904</v>
@@ -19944,7 +19944,7 @@
         <v>0.598665966</v>
       </c>
       <c r="CX107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="CY107">
         <v>69.42400000000001</v>
@@ -20048,7 +20048,7 @@
         <v>1577.1</v>
       </c>
       <c r="AD108">
-        <v>674.2</v>
+        <v>674.2000000000001</v>
       </c>
       <c r="AE108">
         <v>71.7</v>
@@ -20197,7 +20197,7 @@
         <v>21.7</v>
       </c>
       <c r="R109">
-        <v>910.7</v>
+        <v>910.7000000000001</v>
       </c>
       <c r="S109">
         <v>35.8</v>
@@ -20206,7 +20206,7 @@
         <v>863.5</v>
       </c>
       <c r="U109">
-        <v>593.2</v>
+        <v>593.2000000000001</v>
       </c>
       <c r="V109">
         <v>208.6</v>
@@ -20218,7 +20218,7 @@
         <v>569.4</v>
       </c>
       <c r="Y109">
-        <v>73.995</v>
+        <v>73.99500000000001</v>
       </c>
       <c r="Z109">
         <v>576.9</v>
@@ -20269,7 +20269,7 @@
         <v>1192</v>
       </c>
       <c r="AP109">
-        <v>97.60899999999999</v>
+        <v>97.609</v>
       </c>
       <c r="AQ109">
         <v>93.892</v>
@@ -20391,7 +20391,7 @@
         <v>902.1</v>
       </c>
       <c r="U110">
-        <v>595.7</v>
+        <v>595.7000000000001</v>
       </c>
       <c r="V110">
         <v>210</v>
@@ -20406,13 +20406,13 @@
         <v>74.32299999999999</v>
       </c>
       <c r="Z110">
-        <v>570.7</v>
+        <v>570.7000000000001</v>
       </c>
       <c r="AA110">
         <v>945.3</v>
       </c>
       <c r="AB110">
-        <v>846.2</v>
+        <v>846.2000000000001</v>
       </c>
       <c r="AC110">
         <v>1600.1</v>
@@ -20573,7 +20573,7 @@
         <v>38</v>
       </c>
       <c r="T111">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="U111">
         <v>610.4</v>
@@ -20591,7 +20591,7 @@
         <v>74.509</v>
       </c>
       <c r="Z111">
-        <v>587.2</v>
+        <v>587.2000000000001</v>
       </c>
       <c r="AA111">
         <v>955.4</v>
@@ -20624,7 +20624,7 @@
         <v>176.9</v>
       </c>
       <c r="AK111">
-        <v>530.7</v>
+        <v>530.7000000000001</v>
       </c>
       <c r="AL111">
         <v>33.6</v>
@@ -20696,7 +20696,7 @@
         <v>148.568</v>
       </c>
       <c r="DB111">
-        <v>782.6319999999999</v>
+        <v>782.632</v>
       </c>
     </row>
     <row r="112">
@@ -20752,7 +20752,7 @@
         <v>19.6</v>
       </c>
       <c r="R112">
-        <v>937.2</v>
+        <v>937.2000000000001</v>
       </c>
       <c r="S112">
         <v>38.6</v>
@@ -20779,7 +20779,7 @@
         <v>586</v>
       </c>
       <c r="AA112">
-        <v>969.2</v>
+        <v>969.2000000000001</v>
       </c>
       <c r="AB112">
         <v>861.3</v>
@@ -20872,7 +20872,7 @@
         <v>97.108</v>
       </c>
       <c r="CY112">
-        <v>66.59199999999998</v>
+        <v>66.59199999999999</v>
       </c>
       <c r="CZ112">
         <v>90.392</v>
@@ -20937,7 +20937,7 @@
         <v>19.4</v>
       </c>
       <c r="R113">
-        <v>942.7</v>
+        <v>942.7000000000001</v>
       </c>
       <c r="S113">
         <v>39</v>
@@ -20961,7 +20961,7 @@
         <v>74.941</v>
       </c>
       <c r="Z113">
-        <v>589.2</v>
+        <v>589.2000000000001</v>
       </c>
       <c r="AA113">
         <v>985.6</v>
@@ -21146,7 +21146,7 @@
         <v>74.947</v>
       </c>
       <c r="Z114">
-        <v>572.2</v>
+        <v>572.2000000000001</v>
       </c>
       <c r="AA114">
         <v>995.9</v>
@@ -21537,7 +21537,7 @@
         <v>180.1</v>
       </c>
       <c r="AG116">
-        <v>622.2</v>
+        <v>622.2000000000001</v>
       </c>
       <c r="AH116">
         <v>703.72</v>
@@ -21701,7 +21701,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="Z117">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA117">
         <v>1053.2</v>
@@ -21713,7 +21713,7 @@
         <v>1718.3</v>
       </c>
       <c r="AD117">
-        <v>861.7</v>
+        <v>861.7000000000001</v>
       </c>
       <c r="AE117">
         <v>81.7</v>
@@ -21722,7 +21722,7 @@
         <v>176.4</v>
       </c>
       <c r="AG117">
-        <v>632.2</v>
+        <v>632.2000000000001</v>
       </c>
       <c r="AH117">
         <v>705.388</v>
@@ -21820,7 +21820,7 @@
         <v>12403.3</v>
       </c>
       <c r="D118">
-        <v>75.85899999999999</v>
+        <v>75.859</v>
       </c>
       <c r="E118">
         <v>6102.5</v>
@@ -21919,7 +21919,7 @@
         <v>208.2</v>
       </c>
       <c r="AK118">
-        <v>576.2</v>
+        <v>576.2000000000001</v>
       </c>
       <c r="AL118">
         <v>36.3</v>
@@ -21991,7 +21991,7 @@
         <v>161.004</v>
       </c>
       <c r="DB118">
-        <v>822.296</v>
+        <v>822.2960000000001</v>
       </c>
     </row>
     <row r="119">
@@ -22068,7 +22068,7 @@
         <v>659</v>
       </c>
       <c r="Y119">
-        <v>76.12</v>
+        <v>76.12000000000001</v>
       </c>
       <c r="Z119">
         <v>599.8</v>
@@ -22268,7 +22268,7 @@
         <v>1766</v>
       </c>
       <c r="AD120">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AE120">
         <v>83.8</v>
@@ -22277,10 +22277,10 @@
         <v>187.7</v>
       </c>
       <c r="AG120">
-        <v>656.7</v>
+        <v>656.7000000000001</v>
       </c>
       <c r="AH120">
-        <v>721.248</v>
+        <v>721.2480000000001</v>
       </c>
       <c r="AI120">
         <v>223.1</v>
@@ -22289,7 +22289,7 @@
         <v>216.4</v>
       </c>
       <c r="AK120">
-        <v>595.2</v>
+        <v>595.2000000000001</v>
       </c>
       <c r="AL120">
         <v>35.6</v>
@@ -22426,7 +22426,7 @@
         <v>1154</v>
       </c>
       <c r="U121">
-        <v>690.7</v>
+        <v>690.7000000000001</v>
       </c>
       <c r="V121">
         <v>228</v>
@@ -22441,7 +22441,7 @@
         <v>76.97499999999999</v>
       </c>
       <c r="Z121">
-        <v>635.2</v>
+        <v>635.2000000000001</v>
       </c>
       <c r="AA121">
         <v>1147.1</v>
@@ -22474,7 +22474,7 @@
         <v>224</v>
       </c>
       <c r="AK121">
-        <v>603.7</v>
+        <v>603.7000000000001</v>
       </c>
       <c r="AL121">
         <v>35.9</v>
@@ -22623,7 +22623,7 @@
         <v>699.5</v>
       </c>
       <c r="Y122">
-        <v>77.61799999999999</v>
+        <v>77.618</v>
       </c>
       <c r="Z122">
         <v>620.4</v>
@@ -22722,7 +22722,7 @@
         <v>114.852</v>
       </c>
       <c r="CY122">
-        <v>75.34799999999998</v>
+        <v>75.34799999999999</v>
       </c>
       <c r="CZ122">
         <v>109.648</v>
@@ -22990,7 +22990,7 @@
         <v>1832.3</v>
       </c>
       <c r="X124">
-        <v>715.2</v>
+        <v>715.2000000000001</v>
       </c>
       <c r="Y124">
         <v>78.45</v>
@@ -23017,7 +23017,7 @@
         <v>185.6</v>
       </c>
       <c r="AG124">
-        <v>704.2</v>
+        <v>704.2000000000001</v>
       </c>
       <c r="AH124">
         <v>757.408</v>
@@ -23029,7 +23029,7 @@
         <v>236.6</v>
       </c>
       <c r="AK124">
-        <v>623.7</v>
+        <v>623.7000000000001</v>
       </c>
       <c r="AL124">
         <v>33.5</v>
@@ -23202,10 +23202,10 @@
         <v>187.6</v>
       </c>
       <c r="AG125">
-        <v>709.2</v>
+        <v>709.2000000000001</v>
       </c>
       <c r="AH125">
-        <v>765.1799999999999</v>
+        <v>765.18</v>
       </c>
       <c r="AI125">
         <v>241.1</v>
@@ -23351,7 +23351,7 @@
         <v>1301.9</v>
       </c>
       <c r="U126">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="V126">
         <v>185.1</v>
@@ -23462,13 +23462,13 @@
         <v>129.388</v>
       </c>
       <c r="CY126">
-        <v>85.61199999999999</v>
+        <v>85.612</v>
       </c>
       <c r="CZ126">
         <v>124.612</v>
       </c>
       <c r="DA126">
-        <v>185.8879999999999</v>
+        <v>185.888</v>
       </c>
       <c r="DB126">
         <v>921.812</v>
@@ -23575,7 +23575,7 @@
         <v>723.4</v>
       </c>
       <c r="AH127">
-        <v>803.1319999999999</v>
+        <v>803.132</v>
       </c>
       <c r="AI127">
         <v>262.2</v>
@@ -23748,7 +23748,7 @@
         <v>1869</v>
       </c>
       <c r="AD128">
-        <v>881.7</v>
+        <v>881.7000000000001</v>
       </c>
       <c r="AE128">
         <v>83.59999999999999</v>
@@ -23769,7 +23769,7 @@
         <v>231.9</v>
       </c>
       <c r="AK128">
-        <v>641.7</v>
+        <v>641.7000000000001</v>
       </c>
       <c r="AL128">
         <v>28.3</v>
@@ -23876,7 +23876,7 @@
         <v>68.76300000000001</v>
       </c>
       <c r="K129">
-        <v>67.623</v>
+        <v>67.62300000000001</v>
       </c>
       <c r="L129">
         <v>1.21</v>
@@ -23915,7 +23915,7 @@
         <v>1992</v>
       </c>
       <c r="X129">
-        <v>738.7</v>
+        <v>738.7000000000001</v>
       </c>
       <c r="Y129">
         <v>79.89100000000001</v>
@@ -23942,7 +23942,7 @@
         <v>115.8</v>
       </c>
       <c r="AG129">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="AH129">
         <v>825.0920000000001</v>
@@ -24291,7 +24291,7 @@
         <v>80.648</v>
       </c>
       <c r="Z131">
-        <v>734.7</v>
+        <v>734.7000000000001</v>
       </c>
       <c r="AA131">
         <v>1338.8</v>
@@ -24303,7 +24303,7 @@
         <v>1924.2</v>
       </c>
       <c r="AD131">
-        <v>836.7</v>
+        <v>836.7000000000001</v>
       </c>
       <c r="AE131">
         <v>87.3</v>
@@ -24315,7 +24315,7 @@
         <v>739.9</v>
       </c>
       <c r="AH131">
-        <v>877.8579999999999</v>
+        <v>877.858</v>
       </c>
       <c r="AI131">
         <v>285.7</v>
@@ -24476,7 +24476,7 @@
         <v>81.041</v>
       </c>
       <c r="Z132">
-        <v>748.2</v>
+        <v>748.2000000000001</v>
       </c>
       <c r="AA132">
         <v>1352.2</v>
@@ -24616,7 +24616,7 @@
         <v>71.151</v>
       </c>
       <c r="K133">
-        <v>68.61799999999999</v>
+        <v>68.618</v>
       </c>
       <c r="L133">
         <v>0.59</v>
@@ -24685,7 +24685,7 @@
         <v>743.8</v>
       </c>
       <c r="AH133">
-        <v>888.8579999999999</v>
+        <v>888.858</v>
       </c>
       <c r="AI133">
         <v>297.4</v>
@@ -24843,7 +24843,7 @@
         <v>767.1</v>
       </c>
       <c r="Y134">
-        <v>81.98999999999999</v>
+        <v>81.99</v>
       </c>
       <c r="Z134">
         <v>792.3</v>
@@ -25162,7 +25162,7 @@
         <v>82.52200000000001</v>
       </c>
       <c r="H136">
-        <v>80.35899999999999</v>
+        <v>80.359</v>
       </c>
       <c r="I136">
         <v>72.15600000000001</v>
@@ -25198,7 +25198,7 @@
         <v>61.1</v>
       </c>
       <c r="T136">
-        <v>950.7</v>
+        <v>950.7000000000001</v>
       </c>
       <c r="U136">
         <v>813</v>
@@ -25210,13 +25210,13 @@
         <v>2221.2</v>
       </c>
       <c r="X136">
-        <v>787.7</v>
+        <v>787.7000000000001</v>
       </c>
       <c r="Y136">
         <v>82.517</v>
       </c>
       <c r="Z136">
-        <v>832.7</v>
+        <v>832.7000000000001</v>
       </c>
       <c r="AA136">
         <v>1388.5</v>
@@ -25237,7 +25237,7 @@
         <v>180.3</v>
       </c>
       <c r="AG136">
-        <v>767.2</v>
+        <v>767.2000000000001</v>
       </c>
       <c r="AH136">
         <v>931.726</v>
@@ -25422,7 +25422,7 @@
         <v>200.4</v>
       </c>
       <c r="AG137">
-        <v>778.2</v>
+        <v>778.2000000000001</v>
       </c>
       <c r="AH137">
         <v>944.915</v>
@@ -25598,7 +25598,7 @@
         <v>1922.7</v>
       </c>
       <c r="AD138">
-        <v>773.2</v>
+        <v>773.2000000000001</v>
       </c>
       <c r="AE138">
         <v>94.09999999999999</v>
@@ -25619,7 +25619,7 @@
         <v>239</v>
       </c>
       <c r="AK138">
-        <v>753.2</v>
+        <v>753.2000000000001</v>
       </c>
       <c r="AL138">
         <v>37.8</v>
@@ -25771,7 +25771,7 @@
         <v>84.155</v>
       </c>
       <c r="Z139">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="AA139">
         <v>1437.2</v>
@@ -25902,7 +25902,7 @@
         <v>84.586</v>
       </c>
       <c r="H140">
-        <v>83.11199999999999</v>
+        <v>83.112</v>
       </c>
       <c r="I140">
         <v>75.913</v>
@@ -25950,13 +25950,13 @@
         <v>2357.2</v>
       </c>
       <c r="X140">
-        <v>843.7</v>
+        <v>843.7000000000001</v>
       </c>
       <c r="Y140">
         <v>84.57899999999999</v>
       </c>
       <c r="Z140">
-        <v>902.2</v>
+        <v>902.2000000000001</v>
       </c>
       <c r="AA140">
         <v>1455</v>
@@ -25968,7 +25968,7 @@
         <v>1916.6</v>
       </c>
       <c r="AD140">
-        <v>816.7</v>
+        <v>816.7000000000001</v>
       </c>
       <c r="AE140">
         <v>95.90000000000001</v>
@@ -26260,7 +26260,7 @@
         <v>14771.6</v>
       </c>
       <c r="D142">
-        <v>86.36799999999999</v>
+        <v>86.368</v>
       </c>
       <c r="E142">
         <v>8523</v>
@@ -26320,7 +26320,7 @@
         <v>2426.9</v>
       </c>
       <c r="X142">
-        <v>862.7</v>
+        <v>862.7000000000001</v>
       </c>
       <c r="Y142">
         <v>85.78700000000001</v>
@@ -26690,7 +26690,7 @@
         <v>2495.1</v>
       </c>
       <c r="X144">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="Y144">
         <v>87.22499999999999</v>
@@ -26833,7 +26833,7 @@
         <v>81.467</v>
       </c>
       <c r="J145">
-        <v>81.873</v>
+        <v>81.87300000000001</v>
       </c>
       <c r="K145">
         <v>79.82299999999999</v>
@@ -27009,7 +27009,7 @@
         <v>10288.9</v>
       </c>
       <c r="G146">
-        <v>88.35899999999999</v>
+        <v>88.359</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -27099,7 +27099,7 @@
         <v>294.9</v>
       </c>
       <c r="AK146">
-        <v>882.7</v>
+        <v>882.7000000000001</v>
       </c>
       <c r="AL146">
         <v>59.6</v>
@@ -27236,7 +27236,7 @@
         <v>1351.3</v>
       </c>
       <c r="U147">
-        <v>991.7</v>
+        <v>991.7000000000001</v>
       </c>
       <c r="V147">
         <v>427.6</v>
@@ -27245,7 +27245,7 @@
         <v>2610.9</v>
       </c>
       <c r="X147">
-        <v>922.7</v>
+        <v>922.7000000000001</v>
       </c>
       <c r="Y147">
         <v>89.065</v>
@@ -27284,7 +27284,7 @@
         <v>310.1</v>
       </c>
       <c r="AK147">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AL147">
         <v>60.3</v>
@@ -27430,7 +27430,7 @@
         <v>2630.7</v>
       </c>
       <c r="X148">
-        <v>927.2</v>
+        <v>927.2000000000001</v>
       </c>
       <c r="Y148">
         <v>89.708</v>
@@ -27457,7 +27457,7 @@
         <v>384.8</v>
       </c>
       <c r="AG148">
-        <v>906.2</v>
+        <v>906.2000000000001</v>
       </c>
       <c r="AH148">
         <v>1164.285</v>
@@ -28197,7 +28197,7 @@
         <v>314.6</v>
       </c>
       <c r="AG152">
-        <v>946.7</v>
+        <v>946.7000000000001</v>
       </c>
       <c r="AH152">
         <v>1238.056</v>
@@ -28463,7 +28463,7 @@
         <v>162.872</v>
       </c>
       <c r="DA153">
-        <v>279.575</v>
+        <v>279.5750000000001</v>
       </c>
       <c r="DB153">
         <v>1449.025</v>
@@ -28567,7 +28567,7 @@
         <v>241.7</v>
       </c>
       <c r="AG154">
-        <v>970.2</v>
+        <v>970.2000000000001</v>
       </c>
       <c r="AH154">
         <v>1286.323</v>
@@ -28677,19 +28677,19 @@
         <v>94.289</v>
       </c>
       <c r="H155">
-        <v>94.373</v>
+        <v>94.37300000000001</v>
       </c>
       <c r="I155">
         <v>92.54000000000001</v>
       </c>
       <c r="J155">
-        <v>92.748</v>
+        <v>92.74800000000001</v>
       </c>
       <c r="K155">
         <v>91.699</v>
       </c>
       <c r="L155">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M155">
         <v>0.04</v>
@@ -29232,7 +29232,7 @@
         <v>93.274</v>
       </c>
       <c r="H158">
-        <v>93.876</v>
+        <v>93.87600000000001</v>
       </c>
       <c r="I158">
         <v>91.482</v>
@@ -29280,7 +29280,7 @@
         <v>3019.7</v>
       </c>
       <c r="X158">
-        <v>964.7</v>
+        <v>964.7000000000001</v>
       </c>
       <c r="Y158">
         <v>93.273</v>
@@ -29298,7 +29298,7 @@
         <v>2007.7</v>
       </c>
       <c r="AD158">
-        <v>921.2</v>
+        <v>921.2000000000001</v>
       </c>
       <c r="AE158">
         <v>86.7</v>
@@ -29319,7 +29319,7 @@
         <v>281.1</v>
       </c>
       <c r="AK158">
-        <v>929.2</v>
+        <v>929.2000000000001</v>
       </c>
       <c r="AL158">
         <v>43.7</v>
@@ -29405,7 +29405,7 @@
         <v>15134.1</v>
       </c>
       <c r="D159">
-        <v>94.85599999999999</v>
+        <v>94.856</v>
       </c>
       <c r="E159">
         <v>9760.200000000001</v>
@@ -29465,7 +29465,7 @@
         <v>3067.6</v>
       </c>
       <c r="X159">
-        <v>971.2</v>
+        <v>971.2000000000001</v>
       </c>
       <c r="Y159">
         <v>93.69199999999999</v>
@@ -29608,10 +29608,10 @@
         <v>92.166</v>
       </c>
       <c r="J160">
-        <v>91.85599999999999</v>
+        <v>91.856</v>
       </c>
       <c r="K160">
-        <v>93.48999999999999</v>
+        <v>93.49</v>
       </c>
       <c r="L160">
         <v>0.23</v>
@@ -29710,7 +29710,7 @@
         <v>263.924</v>
       </c>
       <c r="AR160">
-        <v>67.126</v>
+        <v>67.12600000000001</v>
       </c>
       <c r="AS160">
         <v>65.90000000000001</v>
@@ -29758,7 +29758,7 @@
         <v>201.476</v>
       </c>
       <c r="DA160">
-        <v>334.2</v>
+        <v>334.2000000000001</v>
       </c>
       <c r="DB160">
         <v>1802.7</v>
@@ -29835,7 +29835,7 @@
         <v>3117.8</v>
       </c>
       <c r="X161">
-        <v>972.2</v>
+        <v>972.2000000000001</v>
       </c>
       <c r="Y161">
         <v>95.068</v>
@@ -29883,7 +29883,7 @@
         <v>18.3</v>
       </c>
       <c r="AN161">
-        <v>580.3099999999999</v>
+        <v>580.31</v>
       </c>
       <c r="AO161">
         <v>2444.1</v>
@@ -29972,7 +29972,7 @@
         <v>95.395</v>
       </c>
       <c r="H162">
-        <v>95.48399999999999</v>
+        <v>95.484</v>
       </c>
       <c r="I162">
         <v>93.76600000000001</v>
@@ -30068,7 +30068,7 @@
         <v>18</v>
       </c>
       <c r="AN162">
-        <v>575.6319999999999</v>
+        <v>575.632</v>
       </c>
       <c r="AO162">
         <v>2439.7</v>
@@ -30223,7 +30223,7 @@
         <v>1972.8</v>
       </c>
       <c r="AD163">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AE163">
         <v>96.40000000000001</v>
@@ -30232,7 +30232,7 @@
         <v>212.2</v>
       </c>
       <c r="AG163">
-        <v>971.7</v>
+        <v>971.7000000000001</v>
       </c>
       <c r="AH163">
         <v>1690.733</v>
@@ -30244,7 +30244,7 @@
         <v>278</v>
       </c>
       <c r="AK163">
-        <v>965.7</v>
+        <v>965.7000000000001</v>
       </c>
       <c r="AL163">
         <v>43.4</v>
@@ -30265,7 +30265,7 @@
         <v>272.456</v>
       </c>
       <c r="AR163">
-        <v>73.73699999999999</v>
+        <v>73.737</v>
       </c>
       <c r="AS163">
         <v>53.4</v>
@@ -30330,7 +30330,7 @@
         <v>15672</v>
       </c>
       <c r="D164">
-        <v>96.251</v>
+        <v>96.25100000000001</v>
       </c>
       <c r="E164">
         <v>10220.6</v>
@@ -30363,7 +30363,7 @@
         <v>-0.15</v>
       </c>
       <c r="O164">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="P164">
         <v>405.6</v>
@@ -30492,7 +30492,7 @@
         <v>283.691</v>
       </c>
       <c r="CY164">
-        <v>121.909</v>
+        <v>121.9090000000001</v>
       </c>
       <c r="CZ164">
         <v>234.109</v>
@@ -30578,7 +30578,7 @@
         <v>994.3</v>
       </c>
       <c r="Y165">
-        <v>96.248</v>
+        <v>96.24800000000001</v>
       </c>
       <c r="Z165">
         <v>1311.1</v>
@@ -30593,7 +30593,7 @@
         <v>1937</v>
       </c>
       <c r="AD165">
-        <v>977.2</v>
+        <v>977.2000000000001</v>
       </c>
       <c r="AE165">
         <v>98.7</v>
@@ -30614,7 +30614,7 @@
         <v>311.9</v>
       </c>
       <c r="AK165">
-        <v>977.7</v>
+        <v>977.7000000000001</v>
       </c>
       <c r="AL165">
         <v>50.4</v>
@@ -30760,7 +30760,7 @@
         <v>3156</v>
       </c>
       <c r="X166">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="Y166">
         <v>97.089</v>
@@ -30903,7 +30903,7 @@
         <v>97.801</v>
       </c>
       <c r="J167">
-        <v>98.129</v>
+        <v>98.12900000000001</v>
       </c>
       <c r="K167">
         <v>96.34699999999999</v>
@@ -31082,7 +31082,7 @@
         <v>98.523</v>
       </c>
       <c r="H168">
-        <v>99.498</v>
+        <v>99.49800000000001</v>
       </c>
       <c r="I168">
         <v>98.31399999999999</v>
@@ -31342,7 +31342,7 @@
         <v>238</v>
       </c>
       <c r="AG169">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AH169">
         <v>1735.099</v>
@@ -31646,7 +31646,7 @@
         <v>99.294</v>
       </c>
       <c r="K171">
-        <v>99.879</v>
+        <v>99.87900000000001</v>
       </c>
       <c r="L171">
         <v>-0.41</v>
@@ -31712,7 +31712,7 @@
         <v>275.5</v>
       </c>
       <c r="AG171">
-        <v>932.2</v>
+        <v>932.2000000000001</v>
       </c>
       <c r="AH171">
         <v>1731.81</v>
@@ -31897,7 +31897,7 @@
         <v>280.8</v>
       </c>
       <c r="AG172">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AH172">
         <v>1740.904</v>
@@ -32204,7 +32204,7 @@
         <v>101.023</v>
       </c>
       <c r="L174">
-        <v>-0.68</v>
+        <v>-0.6800000000000001</v>
       </c>
       <c r="M174">
         <v>0.03</v>
@@ -32583,7 +32583,7 @@
         <v>-0.43</v>
       </c>
       <c r="O176">
-        <v>573.7</v>
+        <v>573.7000000000001</v>
       </c>
       <c r="P176">
         <v>448.2</v>
@@ -32658,7 +32658,7 @@
         <v>17.8</v>
       </c>
       <c r="AN176">
-        <v>611.3049999999999</v>
+        <v>611.305</v>
       </c>
       <c r="AO176">
         <v>2528.2</v>
@@ -32768,7 +32768,7 @@
         <v>-0.5</v>
       </c>
       <c r="O177">
-        <v>580.2</v>
+        <v>580.2000000000001</v>
       </c>
       <c r="P177">
         <v>448.6</v>
@@ -33455,7 +33455,7 @@
         <v>174.8</v>
       </c>
       <c r="CZ180">
-        <v>178.7</v>
+        <v>178.7000000000001</v>
       </c>
       <c r="DA180">
         <v>334.9010000000001</v>
@@ -34308,7 +34308,7 @@
         <v>1957.938</v>
       </c>
       <c r="AI185">
-        <v>548.2</v>
+        <v>548.2000000000001</v>
       </c>
       <c r="AJ185">
         <v>412.3</v>
@@ -34556,7 +34556,7 @@
         <v>0</v>
       </c>
       <c r="CL186">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CX186">
         <v>359.556</v>
@@ -34618,7 +34618,7 @@
         <v>-0.2</v>
       </c>
       <c r="O187">
-        <v>658.7</v>
+        <v>658.7000000000001</v>
       </c>
       <c r="P187">
         <v>558.8</v>
@@ -34741,7 +34741,7 @@
         <v>0</v>
       </c>
       <c r="CL187">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CX187">
         <v>364.761</v>
@@ -34803,7 +34803,7 @@
         <v>0.12</v>
       </c>
       <c r="O188">
-        <v>665.2</v>
+        <v>665.2000000000001</v>
       </c>
       <c r="P188">
         <v>566.4</v>
@@ -34863,7 +34863,7 @@
         <v>1997.784</v>
       </c>
       <c r="AI188">
-        <v>562.7</v>
+        <v>562.7000000000001</v>
       </c>
       <c r="AJ188">
         <v>417.2</v>
@@ -34926,7 +34926,7 @@
         <v>0</v>
       </c>
       <c r="CL188">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CX188">
         <v>377.98</v>
@@ -35111,7 +35111,7 @@
         <v>0</v>
       </c>
       <c r="CL189">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CX189">
         <v>387.911</v>
@@ -35320,7 +35320,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM190">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN190">
         <v>0.01217558474847791</v>
@@ -35347,10 +35347,10 @@
         <v>0.01096545469535815</v>
       </c>
       <c r="BV190">
-        <v>-0.02578268876611411</v>
+        <v>-0.02578268876611412</v>
       </c>
       <c r="BW190">
-        <v>-0.005000000000000115</v>
+        <v>-0.005000000000000116</v>
       </c>
       <c r="CI190">
         <v>0</v>
@@ -35595,7 +35595,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM191">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN191">
         <v>0.01217558474847791</v>
@@ -35622,10 +35622,10 @@
         <v>0.01096545469535815</v>
       </c>
       <c r="BV191">
-        <v>-0.02578268876611411</v>
+        <v>-0.02578268876611412</v>
       </c>
       <c r="BW191">
-        <v>-0.005000000000000115</v>
+        <v>-0.005000000000000116</v>
       </c>
       <c r="BX191">
         <v>0.003860721863454319</v>
@@ -35843,7 +35843,7 @@
         <v>-1</v>
       </c>
       <c r="BB192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BC192">
         <v>0.007912990400088749</v>
@@ -35858,7 +35858,7 @@
         <v>0.004138414333876295</v>
       </c>
       <c r="BG192">
-        <v>0.005940741568430274</v>
+        <v>0.005940741568430275</v>
       </c>
       <c r="BH192">
         <v>0.01003595080416275</v>
@@ -35888,7 +35888,7 @@
         <v>0.005338741728637908</v>
       </c>
       <c r="BQ192">
-        <v>0.005055088423257414</v>
+        <v>0.005055088423257415</v>
       </c>
       <c r="BR192">
         <v>0.00803007361770991</v>
@@ -36130,7 +36130,7 @@
         <v>0.01566411886781882</v>
       </c>
       <c r="BC193">
-        <v>0.008748265762293927</v>
+        <v>0.008748265762293928</v>
       </c>
       <c r="BD193">
         <v>0.004449942254746819</v>
@@ -36163,13 +36163,13 @@
         <v>0.0162792059495227</v>
       </c>
       <c r="BN193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="BO193">
         <v>0.01431101995151973</v>
       </c>
       <c r="BP193">
-        <v>0.00776384858661272</v>
+        <v>0.007763848586612721</v>
       </c>
       <c r="BQ193">
         <v>0.008057035860422834</v>
@@ -36253,10 +36253,10 @@
         <v>0.00955482011316322</v>
       </c>
       <c r="CT193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CU193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CV193">
         <v>0.01148564106586103</v>
@@ -36453,7 +36453,7 @@
         <v>0.006258607928194548</v>
       </c>
       <c r="BG194">
-        <v>0.005758175044841884</v>
+        <v>0.005758175044841885</v>
       </c>
       <c r="BH194">
         <v>0.01045906538203933</v>
@@ -36519,13 +36519,13 @@
         <v>-0.1587188612099644</v>
       </c>
       <c r="CD194">
-        <v>0.01168224299065423</v>
+        <v>0.01168224299065424</v>
       </c>
       <c r="CE194">
         <v>0.0006119167224032385</v>
       </c>
       <c r="CF194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CG194">
         <v>0.004405286343612369</v>
@@ -36558,10 +36558,10 @@
         <v>0.004626400453376256</v>
       </c>
       <c r="CR194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CS194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CT194">
         <v>0.01783646050498033</v>
@@ -36773,7 +36773,7 @@
         <v>0.00988038707961425</v>
       </c>
       <c r="BJ195">
-        <v>0.006341570085283132</v>
+        <v>0.006341570085283133</v>
       </c>
       <c r="BK195">
         <v>0.009687217798210579</v>
@@ -36791,7 +36791,7 @@
         <v>0.01520515613652873</v>
       </c>
       <c r="BP195">
-        <v>0.00532798395185563</v>
+        <v>0.005327983951855631</v>
       </c>
       <c r="BQ195">
         <v>0.00708529244933076</v>
@@ -36809,7 +36809,7 @@
         <v>0.007569783945749808</v>
       </c>
       <c r="BV195">
-        <v>0.09747292418772568</v>
+        <v>0.09747292418772569</v>
       </c>
       <c r="BW195">
         <v>0.01960784313725505</v>
@@ -37120,7 +37120,7 @@
         <v>0.006886836750665148</v>
       </c>
       <c r="BV196">
-        <v>0.02138157894736858</v>
+        <v>0.02138157894736859</v>
       </c>
       <c r="BW196">
         <v>0.01923076923076916</v>
@@ -37398,7 +37398,7 @@
         <v>-0.000957381099444099</v>
       </c>
       <c r="BK197">
-        <v>0.002744813110518995</v>
+        <v>0.002744813110518996</v>
       </c>
       <c r="BL197">
         <v>-0.003153626670671206</v>
@@ -37628,7 +37628,7 @@
         <v>2271.243</v>
       </c>
       <c r="AI198">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AJ198">
         <v>475.2</v>
@@ -37832,7 +37832,7 @@
         <v>194.871</v>
       </c>
       <c r="CZ198">
-        <v>189.671</v>
+        <v>189.6710000000001</v>
       </c>
       <c r="DA198">
         <v>361.7280000000001</v>
@@ -37885,7 +37885,7 @@
         <v>0.58</v>
       </c>
       <c r="O199">
-        <v>779.7</v>
+        <v>779.7000000000001</v>
       </c>
       <c r="P199">
         <v>615</v>
@@ -38152,7 +38152,7 @@
         <v>192.828</v>
       </c>
       <c r="DA199">
-        <v>362.623</v>
+        <v>362.6230000000001</v>
       </c>
       <c r="DB199">
         <v>2708.377</v>
@@ -38319,7 +38319,7 @@
         <v>0.009475030810251139</v>
       </c>
       <c r="BC200">
-        <v>0.00521504160993369</v>
+        <v>0.005215041609933691</v>
       </c>
       <c r="BD200">
         <v>0.004581925787650931</v>
@@ -38391,7 +38391,7 @@
         <v>0.01467473406806219</v>
       </c>
       <c r="CA200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CB200">
         <v>0.03644214981858163</v>
@@ -38409,7 +38409,7 @@
         <v>0.01262688876206286</v>
       </c>
       <c r="CG200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CH200">
         <v>1652.892256</v>
@@ -38678,7 +38678,7 @@
         <v>0.005852516582130374</v>
       </c>
       <c r="BQ201">
-        <v>0.003925347353803676</v>
+        <v>0.003925347353803677</v>
       </c>
       <c r="BR201">
         <v>0.004985097894305568</v>
@@ -38696,7 +38696,7 @@
         <v>0.01719197707736386</v>
       </c>
       <c r="BW201">
-        <v>-0.03211009174311918</v>
+        <v>-0.03211009174311919</v>
       </c>
       <c r="BX201">
         <v>0.0236163810442116</v>
@@ -38836,7 +38836,7 @@
         <v>0.1</v>
       </c>
       <c r="O202">
-        <v>804.7</v>
+        <v>804.7000000000001</v>
       </c>
       <c r="P202">
         <v>624.1</v>
@@ -38923,7 +38923,7 @@
         <v>423.429</v>
       </c>
       <c r="AR202">
-        <v>72.23999999999999</v>
+        <v>72.24</v>
       </c>
       <c r="AS202">
         <v>74.5</v>
@@ -39097,7 +39097,7 @@
         <v>423.429</v>
       </c>
       <c r="CY202">
-        <v>200.671</v>
+        <v>200.6710000000001</v>
       </c>
       <c r="CZ202">
         <v>204.371</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="BB203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BC203">
         <v>-0.100893694605162</v>
@@ -39473,13 +39473,13 @@
         <v>-0.38</v>
       </c>
       <c r="O204">
-        <v>842.7</v>
+        <v>842.7000000000001</v>
       </c>
       <c r="P204">
         <v>691.3</v>
       </c>
       <c r="Q204">
-        <v>768.7</v>
+        <v>768.7000000000001</v>
       </c>
       <c r="R204">
         <v>4324.1</v>
@@ -39533,7 +39533,7 @@
         <v>3495.163</v>
       </c>
       <c r="AI204">
-        <v>728.2</v>
+        <v>728.2000000000001</v>
       </c>
       <c r="AJ204">
         <v>499.4</v>
@@ -39605,7 +39605,7 @@
         <v>0.004541326067211582</v>
       </c>
       <c r="BG204">
-        <v>0.003546099290780091</v>
+        <v>0.003546099290780092</v>
       </c>
       <c r="BH204">
         <v>0.06620617348669389</v>
@@ -39692,7 +39692,7 @@
         <v>874.878</v>
       </c>
       <c r="CJ204">
-        <v>738.2</v>
+        <v>738.2000000000001</v>
       </c>
       <c r="CK204">
         <v>140</v>
@@ -39808,7 +39808,7 @@
         <v>1498.136073725386</v>
       </c>
       <c r="AA205">
-        <v>2335.524249999999</v>
+        <v>2335.52425</v>
       </c>
       <c r="AD205">
         <v>1694.539756323234</v>
@@ -40080,7 +40080,7 @@
         <v>307.6012406670113</v>
       </c>
       <c r="W206">
-        <v>3923.544150199762</v>
+        <v>3923.544150199763</v>
       </c>
       <c r="X206">
         <v>1495.447941076645</v>
@@ -40095,10 +40095,10 @@
         <v>1701.879512646469</v>
       </c>
       <c r="AE206">
-        <v>148.9000330528642</v>
+        <v>148.9000330528643</v>
       </c>
       <c r="AF206">
-        <v>225.5633104395484</v>
+        <v>225.5633104395485</v>
       </c>
       <c r="AG206">
         <v>1474.497673180378</v>
@@ -40176,7 +40176,7 @@
         <v>0.007546475243879858</v>
       </c>
       <c r="BK206">
-        <v>7.441029838517466e-05</v>
+        <v>7.441029838517466e-005</v>
       </c>
       <c r="BL206">
         <v>0.01261599416119275</v>
@@ -40239,7 +40239,7 @@
         <v>-0.01541106327944253</v>
       </c>
       <c r="CF206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CG206">
         <v>0.004331415828897622</v>
@@ -40275,10 +40275,10 @@
         <v>0.003388375028452018</v>
       </c>
       <c r="CR206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CS206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CT206">
         <v>0.004013686011317352</v>
@@ -40316,7 +40316,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>22291.8404896825</v>
+        <v>22291.84048968251</v>
       </c>
       <c r="C207">
         <v>19460.68384437219</v>
@@ -40445,7 +40445,7 @@
         <v>0.003603603603603567</v>
       </c>
       <c r="BG207">
-        <v>0.003524229074890028</v>
+        <v>0.003524229074890029</v>
       </c>
       <c r="BH207">
         <v>0.007432437179045959</v>
@@ -40675,7 +40675,7 @@
         <v>534.9879446679678</v>
       </c>
       <c r="AK208">
-        <v>1411.172646197665</v>
+        <v>1411.172646197666</v>
       </c>
       <c r="AL208">
         <v>84.73677697884713</v>
@@ -41037,7 +41037,7 @@
         <v>0.003818251240931714</v>
       </c>
       <c r="BQ209">
-        <v>0.004663517061526345</v>
+        <v>0.004663517061526346</v>
       </c>
       <c r="BR209">
         <v>0.005492326385298174</v>
@@ -41204,7 +41204,7 @@
         <v>418.2516663583094</v>
       </c>
       <c r="W210">
-        <v>4068.604942770758</v>
+        <v>4068.604942770759</v>
       </c>
       <c r="X210">
         <v>1582.839454628498</v>
@@ -41288,7 +41288,7 @@
         <v>0.003565062388591667</v>
       </c>
       <c r="BG210">
-        <v>0.004359197907584988</v>
+        <v>0.004359197907584989</v>
       </c>
       <c r="BH210">
         <v>0.01063480780797188</v>
@@ -41470,7 +41470,7 @@
         <v>911.4393940791213</v>
       </c>
       <c r="P211">
-        <v>773.0312452814406</v>
+        <v>773.0312452814407</v>
       </c>
       <c r="R211">
         <v>3529.473845271527</v>
@@ -41707,7 +41707,7 @@
         <v>219.2973172977977</v>
       </c>
       <c r="DA211">
-        <v>319.55430299702</v>
+        <v>319.5543029970201</v>
       </c>
       <c r="DB211">
         <v>3209.919542274507</v>
@@ -41820,7 +41820,7 @@
         <v>78.09937601365499</v>
       </c>
       <c r="AS212">
-        <v>1251.344871987834</v>
+        <v>1251.344871987835</v>
       </c>
       <c r="AT212">
         <v>0.619120081794921</v>
@@ -41853,7 +41853,7 @@
         <v>0.005185825410544354</v>
       </c>
       <c r="BH212">
-        <v>0.01183582309122277</v>
+        <v>0.01183582309122278</v>
       </c>
       <c r="BI212">
         <v>0.007260626229012246</v>
@@ -41910,7 +41910,7 @@
         <v>0.005265913175032333</v>
       </c>
       <c r="CA212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CB212">
         <v>0.02286587698255294</v>
@@ -41928,7 +41928,7 @@
         <v>-0.0102600422255138</v>
       </c>
       <c r="CG212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CH212">
         <v>1762.330095</v>
@@ -42005,7 +42005,7 @@
         <v>23846.19581275146</v>
       </c>
       <c r="C213">
-        <v>20292.94029270382</v>
+        <v>20292.94029270383</v>
       </c>
       <c r="D213">
         <v>117.4706713780919</v>
@@ -42020,7 +42020,7 @@
         <v>116.2677381210779</v>
       </c>
       <c r="I213">
-        <v>123.0958391015756</v>
+        <v>123.0958391015757</v>
       </c>
       <c r="J213">
         <v>122.8842130171603</v>
@@ -42143,7 +42143,7 @@
         <v>0</v>
       </c>
       <c r="BK213">
-        <v>-0.00135521758771262</v>
+        <v>-0.001355217587712621</v>
       </c>
       <c r="BL213">
         <v>0.0007967333930882781</v>
@@ -42266,7 +42266,7 @@
         <v>224.8056826361307</v>
       </c>
       <c r="CZ213">
-        <v>244.4440181553535</v>
+        <v>244.4440181553536</v>
       </c>
       <c r="DA213">
         <v>345.9085872969822</v>
@@ -42325,7 +42325,7 @@
         <v>1669.907669843358</v>
       </c>
       <c r="V214">
-        <v>556.9245076916663</v>
+        <v>556.9245076916664</v>
       </c>
       <c r="W214">
         <v>4182.036713097938</v>
@@ -42343,7 +42343,7 @@
         <v>1848.080856206532</v>
       </c>
       <c r="AE214">
-        <v>170.1493142683267</v>
+        <v>170.1493142683268</v>
       </c>
       <c r="AF214">
         <v>466.8684187779907</v>
@@ -42370,10 +42370,10 @@
         <v>22.99788869856192</v>
       </c>
       <c r="AN214">
-        <v>885.2481013351482</v>
+        <v>885.2481013351483</v>
       </c>
       <c r="AP214">
-        <v>578.56212786438</v>
+        <v>578.5621278643801</v>
       </c>
       <c r="AQ214">
         <v>526.9187326035294</v>
@@ -42382,7 +42382,7 @@
         <v>79.54017897405858</v>
       </c>
       <c r="AS214">
-        <v>1262.541814539358</v>
+        <v>1262.541814539359</v>
       </c>
       <c r="AT214">
         <v>0.6246599230837099</v>
@@ -42553,7 +42553,7 @@
         <v>358.3293687316188</v>
       </c>
       <c r="DB214">
-        <v>3231.647590349547</v>
+        <v>3231.647590349548</v>
       </c>
       <c r="DC214">
         <v>2375.315580151575</v>
@@ -42624,7 +42624,7 @@
         <v>1870.795893483433</v>
       </c>
       <c r="AE215">
-        <v>171.1567419285857</v>
+        <v>171.1567419285858</v>
       </c>
       <c r="AF215">
         <v>491.4896457095643</v>
@@ -42648,7 +42648,7 @@
         <v>90.92104330159741</v>
       </c>
       <c r="AM215">
-        <v>23.21877464844838</v>
+        <v>23.21877464844839</v>
       </c>
       <c r="AN215">
         <v>892.9292128434793</v>
@@ -42657,7 +42657,7 @@
         <v>572.4989098154614</v>
       </c>
       <c r="AQ215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="AR215">
         <v>80.23580346542266</v>
@@ -42666,7 +42666,7 @@
         <v>1268.206372322592</v>
       </c>
       <c r="AT215">
-        <v>0.6274625409363856</v>
+        <v>0.6274625409363857</v>
       </c>
       <c r="AU215">
         <v>1268.833834863528</v>
@@ -42717,7 +42717,7 @@
         <v>0.008745573625009717</v>
       </c>
       <c r="BO215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="BP215">
         <v>0.005565862708719838</v>
@@ -42792,10 +42792,10 @@
         <v>0.004953636990441712</v>
       </c>
       <c r="CN215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CO215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CP215">
         <v>0.004486629843067691</v>
@@ -42822,13 +42822,13 @@
         <v>0.007524245191184997</v>
       </c>
       <c r="CX215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="CY215">
-        <v>220.1427104198661</v>
+        <v>220.1427104198662</v>
       </c>
       <c r="CZ215">
-        <v>269.8242367127528</v>
+        <v>269.8242367127529</v>
       </c>
       <c r="DA215">
         <v>371.5324855976596</v>
@@ -42917,7 +42917,7 @@
         <v>2733.584844458902</v>
       </c>
       <c r="AI216">
-        <v>798.8326408490778</v>
+        <v>798.8326408490779</v>
       </c>
       <c r="AJ216">
         <v>579.8838116958131</v>
@@ -42932,10 +42932,10 @@
         <v>23.45545253555351</v>
       </c>
       <c r="AN216">
-        <v>900.5392029489554</v>
+        <v>900.5392029489555</v>
       </c>
       <c r="AP216">
-        <v>566.4356917665428</v>
+        <v>566.4356917665429</v>
       </c>
       <c r="AQ216">
         <v>515.87472188811</v>
@@ -43109,10 +43109,10 @@
         <v>217.8112243117339</v>
       </c>
       <c r="CZ216">
-        <v>282.9579189609678</v>
+        <v>282.9579189609679</v>
       </c>
       <c r="DA216">
-        <v>384.6644810608454</v>
+        <v>384.6644810608455</v>
       </c>
       <c r="DB216">
         <v>3249.459566347012</v>
@@ -43165,7 +43165,7 @@
         <v>2496.710799367635</v>
       </c>
       <c r="U217">
-        <v>1721.159716359891</v>
+        <v>1721.159716359892</v>
       </c>
       <c r="V217">
         <v>622.1512274543302</v>
@@ -43174,7 +43174,7 @@
         <v>4277.232858222656</v>
       </c>
       <c r="X217">
-        <v>1739.420581751473</v>
+        <v>1739.420581751474</v>
       </c>
       <c r="Z217">
         <v>1646.733983345539</v>
@@ -43204,7 +43204,7 @@
         <v>586.0683703143048</v>
       </c>
       <c r="AK217">
-        <v>1545.910821415767</v>
+        <v>1545.910821415768</v>
       </c>
       <c r="AL217">
         <v>92.8274090746126</v>
@@ -43213,7 +43213,7 @@
         <v>23.70560889136755</v>
       </c>
       <c r="AN217">
-        <v>908.2203144572863</v>
+        <v>908.2203144572864</v>
       </c>
       <c r="AP217">
         <v>572.818568783727</v>
@@ -43270,7 +43270,7 @@
         <v>0.0006773538044704264</v>
       </c>
       <c r="BL217">
-        <v>0.0008437980840820813</v>
+        <v>0.0008437980840820814</v>
       </c>
       <c r="BM217">
         <v>0.007547627715083216</v>
@@ -43393,7 +43393,7 @@
         <v>284.8440859079293</v>
       </c>
       <c r="DA217">
-        <v>386.5324615219135</v>
+        <v>386.5324615219136</v>
       </c>
       <c r="DB217">
         <v>3278.573485988411</v>
@@ -43413,7 +43413,7 @@
         <v>20849.13936116856</v>
       </c>
       <c r="D218">
-        <v>120.3873233215547</v>
+        <v>120.3873233215548</v>
       </c>
       <c r="E218">
         <v>16844.681829882</v>
@@ -43736,7 +43736,7 @@
         <v>4345.127078609224</v>
       </c>
       <c r="X219">
-        <v>1770.569122150634</v>
+        <v>1770.569122150635</v>
       </c>
       <c r="Z219">
         <v>1678.578676176692</v>
@@ -43877,10 +43877,10 @@
         <v>0.006974459907471253</v>
       </c>
       <c r="CA219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CB219">
-        <v>0.01729749752234166</v>
+        <v>0.01729749752234167</v>
       </c>
       <c r="CC219">
         <v>0.0243540099260422</v>
@@ -43895,7 +43895,7 @@
         <v>0.01102013308747529</v>
       </c>
       <c r="CG219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CH219">
         <v>1901.4028665</v>
@@ -44101,7 +44101,7 @@
         <v>0.004987531172069959</v>
       </c>
       <c r="BH220">
-        <v>0.01055230018147268</v>
+        <v>0.01055230018147269</v>
       </c>
       <c r="BI220">
         <v>0.005705929579080227</v>
@@ -44274,7 +44274,7 @@
         <v>130.6581321032282</v>
       </c>
       <c r="K221">
-        <v>131.8559678500148</v>
+        <v>131.8559678500149</v>
       </c>
       <c r="O221">
         <v>1042.670768228261</v>
@@ -44316,7 +44316,7 @@
         <v>581.6434795373543</v>
       </c>
       <c r="AG221">
-        <v>1775.057861578387</v>
+        <v>1775.057861578388</v>
       </c>
       <c r="AH221">
         <v>2887.580566788285</v>
@@ -44421,7 +44421,7 @@
         <v>0.01065307061510912</v>
       </c>
       <c r="BU221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BV221">
         <v>0.01065307061510912</v>
@@ -44445,7 +44445,7 @@
         <v>-0.001714762889994725</v>
       </c>
       <c r="CC221">
-        <v>0.02228762084328006</v>
+        <v>0.02228762084328007</v>
       </c>
       <c r="CD221">
         <v>0.007607575150842427</v>
@@ -44511,7 +44511,7 @@
         <v>546.4911361690445</v>
       </c>
       <c r="CY221">
-        <v>230.7380036161323</v>
+        <v>230.7380036161324</v>
       </c>
       <c r="CZ221">
         <v>291.4518940223084</v>
@@ -44531,7 +44531,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>26202.48638857905</v>
+        <v>26202.48638857906</v>
       </c>
       <c r="C222">
         <v>21322.18609290556</v>
@@ -44576,7 +44576,7 @@
         <v>692.2874777014561</v>
       </c>
       <c r="W222">
-        <v>4454.643855955082</v>
+        <v>4454.643855955083</v>
       </c>
       <c r="X222">
         <v>1813.476935833848</v>
@@ -44606,7 +44606,7 @@
         <v>846.614460877178</v>
       </c>
       <c r="AJ222">
-        <v>618.4931631677485</v>
+        <v>618.4931631677486</v>
       </c>
       <c r="AK222">
         <v>1631.439815460305</v>
@@ -44726,7 +44726,7 @@
         <v>-0.001717708352533487</v>
       </c>
       <c r="CC222">
-        <v>0.02180171254044438</v>
+        <v>0.02180171254044439</v>
       </c>
       <c r="CD222">
         <v>0.007550136916848471</v>
@@ -44833,7 +44833,7 @@
         <v>132.9516098082675</v>
       </c>
       <c r="J223">
-        <v>132.7230397054452</v>
+        <v>132.7230397054453</v>
       </c>
       <c r="K223">
         <v>133.9398059244492</v>
@@ -44959,7 +44959,7 @@
         <v>0.001967438886429695</v>
       </c>
       <c r="BM223">
-        <v>0.008372265137147838</v>
+        <v>0.008372265137147839</v>
       </c>
       <c r="BN223">
         <v>0.009452160994599224</v>
@@ -45431,7 +45431,7 @@
         <v>2757.804356896218</v>
       </c>
       <c r="AD225">
-        <v>2095.002014939535</v>
+        <v>2095.002014939536</v>
       </c>
       <c r="AE225">
         <v>184.4052117829173</v>
@@ -45655,7 +45655,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>27377.3657814803</v>
+        <v>27377.36578148031</v>
       </c>
       <c r="C226">
         <v>21827.59311689555</v>
@@ -45685,7 +45685,7 @@
         <v>1171.829527833071</v>
       </c>
       <c r="P226">
-        <v>830.4447271171319</v>
+        <v>830.444727117132</v>
       </c>
       <c r="R226">
         <v>4121.511345735212</v>
@@ -45790,13 +45790,13 @@
         <v>0.01191367729026727</v>
       </c>
       <c r="BI226">
-        <v>0.007021250155337277</v>
+        <v>0.007021250155337278</v>
       </c>
       <c r="BJ226">
         <v>0.001595791837820215</v>
       </c>
       <c r="BK226">
-        <v>0.0006727965911639266</v>
+        <v>0.0006727965911639267</v>
       </c>
       <c r="BL226">
         <v>0.002150117279124286</v>
@@ -45859,7 +45859,7 @@
         <v>0.01738426017278605</v>
       </c>
       <c r="CF226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CG226">
         <v>0.02845656245052064</v>
@@ -45895,10 +45895,10 @@
         <v>0.004481072802021924</v>
       </c>
       <c r="CR226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CS226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CT226">
         <v>0.01012623409234448</v>
@@ -45942,7 +45942,7 @@
         <v>21953.9972358255</v>
       </c>
       <c r="D227">
-        <v>126.0194787985865</v>
+        <v>126.0194787985866</v>
       </c>
       <c r="E227">
         <v>18628.44942734845</v>
@@ -46005,7 +46005,7 @@
         <v>1869.186880692094</v>
       </c>
       <c r="AH227">
-        <v>3167.247342010678</v>
+        <v>3167.247342010679</v>
       </c>
       <c r="AI227">
         <v>887.6990075178636</v>
@@ -46095,7 +46095,7 @@
         <v>0.005553627212773193</v>
       </c>
       <c r="BQ227">
-        <v>0.00529809740029008</v>
+        <v>0.005298097400290081</v>
       </c>
       <c r="BR227">
         <v>0.00785853090722477</v>
@@ -46116,10 +46116,10 @@
         <v>0.01093636360138084</v>
       </c>
       <c r="BX227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BY227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BZ227">
         <v>0.01178261462276864</v>
@@ -46241,7 +46241,7 @@
         <v>138.0474053621126</v>
       </c>
       <c r="K228">
-        <v>139.3129838166035</v>
+        <v>139.3129838166036</v>
       </c>
       <c r="O228">
         <v>1211.876126129261</v>
@@ -46253,7 +46253,7 @@
         <v>4218.558798013613</v>
       </c>
       <c r="T228">
-        <v>2939.50507058637</v>
+        <v>2939.505070586371</v>
       </c>
       <c r="U228">
         <v>1929.927626721998</v>
@@ -46280,7 +46280,7 @@
         <v>187.9081823328797</v>
       </c>
       <c r="AF228">
-        <v>628.5139101432198</v>
+        <v>628.5139101432199</v>
       </c>
       <c r="AG228">
         <v>1887.161290506418</v>
@@ -46361,7 +46361,7 @@
         <v>0.0008211406389968534</v>
       </c>
       <c r="BL228">
-        <v>0.00262620367668509</v>
+        <v>0.002626203676685091</v>
       </c>
       <c r="BM228">
         <v>0.008885442056281834</v>
@@ -46403,7 +46403,7 @@
         <v>0.02227551209814171</v>
       </c>
       <c r="BZ228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CA228">
         <v>0.02766919235044507</v>
@@ -46442,7 +46442,7 @@
         <v>0.629670798</v>
       </c>
       <c r="CM228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CN228">
         <v>0.01058050772235042</v>
@@ -46534,7 +46534,7 @@
         <v>4267.490441952797</v>
       </c>
       <c r="T229">
-        <v>3008.057006024399</v>
+        <v>3008.0570060244</v>
       </c>
       <c r="U229">
         <v>1947.418122222992</v>
@@ -46576,7 +46576,7 @@
         <v>667.6040791937213</v>
       </c>
       <c r="AK229">
-        <v>1760.982886507589</v>
+        <v>1760.98288650759</v>
       </c>
       <c r="AL229">
         <v>105.741855555113</v>
@@ -46603,7 +46603,7 @@
         <v>0.6684305859028324</v>
       </c>
       <c r="AU229">
-        <v>1351.678049793177</v>
+        <v>1351.678049793178</v>
       </c>
       <c r="AY229">
         <v>21465.20000000001</v>
@@ -46765,7 +46765,7 @@
         <v>297.5951422320151</v>
       </c>
       <c r="DA229">
-        <v>415.7099974863632</v>
+        <v>415.7099974863633</v>
       </c>
       <c r="DB229">
         <v>3851.780444466433</v>
@@ -46779,7 +46779,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>28590.59310291599</v>
+        <v>28590.593102916</v>
       </c>
       <c r="C230">
         <v>22335.51356164305</v>
@@ -46848,7 +46848,7 @@
         <v>1923.467165266692</v>
       </c>
       <c r="AH230">
-        <v>3283.084411358951</v>
+        <v>3283.084411358952</v>
       </c>
       <c r="AI230">
         <v>913.0685592536303</v>
@@ -46875,7 +46875,7 @@
         <v>615.153012765848</v>
       </c>
       <c r="AR230">
-        <v>92.59207327394166</v>
+        <v>92.59207327394167</v>
       </c>
       <c r="AS230">
         <v>1356.969992785854</v>
@@ -46914,7 +46914,7 @@
         <v>0.01156729466276185</v>
       </c>
       <c r="BI230">
-        <v>0.006700573181561253</v>
+        <v>0.006700573181561254</v>
       </c>
       <c r="BJ230">
         <v>0.001877328327124506</v>
@@ -46974,7 +46974,7 @@
         <v>-0.007900580659151446</v>
       </c>
       <c r="CC230">
-        <v>0.002344911577722097</v>
+        <v>0.002344911577722098</v>
       </c>
       <c r="CD230">
         <v>0.009527529430288784</v>
@@ -47144,7 +47144,7 @@
         <v>108.0515516073777</v>
       </c>
       <c r="AM231">
-        <v>27.5934430147791</v>
+        <v>27.59344301477911</v>
       </c>
       <c r="AN231">
         <v>1044.346679521597</v>
@@ -47362,13 +47362,13 @@
         <v>142.7005284008727</v>
       </c>
       <c r="J232">
-        <v>142.455197979553</v>
+        <v>142.4551979795531</v>
       </c>
       <c r="K232">
         <v>143.7611857945377</v>
       </c>
       <c r="O232">
-        <v>1298.129736285304</v>
+        <v>1298.129736285305</v>
       </c>
       <c r="P232">
         <v>897.5213358241608</v>
@@ -47389,7 +47389,7 @@
         <v>4859.433524997301</v>
       </c>
       <c r="X232">
-        <v>1987.666228092138</v>
+        <v>1987.666228092139</v>
       </c>
       <c r="Z232">
         <v>1899.881143008987</v>
@@ -47410,13 +47410,13 @@
         <v>1959.773040026967</v>
       </c>
       <c r="AH232">
-        <v>3356.166149887953</v>
+        <v>3356.166149887954</v>
       </c>
       <c r="AI232">
         <v>930.5175197330805</v>
       </c>
       <c r="AJ232">
-        <v>689.5969366211204</v>
+        <v>689.5969366211205</v>
       </c>
       <c r="AK232">
         <v>1818.994883081704</v>
@@ -47488,7 +47488,7 @@
         <v>0.002406623026569132</v>
       </c>
       <c r="BM232">
-        <v>0.0088118917762805</v>
+        <v>0.008811891776280501</v>
       </c>
       <c r="BN232">
         <v>0.009110488081954138</v>
@@ -47703,7 +47703,7 @@
         <v>1838.574915846712</v>
       </c>
       <c r="AL233">
-        <v>110.4010292594511</v>
+        <v>110.4010292594512</v>
       </c>
       <c r="AM233">
         <v>28.19343604350077</v>
@@ -47748,7 +47748,7 @@
         <v>0.009507179584432146</v>
       </c>
       <c r="BF233">
-        <v>0.004803843074459468</v>
+        <v>0.004803843074459469</v>
       </c>
       <c r="BG233">
         <v>0.005447470817120603</v>
@@ -47895,7 +47895,7 @@
         <v>4075.016622531758</v>
       </c>
       <c r="DC233">
-        <v>3209.330105016053</v>
+        <v>3209.330105016054</v>
       </c>
     </row>
     <row r="234">
@@ -48208,7 +48208,7 @@
         <v>145.8366724726816</v>
       </c>
       <c r="K235">
-        <v>147.1736606621513</v>
+        <v>147.1736606621514</v>
       </c>
       <c r="O235">
         <v>1417.504122760617</v>
@@ -48465,7 +48465,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>30434.45421612956</v>
+        <v>30434.45421612957</v>
       </c>
       <c r="C236">
         <v>23067.96626072843</v>
@@ -48543,7 +48543,7 @@
         <v>718.3860942915185</v>
       </c>
       <c r="AK236">
-        <v>1894.933924730112</v>
+        <v>1894.933924730113</v>
       </c>
       <c r="AL236">
         <v>113.7852223837789</v>
@@ -48552,7 +48552,7 @@
         <v>29.05766741026968</v>
       </c>
       <c r="AN236">
-        <v>1099.039038317027</v>
+        <v>1099.039038317028</v>
       </c>
       <c r="AP236">
         <v>729.2024898207809</v>
@@ -48588,10 +48588,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="BE236">
-        <v>0.009536595205965392</v>
+        <v>0.009536595205965393</v>
       </c>
       <c r="BF236">
-        <v>0.004735595895816846</v>
+        <v>0.004735595895816847</v>
       </c>
       <c r="BG236">
         <v>0.005363984674329414</v>
@@ -48669,7 +48669,7 @@
         <v>0.02807149659709118</v>
       </c>
       <c r="CF236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CG236">
         <v>0.01015203568838041</v>
@@ -48705,10 +48705,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="CR236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CS236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CT236">
         <v>0.00986429996859628</v>
@@ -48770,7 +48770,7 @@
         <v>148.1233329241729</v>
       </c>
       <c r="K237">
-        <v>149.4812845514743</v>
+        <v>149.4812845514744</v>
       </c>
       <c r="O237">
         <v>1447.307396139283</v>
@@ -48782,7 +48782,7 @@
         <v>4719.900978986762</v>
       </c>
       <c r="T237">
-        <v>3409.502881694661</v>
+        <v>3409.502881694662</v>
       </c>
       <c r="U237">
         <v>2079.301745933583</v>
@@ -48830,7 +48830,7 @@
         <v>114.8963500378442</v>
       </c>
       <c r="AM237">
-        <v>29.34141935226864</v>
+        <v>29.34141935226865</v>
       </c>
       <c r="AN237">
         <v>1110.06285575954</v>
@@ -48860,7 +48860,7 @@
         <v>29303.7</v>
       </c>
       <c r="BB237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BC237">
         <v>0.004716938302991913</v>
@@ -48914,16 +48914,16 @@
         <v>0.004815838035924891</v>
       </c>
       <c r="BT237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BU237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BV237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BW237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BX237">
         <v>0.02252686236908463</v>
@@ -49027,7 +49027,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>31025.5812134008</v>
+        <v>31025.58121340081</v>
       </c>
       <c r="C238">
         <v>23281.71175098197</v>
@@ -49057,7 +49057,7 @@
         <v>1437.319207359512</v>
       </c>
       <c r="P238">
-        <v>969.389289728125</v>
+        <v>969.3892897281251</v>
       </c>
       <c r="R238">
         <v>4705.232094592178</v>
@@ -49102,7 +49102,7 @@
         <v>985.472124041594</v>
       </c>
       <c r="AJ238">
-        <v>732.3392741903353</v>
+        <v>732.3392741903354</v>
       </c>
       <c r="AK238">
         <v>1931.739138748357</v>
@@ -49317,7 +49317,7 @@
         <v>133.8642667844524</v>
       </c>
       <c r="E239">
-        <v>21263.35486319991</v>
+        <v>21263.35486319992</v>
       </c>
       <c r="G239">
         <v>130.2331078329412</v>
@@ -49374,7 +49374,7 @@
         <v>669.4034343763992</v>
       </c>
       <c r="AG239">
-        <v>2089.299641040815</v>
+        <v>2089.299641040816</v>
       </c>
       <c r="AH239">
         <v>3571.356418773678</v>
@@ -49500,7 +49500,7 @@
         <v>0.01065565472007601</v>
       </c>
       <c r="CB239">
-        <v>-0.001837288627154376</v>
+        <v>-0.001837288627154377</v>
       </c>
       <c r="CC239">
         <v>0.006356190776168447</v>
@@ -49509,7 +49509,7 @@
         <v>0.008876426091783962</v>
       </c>
       <c r="CE239">
-        <v>-0.006949179227988433</v>
+        <v>-0.006949179227988434</v>
       </c>
       <c r="CF239">
         <v>0.01283114102171923</v>
@@ -49589,7 +49589,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>31620.39551149266</v>
+        <v>31620.39551149267</v>
       </c>
       <c r="C240">
         <v>23492.31546528861</v>
@@ -49625,7 +49625,7 @@
         <v>4713.908586965312</v>
       </c>
       <c r="T240">
-        <v>3517.207854482976</v>
+        <v>3517.207854482977</v>
       </c>
       <c r="U240">
         <v>2133.72493572397</v>
@@ -49649,7 +49649,7 @@
         <v>2770.828363983833</v>
       </c>
       <c r="AE240">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF240">
         <v>673.6314164508544</v>
@@ -49688,7 +49688,7 @@
         <v>101.823194525554</v>
       </c>
       <c r="AS240">
-        <v>1418.965430746794</v>
+        <v>1418.965430746795</v>
       </c>
       <c r="AT240">
         <v>0.7020526580754322</v>
@@ -49703,7 +49703,7 @@
         <v>30149.59999999999</v>
       </c>
       <c r="BB240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BC240">
         <v>0.004500329128548142</v>
@@ -49712,7 +49712,7 @@
         <v>0.004495633576902636</v>
       </c>
       <c r="BE240">
-        <v>0.009505888025393538</v>
+        <v>0.009505888025393539</v>
       </c>
       <c r="BF240">
         <v>0.004643962848297489</v>
@@ -49930,7 +49930,7 @@
         <v>2799.737267725818</v>
       </c>
       <c r="AE241">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF241">
         <v>677.6533295404945</v>
@@ -49996,7 +49996,7 @@
         <v>0.009482712871812682</v>
       </c>
       <c r="BF241">
-        <v>0.004622496147919763</v>
+        <v>0.004622496147919764</v>
       </c>
       <c r="BG241">
         <v>0.00523168908819116</v>
@@ -50065,7 +50065,7 @@
         <v>0</v>
       </c>
       <c r="CC241">
-        <v>0.005970495127484154</v>
+        <v>0.005970495127484155</v>
       </c>
       <c r="CD241">
         <v>0.008534474032354744</v>
@@ -50196,7 +50196,7 @@
         <v>802.1500758174033</v>
       </c>
       <c r="W242">
-        <v>5292.555380088545</v>
+        <v>5292.555380088546</v>
       </c>
       <c r="X242">
         <v>2174.423912738787</v>
@@ -50211,7 +50211,7 @@
         <v>2828.451627003943</v>
       </c>
       <c r="AE242">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF242">
         <v>681.6752426301347</v>
@@ -50418,7 +50418,7 @@
         <v>304.6947757516308</v>
       </c>
       <c r="DA242">
-        <v>446.9912866462276</v>
+        <v>446.9912866462277</v>
       </c>
       <c r="DB242">
         <v>4491.948096043166</v>
@@ -50438,7 +50438,7 @@
         <v>23807.33086689696</v>
       </c>
       <c r="D243">
-        <v>136.5797703180212</v>
+        <v>136.5797703180213</v>
       </c>
       <c r="E243">
         <v>22139.67922113606</v>
@@ -50447,7 +50447,7 @@
         <v>132.7563553683342</v>
       </c>
       <c r="H243">
-        <v>136.2554679373339</v>
+        <v>136.255467937334</v>
       </c>
       <c r="I243">
         <v>155.4276453336736</v>
@@ -50489,10 +50489,10 @@
         <v>3305.387529739384</v>
       </c>
       <c r="AD243">
-        <v>2857.165986282067</v>
+        <v>2857.165986282068</v>
       </c>
       <c r="AE243">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF243">
         <v>685.6971557197749</v>
@@ -50525,7 +50525,7 @@
         <v>799.0638571734975</v>
       </c>
       <c r="AQ243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="AR243">
         <v>104.7245401172757</v>
@@ -50690,7 +50690,7 @@
         <v>0.007759251022763536</v>
       </c>
       <c r="CX243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="CY243">
         <v>307.2636127349625</v>
@@ -50773,7 +50773,7 @@
         <v>2885.880345560192</v>
       </c>
       <c r="AE244">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF244">
         <v>689.7190688094149</v>
@@ -50791,7 +50791,7 @@
         <v>775.0418236864115</v>
       </c>
       <c r="AK244">
-        <v>2044.3784428156</v>
+        <v>2044.378442815601</v>
       </c>
       <c r="AL244">
         <v>122.7589272198544</v>
@@ -50994,7 +50994,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>33142.72399314825</v>
+        <v>33142.72399314826</v>
       </c>
       <c r="C245">
         <v>24015.73533804078</v>
@@ -51090,13 +51090,13 @@
         <v>0.005289213452704944</v>
       </c>
       <c r="BJ245">
-        <v>0.001344547431056275</v>
+        <v>0.001344547431056276</v>
       </c>
       <c r="BK245">
         <v>0.00103001765744537</v>
       </c>
       <c r="BL245">
-        <v>0.001499109903494888</v>
+        <v>0.001499109903494889</v>
       </c>
       <c r="BM245">
         <v>0.008253068571319133</v>

--- a/results/12-2020/xx.xlsx
+++ b/results/12-2020/xx.xlsx
@@ -1002,7 +1002,7 @@
         <v>45.1</v>
       </c>
       <c r="AH2">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="AI2">
         <v>16.6</v>
@@ -1020,7 +1020,7 @@
         <v>1.1</v>
       </c>
       <c r="AN2">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="AO2">
         <v>129.9</v>
@@ -1074,10 +1074,10 @@
         <v>13.91379962</v>
       </c>
       <c r="DA2">
-        <v>14.61379962</v>
+        <v>14.91379962</v>
       </c>
       <c r="DB2">
-        <v>48.38620038</v>
+        <v>48.08620038</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>45.4</v>
       </c>
       <c r="AH3">
-        <v>53.956</v>
+        <v>53.6</v>
       </c>
       <c r="AI3">
         <v>17.9</v>
@@ -1199,7 +1199,7 @@
         <v>1.1</v>
       </c>
       <c r="AN3">
-        <v>19.144</v>
+        <v>19.5</v>
       </c>
       <c r="AO3">
         <v>134.1</v>
@@ -1253,10 +1253,10 @@
         <v>15.0526275972</v>
       </c>
       <c r="DA3">
-        <v>16.2966275972</v>
+        <v>16.6526275972</v>
       </c>
       <c r="DB3">
-        <v>56.8033724028</v>
+        <v>56.4473724028</v>
       </c>
     </row>
     <row r="4">
@@ -1360,7 +1360,7 @@
         <v>45.9</v>
       </c>
       <c r="AH4">
-        <v>52.736</v>
+        <v>52.3</v>
       </c>
       <c r="AI4">
         <v>19.2</v>
@@ -1378,7 +1378,7 @@
         <v>1.1</v>
       </c>
       <c r="AN4">
-        <v>20.764</v>
+        <v>21.2</v>
       </c>
       <c r="AO4">
         <v>140.1</v>
@@ -1432,10 +1432,10 @@
         <v>16.1914555744</v>
       </c>
       <c r="DA4">
-        <v>17.7554555744</v>
+        <v>18.1914555744</v>
       </c>
       <c r="DB4">
-        <v>55.7445444256</v>
+        <v>55.3085444256</v>
       </c>
     </row>
     <row r="5">
@@ -1539,7 +1539,7 @@
         <v>45.6</v>
       </c>
       <c r="AH5">
-        <v>54.864</v>
+        <v>54.4</v>
       </c>
       <c r="AI5">
         <v>19.8</v>
@@ -1557,7 +1557,7 @@
         <v>1.1</v>
       </c>
       <c r="AN5">
-        <v>22.436</v>
+        <v>22.9</v>
       </c>
       <c r="AO5">
         <v>144.3</v>
@@ -1611,10 +1611,10 @@
         <v>16.6302835516</v>
       </c>
       <c r="DA5">
-        <v>19.2662835516</v>
+        <v>19.7302835516</v>
       </c>
       <c r="DB5">
-        <v>58.0337164484</v>
+        <v>57.5697164484</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1718,7 @@
         <v>49.6</v>
       </c>
       <c r="AH6">
-        <v>55.776</v>
+        <v>55.3</v>
       </c>
       <c r="AI6">
         <v>20.5</v>
@@ -1736,7 +1736,7 @@
         <v>1.1</v>
       </c>
       <c r="AN6">
-        <v>23.524</v>
+        <v>24</v>
       </c>
       <c r="AO6">
         <v>149.1</v>
@@ -1790,10 +1790,10 @@
         <v>16.9716952952</v>
       </c>
       <c r="DA6">
-        <v>19.9956952952</v>
+        <v>20.4716952952</v>
       </c>
       <c r="DB6">
-        <v>59.3043047048</v>
+        <v>58.8283047048</v>
       </c>
     </row>
     <row r="7">
@@ -1897,7 +1897,7 @@
         <v>50.2</v>
       </c>
       <c r="AH7">
-        <v>62.2</v>
+        <v>61.60000000000001</v>
       </c>
       <c r="AI7">
         <v>22.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.2</v>
       </c>
       <c r="AN7">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="AO7">
         <v>153.6</v>
@@ -1969,10 +1969,10 @@
         <v>18.3440627336</v>
       </c>
       <c r="DA7">
-        <v>21.0440627336</v>
+        <v>21.6440627336</v>
       </c>
       <c r="DB7">
-        <v>65.9559372664</v>
+        <v>65.35593726640001</v>
       </c>
     </row>
     <row r="8">
@@ -2076,7 +2076,7 @@
         <v>50.5</v>
       </c>
       <c r="AH8">
-        <v>61.51600000000001</v>
+        <v>60.90000000000001</v>
       </c>
       <c r="AI8">
         <v>22.4</v>
@@ -2094,7 +2094,7 @@
         <v>1.2</v>
       </c>
       <c r="AN8">
-        <v>25.284</v>
+        <v>25.9</v>
       </c>
       <c r="AO8">
         <v>156.9</v>
@@ -2148,10 +2148,10 @@
         <v>18.4733383124</v>
       </c>
       <c r="DA8">
-        <v>21.3573383124</v>
+        <v>21.9733383124</v>
       </c>
       <c r="DB8">
-        <v>65.44266168760001</v>
+        <v>64.82666168760001</v>
       </c>
     </row>
     <row r="9">
@@ -2255,7 +2255,7 @@
         <v>51</v>
       </c>
       <c r="AH9">
-        <v>62.48</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="AI9">
         <v>23.7</v>
@@ -2273,7 +2273,7 @@
         <v>1.2</v>
       </c>
       <c r="AN9">
-        <v>26.02</v>
+        <v>26.6</v>
       </c>
       <c r="AO9">
         <v>161</v>
@@ -2327,10 +2327,10 @@
         <v>19.5457057508</v>
       </c>
       <c r="DA9">
-        <v>21.8657057508</v>
+        <v>22.4457057508</v>
       </c>
       <c r="DB9">
-        <v>66.6342942492</v>
+        <v>66.05429424920001</v>
       </c>
     </row>
     <row r="10">
@@ -2434,7 +2434,7 @@
         <v>57.3</v>
       </c>
       <c r="AH10">
-        <v>64.268</v>
+        <v>63.7</v>
       </c>
       <c r="AI10">
         <v>24.4</v>
@@ -2452,7 +2452,7 @@
         <v>1.3</v>
       </c>
       <c r="AN10">
-        <v>27.132</v>
+        <v>27.7</v>
       </c>
       <c r="AO10">
         <v>165.7</v>
@@ -2506,10 +2506,10 @@
         <v>20.1341111416</v>
       </c>
       <c r="DA10">
-        <v>22.8661111416</v>
+        <v>23.4341111416</v>
       </c>
       <c r="DB10">
-        <v>68.5338888584</v>
+        <v>67.96588885840001</v>
       </c>
     </row>
     <row r="11">
@@ -2613,7 +2613,7 @@
         <v>57.9</v>
       </c>
       <c r="AH11">
-        <v>64.00800000000001</v>
+        <v>63.3</v>
       </c>
       <c r="AI11">
         <v>32.7</v>
@@ -2631,7 +2631,7 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>27.792</v>
+        <v>28.5</v>
       </c>
       <c r="AO11">
         <v>167.9</v>
@@ -2685,10 +2685,10 @@
         <v>28.324729376</v>
       </c>
       <c r="DA11">
-        <v>23.416729376</v>
+        <v>24.124729376</v>
       </c>
       <c r="DB11">
-        <v>68.38327062400001</v>
+        <v>67.67527062400001</v>
       </c>
     </row>
     <row r="12">
@@ -2792,7 +2792,7 @@
         <v>58.5</v>
       </c>
       <c r="AH12">
-        <v>65.116</v>
+        <v>64.5</v>
       </c>
       <c r="AI12">
         <v>25.6</v>
@@ -2810,7 +2810,7 @@
         <v>1.3</v>
       </c>
       <c r="AN12">
-        <v>27.684</v>
+        <v>28.3</v>
       </c>
       <c r="AO12">
         <v>172.5</v>
@@ -2864,10 +2864,10 @@
         <v>20.8965840792</v>
       </c>
       <c r="DA12">
-        <v>22.9805840792</v>
+        <v>23.5965840792</v>
       </c>
       <c r="DB12">
-        <v>69.8194159208</v>
+        <v>69.2034159208</v>
       </c>
     </row>
     <row r="13">
@@ -2971,7 +2971,7 @@
         <v>59.4</v>
       </c>
       <c r="AH13">
-        <v>76.092</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AI13">
         <v>39.3</v>
@@ -2989,7 +2989,7 @@
         <v>1.4</v>
       </c>
       <c r="AN13">
-        <v>27.008</v>
+        <v>27.5</v>
       </c>
       <c r="AO13">
         <v>176.8</v>
@@ -3043,10 +3043,10 @@
         <v>34.651274962</v>
       </c>
       <c r="DA13">
-        <v>22.359274962</v>
+        <v>22.851274962</v>
       </c>
       <c r="DB13">
-        <v>80.74072503799999</v>
+        <v>80.24872503799999</v>
       </c>
     </row>
     <row r="14">
@@ -3150,7 +3150,7 @@
         <v>72.7</v>
       </c>
       <c r="AH14">
-        <v>78.012</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="AI14">
         <v>34.3</v>
@@ -3168,7 +3168,7 @@
         <v>1.4</v>
       </c>
       <c r="AN14">
-        <v>27.388</v>
+        <v>27.8</v>
       </c>
       <c r="AO14">
         <v>181.7</v>
@@ -3222,10 +3222,10 @@
         <v>29.588443174</v>
       </c>
       <c r="DA14">
-        <v>22.676443174</v>
+        <v>23.088443174</v>
       </c>
       <c r="DB14">
-        <v>82.72355682600001</v>
+        <v>82.31155682600001</v>
       </c>
     </row>
     <row r="15">
@@ -3329,7 +3329,7 @@
         <v>73.8</v>
       </c>
       <c r="AH15">
-        <v>79.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AI15">
         <v>33.4</v>
@@ -3347,7 +3347,7 @@
         <v>1.5</v>
       </c>
       <c r="AN15">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="AO15">
         <v>185.7</v>
@@ -3401,10 +3401,10 @@
         <v>28.3743393856</v>
       </c>
       <c r="DA15">
-        <v>23.0743393856</v>
+        <v>23.4743393856</v>
       </c>
       <c r="DB15">
-        <v>84.5256606144</v>
+        <v>84.12566061439999</v>
       </c>
     </row>
     <row r="16">
@@ -3508,7 +3508,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="AH16">
-        <v>80.988</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="AI16">
         <v>32.6</v>
@@ -3526,7 +3526,7 @@
         <v>1.5</v>
       </c>
       <c r="AN16">
-        <v>28.312</v>
+        <v>28.7</v>
       </c>
       <c r="AO16">
         <v>190</v>
@@ -3580,10 +3580,10 @@
         <v>27.5219887542</v>
       </c>
       <c r="DA16">
-        <v>23.2339887542</v>
+        <v>23.6219887542</v>
       </c>
       <c r="DB16">
-        <v>86.0660112458</v>
+        <v>85.67801124579999</v>
       </c>
     </row>
     <row r="17">
@@ -3687,7 +3687,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="AH17">
-        <v>82.94799999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="AI17">
         <v>33.6</v>
@@ -3705,7 +3705,7 @@
         <v>1.6</v>
       </c>
       <c r="AN17">
-        <v>29.352</v>
+        <v>29.7</v>
       </c>
       <c r="AO17">
         <v>195.9</v>
@@ -3759,10 +3759,10 @@
         <v>28.3125862286</v>
       </c>
       <c r="DA17">
-        <v>24.0645862286</v>
+        <v>24.4125862286</v>
       </c>
       <c r="DB17">
-        <v>88.23541377139999</v>
+        <v>87.88741377139999</v>
       </c>
     </row>
     <row r="18">
@@ -3866,7 +3866,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="AH18">
-        <v>88.66399999999999</v>
+        <v>88.3</v>
       </c>
       <c r="AI18">
         <v>33.3</v>
@@ -3884,7 +3884,7 @@
         <v>1.6</v>
       </c>
       <c r="AN18">
-        <v>28.836</v>
+        <v>29.2</v>
       </c>
       <c r="AO18">
         <v>201.1</v>
@@ -3938,10 +3938,10 @@
         <v>27.5178813342</v>
       </c>
       <c r="DA18">
-        <v>23.0538813342</v>
+        <v>23.4178813342</v>
       </c>
       <c r="DB18">
-        <v>94.44611866579999</v>
+        <v>94.0821186658</v>
       </c>
     </row>
     <row r="19">
@@ -4045,7 +4045,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="AH19">
-        <v>94.404</v>
+        <v>94</v>
       </c>
       <c r="AI19">
         <v>34.1</v>
@@ -4063,7 +4063,7 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>30.996</v>
+        <v>31.4</v>
       </c>
       <c r="AO19">
         <v>210.1</v>
@@ -4117,10 +4117,10 @@
         <v>27.8076943931</v>
       </c>
       <c r="DA19">
-        <v>24.7036943931</v>
+        <v>25.1076943931</v>
       </c>
       <c r="DB19">
-        <v>100.6963056069</v>
+        <v>100.2923056069</v>
       </c>
     </row>
     <row r="20">
@@ -4224,7 +4224,7 @@
         <v>85.2</v>
       </c>
       <c r="AH20">
-        <v>99.97200000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AI20">
         <v>35.4</v>
@@ -4242,7 +4242,7 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>32.328</v>
+        <v>32.8</v>
       </c>
       <c r="AO20">
         <v>217</v>
@@ -4296,10 +4296,10 @@
         <v>28.9376320794</v>
       </c>
       <c r="DA20">
-        <v>25.86563207939999</v>
+        <v>26.3376320794</v>
       </c>
       <c r="DB20">
-        <v>106.4343679206</v>
+        <v>105.9623679206</v>
       </c>
     </row>
     <row r="21">
@@ -4403,7 +4403,7 @@
         <v>85.40000000000001</v>
       </c>
       <c r="AH21">
-        <v>103.88</v>
+        <v>103.4</v>
       </c>
       <c r="AI21">
         <v>36.8</v>
@@ -4421,7 +4421,7 @@
         <v>1.7</v>
       </c>
       <c r="AN21">
-        <v>35.22</v>
+        <v>35.7</v>
       </c>
       <c r="AO21">
         <v>223.7</v>
@@ -4475,10 +4475,10 @@
         <v>29.997507452</v>
       </c>
       <c r="DA21">
-        <v>28.417507452</v>
+        <v>28.897507452</v>
       </c>
       <c r="DB21">
-        <v>110.682492548</v>
+        <v>110.202492548</v>
       </c>
     </row>
     <row r="22">
@@ -4582,7 +4582,7 @@
         <v>86.5</v>
       </c>
       <c r="AH22">
-        <v>107.24</v>
+        <v>106.3</v>
       </c>
       <c r="AI22">
         <v>39.3</v>
@@ -4600,7 +4600,7 @@
         <v>1.8</v>
       </c>
       <c r="AN22">
-        <v>42.46</v>
+        <v>43.4</v>
       </c>
       <c r="AO22">
         <v>235.9</v>
@@ -4654,10 +4654,10 @@
         <v>31.971448763</v>
       </c>
       <c r="DA22">
-        <v>35.131448763</v>
+        <v>36.071448763</v>
       </c>
       <c r="DB22">
-        <v>114.568551237</v>
+        <v>113.628551237</v>
       </c>
     </row>
     <row r="23">
@@ -4761,7 +4761,7 @@
         <v>86.8</v>
       </c>
       <c r="AH23">
-        <v>116.152</v>
+        <v>114.8</v>
       </c>
       <c r="AI23">
         <v>44.3</v>
@@ -4779,7 +4779,7 @@
         <v>1.8</v>
       </c>
       <c r="AN23">
-        <v>48.548</v>
+        <v>49.9</v>
       </c>
       <c r="AO23">
         <v>240.3</v>
@@ -4833,10 +4833,10 @@
         <v>36.69593931799999</v>
       </c>
       <c r="DA23">
-        <v>40.943939318</v>
+        <v>42.29593931799999</v>
       </c>
       <c r="DB23">
-        <v>123.756060682</v>
+        <v>122.404060682</v>
       </c>
     </row>
     <row r="24">
@@ -4940,7 +4940,7 @@
         <v>88.5</v>
       </c>
       <c r="AH24">
-        <v>118.816</v>
+        <v>116.6</v>
       </c>
       <c r="AI24">
         <v>45</v>
@@ -4958,7 +4958,7 @@
         <v>1.9</v>
       </c>
       <c r="AN24">
-        <v>48.984</v>
+        <v>51.2</v>
       </c>
       <c r="AO24">
         <v>246.6</v>
@@ -5012,10 +5012,10 @@
         <v>37.395939318</v>
       </c>
       <c r="DA24">
-        <v>41.379939318</v>
+        <v>43.595939318</v>
       </c>
       <c r="DB24">
-        <v>126.420060682</v>
+        <v>124.204060682</v>
       </c>
     </row>
     <row r="25">
@@ -5119,7 +5119,7 @@
         <v>90.5</v>
       </c>
       <c r="AH25">
-        <v>120.9</v>
+        <v>119</v>
       </c>
       <c r="AI25">
         <v>45.9</v>
@@ -5137,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="AN25">
-        <v>49.5</v>
+        <v>51.40000000000001</v>
       </c>
       <c r="AO25">
         <v>254.2</v>
@@ -5191,10 +5191,10 @@
         <v>37.855124206</v>
       </c>
       <c r="DA25">
-        <v>41.455124206</v>
+        <v>43.35512420600001</v>
       </c>
       <c r="DB25">
-        <v>128.944875794</v>
+        <v>127.044875794</v>
       </c>
     </row>
     <row r="26">
@@ -5298,7 +5298,7 @@
         <v>97.5</v>
       </c>
       <c r="AH26">
-        <v>125.684</v>
+        <v>123.6</v>
       </c>
       <c r="AI26">
         <v>47</v>
@@ -5316,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="AN26">
-        <v>49.016</v>
+        <v>51.09999999999999</v>
       </c>
       <c r="AO26">
         <v>260.3</v>
@@ -5370,10 +5370,10 @@
         <v>37.8397682448</v>
       </c>
       <c r="DA26">
-        <v>39.8557682448</v>
+        <v>41.93976824479999</v>
       </c>
       <c r="DB26">
-        <v>134.8442317552</v>
+        <v>132.7602317552</v>
       </c>
     </row>
     <row r="27">
@@ -5477,7 +5477,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="AH27">
-        <v>125.204</v>
+        <v>123.3</v>
       </c>
       <c r="AI27">
         <v>47.8</v>
@@ -5495,7 +5495,7 @@
         <v>2.1</v>
       </c>
       <c r="AN27">
-        <v>47.796</v>
+        <v>49.7</v>
       </c>
       <c r="AO27">
         <v>259.4</v>
@@ -5549,10 +5549,10 @@
         <v>38.8205622926</v>
       </c>
       <c r="DA27">
-        <v>38.8165622926</v>
+        <v>40.72056229260001</v>
       </c>
       <c r="DB27">
-        <v>134.1834377074</v>
+        <v>132.2794377074</v>
       </c>
     </row>
     <row r="28">
@@ -5656,7 +5656,7 @@
         <v>100.6</v>
       </c>
       <c r="AH28">
-        <v>131.82</v>
+        <v>129.3</v>
       </c>
       <c r="AI28">
         <v>48.7</v>
@@ -5674,7 +5674,7 @@
         <v>2.2</v>
       </c>
       <c r="AN28">
-        <v>48.28</v>
+        <v>50.8</v>
       </c>
       <c r="AO28">
         <v>261.3</v>
@@ -5728,10 +5728,10 @@
         <v>39.1179154666</v>
       </c>
       <c r="DA28">
-        <v>38.6979154666</v>
+        <v>41.2179154666</v>
       </c>
       <c r="DB28">
-        <v>141.4020845334</v>
+        <v>138.8820845334</v>
       </c>
     </row>
     <row r="29">
@@ -5835,7 +5835,7 @@
         <v>102.1</v>
       </c>
       <c r="AH29">
-        <v>134.172</v>
+        <v>132.2</v>
       </c>
       <c r="AI29">
         <v>52.7</v>
@@ -5853,7 +5853,7 @@
         <v>2.3</v>
       </c>
       <c r="AN29">
-        <v>48.528</v>
+        <v>50.5</v>
       </c>
       <c r="AO29">
         <v>263.9</v>
@@ -5907,10 +5907,10 @@
         <v>43.1179154666</v>
       </c>
       <c r="DA29">
-        <v>38.9459154666</v>
+        <v>40.9179154666</v>
       </c>
       <c r="DB29">
-        <v>143.7540845334</v>
+        <v>141.7820845334</v>
       </c>
     </row>
     <row r="30">
@@ -6014,7 +6014,7 @@
         <v>107.5</v>
       </c>
       <c r="AH30">
-        <v>136.404</v>
+        <v>134.3</v>
       </c>
       <c r="AI30">
         <v>50.7</v>
@@ -6032,7 +6032,7 @@
         <v>2.5</v>
       </c>
       <c r="AN30">
-        <v>49.096</v>
+        <v>51.2</v>
       </c>
       <c r="AO30">
         <v>271.1</v>
@@ -6086,10 +6086,10 @@
         <v>41.5202473686</v>
       </c>
       <c r="DA30">
-        <v>39.9162473686</v>
+        <v>42.0202473686</v>
       </c>
       <c r="DB30">
-        <v>145.5837526314</v>
+        <v>143.4797526314</v>
       </c>
     </row>
     <row r="31">
@@ -6193,7 +6193,7 @@
         <v>110.1</v>
       </c>
       <c r="AH31">
-        <v>137.124</v>
+        <v>135.6</v>
       </c>
       <c r="AI31">
         <v>53.7</v>
@@ -6211,7 +6211,7 @@
         <v>2.7</v>
       </c>
       <c r="AN31">
-        <v>49.276</v>
+        <v>50.8</v>
       </c>
       <c r="AO31">
         <v>278.6</v>
@@ -6265,10 +6265,10 @@
         <v>43.7836005525</v>
       </c>
       <c r="DA31">
-        <v>39.3596005525</v>
+        <v>40.8836005525</v>
       </c>
       <c r="DB31">
-        <v>147.0403994475</v>
+        <v>145.5163994475</v>
       </c>
     </row>
     <row r="32">
@@ -6372,7 +6372,7 @@
         <v>112.2</v>
       </c>
       <c r="AH32">
-        <v>143.964</v>
+        <v>142.5</v>
       </c>
       <c r="AI32">
         <v>57.3</v>
@@ -6390,7 +6390,7 @@
         <v>2.9</v>
       </c>
       <c r="AN32">
-        <v>47.736</v>
+        <v>49.2</v>
       </c>
       <c r="AO32">
         <v>282.3</v>
@@ -6444,10 +6444,10 @@
         <v>47.8369216701</v>
       </c>
       <c r="DA32">
-        <v>38.2729216701</v>
+        <v>39.7369216701</v>
       </c>
       <c r="DB32">
-        <v>153.4270783299</v>
+        <v>151.9630783299</v>
       </c>
     </row>
     <row r="33">
@@ -6551,7 +6551,7 @@
         <v>114.4</v>
       </c>
       <c r="AH33">
-        <v>146.076</v>
+        <v>144.8</v>
       </c>
       <c r="AI33">
         <v>57.3</v>
@@ -6569,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="AN33">
-        <v>48.224</v>
+        <v>49.5</v>
       </c>
       <c r="AO33">
         <v>287.5</v>
@@ -6623,10 +6623,10 @@
         <v>47.9502519495</v>
       </c>
       <c r="DA33">
-        <v>38.87425194950001</v>
+        <v>40.1502519495</v>
       </c>
       <c r="DB33">
-        <v>155.4257480505</v>
+        <v>154.1497480505</v>
       </c>
     </row>
     <row r="34">
@@ -6730,7 +6730,7 @@
         <v>121.6</v>
       </c>
       <c r="AH34">
-        <v>148.92</v>
+        <v>147.7</v>
       </c>
       <c r="AI34">
         <v>61.5</v>
@@ -6748,7 +6748,7 @@
         <v>3.2</v>
       </c>
       <c r="AN34">
-        <v>48.78</v>
+        <v>50</v>
       </c>
       <c r="AO34">
         <v>292.5</v>
@@ -6802,10 +6802,10 @@
         <v>51.6832776825</v>
       </c>
       <c r="DA34">
-        <v>38.9632776825</v>
+        <v>40.1832776825</v>
       </c>
       <c r="DB34">
-        <v>158.7367223175</v>
+        <v>157.5167223175</v>
       </c>
     </row>
     <row r="35">
@@ -6909,7 +6909,7 @@
         <v>126.5</v>
       </c>
       <c r="AH35">
-        <v>149.416</v>
+        <v>148.6</v>
       </c>
       <c r="AI35">
         <v>64.09999999999999</v>
@@ -6927,7 +6927,7 @@
         <v>3.3</v>
       </c>
       <c r="AN35">
-        <v>49.584</v>
+        <v>50.4</v>
       </c>
       <c r="AO35">
         <v>306</v>
@@ -6981,10 +6981,10 @@
         <v>53.6662265654</v>
       </c>
       <c r="DA35">
-        <v>39.1502265654</v>
+        <v>39.9662265654</v>
       </c>
       <c r="DB35">
-        <v>159.8497734346</v>
+        <v>159.0337734346</v>
       </c>
     </row>
     <row r="36">
@@ -7088,7 +7088,7 @@
         <v>130.8</v>
       </c>
       <c r="AH36">
-        <v>157.524</v>
+        <v>156.9</v>
       </c>
       <c r="AI36">
         <v>63.4</v>
@@ -7106,7 +7106,7 @@
         <v>3.5</v>
       </c>
       <c r="AN36">
-        <v>49.67599999999999</v>
+        <v>50.3</v>
       </c>
       <c r="AO36">
         <v>313.5</v>
@@ -7160,10 +7160,10 @@
         <v>52.7979398971</v>
       </c>
       <c r="DA36">
-        <v>39.0739398971</v>
+        <v>39.6979398971</v>
       </c>
       <c r="DB36">
-        <v>168.1260601029</v>
+        <v>167.5020601029</v>
       </c>
     </row>
     <row r="37">
@@ -7267,7 +7267,7 @@
         <v>136</v>
       </c>
       <c r="AH37">
-        <v>160.392</v>
+        <v>159.8</v>
       </c>
       <c r="AI37">
         <v>64.90000000000001</v>
@@ -7285,7 +7285,7 @@
         <v>3.6</v>
       </c>
       <c r="AN37">
-        <v>49.608</v>
+        <v>50.2</v>
       </c>
       <c r="AO37">
         <v>320.5</v>
@@ -7339,10 +7339,10 @@
         <v>53.9613665605</v>
       </c>
       <c r="DA37">
-        <v>38.6693665605</v>
+        <v>39.2613665605</v>
       </c>
       <c r="DB37">
-        <v>171.3306334395</v>
+        <v>170.7386334395</v>
       </c>
     </row>
     <row r="38">
@@ -7446,7 +7446,7 @@
         <v>143.1</v>
       </c>
       <c r="AH38">
-        <v>163.712</v>
+        <v>163.1</v>
       </c>
       <c r="AI38">
         <v>62.1</v>
@@ -7464,7 +7464,7 @@
         <v>3.8</v>
       </c>
       <c r="AN38">
-        <v>51.188</v>
+        <v>51.8</v>
       </c>
       <c r="AO38">
         <v>323.2</v>
@@ -7518,10 +7518,10 @@
         <v>50.72170876</v>
       </c>
       <c r="DA38">
-        <v>39.80970876000001</v>
+        <v>40.42170876</v>
       </c>
       <c r="DB38">
-        <v>175.09029124</v>
+        <v>174.47829124</v>
       </c>
     </row>
     <row r="39">
@@ -7625,7 +7625,7 @@
         <v>147.4</v>
       </c>
       <c r="AH39">
-        <v>167.072</v>
+        <v>166.5</v>
       </c>
       <c r="AI39">
         <v>62.6</v>
@@ -7643,7 +7643,7 @@
         <v>3.9</v>
       </c>
       <c r="AN39">
-        <v>52.128</v>
+        <v>52.7</v>
       </c>
       <c r="AO39">
         <v>333.2</v>
@@ -7697,10 +7697,10 @@
         <v>50.7665771104</v>
       </c>
       <c r="DA39">
-        <v>40.2945771104</v>
+        <v>40.8665771104</v>
       </c>
       <c r="DB39">
-        <v>178.9054228896</v>
+        <v>178.3334228896</v>
       </c>
     </row>
     <row r="40">
@@ -7804,7 +7804,7 @@
         <v>152.4</v>
       </c>
       <c r="AH40">
-        <v>181.048</v>
+        <v>180.5</v>
       </c>
       <c r="AI40">
         <v>65.2</v>
@@ -7822,7 +7822,7 @@
         <v>3.9</v>
       </c>
       <c r="AN40">
-        <v>53.552</v>
+        <v>54.1</v>
       </c>
       <c r="AO40">
         <v>344.8</v>
@@ -7876,10 +7876,10 @@
         <v>53.1959027418</v>
       </c>
       <c r="DA40">
-        <v>41.5479027418</v>
+        <v>42.0959027418</v>
       </c>
       <c r="DB40">
-        <v>193.0520972582</v>
+        <v>192.5040972582</v>
       </c>
     </row>
     <row r="41">
@@ -7983,7 +7983,7 @@
         <v>156.3</v>
       </c>
       <c r="AH41">
-        <v>183.868</v>
+        <v>183.2</v>
       </c>
       <c r="AI41">
         <v>65.90000000000001</v>
@@ -8001,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="AN41">
-        <v>56.832</v>
+        <v>57.5</v>
       </c>
       <c r="AO41">
         <v>356.1</v>
@@ -8055,10 +8055,10 @@
         <v>53.15631381120001</v>
       </c>
       <c r="DA41">
-        <v>44.0883138112</v>
+        <v>44.7563138112</v>
       </c>
       <c r="DB41">
-        <v>196.6116861888</v>
+        <v>195.9436861888</v>
       </c>
     </row>
     <row r="42">
@@ -8162,7 +8162,7 @@
         <v>159.3</v>
       </c>
       <c r="AH42">
-        <v>190.796</v>
+        <v>190.1</v>
       </c>
       <c r="AI42">
         <v>66.7</v>
@@ -8180,7 +8180,7 @@
         <v>3.6</v>
       </c>
       <c r="AN42">
-        <v>60.404</v>
+        <v>61.1</v>
       </c>
       <c r="AO42">
         <v>367.6</v>
@@ -8234,10 +8234,10 @@
         <v>53.647165036</v>
       </c>
       <c r="DA42">
-        <v>47.351165036</v>
+        <v>48.047165036</v>
       </c>
       <c r="DB42">
-        <v>203.848834964</v>
+        <v>203.152834964</v>
       </c>
     </row>
     <row r="43">
@@ -8341,7 +8341,7 @@
         <v>161</v>
       </c>
       <c r="AH43">
-        <v>192.26</v>
+        <v>191.6</v>
       </c>
       <c r="AI43">
         <v>68.2</v>
@@ -8359,7 +8359,7 @@
         <v>2.9</v>
       </c>
       <c r="AN43">
-        <v>64.03999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="AO43">
         <v>371.7</v>
@@ -8413,10 +8413,10 @@
         <v>55.816541188</v>
       </c>
       <c r="DA43">
-        <v>51.65654118799999</v>
+        <v>52.316541188</v>
       </c>
       <c r="DB43">
-        <v>204.643458812</v>
+        <v>203.983458812</v>
       </c>
     </row>
     <row r="44">
@@ -8520,7 +8520,7 @@
         <v>164.2</v>
       </c>
       <c r="AH44">
-        <v>217.336</v>
+        <v>216.4</v>
       </c>
       <c r="AI44">
         <v>70.7</v>
@@ -8538,7 +8538,7 @@
         <v>3.8</v>
       </c>
       <c r="AN44">
-        <v>70.464</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO44">
         <v>379.1</v>
@@ -8592,10 +8592,10 @@
         <v>57.20091426800001</v>
       </c>
       <c r="DA44">
-        <v>56.964914268</v>
+        <v>57.90091426800001</v>
       </c>
       <c r="DB44">
-        <v>230.835085732</v>
+        <v>229.899085732</v>
       </c>
     </row>
     <row r="45">
@@ -8699,7 +8699,7 @@
         <v>170.1</v>
       </c>
       <c r="AH45">
-        <v>219.484</v>
+        <v>218.6</v>
       </c>
       <c r="AI45">
         <v>73.09999999999999</v>
@@ -8717,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="AN45">
-        <v>71.21599999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="AO45">
         <v>388.1</v>
@@ -8771,10 +8771,10 @@
         <v>58.81997542399999</v>
       </c>
       <c r="DA45">
-        <v>56.93597542399999</v>
+        <v>57.81997542399999</v>
       </c>
       <c r="DB45">
-        <v>233.764024576</v>
+        <v>232.880024576</v>
       </c>
     </row>
     <row r="46">
@@ -8878,7 +8878,7 @@
         <v>187.3</v>
       </c>
       <c r="AH46">
-        <v>224.94</v>
+        <v>224.1</v>
       </c>
       <c r="AI46">
         <v>71.5</v>
@@ -8896,7 +8896,7 @@
         <v>3.7</v>
       </c>
       <c r="AN46">
-        <v>71.16</v>
+        <v>72</v>
       </c>
       <c r="AO46">
         <v>402.6</v>
@@ -8950,10 +8950,10 @@
         <v>56.721137037</v>
       </c>
       <c r="DA46">
-        <v>56.38113703699999</v>
+        <v>57.221137037</v>
       </c>
       <c r="DB46">
-        <v>239.718862963</v>
+        <v>238.878862963</v>
       </c>
     </row>
     <row r="47">
@@ -9057,7 +9057,7 @@
         <v>190.9</v>
       </c>
       <c r="AH47">
-        <v>226.952</v>
+        <v>226.1</v>
       </c>
       <c r="AI47">
         <v>71.40000000000001</v>
@@ -9075,7 +9075,7 @@
         <v>3.8</v>
       </c>
       <c r="AN47">
-        <v>72.048</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="AO47">
         <v>405.3</v>
@@ -9129,10 +9129,10 @@
         <v>55.72882832980001</v>
       </c>
       <c r="DA47">
-        <v>56.37682832980001</v>
+        <v>57.22882832980001</v>
       </c>
       <c r="DB47">
-        <v>242.6231716702</v>
+        <v>241.7711716702</v>
       </c>
     </row>
     <row r="48">
@@ -9236,7 +9236,7 @@
         <v>195.6</v>
       </c>
       <c r="AH48">
-        <v>245.088</v>
+        <v>244.3</v>
       </c>
       <c r="AI48">
         <v>68.8</v>
@@ -9254,7 +9254,7 @@
         <v>3.9</v>
       </c>
       <c r="AN48">
-        <v>71.91200000000001</v>
+        <v>72.7</v>
       </c>
       <c r="AO48">
         <v>409.8</v>
@@ -9308,10 +9308,10 @@
         <v>53.0172897414</v>
       </c>
       <c r="DA48">
-        <v>56.12928974140001</v>
+        <v>56.9172897414</v>
       </c>
       <c r="DB48">
-        <v>260.8707102586</v>
+        <v>260.0827102586</v>
       </c>
     </row>
     <row r="49">
@@ -9415,7 +9415,7 @@
         <v>198.2</v>
       </c>
       <c r="AH49">
-        <v>245.572</v>
+        <v>244.9</v>
       </c>
       <c r="AI49">
         <v>66</v>
@@ -9433,7 +9433,7 @@
         <v>4</v>
       </c>
       <c r="AN49">
-        <v>73.628</v>
+        <v>74.30000000000001</v>
       </c>
       <c r="AO49">
         <v>418.5</v>
@@ -9487,10 +9487,10 @@
         <v>50.384597624</v>
       </c>
       <c r="DA49">
-        <v>58.012597624</v>
+        <v>58.68459762400001</v>
       </c>
       <c r="DB49">
-        <v>261.187402376</v>
+        <v>260.515402376</v>
       </c>
     </row>
     <row r="50">
@@ -9594,7 +9594,7 @@
         <v>203.2</v>
       </c>
       <c r="AH50">
-        <v>246.728</v>
+        <v>246.1</v>
       </c>
       <c r="AI50">
         <v>65.8</v>
@@ -9612,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="AN50">
-        <v>77.47200000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="AO50">
         <v>425.5</v>
@@ -9666,10 +9666,10 @@
         <v>49.7468182816</v>
       </c>
       <c r="DA50">
-        <v>61.41881828160001</v>
+        <v>62.0468182816</v>
       </c>
       <c r="DB50">
-        <v>262.7811817184</v>
+        <v>262.1531817184</v>
       </c>
     </row>
     <row r="51">
@@ -9773,7 +9773,7 @@
         <v>205.2</v>
       </c>
       <c r="AH51">
-        <v>249.012</v>
+        <v>248.3</v>
       </c>
       <c r="AI51">
         <v>67.3</v>
@@ -9791,7 +9791,7 @@
         <v>4</v>
       </c>
       <c r="AN51">
-        <v>84.188</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AO51">
         <v>435.4</v>
@@ -9845,10 +9845,10 @@
         <v>50.4664552814</v>
       </c>
       <c r="DA51">
-        <v>67.35445528140001</v>
+        <v>68.06645528140001</v>
       </c>
       <c r="DB51">
-        <v>265.8455447186</v>
+        <v>265.1335447186</v>
       </c>
     </row>
     <row r="52">
@@ -9952,7 +9952,7 @@
         <v>207.5</v>
       </c>
       <c r="AH52">
-        <v>262.38</v>
+        <v>261.4</v>
       </c>
       <c r="AI52">
         <v>65.59999999999999</v>
@@ -9970,7 +9970,7 @@
         <v>4.1</v>
       </c>
       <c r="AN52">
-        <v>87.22</v>
+        <v>88.2</v>
       </c>
       <c r="AO52">
         <v>443.4</v>
@@ -10024,10 +10024,10 @@
         <v>48.43201399559999</v>
       </c>
       <c r="DA52">
-        <v>70.05201399559999</v>
+        <v>71.03201399560001</v>
       </c>
       <c r="DB52">
-        <v>279.5479860044</v>
+        <v>278.5679860044</v>
       </c>
     </row>
     <row r="53">
@@ -10131,7 +10131,7 @@
         <v>208.3</v>
       </c>
       <c r="AH53">
-        <v>275.876</v>
+        <v>270.8</v>
       </c>
       <c r="AI53">
         <v>66.3</v>
@@ -10149,7 +10149,7 @@
         <v>4.1</v>
       </c>
       <c r="AN53">
-        <v>89.324</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AO53">
         <v>452.9</v>
@@ -10203,10 +10203,10 @@
         <v>49.1320139956</v>
       </c>
       <c r="DA53">
-        <v>72.15601399560001</v>
+        <v>77.2320139956</v>
       </c>
       <c r="DB53">
-        <v>293.0439860044</v>
+        <v>287.9679860044</v>
       </c>
     </row>
     <row r="54">
@@ -10310,7 +10310,7 @@
         <v>216.1</v>
       </c>
       <c r="AH54">
-        <v>277.924</v>
+        <v>271.9</v>
       </c>
       <c r="AI54">
         <v>67.2</v>
@@ -10328,7 +10328,7 @@
         <v>4</v>
       </c>
       <c r="AN54">
-        <v>90.07599999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AO54">
         <v>461.9</v>
@@ -10382,10 +10382,10 @@
         <v>48.76047183</v>
       </c>
       <c r="DA54">
-        <v>71.63647182999999</v>
+        <v>77.66047182999999</v>
       </c>
       <c r="DB54">
-        <v>296.36352817</v>
+        <v>290.33952817</v>
       </c>
     </row>
     <row r="55">
@@ -10489,7 +10489,7 @@
         <v>220.2</v>
       </c>
       <c r="AH55">
-        <v>283.872</v>
+        <v>275.3</v>
       </c>
       <c r="AI55">
         <v>69.2</v>
@@ -10507,7 +10507,7 @@
         <v>4.1</v>
       </c>
       <c r="AN55">
-        <v>89.828</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AO55">
         <v>467.5</v>
@@ -10561,10 +10561,10 @@
         <v>50.64939033500001</v>
       </c>
       <c r="DA55">
-        <v>71.27739033500001</v>
+        <v>79.84939033500001</v>
       </c>
       <c r="DB55">
-        <v>302.422609665</v>
+        <v>293.850609665</v>
       </c>
     </row>
     <row r="56">
@@ -10668,7 +10668,7 @@
         <v>224.8</v>
       </c>
       <c r="AH56">
-        <v>283.556</v>
+        <v>278</v>
       </c>
       <c r="AI56">
         <v>68.40000000000001</v>
@@ -10686,7 +10686,7 @@
         <v>4.1</v>
       </c>
       <c r="AN56">
-        <v>84.944</v>
+        <v>90.5</v>
       </c>
       <c r="AO56">
         <v>476.7</v>
@@ -10740,10 +10740,10 @@
         <v>49.51614585000001</v>
       </c>
       <c r="DA56">
-        <v>66.06014585</v>
+        <v>71.61614585000001</v>
       </c>
       <c r="DB56">
-        <v>302.43985415</v>
+        <v>296.88385415</v>
       </c>
     </row>
     <row r="57">
@@ -10847,7 +10847,7 @@
         <v>231.2</v>
       </c>
       <c r="AH57">
-        <v>288.508</v>
+        <v>283.5</v>
       </c>
       <c r="AI57">
         <v>67</v>
@@ -10865,7 +10865,7 @@
         <v>4.3</v>
       </c>
       <c r="AN57">
-        <v>83.292</v>
+        <v>88.3</v>
       </c>
       <c r="AO57">
         <v>482.1</v>
@@ -10919,10 +10919,10 @@
         <v>47.6162791225</v>
       </c>
       <c r="DA57">
-        <v>63.90827912250001</v>
+        <v>68.9162791225</v>
       </c>
       <c r="DB57">
-        <v>307.8917208775</v>
+        <v>302.8837208775</v>
       </c>
     </row>
     <row r="58">
@@ -11026,7 +11026,7 @@
         <v>246.3</v>
       </c>
       <c r="AH58">
-        <v>292.996</v>
+        <v>289.1</v>
       </c>
       <c r="AI58">
         <v>71.3</v>
@@ -11044,7 +11044,7 @@
         <v>4.5</v>
       </c>
       <c r="AN58">
-        <v>83.304</v>
+        <v>87.2</v>
       </c>
       <c r="AO58">
         <v>495.1</v>
@@ -11098,10 +11098,10 @@
         <v>51.6016451735</v>
       </c>
       <c r="DA58">
-        <v>63.6056451735</v>
+        <v>67.50164517350001</v>
       </c>
       <c r="DB58">
-        <v>312.6943548265</v>
+        <v>308.7983548265</v>
       </c>
     </row>
     <row r="59">
@@ -11205,7 +11205,7 @@
         <v>252.1</v>
       </c>
       <c r="AH59">
-        <v>295.464</v>
+        <v>292.7</v>
       </c>
       <c r="AI59">
         <v>73.09999999999999</v>
@@ -11223,7 +11223,7 @@
         <v>4.7</v>
       </c>
       <c r="AN59">
-        <v>83.536</v>
+        <v>86.3</v>
       </c>
       <c r="AO59">
         <v>505.9</v>
@@ -11277,10 +11277,10 @@
         <v>53.125757851</v>
       </c>
       <c r="DA59">
-        <v>63.561757851</v>
+        <v>66.32575785099999</v>
       </c>
       <c r="DB59">
-        <v>315.438242149</v>
+        <v>312.674242149</v>
       </c>
     </row>
     <row r="60">
@@ -11384,7 +11384,7 @@
         <v>257.1</v>
       </c>
       <c r="AH60">
-        <v>296.316</v>
+        <v>294</v>
       </c>
       <c r="AI60">
         <v>70.7</v>
@@ -11402,7 +11402,7 @@
         <v>4.8</v>
       </c>
       <c r="AN60">
-        <v>84.084</v>
+        <v>86.39999999999999</v>
       </c>
       <c r="AO60">
         <v>518.3</v>
@@ -11456,10 +11456,10 @@
         <v>50.39469306400001</v>
       </c>
       <c r="DA60">
-        <v>63.77869306400001</v>
+        <v>66.094693064</v>
       </c>
       <c r="DB60">
-        <v>316.6213069360001</v>
+        <v>314.305306936</v>
       </c>
     </row>
     <row r="61">
@@ -11563,7 +11563,7 @@
         <v>261.1</v>
       </c>
       <c r="AH61">
-        <v>301.564</v>
+        <v>299.2</v>
       </c>
       <c r="AI61">
         <v>74.3</v>
@@ -11581,7 +11581,7 @@
         <v>4.8</v>
       </c>
       <c r="AN61">
-        <v>86.336</v>
+        <v>88.7</v>
       </c>
       <c r="AO61">
         <v>529.3</v>
@@ -11635,10 +11635,10 @@
         <v>53.553273348</v>
       </c>
       <c r="DA61">
-        <v>65.58927334800001</v>
+        <v>67.95327334800001</v>
       </c>
       <c r="DB61">
-        <v>322.310726652</v>
+        <v>319.9467266520001</v>
       </c>
     </row>
     <row r="62">
@@ -11742,7 +11742,7 @@
         <v>271</v>
       </c>
       <c r="AH62">
-        <v>308.796</v>
+        <v>306.3</v>
       </c>
       <c r="AI62">
         <v>74.8</v>
@@ -11760,7 +11760,7 @@
         <v>4.7</v>
       </c>
       <c r="AN62">
-        <v>89.304</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="AO62">
         <v>542.7</v>
@@ -11814,10 +11814,10 @@
         <v>53.606224192</v>
       </c>
       <c r="DA62">
-        <v>68.110224192</v>
+        <v>70.60622419200001</v>
       </c>
       <c r="DB62">
-        <v>329.989775808</v>
+        <v>327.493775808</v>
       </c>
     </row>
     <row r="63">
@@ -11921,7 +11921,7 @@
         <v>275</v>
       </c>
       <c r="AH63">
-        <v>309.76</v>
+        <v>308.2</v>
       </c>
       <c r="AI63">
         <v>75.3</v>
@@ -11939,7 +11939,7 @@
         <v>4.8</v>
       </c>
       <c r="AN63">
-        <v>90.73999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AO63">
         <v>557.7</v>
@@ -11993,10 +11993,10 @@
         <v>53.664687196</v>
       </c>
       <c r="DA63">
-        <v>69.104687196</v>
+        <v>70.664687196</v>
       </c>
       <c r="DB63">
-        <v>331.395312804</v>
+        <v>329.835312804</v>
       </c>
     </row>
     <row r="64">
@@ -12100,7 +12100,7 @@
         <v>279.7</v>
       </c>
       <c r="AH64">
-        <v>312.984</v>
+        <v>312.5</v>
       </c>
       <c r="AI64">
         <v>76.40000000000001</v>
@@ -12118,7 +12118,7 @@
         <v>4.9</v>
       </c>
       <c r="AN64">
-        <v>92.616</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AO64">
         <v>571.6</v>
@@ -12172,10 +12172,10 @@
         <v>54.2679580755</v>
       </c>
       <c r="DA64">
-        <v>70.4839580755</v>
+        <v>70.96795807549999</v>
       </c>
       <c r="DB64">
-        <v>335.1160419245</v>
+        <v>334.6320419245</v>
       </c>
     </row>
     <row r="65">
@@ -12279,7 +12279,7 @@
         <v>285.9</v>
       </c>
       <c r="AH65">
-        <v>313.412</v>
+        <v>312.9</v>
       </c>
       <c r="AI65">
         <v>78.09999999999999</v>
@@ -12297,7 +12297,7 @@
         <v>5.2</v>
       </c>
       <c r="AN65">
-        <v>94.88799999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="AO65">
         <v>582.2</v>
@@ -12351,10 +12351,10 @@
         <v>55.41603683049999</v>
       </c>
       <c r="DA65">
-        <v>72.20403683049999</v>
+        <v>72.71603683049999</v>
       </c>
       <c r="DB65">
-        <v>336.0959631695</v>
+        <v>335.5839631695</v>
       </c>
     </row>
     <row r="66">
@@ -12458,7 +12458,7 @@
         <v>292.7</v>
       </c>
       <c r="AH66">
-        <v>323.18</v>
+        <v>322.7</v>
       </c>
       <c r="AI66">
         <v>79.7</v>
@@ -12476,7 +12476,7 @@
         <v>5.5</v>
       </c>
       <c r="AN66">
-        <v>96.72</v>
+        <v>97.19999999999999</v>
       </c>
       <c r="AO66">
         <v>595.9</v>
@@ -12530,10 +12530,10 @@
         <v>56.33502414500001</v>
       </c>
       <c r="DA66">
-        <v>73.355024145</v>
+        <v>73.83502414499999</v>
       </c>
       <c r="DB66">
-        <v>346.544975855</v>
+        <v>346.064975855</v>
       </c>
     </row>
     <row r="67">
@@ -12637,7 +12637,7 @@
         <v>296.1</v>
       </c>
       <c r="AH67">
-        <v>326.152</v>
+        <v>325.6</v>
       </c>
       <c r="AI67">
         <v>83.8</v>
@@ -12655,7 +12655,7 @@
         <v>5.8</v>
       </c>
       <c r="AN67">
-        <v>99.44799999999999</v>
+        <v>100</v>
       </c>
       <c r="AO67">
         <v>605.5</v>
@@ -12709,10 +12709,10 @@
         <v>59.88003659499999</v>
       </c>
       <c r="DA67">
-        <v>75.52803659499999</v>
+        <v>76.080036595</v>
       </c>
       <c r="DB67">
-        <v>350.071963405</v>
+        <v>349.519963405</v>
       </c>
     </row>
     <row r="68">
@@ -12816,7 +12816,7 @@
         <v>300.8</v>
       </c>
       <c r="AH68">
-        <v>331.352</v>
+        <v>330.8</v>
       </c>
       <c r="AI68">
         <v>86.7</v>
@@ -12834,7 +12834,7 @@
         <v>6.1</v>
       </c>
       <c r="AN68">
-        <v>101.748</v>
+        <v>102.3</v>
       </c>
       <c r="AO68">
         <v>616.5</v>
@@ -12888,10 +12888,10 @@
         <v>62.22504904500001</v>
       </c>
       <c r="DA68">
-        <v>77.27304904499999</v>
+        <v>77.825049045</v>
       </c>
       <c r="DB68">
-        <v>355.826950955</v>
+        <v>355.274950955</v>
       </c>
     </row>
     <row r="69">
@@ -12995,7 +12995,7 @@
         <v>306.2</v>
       </c>
       <c r="AH69">
-        <v>332.492</v>
+        <v>332</v>
       </c>
       <c r="AI69">
         <v>79.5</v>
@@ -13013,7 +13013,7 @@
         <v>6.4</v>
       </c>
       <c r="AN69">
-        <v>103.308</v>
+        <v>103.8</v>
       </c>
       <c r="AO69">
         <v>626.3</v>
@@ -13067,10 +13067,10 @@
         <v>54.41456273999999</v>
       </c>
       <c r="DA69">
-        <v>78.22256274</v>
+        <v>78.71456274000001</v>
       </c>
       <c r="DB69">
-        <v>357.57743726</v>
+        <v>357.08543726</v>
       </c>
     </row>
     <row r="70">
@@ -13174,7 +13174,7 @@
         <v>310.7</v>
       </c>
       <c r="AH70">
-        <v>338.604</v>
+        <v>338.1</v>
       </c>
       <c r="AI70">
         <v>76.90000000000001</v>
@@ -13192,7 +13192,7 @@
         <v>6.7</v>
       </c>
       <c r="AN70">
-        <v>103.296</v>
+        <v>103.8</v>
       </c>
       <c r="AO70">
         <v>637.8</v>
@@ -13246,10 +13246,10 @@
         <v>51.32337748240001</v>
       </c>
       <c r="DA70">
-        <v>77.71937748239999</v>
+        <v>78.2233774824</v>
       </c>
       <c r="DB70">
-        <v>364.1806225176001</v>
+        <v>363.6766225176</v>
       </c>
     </row>
     <row r="71">
@@ -13353,7 +13353,7 @@
         <v>314.5</v>
       </c>
       <c r="AH71">
-        <v>343.02</v>
+        <v>342.5</v>
       </c>
       <c r="AI71">
         <v>80.2</v>
@@ -13371,7 +13371,7 @@
         <v>7</v>
       </c>
       <c r="AN71">
-        <v>104.48</v>
+        <v>105</v>
       </c>
       <c r="AO71">
         <v>646.9</v>
@@ -13425,10 +13425,10 @@
         <v>54.01441027960001</v>
       </c>
       <c r="DA71">
-        <v>78.29441027960002</v>
+        <v>78.8144102796</v>
       </c>
       <c r="DB71">
-        <v>369.2055897204</v>
+        <v>368.6855897204</v>
       </c>
     </row>
     <row r="72">
@@ -13532,7 +13532,7 @@
         <v>319</v>
       </c>
       <c r="AH72">
-        <v>343.908</v>
+        <v>343.5</v>
       </c>
       <c r="AI72">
         <v>78.2</v>
@@ -13550,7 +13550,7 @@
         <v>7.3</v>
       </c>
       <c r="AN72">
-        <v>105.592</v>
+        <v>106</v>
       </c>
       <c r="AO72">
         <v>656.4</v>
@@ -13604,10 +13604,10 @@
         <v>51.4054430768</v>
       </c>
       <c r="DA72">
-        <v>78.79744307679999</v>
+        <v>79.20544307680001</v>
       </c>
       <c r="DB72">
-        <v>370.7025569231999</v>
+        <v>370.2945569232</v>
       </c>
     </row>
     <row r="73">
@@ -13711,7 +13711,7 @@
         <v>325.6</v>
       </c>
       <c r="AH73">
-        <v>346.592</v>
+        <v>346.2</v>
       </c>
       <c r="AI73">
         <v>78.2</v>
@@ -13729,7 +13729,7 @@
         <v>7.7</v>
       </c>
       <c r="AN73">
-        <v>106.208</v>
+        <v>106.6</v>
       </c>
       <c r="AO73">
         <v>668.1</v>
@@ -13783,10 +13783,10 @@
         <v>50.85183652880001</v>
       </c>
       <c r="DA73">
-        <v>78.8598365288</v>
+        <v>79.2518365288</v>
       </c>
       <c r="DB73">
-        <v>373.9401634712</v>
+        <v>373.5481634712</v>
       </c>
     </row>
     <row r="74">
@@ -13890,7 +13890,7 @@
         <v>344.7</v>
       </c>
       <c r="AH74">
-        <v>361.504</v>
+        <v>361.1</v>
       </c>
       <c r="AI74">
         <v>84.09999999999999</v>
@@ -13908,7 +13908,7 @@
         <v>8</v>
       </c>
       <c r="AN74">
-        <v>108.796</v>
+        <v>109.2</v>
       </c>
       <c r="AO74">
         <v>678.6</v>
@@ -13962,10 +13962,10 @@
         <v>55.45719860129999</v>
       </c>
       <c r="DA74">
-        <v>80.15319860129999</v>
+        <v>80.5571986013</v>
       </c>
       <c r="DB74">
-        <v>390.1468013987</v>
+        <v>389.7428013987</v>
       </c>
     </row>
     <row r="75">
@@ -14069,7 +14069,7 @@
         <v>351.7</v>
       </c>
       <c r="AH75">
-        <v>363.364</v>
+        <v>362.9</v>
       </c>
       <c r="AI75">
         <v>84.09999999999999</v>
@@ -14087,7 +14087,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AN75">
-        <v>110.036</v>
+        <v>110.5</v>
       </c>
       <c r="AO75">
         <v>693.1</v>
@@ -14141,10 +14141,10 @@
         <v>54.72565357539999</v>
       </c>
       <c r="DA75">
-        <v>80.6616535754</v>
+        <v>81.12565357539999</v>
       </c>
       <c r="DB75">
-        <v>392.7383464246</v>
+        <v>392.2743464246</v>
       </c>
     </row>
     <row r="76">
@@ -14248,7 +14248,7 @@
         <v>357.7</v>
       </c>
       <c r="AH76">
-        <v>366.524</v>
+        <v>366.1</v>
       </c>
       <c r="AI76">
         <v>87</v>
@@ -14266,7 +14266,7 @@
         <v>8.5</v>
       </c>
       <c r="AN76">
-        <v>112.276</v>
+        <v>112.7</v>
       </c>
       <c r="AO76">
         <v>703.2</v>
@@ -14320,10 +14320,10 @@
         <v>56.78156316089999</v>
       </c>
       <c r="DA76">
-        <v>82.05756316089999</v>
+        <v>82.4815631609</v>
       </c>
       <c r="DB76">
-        <v>396.7424368391</v>
+        <v>396.3184368391</v>
       </c>
     </row>
     <row r="77">
@@ -14427,7 +14427,7 @@
         <v>365</v>
       </c>
       <c r="AH77">
-        <v>370.348</v>
+        <v>370</v>
       </c>
       <c r="AI77">
         <v>87.7</v>
@@ -14445,7 +14445,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AN77">
-        <v>114.552</v>
+        <v>114.9</v>
       </c>
       <c r="AO77">
         <v>720.1</v>
@@ -14499,10 +14499,10 @@
         <v>56.5249273578</v>
       </c>
       <c r="DA77">
-        <v>83.37692735780001</v>
+        <v>83.7249273578</v>
       </c>
       <c r="DB77">
-        <v>401.5230726422</v>
+        <v>401.1750726422</v>
       </c>
     </row>
     <row r="78">
@@ -14606,7 +14606,7 @@
         <v>370.9</v>
       </c>
       <c r="AH78">
-        <v>390.74</v>
+        <v>390.3</v>
       </c>
       <c r="AI78">
         <v>88.7</v>
@@ -14624,7 +14624,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AN78">
-        <v>117.36</v>
+        <v>117.8</v>
       </c>
       <c r="AO78">
         <v>736.6</v>
@@ -14678,10 +14678,10 @@
         <v>56.200326066</v>
       </c>
       <c r="DA78">
-        <v>84.860326066</v>
+        <v>85.300326066</v>
       </c>
       <c r="DB78">
-        <v>423.2396739339999</v>
+        <v>422.7996739339999</v>
       </c>
     </row>
     <row r="79">
@@ -14785,7 +14785,7 @@
         <v>375.4</v>
       </c>
       <c r="AH79">
-        <v>394.984</v>
+        <v>394.6</v>
       </c>
       <c r="AI79">
         <v>89.09999999999999</v>
@@ -14803,7 +14803,7 @@
         <v>8.9</v>
       </c>
       <c r="AN79">
-        <v>120.616</v>
+        <v>121</v>
       </c>
       <c r="AO79">
         <v>755.1</v>
@@ -14857,10 +14857,10 @@
         <v>55.35469396399999</v>
       </c>
       <c r="DA79">
-        <v>86.870693964</v>
+        <v>87.254693964</v>
       </c>
       <c r="DB79">
-        <v>428.729306036</v>
+        <v>428.345306036</v>
       </c>
     </row>
     <row r="80">
@@ -14964,7 +14964,7 @@
         <v>379.8</v>
       </c>
       <c r="AH80">
-        <v>399.48</v>
+        <v>399.1</v>
       </c>
       <c r="AI80">
         <v>95</v>
@@ -14982,7 +14982,7 @@
         <v>9</v>
       </c>
       <c r="AN80">
-        <v>125.22</v>
+        <v>125.6</v>
       </c>
       <c r="AO80">
         <v>770.4</v>
@@ -15036,10 +15036,10 @@
         <v>59.952442221</v>
       </c>
       <c r="DA80">
-        <v>90.172442221</v>
+        <v>90.55244222099999</v>
       </c>
       <c r="DB80">
-        <v>434.5275577789999</v>
+        <v>434.147557779</v>
       </c>
     </row>
     <row r="81">
@@ -15143,7 +15143,7 @@
         <v>385.6</v>
       </c>
       <c r="AH81">
-        <v>405.52</v>
+        <v>405.1</v>
       </c>
       <c r="AI81">
         <v>94.5</v>
@@ -15161,7 +15161,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AN81">
-        <v>130.18</v>
+        <v>130.6</v>
       </c>
       <c r="AO81">
         <v>790</v>
@@ -15215,10 +15215,10 @@
         <v>58.036951196</v>
       </c>
       <c r="DA81">
-        <v>93.716951196</v>
+        <v>94.13695119599998</v>
       </c>
       <c r="DB81">
-        <v>441.983048804</v>
+        <v>441.5630488039999</v>
       </c>
     </row>
     <row r="82">
@@ -15322,7 +15322,7 @@
         <v>394</v>
       </c>
       <c r="AH82">
-        <v>421.452</v>
+        <v>421.1</v>
       </c>
       <c r="AI82">
         <v>99.90000000000001</v>
@@ -15340,7 +15340,7 @@
         <v>9.5</v>
       </c>
       <c r="AN82">
-        <v>134.848</v>
+        <v>135.2</v>
       </c>
       <c r="AO82">
         <v>811.4</v>
@@ -15394,10 +15394,10 @@
         <v>61.37722407060001</v>
       </c>
       <c r="DA82">
-        <v>96.32522407059999</v>
+        <v>96.67722407059999</v>
       </c>
       <c r="DB82">
-        <v>459.9747759294</v>
+        <v>459.6227759294</v>
       </c>
     </row>
     <row r="83">
@@ -15501,7 +15501,7 @@
         <v>399</v>
       </c>
       <c r="AH83">
-        <v>426.768</v>
+        <v>426.3</v>
       </c>
       <c r="AI83">
         <v>103.2</v>
@@ -15519,7 +15519,7 @@
         <v>9.9</v>
       </c>
       <c r="AN83">
-        <v>140.832</v>
+        <v>141.3</v>
       </c>
       <c r="AO83">
         <v>824.1</v>
@@ -15573,10 +15573,10 @@
         <v>62.5370698523</v>
       </c>
       <c r="DA83">
-        <v>100.1690698523</v>
+        <v>100.6370698523</v>
       </c>
       <c r="DB83">
-        <v>467.4309301477</v>
+        <v>466.9629301477</v>
       </c>
     </row>
     <row r="84">
@@ -15680,7 +15680,7 @@
         <v>406.4</v>
       </c>
       <c r="AH84">
-        <v>430.172</v>
+        <v>429.7</v>
       </c>
       <c r="AI84">
         <v>105.5</v>
@@ -15698,7 +15698,7 @@
         <v>10.2</v>
       </c>
       <c r="AN84">
-        <v>148.028</v>
+        <v>148.5</v>
       </c>
       <c r="AO84">
         <v>843.9</v>
@@ -15752,10 +15752,10 @@
         <v>62.1763375809</v>
       </c>
       <c r="DA84">
-        <v>104.7043375809</v>
+        <v>105.1763375809</v>
       </c>
       <c r="DB84">
-        <v>473.4956624191</v>
+        <v>473.0236624191</v>
       </c>
     </row>
     <row r="85">
@@ -15859,7 +15859,7 @@
         <v>408.9</v>
       </c>
       <c r="AH85">
-        <v>438.952</v>
+        <v>438.4</v>
       </c>
       <c r="AI85">
         <v>108.8</v>
@@ -15877,7 +15877,7 @@
         <v>10.5</v>
       </c>
       <c r="AN85">
-        <v>157.848</v>
+        <v>158.4</v>
       </c>
       <c r="AO85">
         <v>871</v>
@@ -15931,10 +15931,10 @@
         <v>62.12150123869999</v>
       </c>
       <c r="DA85">
-        <v>111.1695012387</v>
+        <v>111.7215012387</v>
       </c>
       <c r="DB85">
-        <v>485.6304987613</v>
+        <v>485.0784987613</v>
       </c>
     </row>
     <row r="86">
@@ -16038,7 +16038,7 @@
         <v>412</v>
       </c>
       <c r="AH86">
-        <v>457.176</v>
+        <v>456.7</v>
       </c>
       <c r="AI86">
         <v>115.6</v>
@@ -16056,7 +16056,7 @@
         <v>11</v>
       </c>
       <c r="AN86">
-        <v>165.324</v>
+        <v>165.8</v>
       </c>
       <c r="AO86">
         <v>881.6</v>
@@ -16110,10 +16110,10 @@
         <v>64.5535151473</v>
       </c>
       <c r="DA86">
-        <v>114.2775151473</v>
+        <v>114.7535151473</v>
       </c>
       <c r="DB86">
-        <v>508.2224848527</v>
+        <v>507.7464848527</v>
       </c>
     </row>
     <row r="87">
@@ -16217,7 +16217,7 @@
         <v>418.3</v>
       </c>
       <c r="AH87">
-        <v>464.332</v>
+        <v>463.8</v>
       </c>
       <c r="AI87">
         <v>120.5</v>
@@ -16235,7 +16235,7 @@
         <v>11.4</v>
       </c>
       <c r="AN87">
-        <v>179.168</v>
+        <v>179.7</v>
       </c>
       <c r="AO87">
         <v>901.3</v>
@@ -16289,10 +16289,10 @@
         <v>63.72069605990001</v>
       </c>
       <c r="DA87">
-        <v>122.3886960599</v>
+        <v>122.9206960599</v>
       </c>
       <c r="DB87">
-        <v>521.1113039401</v>
+        <v>520.5793039401</v>
       </c>
     </row>
     <row r="88">
@@ -16396,7 +16396,7 @@
         <v>423.7</v>
       </c>
       <c r="AH88">
-        <v>469.736</v>
+        <v>469.2</v>
       </c>
       <c r="AI88">
         <v>127</v>
@@ -16414,7 +16414,7 @@
         <v>11.8</v>
       </c>
       <c r="AN88">
-        <v>183.964</v>
+        <v>184.5</v>
       </c>
       <c r="AO88">
         <v>919.2</v>
@@ -16468,10 +16468,10 @@
         <v>66.9883618936</v>
       </c>
       <c r="DA88">
-        <v>123.9523618936</v>
+        <v>124.4883618936</v>
       </c>
       <c r="DB88">
-        <v>529.7476381064</v>
+        <v>529.2116381064001</v>
       </c>
     </row>
     <row r="89">
@@ -16575,7 +16575,7 @@
         <v>428.4</v>
       </c>
       <c r="AH89">
-        <v>482.992</v>
+        <v>479.1</v>
       </c>
       <c r="AI89">
         <v>132.9</v>
@@ -16593,7 +16593,7 @@
         <v>12.2</v>
       </c>
       <c r="AN89">
-        <v>199.308</v>
+        <v>203.2</v>
       </c>
       <c r="AO89">
         <v>947</v>
@@ -16647,10 +16647,10 @@
         <v>64.28913326250002</v>
       </c>
       <c r="DA89">
-        <v>130.6971332625</v>
+        <v>134.5891332625</v>
       </c>
       <c r="DB89">
-        <v>551.6028667375</v>
+        <v>547.7108667375001</v>
       </c>
     </row>
     <row r="90">
@@ -16754,7 +16754,7 @@
         <v>439.9</v>
       </c>
       <c r="AH90">
-        <v>514.896</v>
+        <v>500.3</v>
       </c>
       <c r="AI90">
         <v>136.2</v>
@@ -16772,7 +16772,7 @@
         <v>12.6</v>
       </c>
       <c r="AN90">
-        <v>195.604</v>
+        <v>210.2</v>
       </c>
       <c r="AO90">
         <v>959.3</v>
@@ -16826,10 +16826,10 @@
         <v>67.52571122909998</v>
       </c>
       <c r="DA90">
-        <v>126.9297112291</v>
+        <v>141.5257112291</v>
       </c>
       <c r="DB90">
-        <v>583.5702887709</v>
+        <v>568.9742887709</v>
       </c>
     </row>
     <row r="91">
@@ -16933,7 +16933,7 @@
         <v>445.1</v>
       </c>
       <c r="AH91">
-        <v>525.0839999999999</v>
+        <v>509.3</v>
       </c>
       <c r="AI91">
         <v>139</v>
@@ -16951,7 +16951,7 @@
         <v>13</v>
       </c>
       <c r="AN91">
-        <v>204.016</v>
+        <v>219.8</v>
       </c>
       <c r="AO91">
         <v>975.2</v>
@@ -17005,10 +17005,10 @@
         <v>65.8235187058</v>
       </c>
       <c r="DA91">
-        <v>130.8395187058</v>
+        <v>146.6235187058</v>
       </c>
       <c r="DB91">
-        <v>598.2604812942</v>
+        <v>582.4764812942</v>
       </c>
     </row>
     <row r="92">
@@ -17112,7 +17112,7 @@
         <v>447.9</v>
       </c>
       <c r="AH92">
-        <v>530.14</v>
+        <v>515.9</v>
       </c>
       <c r="AI92">
         <v>145</v>
@@ -17130,7 +17130,7 @@
         <v>13.3</v>
       </c>
       <c r="AN92">
-        <v>211.16</v>
+        <v>225.4</v>
       </c>
       <c r="AO92">
         <v>988.2</v>
@@ -17184,10 +17184,10 @@
         <v>68.52613826620001</v>
       </c>
       <c r="DA92">
-        <v>134.6861382662</v>
+        <v>148.9261382662</v>
       </c>
       <c r="DB92">
-        <v>606.6138617337999</v>
+        <v>592.3738617337999</v>
       </c>
     </row>
     <row r="93">
@@ -17291,7 +17291,7 @@
         <v>442.9</v>
       </c>
       <c r="AH93">
-        <v>537.6800000000001</v>
+        <v>523.1</v>
       </c>
       <c r="AI93">
         <v>146.5</v>
@@ -17309,7 +17309,7 @@
         <v>13.6</v>
       </c>
       <c r="AN93">
-        <v>208.42</v>
+        <v>223</v>
       </c>
       <c r="AO93">
         <v>991.3</v>
@@ -17363,10 +17363,10 @@
         <v>69.89931594159999</v>
       </c>
       <c r="DA93">
-        <v>131.8193159416</v>
+        <v>146.3993159416</v>
       </c>
       <c r="DB93">
-        <v>614.2806840584001</v>
+        <v>599.7006840584</v>
       </c>
     </row>
     <row r="94">
@@ -17470,7 +17470,7 @@
         <v>462.1</v>
       </c>
       <c r="AH94">
-        <v>556.972</v>
+        <v>542.5</v>
       </c>
       <c r="AI94">
         <v>148.8</v>
@@ -17488,7 +17488,7 @@
         <v>13.8</v>
       </c>
       <c r="AN94">
-        <v>209.528</v>
+        <v>224</v>
       </c>
       <c r="AO94">
         <v>1001.1</v>
@@ -17548,10 +17548,10 @@
         <v>74.91200000000001</v>
       </c>
       <c r="DA94">
-        <v>135.64</v>
+        <v>150.112</v>
       </c>
       <c r="DB94">
-        <v>630.86</v>
+        <v>616.388</v>
       </c>
     </row>
     <row r="95">
@@ -17655,7 +17655,7 @@
         <v>462.4</v>
       </c>
       <c r="AH95">
-        <v>560.192</v>
+        <v>546.5</v>
       </c>
       <c r="AI95">
         <v>151.4</v>
@@ -17673,7 +17673,7 @@
         <v>14.1</v>
       </c>
       <c r="AN95">
-        <v>211.508</v>
+        <v>225.2</v>
       </c>
       <c r="AO95">
         <v>1011.6</v>
@@ -17733,10 +17733,10 @@
         <v>75.364</v>
       </c>
       <c r="DA95">
-        <v>135.472</v>
+        <v>149.164</v>
       </c>
       <c r="DB95">
-        <v>636.2280000000001</v>
+        <v>622.5360000000001</v>
       </c>
     </row>
     <row r="96">
@@ -17840,7 +17840,7 @@
         <v>466.8</v>
       </c>
       <c r="AH96">
-        <v>563.9200000000001</v>
+        <v>550.2</v>
       </c>
       <c r="AI96">
         <v>157.2</v>
@@ -17858,7 +17858,7 @@
         <v>14.2</v>
       </c>
       <c r="AN96">
-        <v>222.38</v>
+        <v>236.1</v>
       </c>
       <c r="AO96">
         <v>1028.1</v>
@@ -17918,10 +17918,10 @@
         <v>76.59599999999999</v>
       </c>
       <c r="DA96">
-        <v>141.776</v>
+        <v>155.496</v>
       </c>
       <c r="DB96">
-        <v>644.5240000000001</v>
+        <v>630.8040000000001</v>
       </c>
     </row>
     <row r="97">
@@ -18025,7 +18025,7 @@
         <v>470.8</v>
       </c>
       <c r="AH97">
-        <v>567.46</v>
+        <v>556.4</v>
       </c>
       <c r="AI97">
         <v>165.5</v>
@@ -18043,7 +18043,7 @@
         <v>14.4</v>
       </c>
       <c r="AN97">
-        <v>223.84</v>
+        <v>234.9</v>
       </c>
       <c r="AO97">
         <v>1036.1</v>
@@ -18103,10 +18103,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="DA97">
-        <v>139.74</v>
+        <v>150.8</v>
       </c>
       <c r="DB97">
-        <v>651.5600000000001</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="98">
@@ -18210,7 +18210,7 @@
         <v>485.8</v>
       </c>
       <c r="AH98">
-        <v>579.992</v>
+        <v>573.8</v>
       </c>
       <c r="AI98">
         <v>162.4</v>
@@ -18228,7 +18228,7 @@
         <v>14.6</v>
       </c>
       <c r="AN98">
-        <v>225.408</v>
+        <v>231.6</v>
       </c>
       <c r="AO98">
         <v>1046.6</v>
@@ -18288,10 +18288,10 @@
         <v>83.45200000000001</v>
       </c>
       <c r="DA98">
-        <v>146.46</v>
+        <v>152.652</v>
       </c>
       <c r="DB98">
-        <v>658.9399999999999</v>
+        <v>652.7479999999999</v>
       </c>
     </row>
     <row r="99">
@@ -18395,7 +18395,7 @@
         <v>493</v>
       </c>
       <c r="AH99">
-        <v>584.104</v>
+        <v>581.8000000000001</v>
       </c>
       <c r="AI99">
         <v>164.9</v>
@@ -18413,7 +18413,7 @@
         <v>14.6</v>
       </c>
       <c r="AN99">
-        <v>225.996</v>
+        <v>228.3</v>
       </c>
       <c r="AO99">
         <v>1060.5</v>
@@ -18473,10 +18473,10 @@
         <v>83.128</v>
       </c>
       <c r="DA99">
-        <v>144.224</v>
+        <v>146.528</v>
       </c>
       <c r="DB99">
-        <v>665.8760000000001</v>
+        <v>663.5720000000001</v>
       </c>
     </row>
     <row r="100">
@@ -18580,7 +18580,7 @@
         <v>499</v>
       </c>
       <c r="AH100">
-        <v>588.736</v>
+        <v>587.9</v>
       </c>
       <c r="AI100">
         <v>167.3</v>
@@ -18598,7 +18598,7 @@
         <v>14.5</v>
       </c>
       <c r="AN100">
-        <v>224.964</v>
+        <v>225.8</v>
       </c>
       <c r="AO100">
         <v>1077.4</v>
@@ -18658,10 +18658,10 @@
         <v>84.40800000000002</v>
       </c>
       <c r="DA100">
-        <v>142.072</v>
+        <v>142.908</v>
       </c>
       <c r="DB100">
-        <v>671.6279999999999</v>
+        <v>670.7919999999999</v>
       </c>
     </row>
     <row r="101">
@@ -18765,7 +18765,7 @@
         <v>506.8</v>
       </c>
       <c r="AH101">
-        <v>597.5400000000001</v>
+        <v>596.8000000000001</v>
       </c>
       <c r="AI101">
         <v>172.8</v>
@@ -18783,7 +18783,7 @@
         <v>14.4</v>
       </c>
       <c r="AN101">
-        <v>236.26</v>
+        <v>237</v>
       </c>
       <c r="AO101">
         <v>1100.7</v>
@@ -18843,10 +18843,10 @@
         <v>87.26000000000001</v>
       </c>
       <c r="DA101">
-        <v>150.72</v>
+        <v>151.46</v>
       </c>
       <c r="DB101">
-        <v>683.08</v>
+        <v>682.34</v>
       </c>
     </row>
     <row r="102">
@@ -18950,7 +18950,7 @@
         <v>514.2</v>
       </c>
       <c r="AH102">
-        <v>617.456</v>
+        <v>616.7</v>
       </c>
       <c r="AI102">
         <v>175.6</v>
@@ -18968,7 +18968,7 @@
         <v>14</v>
       </c>
       <c r="AN102">
-        <v>240.544</v>
+        <v>241.3</v>
       </c>
       <c r="AO102">
         <v>1118.5</v>
@@ -19028,10 +19028,10 @@
         <v>85.07599999999999</v>
       </c>
       <c r="DA102">
-        <v>150.02</v>
+        <v>150.776</v>
       </c>
       <c r="DB102">
-        <v>707.98</v>
+        <v>707.224</v>
       </c>
     </row>
     <row r="103">
@@ -19135,7 +19135,7 @@
         <v>519</v>
       </c>
       <c r="AH103">
-        <v>624.044</v>
+        <v>623.3</v>
       </c>
       <c r="AI103">
         <v>174.8</v>
@@ -19153,7 +19153,7 @@
         <v>13.7</v>
       </c>
       <c r="AN103">
-        <v>241.556</v>
+        <v>242.3</v>
       </c>
       <c r="AO103">
         <v>1132.8</v>
@@ -19213,10 +19213,10 @@
         <v>84.26000000000001</v>
       </c>
       <c r="DA103">
-        <v>151.016</v>
+        <v>151.76</v>
       </c>
       <c r="DB103">
-        <v>714.5839999999999</v>
+        <v>713.8399999999999</v>
       </c>
     </row>
     <row r="104">
@@ -19320,7 +19320,7 @@
         <v>524.6</v>
       </c>
       <c r="AH104">
-        <v>628.716</v>
+        <v>628</v>
       </c>
       <c r="AI104">
         <v>175.8</v>
@@ -19338,7 +19338,7 @@
         <v>13.5</v>
       </c>
       <c r="AN104">
-        <v>241.984</v>
+        <v>242.7</v>
       </c>
       <c r="AO104">
         <v>1136.8</v>
@@ -19398,10 +19398,10 @@
         <v>86.52000000000001</v>
       </c>
       <c r="DA104">
-        <v>152.704</v>
+        <v>153.42</v>
       </c>
       <c r="DB104">
-        <v>717.996</v>
+        <v>717.28</v>
       </c>
     </row>
     <row r="105">
@@ -19505,7 +19505,7 @@
         <v>529.9</v>
       </c>
       <c r="AH105">
-        <v>634.0319999999999</v>
+        <v>633.3</v>
       </c>
       <c r="AI105">
         <v>171.7</v>
@@ -19523,7 +19523,7 @@
         <v>13.2</v>
       </c>
       <c r="AN105">
-        <v>230.568</v>
+        <v>231.3</v>
       </c>
       <c r="AO105">
         <v>1131.2</v>
@@ -19583,10 +19583,10 @@
         <v>84.13199999999999</v>
       </c>
       <c r="DA105">
-        <v>143</v>
+        <v>143.732</v>
       </c>
       <c r="DB105">
-        <v>721.5999999999999</v>
+        <v>720.8679999999999</v>
       </c>
     </row>
     <row r="106">
@@ -19690,7 +19690,7 @@
         <v>532.9</v>
       </c>
       <c r="AH106">
-        <v>652.724</v>
+        <v>652</v>
       </c>
       <c r="AI106">
         <v>177.1</v>
@@ -19708,7 +19708,7 @@
         <v>13</v>
       </c>
       <c r="AN106">
-        <v>240.476</v>
+        <v>241.2</v>
       </c>
       <c r="AO106">
         <v>1145.1</v>
@@ -19768,10 +19768,10 @@
         <v>88.32799999999999</v>
       </c>
       <c r="DA106">
-        <v>151.704</v>
+        <v>152.428</v>
       </c>
       <c r="DB106">
-        <v>741.4960000000001</v>
+        <v>740.772</v>
       </c>
     </row>
     <row r="107">
@@ -19875,7 +19875,7 @@
         <v>541.7</v>
       </c>
       <c r="AH107">
-        <v>658.652</v>
+        <v>658</v>
       </c>
       <c r="AI107">
         <v>185.5</v>
@@ -19893,7 +19893,7 @@
         <v>12.7</v>
       </c>
       <c r="AN107">
-        <v>254.248</v>
+        <v>254.9</v>
       </c>
       <c r="AO107">
         <v>1171.4</v>
@@ -19953,10 +19953,10 @@
         <v>89.124</v>
       </c>
       <c r="DA107">
-        <v>157.872</v>
+        <v>158.524</v>
       </c>
       <c r="DB107">
-        <v>755.028</v>
+        <v>754.376</v>
       </c>
     </row>
     <row r="108">
@@ -20060,7 +20060,7 @@
         <v>549.5</v>
       </c>
       <c r="AH108">
-        <v>662.696</v>
+        <v>662.1</v>
       </c>
       <c r="AI108">
         <v>182.9</v>
@@ -20078,7 +20078,7 @@
         <v>12.3</v>
       </c>
       <c r="AN108">
-        <v>245.804</v>
+        <v>246.4</v>
       </c>
       <c r="AO108">
         <v>1176</v>
@@ -20138,10 +20138,10 @@
         <v>88.02800000000001</v>
       </c>
       <c r="DA108">
-        <v>150.932</v>
+        <v>151.528</v>
       </c>
       <c r="DB108">
-        <v>757.568</v>
+        <v>756.972</v>
       </c>
     </row>
     <row r="109">
@@ -20245,7 +20245,7 @@
         <v>557.5</v>
       </c>
       <c r="AH109">
-        <v>667.812</v>
+        <v>667.1999999999999</v>
       </c>
       <c r="AI109">
         <v>180.3</v>
@@ -20263,7 +20263,7 @@
         <v>11.9</v>
       </c>
       <c r="AN109">
-        <v>242.788</v>
+        <v>243.4</v>
       </c>
       <c r="AO109">
         <v>1192</v>
@@ -20323,10 +20323,10 @@
         <v>86.40800000000002</v>
       </c>
       <c r="DA109">
-        <v>148.896</v>
+        <v>149.508</v>
       </c>
       <c r="DB109">
-        <v>761.704</v>
+        <v>761.0919999999999</v>
       </c>
     </row>
     <row r="110">
@@ -20430,7 +20430,7 @@
         <v>566</v>
       </c>
       <c r="AH110">
-        <v>684.192</v>
+        <v>683.5</v>
       </c>
       <c r="AI110">
         <v>184.6</v>
@@ -20448,7 +20448,7 @@
         <v>11.3</v>
       </c>
       <c r="AN110">
-        <v>246.308</v>
+        <v>247</v>
       </c>
       <c r="AO110">
         <v>1202.5</v>
@@ -20508,10 +20508,10 @@
         <v>88.61999999999999</v>
       </c>
       <c r="DA110">
-        <v>150.328</v>
+        <v>151.02</v>
       </c>
       <c r="DB110">
-        <v>780.172</v>
+        <v>779.48</v>
       </c>
     </row>
     <row r="111">
@@ -20615,7 +20615,7 @@
         <v>574</v>
       </c>
       <c r="AH111">
-        <v>687.708</v>
+        <v>687.1</v>
       </c>
       <c r="AI111">
         <v>184.2</v>
@@ -20633,7 +20633,7 @@
         <v>10.9</v>
       </c>
       <c r="AN111">
-        <v>243.492</v>
+        <v>244.1</v>
       </c>
       <c r="AO111">
         <v>1209</v>
@@ -20693,10 +20693,10 @@
         <v>89.27599999999998</v>
       </c>
       <c r="DA111">
-        <v>148.568</v>
+        <v>149.176</v>
       </c>
       <c r="DB111">
-        <v>782.6319999999999</v>
+        <v>782.024</v>
       </c>
     </row>
     <row r="112">
@@ -20800,7 +20800,7 @@
         <v>582.9</v>
       </c>
       <c r="AH112">
-        <v>690.1360000000001</v>
+        <v>689.6</v>
       </c>
       <c r="AI112">
         <v>187.5</v>
@@ -20818,7 +20818,7 @@
         <v>10.6</v>
       </c>
       <c r="AN112">
-        <v>247.064</v>
+        <v>247.6</v>
       </c>
       <c r="AO112">
         <v>1225.5</v>
@@ -20878,10 +20878,10 @@
         <v>90.392</v>
       </c>
       <c r="DA112">
-        <v>149.956</v>
+        <v>150.492</v>
       </c>
       <c r="DB112">
-        <v>787.2440000000001</v>
+        <v>786.7080000000001</v>
       </c>
     </row>
     <row r="113">
@@ -20985,7 +20985,7 @@
         <v>594.8</v>
       </c>
       <c r="AH113">
-        <v>691.3480000000001</v>
+        <v>690.8000000000001</v>
       </c>
       <c r="AI113">
         <v>196.3</v>
@@ -21003,7 +21003,7 @@
         <v>10.5</v>
       </c>
       <c r="AN113">
-        <v>251.252</v>
+        <v>251.8</v>
       </c>
       <c r="AO113">
         <v>1243.5</v>
@@ -21063,10 +21063,10 @@
         <v>94.91600000000001</v>
       </c>
       <c r="DA113">
-        <v>149.868</v>
+        <v>150.416</v>
       </c>
       <c r="DB113">
-        <v>792.7320000000001</v>
+        <v>792.1840000000001</v>
       </c>
     </row>
     <row r="114">
@@ -21170,7 +21170,7 @@
         <v>602.8</v>
       </c>
       <c r="AH114">
-        <v>700.8480000000001</v>
+        <v>700.3000000000001</v>
       </c>
       <c r="AI114">
         <v>197.3</v>
@@ -21188,7 +21188,7 @@
         <v>10.5</v>
       </c>
       <c r="AN114">
-        <v>250.952</v>
+        <v>251.5</v>
       </c>
       <c r="AO114">
         <v>1250.5</v>
@@ -21248,10 +21248,10 @@
         <v>97.85600000000001</v>
       </c>
       <c r="DA114">
-        <v>151.508</v>
+        <v>152.056</v>
       </c>
       <c r="DB114">
-        <v>800.292</v>
+        <v>799.744</v>
       </c>
     </row>
     <row r="115">
@@ -21355,7 +21355,7 @@
         <v>612.3</v>
       </c>
       <c r="AH115">
-        <v>701.9000000000001</v>
+        <v>701.4000000000001</v>
       </c>
       <c r="AI115">
         <v>197</v>
@@ -21373,7 +21373,7 @@
         <v>10.5</v>
       </c>
       <c r="AN115">
-        <v>254.1</v>
+        <v>254.6</v>
       </c>
       <c r="AO115">
         <v>1272.2</v>
@@ -21433,10 +21433,10 @@
         <v>95.392</v>
       </c>
       <c r="DA115">
-        <v>152.492</v>
+        <v>152.992</v>
       </c>
       <c r="DB115">
-        <v>803.508</v>
+        <v>803.008</v>
       </c>
     </row>
     <row r="116">
@@ -21540,7 +21540,7 @@
         <v>622.2</v>
       </c>
       <c r="AH116">
-        <v>703.72</v>
+        <v>703.2</v>
       </c>
       <c r="AI116">
         <v>201.8</v>
@@ -21558,7 +21558,7 @@
         <v>10.3</v>
       </c>
       <c r="AN116">
-        <v>253.68</v>
+        <v>254.2</v>
       </c>
       <c r="AO116">
         <v>1290.9</v>
@@ -21618,10 +21618,10 @@
         <v>99.54000000000001</v>
       </c>
       <c r="DA116">
-        <v>151.42</v>
+        <v>151.94</v>
       </c>
       <c r="DB116">
-        <v>805.98</v>
+        <v>805.46</v>
       </c>
     </row>
     <row r="117">
@@ -21725,7 +21725,7 @@
         <v>632.2</v>
       </c>
       <c r="AH117">
-        <v>705.388</v>
+        <v>704.9000000000001</v>
       </c>
       <c r="AI117">
         <v>207</v>
@@ -21743,7 +21743,7 @@
         <v>10.1</v>
       </c>
       <c r="AN117">
-        <v>261.012</v>
+        <v>261.5</v>
       </c>
       <c r="AO117">
         <v>1312.2</v>
@@ -21803,10 +21803,10 @@
         <v>103.048</v>
       </c>
       <c r="DA117">
-        <v>157.06</v>
+        <v>157.548</v>
       </c>
       <c r="DB117">
-        <v>809.34</v>
+        <v>808.8520000000001</v>
       </c>
     </row>
     <row r="118">
@@ -21910,7 +21910,7 @@
         <v>643.5</v>
       </c>
       <c r="AH118">
-        <v>715.196</v>
+        <v>714.7</v>
       </c>
       <c r="AI118">
         <v>214.7</v>
@@ -21928,7 +21928,7 @@
         <v>9.9</v>
       </c>
       <c r="AN118">
-        <v>268.104</v>
+        <v>268.6</v>
       </c>
       <c r="AO118">
         <v>1338.9</v>
@@ -21988,10 +21988,10 @@
         <v>107.6</v>
       </c>
       <c r="DA118">
-        <v>161.004</v>
+        <v>161.5</v>
       </c>
       <c r="DB118">
-        <v>822.296</v>
+        <v>821.8000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -22095,7 +22095,7 @@
         <v>649.3</v>
       </c>
       <c r="AH119">
-        <v>718.196</v>
+        <v>717.7</v>
       </c>
       <c r="AI119">
         <v>211.8</v>
@@ -22113,7 +22113,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AN119">
-        <v>266.804</v>
+        <v>267.3</v>
       </c>
       <c r="AO119">
         <v>1357.4</v>
@@ -22173,10 +22173,10 @@
         <v>104.592</v>
       </c>
       <c r="DA119">
-        <v>159.596</v>
+        <v>160.092</v>
       </c>
       <c r="DB119">
-        <v>825.404</v>
+        <v>824.908</v>
       </c>
     </row>
     <row r="120">
@@ -22280,7 +22280,7 @@
         <v>656.7</v>
       </c>
       <c r="AH120">
-        <v>721.248</v>
+        <v>720.8000000000001</v>
       </c>
       <c r="AI120">
         <v>223.1</v>
@@ -22298,7 +22298,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AN120">
-        <v>274.852</v>
+        <v>275.3</v>
       </c>
       <c r="AO120">
         <v>1388</v>
@@ -22358,10 +22358,10 @@
         <v>109.672</v>
       </c>
       <c r="DA120">
-        <v>161.424</v>
+        <v>161.872</v>
       </c>
       <c r="DB120">
-        <v>834.676</v>
+        <v>834.2280000000001</v>
       </c>
     </row>
     <row r="121">
@@ -22465,7 +22465,7 @@
         <v>669.8</v>
       </c>
       <c r="AH121">
-        <v>724.6160000000001</v>
+        <v>724.2</v>
       </c>
       <c r="AI121">
         <v>227</v>
@@ -22483,7 +22483,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AN121">
-        <v>279.784</v>
+        <v>280.2</v>
       </c>
       <c r="AO121">
         <v>1416.9</v>
@@ -22543,10 +22543,10 @@
         <v>112.38</v>
       </c>
       <c r="DA121">
-        <v>165.164</v>
+        <v>165.58</v>
       </c>
       <c r="DB121">
-        <v>839.2360000000001</v>
+        <v>838.8200000000001</v>
       </c>
     </row>
     <row r="122">
@@ -22650,7 +22650,7 @@
         <v>689.4</v>
       </c>
       <c r="AH122">
-        <v>736.728</v>
+        <v>736.3</v>
       </c>
       <c r="AI122">
         <v>224.5</v>
@@ -22668,7 +22668,7 @@
         <v>10</v>
       </c>
       <c r="AN122">
-        <v>280.172</v>
+        <v>280.6</v>
       </c>
       <c r="AO122">
         <v>1435.5</v>
@@ -22728,10 +22728,10 @@
         <v>109.648</v>
       </c>
       <c r="DA122">
-        <v>165.32</v>
+        <v>165.748</v>
       </c>
       <c r="DB122">
-        <v>851.5799999999999</v>
+        <v>851.1519999999999</v>
       </c>
     </row>
     <row r="123">
@@ -22835,7 +22835,7 @@
         <v>691.5</v>
       </c>
       <c r="AH123">
-        <v>753.372</v>
+        <v>752.9</v>
       </c>
       <c r="AI123">
         <v>227.4</v>
@@ -22853,7 +22853,7 @@
         <v>10.4</v>
       </c>
       <c r="AN123">
-        <v>288.928</v>
+        <v>289.4</v>
       </c>
       <c r="AO123">
         <v>1452.8</v>
@@ -22913,10 +22913,10 @@
         <v>111.232</v>
       </c>
       <c r="DA123">
-        <v>172.76</v>
+        <v>173.232</v>
       </c>
       <c r="DB123">
-        <v>869.54</v>
+        <v>869.068</v>
       </c>
     </row>
     <row r="124">
@@ -23020,7 +23020,7 @@
         <v>704.2</v>
       </c>
       <c r="AH124">
-        <v>757.408</v>
+        <v>756.9</v>
       </c>
       <c r="AI124">
         <v>239.5</v>
@@ -23038,7 +23038,7 @@
         <v>11</v>
       </c>
       <c r="AN124">
-        <v>297.292</v>
+        <v>297.8</v>
       </c>
       <c r="AO124">
         <v>1477.8</v>
@@ -23098,10 +23098,10 @@
         <v>114.108</v>
       </c>
       <c r="DA124">
-        <v>171.9</v>
+        <v>172.408</v>
       </c>
       <c r="DB124">
-        <v>882.8</v>
+        <v>882.2919999999999</v>
       </c>
     </row>
     <row r="125">
@@ -23205,7 +23205,7 @@
         <v>709.2</v>
       </c>
       <c r="AH125">
-        <v>765.1799999999999</v>
+        <v>764.6</v>
       </c>
       <c r="AI125">
         <v>241.1</v>
@@ -23223,7 +23223,7 @@
         <v>11.8</v>
       </c>
       <c r="AN125">
-        <v>300.42</v>
+        <v>301</v>
       </c>
       <c r="AO125">
         <v>1506.8</v>
@@ -23283,10 +23283,10 @@
         <v>119.352</v>
       </c>
       <c r="DA125">
-        <v>178.672</v>
+        <v>179.252</v>
       </c>
       <c r="DB125">
-        <v>886.928</v>
+        <v>886.3480000000001</v>
       </c>
     </row>
     <row r="126">
@@ -23390,7 +23390,7 @@
         <v>723.4</v>
       </c>
       <c r="AH126">
-        <v>792.424</v>
+        <v>791.8</v>
       </c>
       <c r="AI126">
         <v>254</v>
@@ -23408,7 +23408,7 @@
         <v>12.7</v>
       </c>
       <c r="AN126">
-        <v>315.276</v>
+        <v>315.9</v>
       </c>
       <c r="AO126">
         <v>1559.9</v>
@@ -23468,10 +23468,10 @@
         <v>124.612</v>
       </c>
       <c r="DA126">
-        <v>185.8879999999999</v>
+        <v>186.512</v>
       </c>
       <c r="DB126">
-        <v>921.812</v>
+        <v>921.188</v>
       </c>
     </row>
     <row r="127">
@@ -23575,7 +23575,7 @@
         <v>723.4</v>
       </c>
       <c r="AH127">
-        <v>803.1319999999999</v>
+        <v>802.6</v>
       </c>
       <c r="AI127">
         <v>262.2</v>
@@ -23593,7 +23593,7 @@
         <v>13.5</v>
       </c>
       <c r="AN127">
-        <v>335.868</v>
+        <v>336.4</v>
       </c>
       <c r="AO127">
         <v>1617</v>
@@ -23653,10 +23653,10 @@
         <v>130.072</v>
       </c>
       <c r="DA127">
-        <v>203.74</v>
+        <v>204.272</v>
       </c>
       <c r="DB127">
-        <v>935.26</v>
+        <v>934.7280000000001</v>
       </c>
     </row>
     <row r="128">
@@ -23760,7 +23760,7 @@
         <v>722</v>
       </c>
       <c r="AH128">
-        <v>816.776</v>
+        <v>816.3</v>
       </c>
       <c r="AI128">
         <v>258.5</v>
@@ -23778,7 +23778,7 @@
         <v>14.1</v>
       </c>
       <c r="AN128">
-        <v>328.424</v>
+        <v>328.9</v>
       </c>
       <c r="AO128">
         <v>1596.6</v>
@@ -23838,10 +23838,10 @@
         <v>125.136</v>
       </c>
       <c r="DA128">
-        <v>195.06</v>
+        <v>195.536</v>
       </c>
       <c r="DB128">
-        <v>950.14</v>
+        <v>949.664</v>
       </c>
     </row>
     <row r="129">
@@ -23945,7 +23945,7 @@
         <v>724.2</v>
       </c>
       <c r="AH129">
-        <v>825.0920000000001</v>
+        <v>824.6</v>
       </c>
       <c r="AI129">
         <v>270.4</v>
@@ -23963,7 +23963,7 @@
         <v>14.5</v>
       </c>
       <c r="AN129">
-        <v>366.108</v>
+        <v>366.6</v>
       </c>
       <c r="AO129">
         <v>1655.5</v>
@@ -24023,10 +24023,10 @@
         <v>126.748</v>
       </c>
       <c r="DA129">
-        <v>222.456</v>
+        <v>222.948</v>
       </c>
       <c r="DB129">
-        <v>968.7440000000001</v>
+        <v>968.252</v>
       </c>
     </row>
     <row r="130">
@@ -24130,7 +24130,7 @@
         <v>732</v>
       </c>
       <c r="AH130">
-        <v>853.813</v>
+        <v>852.2</v>
       </c>
       <c r="AI130">
         <v>277.3</v>
@@ -24148,7 +24148,7 @@
         <v>14.9</v>
       </c>
       <c r="AN130">
-        <v>367.187</v>
+        <v>368.8</v>
       </c>
       <c r="AO130">
         <v>1676.3</v>
@@ -24208,10 +24208,10 @@
         <v>131.753</v>
       </c>
       <c r="DA130">
-        <v>221.64</v>
+        <v>223.253</v>
       </c>
       <c r="DB130">
-        <v>999.36</v>
+        <v>997.7470000000001</v>
       </c>
     </row>
     <row r="131">
@@ -24315,7 +24315,7 @@
         <v>739.9</v>
       </c>
       <c r="AH131">
-        <v>877.8579999999999</v>
+        <v>860.5</v>
       </c>
       <c r="AI131">
         <v>285.7</v>
@@ -24333,7 +24333,7 @@
         <v>15.4</v>
       </c>
       <c r="AN131">
-        <v>369.142</v>
+        <v>386.5</v>
       </c>
       <c r="AO131">
         <v>1693.6</v>
@@ -24393,10 +24393,10 @@
         <v>139.348</v>
       </c>
       <c r="DA131">
-        <v>222.79</v>
+        <v>240.148</v>
       </c>
       <c r="DB131">
-        <v>1024.21</v>
+        <v>1006.852</v>
       </c>
     </row>
     <row r="132">
@@ -24500,7 +24500,7 @@
         <v>742</v>
       </c>
       <c r="AH132">
-        <v>883.1070000000001</v>
+        <v>868.3000000000001</v>
       </c>
       <c r="AI132">
         <v>294.3</v>
@@ -24518,7 +24518,7 @@
         <v>16.1</v>
       </c>
       <c r="AN132">
-        <v>376.793</v>
+        <v>391.6</v>
       </c>
       <c r="AO132">
         <v>1723.7</v>
@@ -24578,10 +24578,10 @@
         <v>141.404</v>
       </c>
       <c r="DA132">
-        <v>223.897</v>
+        <v>238.704</v>
       </c>
       <c r="DB132">
-        <v>1036.003</v>
+        <v>1021.196</v>
       </c>
     </row>
     <row r="133">
@@ -24685,7 +24685,7 @@
         <v>743.8</v>
       </c>
       <c r="AH133">
-        <v>888.8579999999999</v>
+        <v>877.0999999999999</v>
       </c>
       <c r="AI133">
         <v>297.4</v>
@@ -24703,7 +24703,7 @@
         <v>17</v>
       </c>
       <c r="AN133">
-        <v>387.342</v>
+        <v>399.1</v>
       </c>
       <c r="AO133">
         <v>1756.2</v>
@@ -24763,10 +24763,10 @@
         <v>142.093</v>
       </c>
       <c r="DA133">
-        <v>232.035</v>
+        <v>243.793</v>
       </c>
       <c r="DB133">
-        <v>1044.165</v>
+        <v>1032.407</v>
       </c>
     </row>
     <row r="134">
@@ -24870,7 +24870,7 @@
         <v>749.1</v>
       </c>
       <c r="AH134">
-        <v>906.345</v>
+        <v>895.9000000000001</v>
       </c>
       <c r="AI134">
         <v>299.6</v>
@@ -24888,7 +24888,7 @@
         <v>18</v>
       </c>
       <c r="AN134">
-        <v>388.355</v>
+        <v>398.8</v>
       </c>
       <c r="AO134">
         <v>1782.4</v>
@@ -24948,10 +24948,10 @@
         <v>145.222</v>
       </c>
       <c r="DA134">
-        <v>233.977</v>
+        <v>244.422</v>
       </c>
       <c r="DB134">
-        <v>1060.723</v>
+        <v>1050.278</v>
       </c>
     </row>
     <row r="135">
@@ -25055,7 +25055,7 @@
         <v>758.6</v>
       </c>
       <c r="AH135">
-        <v>921.077</v>
+        <v>909.0999999999999</v>
       </c>
       <c r="AI135">
         <v>323.3</v>
@@ -25073,7 +25073,7 @@
         <v>19.2</v>
       </c>
       <c r="AN135">
-        <v>391.523</v>
+        <v>403.5</v>
       </c>
       <c r="AO135">
         <v>1784.5</v>
@@ -25133,10 +25133,10 @@
         <v>165.28</v>
       </c>
       <c r="DA135">
-        <v>233.503</v>
+        <v>245.48</v>
       </c>
       <c r="DB135">
-        <v>1079.097</v>
+        <v>1067.12</v>
       </c>
     </row>
     <row r="136">
@@ -25240,7 +25240,7 @@
         <v>767.2</v>
       </c>
       <c r="AH136">
-        <v>931.726</v>
+        <v>919.5</v>
       </c>
       <c r="AI136">
         <v>329.6</v>
@@ -25258,7 +25258,7 @@
         <v>20.5</v>
       </c>
       <c r="AN136">
-        <v>403.774</v>
+        <v>416</v>
       </c>
       <c r="AO136">
         <v>1813</v>
@@ -25318,10 +25318,10 @@
         <v>155.371</v>
       </c>
       <c r="DA136">
-        <v>229.545</v>
+        <v>241.771</v>
       </c>
       <c r="DB136">
-        <v>1105.955</v>
+        <v>1093.729</v>
       </c>
     </row>
     <row r="137">
@@ -25425,7 +25425,7 @@
         <v>778.2</v>
       </c>
       <c r="AH137">
-        <v>944.915</v>
+        <v>932.8</v>
       </c>
       <c r="AI137">
         <v>334.3</v>
@@ -25443,7 +25443,7 @@
         <v>22</v>
       </c>
       <c r="AN137">
-        <v>396.385</v>
+        <v>408.5</v>
       </c>
       <c r="AO137">
         <v>1815.8</v>
@@ -25503,10 +25503,10 @@
         <v>163.794</v>
       </c>
       <c r="DA137">
-        <v>225.879</v>
+        <v>237.994</v>
       </c>
       <c r="DB137">
-        <v>1115.421</v>
+        <v>1103.306</v>
       </c>
     </row>
     <row r="138">
@@ -25610,7 +25610,7 @@
         <v>790</v>
       </c>
       <c r="AH138">
-        <v>967.312</v>
+        <v>961.3000000000001</v>
       </c>
       <c r="AI138">
         <v>328</v>
@@ -25628,7 +25628,7 @@
         <v>23.4</v>
       </c>
       <c r="AN138">
-        <v>412.288</v>
+        <v>418.3</v>
       </c>
       <c r="AO138">
         <v>1844.8</v>
@@ -25688,10 +25688,10 @@
         <v>150.228</v>
       </c>
       <c r="DA138">
-        <v>234.516</v>
+        <v>240.528</v>
       </c>
       <c r="DB138">
-        <v>1145.084</v>
+        <v>1139.072</v>
       </c>
     </row>
     <row r="139">
@@ -25795,7 +25795,7 @@
         <v>803.5</v>
       </c>
       <c r="AH139">
-        <v>978.641</v>
+        <v>977.6</v>
       </c>
       <c r="AI139">
         <v>332.8</v>
@@ -25813,7 +25813,7 @@
         <v>24.5</v>
       </c>
       <c r="AN139">
-        <v>421.959</v>
+        <v>423</v>
       </c>
       <c r="AO139">
         <v>1869.3</v>
@@ -25873,10 +25873,10 @@
         <v>150.108</v>
       </c>
       <c r="DA139">
-        <v>239.267</v>
+        <v>240.308</v>
       </c>
       <c r="DB139">
-        <v>1161.333</v>
+        <v>1160.292</v>
       </c>
     </row>
     <row r="140">
@@ -25980,7 +25980,7 @@
         <v>818.4</v>
       </c>
       <c r="AH140">
-        <v>990.2699999999999</v>
+        <v>989.3999999999999</v>
       </c>
       <c r="AI140">
         <v>328.4</v>
@@ -25998,7 +25998,7 @@
         <v>25.2</v>
       </c>
       <c r="AN140">
-        <v>419.53</v>
+        <v>420.4</v>
       </c>
       <c r="AO140">
         <v>1896.4</v>
@@ -26058,10 +26058,10 @@
         <v>155.07</v>
       </c>
       <c r="DA140">
-        <v>246.2</v>
+        <v>247.07</v>
       </c>
       <c r="DB140">
-        <v>1163.6</v>
+        <v>1162.73</v>
       </c>
     </row>
     <row r="141">
@@ -26165,7 +26165,7 @@
         <v>824</v>
       </c>
       <c r="AH141">
-        <v>1004.774</v>
+        <v>1004</v>
       </c>
       <c r="AI141">
         <v>340</v>
@@ -26183,7 +26183,7 @@
         <v>25.5</v>
       </c>
       <c r="AN141">
-        <v>423.126</v>
+        <v>423.9</v>
       </c>
       <c r="AO141">
         <v>1904.1</v>
@@ -26243,10 +26243,10 @@
         <v>162.718</v>
       </c>
       <c r="DA141">
-        <v>245.844</v>
+        <v>246.618</v>
       </c>
       <c r="DB141">
-        <v>1182.056</v>
+        <v>1181.282</v>
       </c>
     </row>
     <row r="142">
@@ -26350,7 +26350,7 @@
         <v>837.4</v>
       </c>
       <c r="AH142">
-        <v>1033.937</v>
+        <v>1033.2</v>
       </c>
       <c r="AI142">
         <v>341.6</v>
@@ -26368,7 +26368,7 @@
         <v>25.3</v>
       </c>
       <c r="AN142">
-        <v>430.463</v>
+        <v>431.2</v>
       </c>
       <c r="AO142">
         <v>1926.1</v>
@@ -26428,10 +26428,10 @@
         <v>157.692</v>
       </c>
       <c r="DA142">
-        <v>246.555</v>
+        <v>247.2920000000001</v>
       </c>
       <c r="DB142">
-        <v>1217.845</v>
+        <v>1217.108</v>
       </c>
     </row>
     <row r="143">
@@ -26535,7 +26535,7 @@
         <v>846</v>
       </c>
       <c r="AH143">
-        <v>1045.812</v>
+        <v>1045.1</v>
       </c>
       <c r="AI143">
         <v>344.8</v>
@@ -26553,7 +26553,7 @@
         <v>25</v>
       </c>
       <c r="AN143">
-        <v>440.188</v>
+        <v>440.9</v>
       </c>
       <c r="AO143">
         <v>1953.8</v>
@@ -26613,10 +26613,10 @@
         <v>158.982</v>
       </c>
       <c r="DA143">
-        <v>254.37</v>
+        <v>255.082</v>
       </c>
       <c r="DB143">
-        <v>1231.63</v>
+        <v>1230.918</v>
       </c>
     </row>
     <row r="144">
@@ -26720,7 +26720,7 @@
         <v>859.8</v>
       </c>
       <c r="AH144">
-        <v>1061.026</v>
+        <v>1060.2</v>
       </c>
       <c r="AI144">
         <v>342.5</v>
@@ -26738,7 +26738,7 @@
         <v>24.4</v>
       </c>
       <c r="AN144">
-        <v>439.874</v>
+        <v>440.7</v>
       </c>
       <c r="AO144">
         <v>1979</v>
@@ -26798,10 +26798,10 @@
         <v>162.817</v>
       </c>
       <c r="DA144">
-        <v>260.191</v>
+        <v>261.0170000000001</v>
       </c>
       <c r="DB144">
-        <v>1240.709</v>
+        <v>1239.883</v>
       </c>
     </row>
     <row r="145">
@@ -26905,7 +26905,7 @@
         <v>870.4</v>
       </c>
       <c r="AH145">
-        <v>1072.602</v>
+        <v>1071.9</v>
       </c>
       <c r="AI145">
         <v>345.1</v>
@@ -26923,7 +26923,7 @@
         <v>23.7</v>
       </c>
       <c r="AN145">
-        <v>439.698</v>
+        <v>440.4</v>
       </c>
       <c r="AO145">
         <v>2025.5</v>
@@ -26983,10 +26983,10 @@
         <v>162.156</v>
       </c>
       <c r="DA145">
-        <v>256.754</v>
+        <v>257.456</v>
       </c>
       <c r="DB145">
-        <v>1255.546</v>
+        <v>1254.844</v>
       </c>
     </row>
     <row r="146">
@@ -27090,7 +27090,7 @@
         <v>895.1</v>
       </c>
       <c r="AH146">
-        <v>1143.132</v>
+        <v>1142.4</v>
       </c>
       <c r="AI146">
         <v>340</v>
@@ -27108,7 +27108,7 @@
         <v>22.8</v>
       </c>
       <c r="AN146">
-        <v>423.568</v>
+        <v>424.3</v>
       </c>
       <c r="AO146">
         <v>2009.1</v>
@@ -27168,10 +27168,10 @@
         <v>164.044</v>
       </c>
       <c r="DA146">
-        <v>247.612</v>
+        <v>248.344</v>
       </c>
       <c r="DB146">
-        <v>1319.088</v>
+        <v>1318.356</v>
       </c>
     </row>
     <row r="147">
@@ -27275,7 +27275,7 @@
         <v>900.8</v>
       </c>
       <c r="AH147">
-        <v>1155.277</v>
+        <v>1154.5</v>
       </c>
       <c r="AI147">
         <v>341.5</v>
@@ -27293,7 +27293,7 @@
         <v>21.9</v>
       </c>
       <c r="AN147">
-        <v>427.923</v>
+        <v>428.7</v>
       </c>
       <c r="AO147">
         <v>2043.2</v>
@@ -27353,10 +27353,10 @@
         <v>164.97</v>
       </c>
       <c r="DA147">
-        <v>251.393</v>
+        <v>252.17</v>
       </c>
       <c r="DB147">
-        <v>1331.807</v>
+        <v>1331.03</v>
       </c>
     </row>
     <row r="148">
@@ -27460,7 +27460,7 @@
         <v>906.2</v>
       </c>
       <c r="AH148">
-        <v>1164.285</v>
+        <v>1163.5</v>
       </c>
       <c r="AI148">
         <v>347.9</v>
@@ -27478,7 +27478,7 @@
         <v>21</v>
       </c>
       <c r="AN148">
-        <v>444.215</v>
+        <v>445</v>
       </c>
       <c r="AO148">
         <v>2079.3</v>
@@ -27538,10 +27538,10 @@
         <v>161.167</v>
       </c>
       <c r="DA148">
-        <v>257.482</v>
+        <v>258.267</v>
       </c>
       <c r="DB148">
-        <v>1351.018</v>
+        <v>1350.233</v>
       </c>
     </row>
     <row r="149">
@@ -27645,7 +27645,7 @@
         <v>920.6</v>
       </c>
       <c r="AH149">
-        <v>1175.219</v>
+        <v>1174.5</v>
       </c>
       <c r="AI149">
         <v>334.7</v>
@@ -27663,7 +27663,7 @@
         <v>20.2</v>
       </c>
       <c r="AN149">
-        <v>438.481</v>
+        <v>439.2</v>
       </c>
       <c r="AO149">
         <v>2094.9</v>
@@ -27723,10 +27723,10 @@
         <v>157.041</v>
       </c>
       <c r="DA149">
-        <v>260.822</v>
+        <v>261.5410000000001</v>
       </c>
       <c r="DB149">
-        <v>1352.878</v>
+        <v>1352.159</v>
       </c>
     </row>
     <row r="150">
@@ -27830,7 +27830,7 @@
         <v>940.9</v>
       </c>
       <c r="AH150">
-        <v>1208.538</v>
+        <v>1207.8</v>
       </c>
       <c r="AI150">
         <v>358.4</v>
@@ -27848,7 +27848,7 @@
         <v>19.4</v>
       </c>
       <c r="AN150">
-        <v>471.662</v>
+        <v>472.4</v>
       </c>
       <c r="AO150">
         <v>2166.9</v>
@@ -27908,10 +27908,10 @@
         <v>158.182</v>
       </c>
       <c r="DA150">
-        <v>271.4440000000001</v>
+        <v>272.182</v>
       </c>
       <c r="DB150">
-        <v>1408.756</v>
+        <v>1408.018</v>
       </c>
     </row>
     <row r="151">
@@ -28015,7 +28015,7 @@
         <v>943.1</v>
       </c>
       <c r="AH151">
-        <v>1225.572</v>
+        <v>1224.9</v>
       </c>
       <c r="AI151">
         <v>359.4</v>
@@ -28033,7 +28033,7 @@
         <v>18.9</v>
       </c>
       <c r="AN151">
-        <v>454.828</v>
+        <v>455.5</v>
       </c>
       <c r="AO151">
         <v>2183</v>
@@ -28093,10 +28093,10 @@
         <v>168.798</v>
       </c>
       <c r="DA151">
-        <v>264.226</v>
+        <v>264.898</v>
       </c>
       <c r="DB151">
-        <v>1416.174</v>
+        <v>1415.502</v>
       </c>
     </row>
     <row r="152">
@@ -28200,7 +28200,7 @@
         <v>946.7</v>
       </c>
       <c r="AH152">
-        <v>1238.056</v>
+        <v>1237.4</v>
       </c>
       <c r="AI152">
         <v>359.8</v>
@@ -28218,7 +28218,7 @@
         <v>18.5</v>
       </c>
       <c r="AN152">
-        <v>462.044</v>
+        <v>462.7</v>
       </c>
       <c r="AO152">
         <v>2206.6</v>
@@ -28278,10 +28278,10 @@
         <v>165.689</v>
       </c>
       <c r="DA152">
-        <v>267.933</v>
+        <v>268.589</v>
       </c>
       <c r="DB152">
-        <v>1432.167</v>
+        <v>1431.511</v>
       </c>
     </row>
     <row r="153">
@@ -28385,7 +28385,7 @@
         <v>958.4</v>
       </c>
       <c r="AH153">
-        <v>1252.997</v>
+        <v>1252.3</v>
       </c>
       <c r="AI153">
         <v>358.9</v>
@@ -28403,7 +28403,7 @@
         <v>18.5</v>
       </c>
       <c r="AN153">
-        <v>475.603</v>
+        <v>476.3</v>
       </c>
       <c r="AO153">
         <v>2242.5</v>
@@ -28463,10 +28463,10 @@
         <v>162.872</v>
       </c>
       <c r="DA153">
-        <v>279.575</v>
+        <v>280.272</v>
       </c>
       <c r="DB153">
-        <v>1449.025</v>
+        <v>1448.328</v>
       </c>
     </row>
     <row r="154">
@@ -28570,7 +28570,7 @@
         <v>970.2</v>
       </c>
       <c r="AH154">
-        <v>1286.323</v>
+        <v>1285.6</v>
       </c>
       <c r="AI154">
         <v>365.7</v>
@@ -28588,7 +28588,7 @@
         <v>18.6</v>
       </c>
       <c r="AN154">
-        <v>481.877</v>
+        <v>482.6</v>
       </c>
       <c r="AO154">
         <v>2256.7</v>
@@ -28648,10 +28648,10 @@
         <v>165.406</v>
       </c>
       <c r="DA154">
-        <v>281.583</v>
+        <v>282.306</v>
       </c>
       <c r="DB154">
-        <v>1486.617</v>
+        <v>1485.894</v>
       </c>
     </row>
     <row r="155">
@@ -28755,7 +28755,7 @@
         <v>972.3</v>
       </c>
       <c r="AH155">
-        <v>1619.454</v>
+        <v>1618.8</v>
       </c>
       <c r="AI155">
         <v>371.5</v>
@@ -28773,7 +28773,7 @@
         <v>18.7</v>
       </c>
       <c r="AN155">
-        <v>493.546</v>
+        <v>494.2</v>
       </c>
       <c r="AO155">
         <v>2293.8</v>
@@ -28833,10 +28833,10 @@
         <v>167.706</v>
       </c>
       <c r="DA155">
-        <v>289.752</v>
+        <v>290.4059999999999</v>
       </c>
       <c r="DB155">
-        <v>1823.248</v>
+        <v>1822.594</v>
       </c>
     </row>
     <row r="156">
@@ -28940,7 +28940,7 @@
         <v>977.6</v>
       </c>
       <c r="AH156">
-        <v>1402.584</v>
+        <v>1387.1</v>
       </c>
       <c r="AI156">
         <v>368.8</v>
@@ -28958,7 +28958,7 @@
         <v>18.7</v>
       </c>
       <c r="AN156">
-        <v>502.716</v>
+        <v>518.2</v>
       </c>
       <c r="AO156">
         <v>2337.9</v>
@@ -29018,10 +29018,10 @@
         <v>163.741</v>
       </c>
       <c r="DA156">
-        <v>297.657</v>
+        <v>313.1410000000001</v>
       </c>
       <c r="DB156">
-        <v>1607.643</v>
+        <v>1592.159</v>
       </c>
     </row>
     <row r="157">
@@ -29125,7 +29125,7 @@
         <v>977.8</v>
       </c>
       <c r="AH157">
-        <v>1374.479</v>
+        <v>1356.8</v>
       </c>
       <c r="AI157">
         <v>378.6</v>
@@ -29143,7 +29143,7 @@
         <v>18.8</v>
       </c>
       <c r="AN157">
-        <v>516.321</v>
+        <v>534</v>
       </c>
       <c r="AO157">
         <v>2337.3</v>
@@ -29203,10 +29203,10 @@
         <v>170.095</v>
       </c>
       <c r="DA157">
-        <v>307.816</v>
+        <v>325.495</v>
       </c>
       <c r="DB157">
-        <v>1582.984</v>
+        <v>1565.305</v>
       </c>
     </row>
     <row r="158">
@@ -29310,7 +29310,7 @@
         <v>946</v>
       </c>
       <c r="AH158">
-        <v>1450.045</v>
+        <v>1420.2</v>
       </c>
       <c r="AI158">
         <v>421.1</v>
@@ -29328,7 +29328,7 @@
         <v>18.8</v>
       </c>
       <c r="AN158">
-        <v>551.9549999999999</v>
+        <v>581.8</v>
       </c>
       <c r="AO158">
         <v>2371.3</v>
@@ -29388,10 +29388,10 @@
         <v>164.156</v>
       </c>
       <c r="DA158">
-        <v>295.0109999999999</v>
+        <v>324.8559999999999</v>
       </c>
       <c r="DB158">
-        <v>1706.989</v>
+        <v>1677.144</v>
       </c>
     </row>
     <row r="159">
@@ -29495,7 +29495,7 @@
         <v>952.6</v>
       </c>
       <c r="AH159">
-        <v>1554.626</v>
+        <v>1517.7</v>
       </c>
       <c r="AI159">
         <v>473.9</v>
@@ -29513,7 +29513,7 @@
         <v>18.7</v>
       </c>
       <c r="AN159">
-        <v>585.374</v>
+        <v>622.3</v>
       </c>
       <c r="AO159">
         <v>2419.5</v>
@@ -29573,10 +29573,10 @@
         <v>199.236</v>
       </c>
       <c r="DA159">
-        <v>310.71</v>
+        <v>347.636</v>
       </c>
       <c r="DB159">
-        <v>1829.29</v>
+        <v>1792.364</v>
       </c>
     </row>
     <row r="160">
@@ -29680,7 +29680,7 @@
         <v>950.3</v>
       </c>
       <c r="AH160">
-        <v>1538.776</v>
+        <v>1490.1</v>
       </c>
       <c r="AI160">
         <v>465.4</v>
@@ -29698,7 +29698,7 @@
         <v>18.5</v>
       </c>
       <c r="AN160">
-        <v>598.124</v>
+        <v>646.8</v>
       </c>
       <c r="AO160">
         <v>2446.5</v>
@@ -29758,10 +29758,10 @@
         <v>201.476</v>
       </c>
       <c r="DA160">
-        <v>334.2</v>
+        <v>382.876</v>
       </c>
       <c r="DB160">
-        <v>1802.7</v>
+        <v>1754.024</v>
       </c>
     </row>
     <row r="161">
@@ -29865,7 +29865,7 @@
         <v>953.9</v>
       </c>
       <c r="AH161">
-        <v>1571.79</v>
+        <v>1505.3</v>
       </c>
       <c r="AI161">
         <v>472.1</v>
@@ -29883,7 +29883,7 @@
         <v>18.3</v>
       </c>
       <c r="AN161">
-        <v>580.3099999999999</v>
+        <v>646.8</v>
       </c>
       <c r="AO161">
         <v>2444.1</v>
@@ -29943,10 +29943,10 @@
         <v>210.156</v>
       </c>
       <c r="DA161">
-        <v>318.3659999999999</v>
+        <v>384.8559999999999</v>
       </c>
       <c r="DB161">
-        <v>1833.734</v>
+        <v>1767.244</v>
       </c>
     </row>
     <row r="162">
@@ -30050,7 +30050,7 @@
         <v>960.6</v>
       </c>
       <c r="AH162">
-        <v>1686.568</v>
+        <v>1594.2</v>
       </c>
       <c r="AI162">
         <v>496.2</v>
@@ -30068,7 +30068,7 @@
         <v>18</v>
       </c>
       <c r="AN162">
-        <v>575.6319999999999</v>
+        <v>668</v>
       </c>
       <c r="AO162">
         <v>2439.7</v>
@@ -30128,10 +30128,10 @@
         <v>224.356</v>
       </c>
       <c r="DA162">
-        <v>303.788</v>
+        <v>396.156</v>
       </c>
       <c r="DB162">
-        <v>1958.412</v>
+        <v>1866.044</v>
       </c>
     </row>
     <row r="163">
@@ -30235,7 +30235,7 @@
         <v>971.7</v>
       </c>
       <c r="AH163">
-        <v>1690.733</v>
+        <v>1614.5</v>
       </c>
       <c r="AI163">
         <v>492.6</v>
@@ -30253,7 +30253,7 @@
         <v>17.7</v>
       </c>
       <c r="AN163">
-        <v>577.967</v>
+        <v>654.2</v>
       </c>
       <c r="AO163">
         <v>2444.3</v>
@@ -30313,10 +30313,10 @@
         <v>220.144</v>
       </c>
       <c r="DA163">
-        <v>305.511</v>
+        <v>381.744</v>
       </c>
       <c r="DB163">
-        <v>1963.189</v>
+        <v>1886.956</v>
       </c>
     </row>
     <row r="164">
@@ -30420,7 +30420,7 @@
         <v>974.6</v>
       </c>
       <c r="AH164">
-        <v>1688.763</v>
+        <v>1627.8</v>
       </c>
       <c r="AI164">
         <v>517.8</v>
@@ -30438,7 +30438,7 @@
         <v>17.7</v>
       </c>
       <c r="AN164">
-        <v>603.2370000000001</v>
+        <v>664.2</v>
       </c>
       <c r="AO164">
         <v>2453</v>
@@ -30498,10 +30498,10 @@
         <v>234.109</v>
       </c>
       <c r="DA164">
-        <v>319.5460000000001</v>
+        <v>380.5090000000001</v>
       </c>
       <c r="DB164">
-        <v>1972.454</v>
+        <v>1911.491</v>
       </c>
     </row>
     <row r="165">
@@ -30605,7 +30605,7 @@
         <v>976.6</v>
       </c>
       <c r="AH165">
-        <v>1695.207</v>
+        <v>1638</v>
       </c>
       <c r="AI165">
         <v>514.4</v>
@@ -30623,7 +30623,7 @@
         <v>17.7</v>
       </c>
       <c r="AN165">
-        <v>607.4929999999999</v>
+        <v>664.6999999999999</v>
       </c>
       <c r="AO165">
         <v>2453.7</v>
@@ -30683,10 +30683,10 @@
         <v>216.791</v>
       </c>
       <c r="DA165">
-        <v>309.884</v>
+        <v>367.091</v>
       </c>
       <c r="DB165">
-        <v>1992.816</v>
+        <v>1935.609</v>
       </c>
     </row>
     <row r="166">
@@ -30790,7 +30790,7 @@
         <v>898.3</v>
       </c>
       <c r="AH166">
-        <v>1707.468</v>
+        <v>1651.9</v>
       </c>
       <c r="AI166">
         <v>500.5</v>
@@ -30808,7 +30808,7 @@
         <v>17.9</v>
       </c>
       <c r="AN166">
-        <v>605.5319999999999</v>
+        <v>661.1</v>
       </c>
       <c r="AO166">
         <v>2452.7</v>
@@ -30868,10 +30868,10 @@
         <v>218.055</v>
       </c>
       <c r="DA166">
-        <v>323.0869999999999</v>
+        <v>378.655</v>
       </c>
       <c r="DB166">
-        <v>1989.913</v>
+        <v>1934.345</v>
       </c>
     </row>
     <row r="167">
@@ -30975,7 +30975,7 @@
         <v>900.9</v>
       </c>
       <c r="AH167">
-        <v>1720.248</v>
+        <v>1668.1</v>
       </c>
       <c r="AI167">
         <v>503.4</v>
@@ -30993,7 +30993,7 @@
         <v>18</v>
       </c>
       <c r="AN167">
-        <v>591.8520000000001</v>
+        <v>644</v>
       </c>
       <c r="AO167">
         <v>2446.2</v>
@@ -31053,10 +31053,10 @@
         <v>226.204</v>
       </c>
       <c r="DA167">
-        <v>314.6560000000001</v>
+        <v>366.804</v>
       </c>
       <c r="DB167">
-        <v>1997.444</v>
+        <v>1945.296</v>
       </c>
     </row>
     <row r="168">
@@ -31160,7 +31160,7 @@
         <v>909.4</v>
       </c>
       <c r="AH168">
-        <v>1727.402</v>
+        <v>1679.5</v>
       </c>
       <c r="AI168">
         <v>448.3</v>
@@ -31178,7 +31178,7 @@
         <v>17.9</v>
       </c>
       <c r="AN168">
-        <v>575.6980000000001</v>
+        <v>623.6</v>
       </c>
       <c r="AO168">
         <v>2424.5</v>
@@ -31238,10 +31238,10 @@
         <v>210.561</v>
       </c>
       <c r="DA168">
-        <v>337.9590000000001</v>
+        <v>385.861</v>
       </c>
       <c r="DB168">
-        <v>1965.141</v>
+        <v>1917.239</v>
       </c>
     </row>
     <row r="169">
@@ -31345,7 +31345,7 @@
         <v>904.2</v>
       </c>
       <c r="AH169">
-        <v>1735.099</v>
+        <v>1689.5</v>
       </c>
       <c r="AI169">
         <v>437.7</v>
@@ -31363,7 +31363,7 @@
         <v>17.7</v>
       </c>
       <c r="AN169">
-        <v>577.101</v>
+        <v>622.6999999999999</v>
       </c>
       <c r="AO169">
         <v>2419.1</v>
@@ -31423,10 +31423,10 @@
         <v>198.409</v>
       </c>
       <c r="DA169">
-        <v>337.81</v>
+        <v>383.4089999999999</v>
       </c>
       <c r="DB169">
-        <v>1974.39</v>
+        <v>1928.791</v>
       </c>
     </row>
     <row r="170">
@@ -31530,7 +31530,7 @@
         <v>927.5</v>
       </c>
       <c r="AH170">
-        <v>1722.937</v>
+        <v>1678.3</v>
       </c>
       <c r="AI170">
         <v>441.7</v>
@@ -31548,7 +31548,7 @@
         <v>17.4</v>
       </c>
       <c r="AN170">
-        <v>573.8629999999999</v>
+        <v>618.5</v>
       </c>
       <c r="AO170">
         <v>2432.4</v>
@@ -31608,10 +31608,10 @@
         <v>195.452</v>
       </c>
       <c r="DA170">
-        <v>327.615</v>
+        <v>372.252</v>
       </c>
       <c r="DB170">
-        <v>1969.185</v>
+        <v>1924.548</v>
       </c>
     </row>
     <row r="171">
@@ -31715,7 +31715,7 @@
         <v>932.2</v>
       </c>
       <c r="AH171">
-        <v>1731.81</v>
+        <v>1691.2</v>
       </c>
       <c r="AI171">
         <v>447.9</v>
@@ -31733,7 +31733,7 @@
         <v>17.2</v>
       </c>
       <c r="AN171">
-        <v>590.0899999999999</v>
+        <v>630.6999999999999</v>
       </c>
       <c r="AO171">
         <v>2448.3</v>
@@ -31793,10 +31793,10 @@
         <v>185.576</v>
       </c>
       <c r="DA171">
-        <v>327.7659999999999</v>
+        <v>368.3759999999999</v>
       </c>
       <c r="DB171">
-        <v>1994.134</v>
+        <v>1953.524</v>
       </c>
     </row>
     <row r="172">
@@ -31900,7 +31900,7 @@
         <v>935.2</v>
       </c>
       <c r="AH172">
-        <v>1740.904</v>
+        <v>1705.2</v>
       </c>
       <c r="AI172">
         <v>440</v>
@@ -31918,7 +31918,7 @@
         <v>17.1</v>
       </c>
       <c r="AN172">
-        <v>584.696</v>
+        <v>620.4</v>
       </c>
       <c r="AO172">
         <v>2449.6</v>
@@ -31978,10 +31978,10 @@
         <v>189.46</v>
       </c>
       <c r="DA172">
-        <v>334.1560000000001</v>
+        <v>369.86</v>
       </c>
       <c r="DB172">
-        <v>1991.444</v>
+        <v>1955.74</v>
       </c>
     </row>
     <row r="173">
@@ -32085,7 +32085,7 @@
         <v>957</v>
       </c>
       <c r="AH173">
-        <v>1750.747</v>
+        <v>1718.3</v>
       </c>
       <c r="AI173">
         <v>448.2</v>
@@ -32103,7 +32103,7 @@
         <v>17.1</v>
       </c>
       <c r="AN173">
-        <v>595.3530000000001</v>
+        <v>627.8000000000001</v>
       </c>
       <c r="AO173">
         <v>2476.7</v>
@@ -32163,10 +32163,10 @@
         <v>188.638</v>
       </c>
       <c r="DA173">
-        <v>335.7910000000001</v>
+        <v>368.2380000000001</v>
       </c>
       <c r="DB173">
-        <v>2010.309</v>
+        <v>1977.862</v>
       </c>
     </row>
     <row r="174">
@@ -32270,7 +32270,7 @@
         <v>1078.6</v>
       </c>
       <c r="AH174">
-        <v>1777.537</v>
+        <v>1748.3</v>
       </c>
       <c r="AI174">
         <v>440</v>
@@ -32288,7 +32288,7 @@
         <v>17.3</v>
       </c>
       <c r="AN174">
-        <v>588.163</v>
+        <v>617.4</v>
       </c>
       <c r="AO174">
         <v>2486.2</v>
@@ -32348,10 +32348,10 @@
         <v>181.55</v>
       </c>
       <c r="DA174">
-        <v>329.713</v>
+        <v>358.95</v>
       </c>
       <c r="DB174">
-        <v>2035.987</v>
+        <v>2006.75</v>
       </c>
     </row>
     <row r="175">
@@ -32455,7 +32455,7 @@
         <v>1090.7</v>
       </c>
       <c r="AH175">
-        <v>1776.393</v>
+        <v>1750.7</v>
       </c>
       <c r="AI175">
         <v>459.2</v>
@@ -32473,7 +32473,7 @@
         <v>17.5</v>
       </c>
       <c r="AN175">
-        <v>601.9069999999999</v>
+        <v>627.5999999999999</v>
       </c>
       <c r="AO175">
         <v>2508.2</v>
@@ -32533,10 +32533,10 @@
         <v>188.313</v>
       </c>
       <c r="DA175">
-        <v>331.0199999999999</v>
+        <v>356.7129999999999</v>
       </c>
       <c r="DB175">
-        <v>2047.28</v>
+        <v>2021.587</v>
       </c>
     </row>
     <row r="176">
@@ -32640,7 +32640,7 @@
         <v>1093.6</v>
       </c>
       <c r="AH176">
-        <v>1784.695</v>
+        <v>1764.1</v>
       </c>
       <c r="AI176">
         <v>454</v>
@@ -32658,7 +32658,7 @@
         <v>17.8</v>
       </c>
       <c r="AN176">
-        <v>611.3049999999999</v>
+        <v>631.9</v>
       </c>
       <c r="AO176">
         <v>2528.2</v>
@@ -32718,10 +32718,10 @@
         <v>184.721</v>
       </c>
       <c r="DA176">
-        <v>342.026</v>
+        <v>362.621</v>
       </c>
       <c r="DB176">
-        <v>2053.974</v>
+        <v>2033.379</v>
       </c>
     </row>
     <row r="177">
@@ -32825,7 +32825,7 @@
         <v>1104.2</v>
       </c>
       <c r="AH177">
-        <v>1792.548</v>
+        <v>1773</v>
       </c>
       <c r="AI177">
         <v>447.3</v>
@@ -32843,7 +32843,7 @@
         <v>18.1</v>
       </c>
       <c r="AN177">
-        <v>611.152</v>
+        <v>630.7</v>
       </c>
       <c r="AO177">
         <v>2531</v>
@@ -32903,10 +32903,10 @@
         <v>177.318</v>
       </c>
       <c r="DA177">
-        <v>341.17</v>
+        <v>360.718</v>
       </c>
       <c r="DB177">
-        <v>2062.53</v>
+        <v>2042.982</v>
       </c>
     </row>
     <row r="178">
@@ -33010,7 +33010,7 @@
         <v>1126.6</v>
       </c>
       <c r="AH178">
-        <v>1810.863</v>
+        <v>1809.1</v>
       </c>
       <c r="AI178">
         <v>467.8</v>
@@ -33028,7 +33028,7 @@
         <v>18.4</v>
       </c>
       <c r="AN178">
-        <v>622.337</v>
+        <v>624.1</v>
       </c>
       <c r="AO178">
         <v>2542.1</v>
@@ -33088,10 +33088,10 @@
         <v>176.21</v>
       </c>
       <c r="DA178">
-        <v>330.747</v>
+        <v>332.51</v>
       </c>
       <c r="DB178">
-        <v>2102.453</v>
+        <v>2100.69</v>
       </c>
     </row>
     <row r="179">
@@ -33195,7 +33195,7 @@
         <v>1131</v>
       </c>
       <c r="AH179">
-        <v>1841.857</v>
+        <v>1841</v>
       </c>
       <c r="AI179">
         <v>492.5</v>
@@ -33213,7 +33213,7 @@
         <v>18.7</v>
       </c>
       <c r="AN179">
-        <v>642.7429999999999</v>
+        <v>643.5999999999999</v>
       </c>
       <c r="AO179">
         <v>2580</v>
@@ -33273,10 +33273,10 @@
         <v>184.725</v>
       </c>
       <c r="DA179">
-        <v>334.968</v>
+        <v>335.8249999999999</v>
       </c>
       <c r="DB179">
-        <v>2149.632</v>
+        <v>2148.775</v>
       </c>
     </row>
     <row r="180">
@@ -33380,7 +33380,7 @@
         <v>1142.5</v>
       </c>
       <c r="AH180">
-        <v>1857.299</v>
+        <v>1856.5</v>
       </c>
       <c r="AI180">
         <v>511.1</v>
@@ -33398,7 +33398,7 @@
         <v>18.9</v>
       </c>
       <c r="AN180">
-        <v>667.301</v>
+        <v>668.1</v>
       </c>
       <c r="AO180">
         <v>2623.3</v>
@@ -33458,10 +33458,10 @@
         <v>178.7</v>
       </c>
       <c r="DA180">
-        <v>334.9010000000001</v>
+        <v>335.7</v>
       </c>
       <c r="DB180">
-        <v>2189.699</v>
+        <v>2188.9</v>
       </c>
     </row>
     <row r="181">
@@ -33565,7 +33565,7 @@
         <v>1160.1</v>
       </c>
       <c r="AH181">
-        <v>1876.791</v>
+        <v>1876</v>
       </c>
       <c r="AI181">
         <v>508.8</v>
@@ -33583,7 +33583,7 @@
         <v>19</v>
       </c>
       <c r="AN181">
-        <v>675.4090000000001</v>
+        <v>676.2</v>
       </c>
       <c r="AO181">
         <v>2648.4</v>
@@ -33643,10 +33643,10 @@
         <v>173.189</v>
       </c>
       <c r="DA181">
-        <v>339.7980000000001</v>
+        <v>340.5890000000001</v>
       </c>
       <c r="DB181">
-        <v>2212.402</v>
+        <v>2211.611</v>
       </c>
     </row>
     <row r="182">
@@ -33750,7 +33750,7 @@
         <v>1175.2</v>
       </c>
       <c r="AH182">
-        <v>1913.347</v>
+        <v>1912.6</v>
       </c>
       <c r="AI182">
         <v>524.8</v>
@@ -33768,7 +33768,7 @@
         <v>19</v>
       </c>
       <c r="AN182">
-        <v>684.3530000000001</v>
+        <v>685.1</v>
       </c>
       <c r="AO182">
         <v>2653.6</v>
@@ -33828,10 +33828,10 @@
         <v>172.612</v>
       </c>
       <c r="DA182">
-        <v>332.1650000000001</v>
+        <v>332.912</v>
       </c>
       <c r="DB182">
-        <v>2265.535</v>
+        <v>2264.788</v>
       </c>
     </row>
     <row r="183">
@@ -33935,7 +33935,7 @@
         <v>1187</v>
       </c>
       <c r="AH183">
-        <v>1934.899</v>
+        <v>1934.2</v>
       </c>
       <c r="AI183">
         <v>528.9</v>
@@ -33953,7 +33953,7 @@
         <v>19.1</v>
       </c>
       <c r="AN183">
-        <v>699.001</v>
+        <v>699.6999999999999</v>
       </c>
       <c r="AO183">
         <v>2707.5</v>
@@ -34013,10 +34013,10 @@
         <v>175.458</v>
       </c>
       <c r="DA183">
-        <v>345.559</v>
+        <v>346.2579999999999</v>
       </c>
       <c r="DB183">
-        <v>2288.341</v>
+        <v>2287.642</v>
       </c>
     </row>
     <row r="184">
@@ -34120,7 +34120,7 @@
         <v>1196.8</v>
       </c>
       <c r="AH184">
-        <v>1945.761</v>
+        <v>1945.1</v>
       </c>
       <c r="AI184">
         <v>530.4</v>
@@ -34138,7 +34138,7 @@
         <v>19.3</v>
       </c>
       <c r="AN184">
-        <v>702.039</v>
+        <v>702.7</v>
       </c>
       <c r="AO184">
         <v>2730</v>
@@ -34198,10 +34198,10 @@
         <v>177.491</v>
       </c>
       <c r="DA184">
-        <v>349.13</v>
+        <v>349.7910000000001</v>
       </c>
       <c r="DB184">
-        <v>2298.67</v>
+        <v>2298.009</v>
       </c>
     </row>
     <row r="185">
@@ -34305,7 +34305,7 @@
         <v>1204.1</v>
       </c>
       <c r="AH185">
-        <v>1957.938</v>
+        <v>1957.3</v>
       </c>
       <c r="AI185">
         <v>548.2</v>
@@ -34323,7 +34323,7 @@
         <v>19.5</v>
       </c>
       <c r="AN185">
-        <v>703.2619999999999</v>
+        <v>703.9</v>
       </c>
       <c r="AO185">
         <v>2730.4</v>
@@ -34383,10 +34383,10 @@
         <v>181.926</v>
       </c>
       <c r="DA185">
-        <v>336.9879999999999</v>
+        <v>337.626</v>
       </c>
       <c r="DB185">
-        <v>2324.212</v>
+        <v>2323.574</v>
       </c>
     </row>
     <row r="186">
@@ -34490,7 +34490,7 @@
         <v>1211.1</v>
       </c>
       <c r="AH186">
-        <v>1974.375</v>
+        <v>1973.7</v>
       </c>
       <c r="AI186">
         <v>538.9</v>
@@ -34508,7 +34508,7 @@
         <v>19.8</v>
       </c>
       <c r="AN186">
-        <v>711.7249999999999</v>
+        <v>712.4</v>
       </c>
       <c r="AO186">
         <v>2754.8</v>
@@ -34568,10 +34568,10 @@
         <v>179.344</v>
       </c>
       <c r="DA186">
-        <v>352.1689999999999</v>
+        <v>352.844</v>
       </c>
       <c r="DB186">
-        <v>2333.931</v>
+        <v>2333.256</v>
       </c>
     </row>
     <row r="187">
@@ -34675,7 +34675,7 @@
         <v>1217.3</v>
       </c>
       <c r="AH187">
-        <v>1986.508</v>
+        <v>1985.9</v>
       </c>
       <c r="AI187">
         <v>551.8</v>
@@ -34693,7 +34693,7 @@
         <v>20</v>
       </c>
       <c r="AN187">
-        <v>720.092</v>
+        <v>720.7</v>
       </c>
       <c r="AO187">
         <v>2783</v>
@@ -34753,10 +34753,10 @@
         <v>187.0389999999999</v>
       </c>
       <c r="DA187">
-        <v>355.331</v>
+        <v>355.939</v>
       </c>
       <c r="DB187">
-        <v>2351.269</v>
+        <v>2350.661</v>
       </c>
     </row>
     <row r="188">
@@ -34860,7 +34860,7 @@
         <v>1228.3</v>
       </c>
       <c r="AH188">
-        <v>1997.784</v>
+        <v>1997.2</v>
       </c>
       <c r="AI188">
         <v>562.7</v>
@@ -34878,7 +34878,7 @@
         <v>20.1</v>
       </c>
       <c r="AN188">
-        <v>728.4160000000001</v>
+        <v>729</v>
       </c>
       <c r="AO188">
         <v>2810.8</v>
@@ -34938,10 +34938,10 @@
         <v>184.72</v>
       </c>
       <c r="DA188">
-        <v>350.436</v>
+        <v>351.02</v>
       </c>
       <c r="DB188">
-        <v>2375.764</v>
+        <v>2375.18</v>
       </c>
     </row>
     <row r="189">
@@ -35045,7 +35045,7 @@
         <v>1241.7</v>
       </c>
       <c r="AH189">
-        <v>2012.857</v>
+        <v>2012.3</v>
       </c>
       <c r="AI189">
         <v>573.9</v>
@@ -35063,7 +35063,7 @@
         <v>20.1</v>
       </c>
       <c r="AN189">
-        <v>736.7429999999999</v>
+        <v>737.3</v>
       </c>
       <c r="AO189">
         <v>2840</v>
@@ -35123,10 +35123,10 @@
         <v>185.989</v>
       </c>
       <c r="DA189">
-        <v>348.8319999999999</v>
+        <v>349.389</v>
       </c>
       <c r="DB189">
-        <v>2400.768</v>
+        <v>2400.211</v>
       </c>
     </row>
     <row r="190">
@@ -35230,7 +35230,7 @@
         <v>1262.2</v>
       </c>
       <c r="AH190">
-        <v>2044.714</v>
+        <v>2044.2</v>
       </c>
       <c r="AI190">
         <v>561</v>
@@ -35248,7 +35248,7 @@
         <v>20</v>
       </c>
       <c r="AN190">
-        <v>734.086</v>
+        <v>734.6</v>
       </c>
       <c r="AO190">
         <v>2860.6</v>
@@ -35398,10 +35398,10 @@
         <v>185.099</v>
       </c>
       <c r="DA190">
-        <v>358.185</v>
+        <v>358.699</v>
       </c>
       <c r="DB190">
-        <v>2420.615</v>
+        <v>2420.101</v>
       </c>
     </row>
     <row r="191">
@@ -35505,7 +35505,7 @@
         <v>1274.6</v>
       </c>
       <c r="AH191">
-        <v>2059.334</v>
+        <v>2058.8</v>
       </c>
       <c r="AI191">
         <v>542.3</v>
@@ -35523,7 +35523,7 @@
         <v>19.9</v>
       </c>
       <c r="AN191">
-        <v>729.966</v>
+        <v>730.5</v>
       </c>
       <c r="AO191">
         <v>2866.5</v>
@@ -35679,10 +35679,10 @@
         <v>188.794</v>
       </c>
       <c r="DA191">
-        <v>376.46</v>
+        <v>376.994</v>
       </c>
       <c r="DB191">
-        <v>2412.84</v>
+        <v>2412.306</v>
       </c>
     </row>
     <row r="192">
@@ -35786,7 +35786,7 @@
         <v>1289.7</v>
       </c>
       <c r="AH192">
-        <v>2076.789</v>
+        <v>2076.3</v>
       </c>
       <c r="AI192">
         <v>562.9</v>
@@ -35804,7 +35804,7 @@
         <v>20</v>
       </c>
       <c r="AN192">
-        <v>745.4110000000001</v>
+        <v>745.9</v>
       </c>
       <c r="AO192">
         <v>2904.5</v>
@@ -35963,10 +35963,10 @@
         <v>186.207</v>
       </c>
       <c r="DA192">
-        <v>368.7180000000001</v>
+        <v>369.207</v>
       </c>
       <c r="DB192">
-        <v>2453.482</v>
+        <v>2452.992999999999</v>
       </c>
     </row>
     <row r="193">
@@ -36070,7 +36070,7 @@
         <v>1308.2</v>
       </c>
       <c r="AH193">
-        <v>2094.936</v>
+        <v>2094.5</v>
       </c>
       <c r="AI193">
         <v>572.9</v>
@@ -36088,7 +36088,7 @@
         <v>20.2</v>
       </c>
       <c r="AN193">
-        <v>739.664</v>
+        <v>740.0999999999999</v>
       </c>
       <c r="AO193">
         <v>2923.8</v>
@@ -36274,10 +36274,10 @@
         <v>189.914</v>
       </c>
       <c r="DA193">
-        <v>356.678</v>
+        <v>357.1139999999999</v>
       </c>
       <c r="DB193">
-        <v>2477.922</v>
+        <v>2477.486</v>
       </c>
     </row>
     <row r="194">
@@ -36381,7 +36381,7 @@
         <v>1327.8</v>
       </c>
       <c r="AH194">
-        <v>2144.601</v>
+        <v>2144.2</v>
       </c>
       <c r="AI194">
         <v>581.5</v>
@@ -36399,7 +36399,7 @@
         <v>20.4</v>
       </c>
       <c r="AN194">
-        <v>746.299</v>
+        <v>746.7</v>
       </c>
       <c r="AO194">
         <v>2953.5</v>
@@ -36585,10 +36585,10 @@
         <v>192.305</v>
       </c>
       <c r="DA194">
-        <v>357.104</v>
+        <v>357.5050000000001</v>
       </c>
       <c r="DB194">
-        <v>2533.796</v>
+        <v>2533.395</v>
       </c>
     </row>
     <row r="195">
@@ -36692,7 +36692,7 @@
         <v>1337.2</v>
       </c>
       <c r="AH195">
-        <v>2159.208</v>
+        <v>2158.8</v>
       </c>
       <c r="AI195">
         <v>578</v>
@@ -36710,7 +36710,7 @@
         <v>20.8</v>
       </c>
       <c r="AN195">
-        <v>756.7919999999999</v>
+        <v>757.1999999999999</v>
       </c>
       <c r="AO195">
         <v>2996.4</v>
@@ -36896,10 +36896,10 @@
         <v>191.143</v>
       </c>
       <c r="DA195">
-        <v>369.9349999999999</v>
+        <v>370.3429999999999</v>
       </c>
       <c r="DB195">
-        <v>2546.065</v>
+        <v>2545.657</v>
       </c>
     </row>
     <row r="196">
@@ -37003,7 +37003,7 @@
         <v>1353.1</v>
       </c>
       <c r="AH196">
-        <v>2175.111</v>
+        <v>2174.7</v>
       </c>
       <c r="AI196">
         <v>584.3</v>
@@ -37021,7 +37021,7 @@
         <v>21.2</v>
       </c>
       <c r="AN196">
-        <v>760.289</v>
+        <v>760.6999999999999</v>
       </c>
       <c r="AO196">
         <v>3027.6</v>
@@ -37207,10 +37207,10 @@
         <v>191.7839999999999</v>
       </c>
       <c r="DA196">
-        <v>367.773</v>
+        <v>368.1839999999999</v>
       </c>
       <c r="DB196">
-        <v>2567.627</v>
+        <v>2567.216</v>
       </c>
     </row>
     <row r="197">
@@ -37314,7 +37314,7 @@
         <v>1360.3</v>
       </c>
       <c r="AH197">
-        <v>2193.853</v>
+        <v>2193.5</v>
       </c>
       <c r="AI197">
         <v>586.5</v>
@@ -37332,7 +37332,7 @@
         <v>21.6</v>
       </c>
       <c r="AN197">
-        <v>755.447</v>
+        <v>755.8</v>
       </c>
       <c r="AO197">
         <v>3025.3</v>
@@ -37518,10 +37518,10 @@
         <v>196.876</v>
       </c>
       <c r="DA197">
-        <v>365.823</v>
+        <v>366.1759999999999</v>
       </c>
       <c r="DB197">
-        <v>2583.477</v>
+        <v>2583.124</v>
       </c>
     </row>
     <row r="198">
@@ -37625,7 +37625,7 @@
         <v>1391.9</v>
       </c>
       <c r="AH198">
-        <v>2271.243</v>
+        <v>2270.8</v>
       </c>
       <c r="AI198">
         <v>594.2</v>
@@ -37643,7 +37643,7 @@
         <v>22</v>
       </c>
       <c r="AN198">
-        <v>766.2570000000001</v>
+        <v>766.7</v>
       </c>
       <c r="AO198">
         <v>3054.4</v>
@@ -37835,10 +37835,10 @@
         <v>189.671</v>
       </c>
       <c r="DA198">
-        <v>361.7280000000001</v>
+        <v>362.171</v>
       </c>
       <c r="DB198">
-        <v>2675.772</v>
+        <v>2675.329</v>
       </c>
     </row>
     <row r="199">
@@ -37942,7 +37942,7 @@
         <v>1397.8</v>
       </c>
       <c r="AH199">
-        <v>2288.705</v>
+        <v>2288.3</v>
       </c>
       <c r="AI199">
         <v>612.5</v>
@@ -37960,7 +37960,7 @@
         <v>22.1</v>
       </c>
       <c r="AN199">
-        <v>782.2950000000001</v>
+        <v>782.7</v>
       </c>
       <c r="AO199">
         <v>3105.7</v>
@@ -38152,10 +38152,10 @@
         <v>192.828</v>
       </c>
       <c r="DA199">
-        <v>362.623</v>
+        <v>363.028</v>
       </c>
       <c r="DB199">
-        <v>2708.377</v>
+        <v>2707.972</v>
       </c>
     </row>
     <row r="200">
@@ -38259,7 +38259,7 @@
         <v>1402.3</v>
       </c>
       <c r="AH200">
-        <v>2304.203</v>
+        <v>2303.8</v>
       </c>
       <c r="AI200">
         <v>610.3</v>
@@ -38277,7 +38277,7 @@
         <v>21.8</v>
       </c>
       <c r="AN200">
-        <v>790.597</v>
+        <v>791</v>
       </c>
       <c r="AO200">
         <v>3123.2</v>
@@ -38469,10 +38469,10 @@
         <v>191.4759999999999</v>
       </c>
       <c r="DA200">
-        <v>371.773</v>
+        <v>372.176</v>
       </c>
       <c r="DB200">
-        <v>2723.027</v>
+        <v>2722.624</v>
       </c>
     </row>
     <row r="201">
@@ -38576,7 +38576,7 @@
         <v>1416.9</v>
       </c>
       <c r="AH201">
-        <v>2320.208</v>
+        <v>2319.8</v>
       </c>
       <c r="AI201">
         <v>615.4</v>
@@ -38594,7 +38594,7 @@
         <v>21.1</v>
       </c>
       <c r="AN201">
-        <v>788.492</v>
+        <v>788.9</v>
       </c>
       <c r="AO201">
         <v>3136.8</v>
@@ -38786,10 +38786,10 @@
         <v>203.991</v>
       </c>
       <c r="DA201">
-        <v>377.083</v>
+        <v>377.491</v>
       </c>
       <c r="DB201">
-        <v>2731.617</v>
+        <v>2731.209</v>
       </c>
     </row>
     <row r="202">
@@ -38893,7 +38893,7 @@
         <v>1436.4</v>
       </c>
       <c r="AH202">
-        <v>2379.479</v>
+        <v>2379.1</v>
       </c>
       <c r="AI202">
         <v>627.8</v>
@@ -38911,7 +38911,7 @@
         <v>20.4</v>
       </c>
       <c r="AN202">
-        <v>810.121</v>
+        <v>810.5</v>
       </c>
       <c r="AO202">
         <v>3159.9</v>
@@ -39103,10 +39103,10 @@
         <v>204.371</v>
       </c>
       <c r="DA202">
-        <v>386.692</v>
+        <v>387.071</v>
       </c>
       <c r="DB202">
-        <v>2802.908</v>
+        <v>2802.529</v>
       </c>
     </row>
     <row r="203">
@@ -39210,7 +39210,7 @@
         <v>1374.2</v>
       </c>
       <c r="AH203">
-        <v>4587.889333333334</v>
+        <v>4565.633333333333</v>
       </c>
       <c r="AI203">
         <v>1396.9</v>
@@ -39228,7 +39228,7 @@
         <v>19.1</v>
       </c>
       <c r="AN203">
-        <v>1039.610666666667</v>
+        <v>1061.866666666667</v>
       </c>
       <c r="AO203">
         <v>3157.6</v>
@@ -39423,10 +39423,10 @@
         <v>884.2600000000001</v>
       </c>
       <c r="DA203">
-        <v>526.9706666666669</v>
+        <v>549.2266666666668</v>
       </c>
       <c r="DB203">
-        <v>5100.529333333334</v>
+        <v>5078.273333333334</v>
       </c>
     </row>
     <row r="204">
@@ -39530,7 +39530,7 @@
         <v>1435.4</v>
       </c>
       <c r="AH204">
-        <v>3495.967</v>
+        <v>3457.9</v>
       </c>
       <c r="AI204">
         <v>728.2</v>
@@ -39548,7 +39548,7 @@
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>827.433</v>
+        <v>865.5</v>
       </c>
       <c r="AO204">
         <v>3160.3</v>
@@ -39743,10 +39743,10 @@
         <v>242.128</v>
       </c>
       <c r="DA204">
-        <v>341.361</v>
+        <v>379.428</v>
       </c>
       <c r="DB204">
-        <v>3982.039</v>
+        <v>3943.972</v>
       </c>
     </row>
     <row r="205">
@@ -39787,7 +39787,7 @@
         <v>709.791280906564</v>
       </c>
       <c r="R205">
-        <v>3977.346150498898</v>
+        <v>3981.231964941214</v>
       </c>
       <c r="T205">
         <v>2211.584932832352</v>
@@ -39823,7 +39823,7 @@
         <v>1455.257136912153</v>
       </c>
       <c r="AH205">
-        <v>3147.844567998898</v>
+        <v>3113.568214941214</v>
       </c>
       <c r="AI205">
         <v>733.7521447987803</v>
@@ -39841,7 +39841,7 @@
         <v>20.60847807035016</v>
       </c>
       <c r="AN205">
-        <v>829.5015824999999</v>
+        <v>867.6637499999999</v>
       </c>
       <c r="AP205">
         <v>554.0794560702121</v>
@@ -40021,10 +40021,10 @@
         <v>229.1307209391703</v>
       </c>
       <c r="DA205">
-        <v>324.8801586403899</v>
+        <v>363.0423261403899</v>
       </c>
       <c r="DB205">
-        <v>3652.465991858508</v>
+        <v>3618.189638800824</v>
       </c>
       <c r="DC205">
         <v>2173.481543207396</v>
@@ -40068,7 +40068,7 @@
         <v>735.8825618131279</v>
       </c>
       <c r="R206">
-        <v>3702.613611385422</v>
+        <v>3709.608928678839</v>
       </c>
       <c r="T206">
         <v>2227.497377316697</v>
@@ -40104,7 +40104,7 @@
         <v>1475.114273824306</v>
       </c>
       <c r="AH206">
-        <v>2871.038274929172</v>
+        <v>2839.776019303839</v>
       </c>
       <c r="AI206">
         <v>736.6971955181332</v>
@@ -40122,7 +40122,7 @@
         <v>20.95026789626738</v>
       </c>
       <c r="AN206">
-        <v>831.5753364562498</v>
+        <v>869.8329093749999</v>
       </c>
       <c r="AP206">
         <v>574.4469121404243</v>
@@ -40302,10 +40302,10 @@
         <v>213.5263477989132</v>
       </c>
       <c r="DA206">
-        <v>308.4044887370299</v>
+        <v>346.6620616557799</v>
       </c>
       <c r="DB206">
-        <v>3394.209122648392</v>
+        <v>3362.946867023059</v>
       </c>
       <c r="DC206">
         <v>2189.228946066785</v>
@@ -40349,7 +40349,7 @@
         <v>761.973842719692</v>
       </c>
       <c r="R207">
-        <v>3479.229843411781</v>
+        <v>3488.775830340336</v>
       </c>
       <c r="T207">
         <v>2243.192877611105</v>
@@ -40385,7 +40385,7 @@
         <v>1494.971410736459</v>
       </c>
       <c r="AH207">
-        <v>2645.575568614391</v>
+        <v>2616.768338691898</v>
       </c>
       <c r="AI207">
         <v>740.0767619173906</v>
@@ -40403,7 +40403,7 @@
         <v>21.28340736166992</v>
       </c>
       <c r="AN207">
-        <v>833.6542747973904</v>
+        <v>872.0074916484373</v>
       </c>
       <c r="AP207">
         <v>594.8143682106365</v>
@@ -40583,10 +40583,10 @@
         <v>198.3564903385607</v>
       </c>
       <c r="DA207">
-        <v>291.9340032185604</v>
+        <v>330.2872200696073</v>
       </c>
       <c r="DB207">
-        <v>3187.295840193221</v>
+        <v>3158.488610270728</v>
       </c>
       <c r="DC207">
         <v>2204.759404736237</v>
@@ -40630,7 +40630,7 @@
         <v>788.0651236262559</v>
       </c>
       <c r="R208">
-        <v>3322.170295467558</v>
+        <v>3333.663631241299</v>
       </c>
       <c r="T208">
         <v>2259.463532269534</v>
@@ -40666,7 +40666,7 @@
         <v>1514.828547648612</v>
       </c>
       <c r="AH208">
-        <v>2484.347749296181</v>
+        <v>2457.29610213462</v>
       </c>
       <c r="AI208">
         <v>744.0356825565207</v>
@@ -40684,7 +40684,7 @@
         <v>21.6394803409951</v>
       </c>
       <c r="AN208">
-        <v>837.8225461713772</v>
+        <v>876.3675291066794</v>
       </c>
       <c r="AP208">
         <v>615.1818242808486</v>
@@ -40864,10 +40864,10 @@
         <v>183.7659871180808</v>
       </c>
       <c r="DA208">
-        <v>277.5528507329374</v>
+        <v>316.0978336682396</v>
       </c>
       <c r="DB208">
-        <v>3044.61744473462</v>
+        <v>3017.56579757306</v>
       </c>
       <c r="DC208">
         <v>2220.865017769709</v>
@@ -40911,7 +40911,7 @@
         <v>780.2209857392268</v>
       </c>
       <c r="R209">
-        <v>3414.460892969204</v>
+        <v>3425.306801055291</v>
       </c>
       <c r="T209">
         <v>2286.970123544343</v>
@@ -40947,7 +40947,7 @@
         <v>1538.112214654067</v>
       </c>
       <c r="AH209">
-        <v>2570.354677701541</v>
+        <v>2542.366515480311</v>
       </c>
       <c r="AI209">
         <v>749.7462776422768</v>
@@ -40965,7 +40965,7 @@
         <v>21.87796876867306</v>
       </c>
       <c r="AN209">
-        <v>844.1062152676626</v>
+        <v>882.9402855749795</v>
       </c>
       <c r="AP209">
         <v>609.0585092011908</v>
@@ -41145,10 +41145,10 @@
         <v>195.0533202337098</v>
       </c>
       <c r="DA209">
-        <v>289.4132578590956</v>
+        <v>328.2473281664124</v>
       </c>
       <c r="DB209">
-        <v>3125.047635110108</v>
+        <v>3097.059472888878</v>
       </c>
       <c r="DC209">
         <v>2247.887644634147</v>
@@ -41192,7 +41192,7 @@
         <v>772.3768478521977</v>
       </c>
       <c r="R210">
-        <v>3480.314439027214</v>
+        <v>3490.923532880751</v>
       </c>
       <c r="T210">
         <v>2313.969670840344</v>
@@ -41228,7 +41228,7 @@
         <v>1561.395881659522</v>
       </c>
       <c r="AH210">
-        <v>2627.767161606874</v>
+        <v>2599.153844450022</v>
       </c>
       <c r="AI210">
         <v>756.250632039193</v>
@@ -41246,7 +41246,7 @@
         <v>22.09623949328765</v>
       </c>
       <c r="AN210">
-        <v>852.5472774203392</v>
+        <v>891.7696884307293</v>
       </c>
       <c r="AP210">
         <v>602.935194121533</v>
@@ -41426,10 +41426,10 @@
         <v>207.1344126604987</v>
       </c>
       <c r="DA210">
-        <v>303.431058041645</v>
+        <v>342.653469052035</v>
       </c>
       <c r="DB210">
-        <v>3176.883380985569</v>
+        <v>3148.270063828716</v>
       </c>
       <c r="DC210">
         <v>2274.403227519778</v>
@@ -41473,7 +41473,7 @@
         <v>764.5327099651686</v>
       </c>
       <c r="R211">
-        <v>3528.521225407126</v>
+        <v>3539.116350869613</v>
       </c>
       <c r="T211">
         <v>2340.913720785433</v>
@@ -41509,7 +41509,7 @@
         <v>1584.679548664977</v>
       </c>
       <c r="AH211">
-        <v>2666.99341417101</v>
+        <v>2637.952968910156</v>
       </c>
       <c r="AI211">
         <v>762.8367986466193</v>
@@ -41527,7 +41527,7 @@
         <v>22.31229733497988</v>
       </c>
       <c r="AN211">
-        <v>861.5278112361167</v>
+        <v>901.1633819594565</v>
       </c>
       <c r="AP211">
         <v>596.8118790418752</v>
@@ -41707,10 +41707,10 @@
         <v>219.2973172977977</v>
       </c>
       <c r="DA211">
-        <v>317.9883298872951</v>
+        <v>357.6239006106349</v>
       </c>
       <c r="DB211">
-        <v>3210.532895519831</v>
+        <v>3181.492450258978</v>
       </c>
       <c r="DC211">
         <v>2300.863313054496</v>
@@ -41754,7 +41754,7 @@
         <v>756.6885720781395</v>
       </c>
       <c r="R212">
-        <v>3550.658510453061</v>
+        <v>3561.473045106598</v>
       </c>
       <c r="T212">
         <v>2368.104986202774</v>
@@ -41790,7 +41790,7 @@
         <v>1607.963215670431</v>
       </c>
       <c r="AH212">
-        <v>2681.037569928417</v>
+        <v>2651.844200204256</v>
       </c>
       <c r="AI212">
         <v>770.1532346556107</v>
@@ -41808,7 +41808,7 @@
         <v>22.53821256423534</v>
       </c>
       <c r="AN212">
-        <v>869.6209405246435</v>
+        <v>909.6288449023414</v>
       </c>
       <c r="AP212">
         <v>590.6885639622172</v>
@@ -41988,10 +41988,10 @@
         <v>232.1904913366619</v>
       </c>
       <c r="DA212">
-        <v>331.6581972056947</v>
+        <v>371.6661015833926</v>
       </c>
       <c r="DB212">
-        <v>3219.000313247366</v>
+        <v>3189.806943523205</v>
       </c>
       <c r="DC212">
         <v>2327.570614061467</v>
@@ -42035,7 +42035,7 @@
         <v>748.9214201684099</v>
       </c>
       <c r="R213">
-        <v>3569.424339935817</v>
+        <v>3580.440467029465</v>
       </c>
       <c r="T213">
         <v>2396.571737144275</v>
@@ -42071,7 +42071,7 @@
         <v>1631.250508806328</v>
       </c>
       <c r="AH213">
-        <v>2692.668667012078</v>
+        <v>2663.348648216949</v>
       </c>
       <c r="AI213">
         <v>776.8847561165927</v>
@@ -42089,7 +42089,7 @@
         <v>22.76744711787435</v>
       </c>
       <c r="AN213">
-        <v>876.7556729237396</v>
+        <v>917.0918188125162</v>
       </c>
       <c r="AP213">
         <v>584.6253459132987</v>
@@ -42269,10 +42269,10 @@
         <v>244.4440181553535</v>
       </c>
       <c r="DA213">
-        <v>344.3149349625004</v>
+        <v>384.651080851277</v>
       </c>
       <c r="DB213">
-        <v>3225.109404973317</v>
+        <v>3195.789386178189</v>
       </c>
       <c r="DC213">
         <v>2355.52659509481</v>
@@ -42316,7 +42316,7 @@
         <v>741.1542682586802</v>
       </c>
       <c r="R214">
-        <v>3588.992964504271</v>
+        <v>3600.187805656338</v>
       </c>
       <c r="T214">
         <v>2425.068759368092</v>
@@ -42352,7 +42352,7 @@
         <v>1654.537801942225</v>
       </c>
       <c r="AH214">
-        <v>2705.351032449066</v>
+        <v>2675.892917497683</v>
       </c>
       <c r="AI214">
         <v>784.3612746822325</v>
@@ -42370,7 +42370,7 @@
         <v>22.99788869856192</v>
       </c>
       <c r="AN214">
-        <v>883.6419320552054</v>
+        <v>924.294888158655</v>
       </c>
       <c r="AP214">
         <v>578.56212786438</v>
@@ -42550,10 +42550,10 @@
         <v>257.4425420787031</v>
       </c>
       <c r="DA214">
-        <v>356.723199451676</v>
+        <v>397.3761555551256</v>
       </c>
       <c r="DB214">
-        <v>3232.269765052595</v>
+        <v>3202.811650101213</v>
       </c>
       <c r="DC214">
         <v>2383.512847410469</v>
@@ -42597,7 +42597,7 @@
         <v>733.3871163489505</v>
       </c>
       <c r="R215">
-        <v>3610.061466566187</v>
+        <v>3621.463120056596</v>
       </c>
       <c r="T215">
         <v>2453.326133940234</v>
@@ -42633,7 +42633,7 @@
         <v>1677.825095078122</v>
       </c>
       <c r="AH215">
-        <v>2718.752359395535</v>
+        <v>2689.148319636261</v>
       </c>
       <c r="AI215">
         <v>791.2209639585725</v>
@@ -42651,7 +42651,7 @@
         <v>23.21877464844838</v>
       </c>
       <c r="AN215">
-        <v>891.3091071706519</v>
+        <v>932.3148004203354</v>
       </c>
       <c r="AP215">
         <v>572.4989098154614</v>
@@ -42831,10 +42831,10 @@
         <v>269.8242367127528</v>
       </c>
       <c r="DA215">
-        <v>369.9123799248323</v>
+        <v>410.9180731745157</v>
       </c>
       <c r="DB215">
-        <v>3240.149086641355</v>
+        <v>3210.545046882081</v>
       </c>
       <c r="DC215">
         <v>2411.259452074453</v>
@@ -42878,7 +42878,7 @@
         <v>725.6199644392209</v>
       </c>
       <c r="R216">
-        <v>3633.118946891692</v>
+        <v>3644.70171596012</v>
       </c>
       <c r="T216">
         <v>2481.979557789356</v>
@@ -42914,7 +42914,7 @@
         <v>1701.112388214019</v>
       </c>
       <c r="AH216">
-        <v>2734.213656967774</v>
+        <v>2704.441261724972</v>
       </c>
       <c r="AI216">
         <v>798.8326408490778</v>
@@ -42932,7 +42932,7 @@
         <v>23.45545253555351</v>
       </c>
       <c r="AN216">
-        <v>898.9052899239184</v>
+        <v>940.2604542351484</v>
       </c>
       <c r="AP216">
         <v>566.4356917665428</v>
@@ -43112,10 +43112,10 @@
         <v>282.9579189609678</v>
       </c>
       <c r="DA216">
-        <v>383.0305680358084</v>
+        <v>424.3857323470384</v>
       </c>
       <c r="DB216">
-        <v>3250.088378855884</v>
+        <v>3220.315983613082</v>
       </c>
       <c r="DC216">
         <v>2439.402106015416</v>
@@ -43159,7 +43159,7 @@
         <v>733.7966084282052</v>
       </c>
       <c r="R217">
-        <v>3664.092270532708</v>
+        <v>3675.773999993778</v>
       </c>
       <c r="T217">
         <v>2505.386810103341</v>
@@ -43195,7 +43195,7 @@
         <v>1716.432444970307</v>
       </c>
       <c r="AH217">
-        <v>2757.519805493343</v>
+        <v>2727.49363349695</v>
       </c>
       <c r="AI217">
         <v>806.5319388433021</v>
@@ -43213,7 +43213,7 @@
         <v>23.70560889136755</v>
       </c>
       <c r="AN217">
-        <v>906.5724650393648</v>
+        <v>948.2803664968286</v>
       </c>
       <c r="AP217">
         <v>572.818568783727</v>
@@ -43393,10 +43393,10 @@
         <v>284.8440859079293</v>
       </c>
       <c r="DA217">
-        <v>384.884612103992</v>
+        <v>426.5925135614558</v>
       </c>
       <c r="DB217">
-        <v>3279.207658428716</v>
+        <v>3249.181486432322</v>
       </c>
       <c r="DC217">
         <v>2462.424139775585</v>
@@ -43440,7 +43440,7 @@
         <v>741.9732524171894</v>
       </c>
       <c r="R218">
-        <v>3694.799957224239</v>
+        <v>3706.607774206148</v>
       </c>
       <c r="T218">
         <v>2529.114433488514</v>
@@ -43476,7 +43476,7 @@
         <v>1731.752501726594</v>
       </c>
       <c r="AH218">
-        <v>2780.134362896347</v>
+        <v>2749.861944766435</v>
       </c>
       <c r="AI218">
         <v>814.307732890513</v>
@@ -43494,7 +43494,7 @@
         <v>23.96853961677886</v>
       </c>
       <c r="AN218">
-        <v>914.6655943278918</v>
+        <v>956.7458294397135</v>
       </c>
       <c r="AP218">
         <v>579.2014458009111</v>
@@ -43674,10 +43674,10 @@
         <v>286.8067489078774</v>
       </c>
       <c r="DA218">
-        <v>387.1646103452562</v>
+        <v>429.2448454570779</v>
       </c>
       <c r="DB218">
-        <v>3307.635346878983</v>
+        <v>3277.362928749071</v>
       </c>
       <c r="DC218">
         <v>2485.76654460694</v>
@@ -43721,7 +43721,7 @@
         <v>750.1498964061738</v>
       </c>
       <c r="R219">
-        <v>3722.67348015616</v>
+        <v>3734.660460491658</v>
       </c>
       <c r="T219">
         <v>2552.726016958139</v>
@@ -43757,7 +43757,7 @@
         <v>1747.072558482882</v>
       </c>
       <c r="AH219">
-        <v>2799.524298547751</v>
+        <v>2769.040746651289</v>
       </c>
       <c r="AI219">
         <v>822.1287274629184</v>
@@ -43775,7 +43775,7 @@
         <v>24.22684340517068</v>
       </c>
       <c r="AN219">
-        <v>923.1491816084088</v>
+        <v>965.6197138403688</v>
       </c>
       <c r="AP219">
         <v>585.5843228180952</v>
@@ -43955,10 +43955,10 @@
         <v>288.81461243302</v>
       </c>
       <c r="DA219">
-        <v>389.8350665785104</v>
+        <v>432.3055988104704</v>
       </c>
       <c r="DB219">
-        <v>3332.83841357765</v>
+        <v>3302.354861681188</v>
       </c>
       <c r="DC219">
         <v>2508.992909522746</v>
@@ -44002,7 +44002,7 @@
         <v>758.3265403951581</v>
       </c>
       <c r="R220">
-        <v>3749.138347760344</v>
+        <v>3761.352142930883</v>
       </c>
       <c r="T220">
         <v>2576.282103076849</v>
@@ -44038,7 +44038,7 @@
         <v>1762.392615239169</v>
       </c>
       <c r="AH220">
-        <v>2816.937639973977</v>
+        <v>2786.26447711492</v>
       </c>
       <c r="AI220">
         <v>830.0070606085214</v>
@@ -44056,7 +44056,7 @@
         <v>24.48293431064015</v>
       </c>
       <c r="AN220">
-        <v>932.2007077863665</v>
+        <v>975.0876658159638</v>
       </c>
       <c r="AP220">
         <v>591.9671998352793</v>
@@ -44236,10 +44236,10 @@
         <v>290.8798145313602</v>
       </c>
       <c r="DA220">
-        <v>393.0734617092053</v>
+        <v>435.9604197388026</v>
       </c>
       <c r="DB220">
-        <v>3356.064886051138</v>
+        <v>3325.391723192081</v>
       </c>
       <c r="DC220">
         <v>2532.163777087639</v>
@@ -44283,7 +44283,7 @@
         <v>768.6844537409598</v>
       </c>
       <c r="R221">
-        <v>3829.60352577804</v>
+        <v>3841.462194097471</v>
       </c>
       <c r="T221">
         <v>2609.350466069382</v>
@@ -44319,7 +44319,7 @@
         <v>1775.800149504891</v>
       </c>
       <c r="AH221">
-        <v>2888.244803270445</v>
+        <v>2856.795188635611</v>
       </c>
       <c r="AI221">
         <v>837.9430301913528</v>
@@ -44337,7 +44337,7 @@
         <v>24.74375273871648</v>
       </c>
       <c r="AN221">
-        <v>941.3587225075943</v>
+        <v>984.6670054618597</v>
       </c>
       <c r="AP221">
         <v>600.0528260567428</v>
@@ -44517,10 +44517,10 @@
         <v>291.4518940223084</v>
       </c>
       <c r="DA221">
-        <v>394.8675863385498</v>
+        <v>438.1758692928153</v>
       </c>
       <c r="DB221">
-        <v>3434.73593943949</v>
+        <v>3403.286324804656</v>
       </c>
       <c r="DC221">
         <v>2564.635719674939</v>
@@ -44564,7 +44564,7 @@
         <v>779.0423670867615</v>
       </c>
       <c r="R222">
-        <v>3903.491558848691</v>
+        <v>3915.06267863974</v>
       </c>
       <c r="T222">
         <v>2642.734154919381</v>
@@ -44600,7 +44600,7 @@
         <v>1789.207683770613</v>
       </c>
       <c r="AH222">
-        <v>2953.045813982049</v>
+        <v>2920.890591978851</v>
       </c>
       <c r="AI222">
         <v>846.614460877178</v>
@@ -44618,7 +44618,7 @@
         <v>25.01714436521531</v>
       </c>
       <c r="AN222">
-        <v>950.4457448666419</v>
+        <v>994.1720866608882</v>
       </c>
       <c r="AP222">
         <v>608.1384522782062</v>
@@ -44798,10 +44798,10 @@
         <v>292.7594346162504</v>
       </c>
       <c r="DA222">
-        <v>396.5907186057143</v>
+        <v>440.3170603999606</v>
       </c>
       <c r="DB222">
-        <v>3506.900840242977</v>
+        <v>3474.745618239779</v>
       </c>
       <c r="DC222">
         <v>2597.422988119707</v>
@@ -44845,7 +44845,7 @@
         <v>789.4002804325634</v>
       </c>
       <c r="R223">
-        <v>3971.899987733926</v>
+        <v>3983.259381924747</v>
       </c>
       <c r="T223">
         <v>2676.198567188892</v>
@@ -44881,7 +44881,7 @@
         <v>1802.615218036335</v>
       </c>
       <c r="AH223">
-        <v>3012.083251059516</v>
+        <v>2979.28518027736</v>
       </c>
       <c r="AI223">
         <v>854.6167970617449</v>
@@ -44899,7 +44899,7 @@
         <v>25.29375473051029</v>
       </c>
       <c r="AN223">
-        <v>959.8167366744098</v>
+        <v>1003.974201647386</v>
       </c>
       <c r="AP223">
         <v>616.2240784996698</v>
@@ -45079,10 +45079,10 @@
         <v>293.3978807089341</v>
       </c>
       <c r="DA223">
-        <v>398.5978203215989</v>
+        <v>442.7552852945755</v>
       </c>
       <c r="DB223">
-        <v>3573.302167412327</v>
+        <v>3540.504096630171</v>
       </c>
       <c r="DC223">
         <v>2630.290979983986</v>
@@ -45126,7 +45126,7 @@
         <v>799.7581937783651</v>
       </c>
       <c r="R224">
-        <v>4034.244064732651</v>
+        <v>4045.475943025647</v>
       </c>
       <c r="T224">
         <v>2709.731089843617</v>
@@ -45162,7 +45162,7 @@
         <v>1816.022752302056</v>
       </c>
       <c r="AH224">
-        <v>3064.736870620663</v>
+        <v>3031.365463380859</v>
       </c>
       <c r="AI224">
         <v>862.6608072115934</v>
@@ -45180,7 +45180,7 @@
         <v>25.57308090666454</v>
       </c>
       <c r="AN224">
-        <v>969.507194111988</v>
+        <v>1014.110479644788</v>
       </c>
       <c r="AP224">
         <v>624.3097047211332</v>
@@ -45360,10 +45360,10 @@
         <v>294.0780007668992</v>
       </c>
       <c r="DA224">
-        <v>400.9243876672939</v>
+        <v>445.5276732000938</v>
       </c>
       <c r="DB224">
-        <v>3633.319677065357</v>
+        <v>3599.948269825553</v>
       </c>
       <c r="DC224">
         <v>2663.227082233478</v>
@@ -45407,7 +45407,7 @@
         <v>810.5365972001786</v>
       </c>
       <c r="R225">
-        <v>4076.585344031395</v>
+        <v>4087.923669980054</v>
       </c>
       <c r="T225">
         <v>2743.668790671699</v>
@@ -45443,7 +45443,7 @@
         <v>1834.004678596648</v>
       </c>
       <c r="AH225">
-        <v>3097.103723033109</v>
+        <v>3063.379878550395</v>
       </c>
       <c r="AI225">
         <v>870.7424418384411</v>
@@ -45461,7 +45461,7 @@
         <v>25.8548211369159</v>
       </c>
       <c r="AN225">
-        <v>979.4816209982864</v>
+        <v>1024.543791429659</v>
       </c>
       <c r="AP225">
         <v>632.7235752009678</v>
@@ -45641,10 +45641,10 @@
         <v>294.4968006591445</v>
       </c>
       <c r="DA225">
-        <v>403.2359798189898</v>
+        <v>448.2981502503624</v>
       </c>
       <c r="DB225">
-        <v>3673.349364212406</v>
+        <v>3639.625519729691</v>
       </c>
       <c r="DC225">
         <v>2729.513722047604</v>
@@ -45688,7 +45688,7 @@
         <v>821.3150006219922</v>
       </c>
       <c r="R226">
-        <v>4120.433119256813</v>
+        <v>4131.855430215965</v>
       </c>
       <c r="T226">
         <v>2812.162634329136</v>
@@ -45724,7 +45724,7 @@
         <v>1851.98660489124</v>
       </c>
       <c r="AH226">
-        <v>3131.083559915499</v>
+        <v>3096.989714671736</v>
       </c>
       <c r="AI226">
         <v>879.5597836386368</v>
@@ -45742,7 +45742,7 @@
         <v>26.138874835677</v>
       </c>
       <c r="AN226">
-        <v>989.3495593413147</v>
+        <v>1034.865715544229</v>
       </c>
       <c r="AP226">
         <v>641.1374456808026</v>
@@ -45922,10 +45922,10 @@
         <v>295.6513077247375</v>
       </c>
       <c r="DA226">
-        <v>405.4410834274155</v>
+        <v>450.9572396303298</v>
       </c>
       <c r="DB226">
-        <v>3714.992035829398</v>
+        <v>3680.898190585635</v>
       </c>
       <c r="DC226">
         <v>2795.858381819503</v>
@@ -45969,7 +45969,7 @@
         <v>832.0934040438057</v>
       </c>
       <c r="R227">
-        <v>4167.725851254363</v>
+        <v>4179.224928980696</v>
       </c>
       <c r="T227">
         <v>2880.701884910048</v>
@@ -46005,7 +46005,7 @@
         <v>1869.968531185832</v>
       </c>
       <c r="AH227">
-        <v>3167.97591085367</v>
+        <v>3133.480350970392</v>
       </c>
       <c r="AI227">
         <v>887.6990075178636</v>
@@ -46023,7 +46023,7 @@
         <v>26.42473907501095</v>
       </c>
       <c r="AN227">
-        <v>999.7499404006935</v>
+        <v>1045.744578010305</v>
       </c>
       <c r="AP227">
         <v>649.5513161606372</v>
@@ -46203,10 +46203,10 @@
         <v>296.1276968693619</v>
       </c>
       <c r="DA227">
-        <v>408.1786297521918</v>
+        <v>454.1732673618029</v>
       </c>
       <c r="DB227">
-        <v>3759.547221502171</v>
+        <v>3725.051661618893</v>
       </c>
       <c r="DC227">
         <v>2862.248448514879</v>
@@ -46250,7 +46250,7 @@
         <v>842.8718074656191</v>
       </c>
       <c r="R228">
-        <v>4217.459929611129</v>
+        <v>4229.019288464044</v>
       </c>
       <c r="T228">
         <v>2949.296632841875</v>
@@ -46286,7 +46286,7 @@
         <v>1887.950457480424</v>
       </c>
       <c r="AH228">
-        <v>3207.132127245607</v>
+        <v>3172.210201870495</v>
       </c>
       <c r="AI228">
         <v>896.5716001620206</v>
@@ -46304,7 +46304,7 @@
         <v>26.71281619726726</v>
       </c>
       <c r="AN228">
-        <v>1010.327802365522</v>
+        <v>1056.809086593549</v>
       </c>
       <c r="AP228">
         <v>657.9651866404718</v>
@@ -46484,10 +46484,10 @@
         <v>297.3374547789164</v>
       </c>
       <c r="DA228">
-        <v>411.0936569824182</v>
+        <v>457.5749412104445</v>
       </c>
       <c r="DB228">
-        <v>3806.366272628711</v>
+        <v>3771.444347253599</v>
       </c>
       <c r="DC228">
         <v>2928.694012561168</v>
@@ -46531,7 +46531,7 @@
         <v>854.067401564417</v>
       </c>
       <c r="R229">
-        <v>4266.380873869613</v>
+        <v>4278.017446147608</v>
       </c>
       <c r="T229">
         <v>3017.959491158915</v>
@@ -46567,7 +46567,7 @@
         <v>1906.110985996907</v>
       </c>
       <c r="AH229">
-        <v>3245.333224814901</v>
+        <v>3209.995334077081</v>
       </c>
       <c r="AI229">
         <v>904.7887213064911</v>
@@ -46585,7 +46585,7 @@
         <v>27.00360913038282</v>
       </c>
       <c r="AN229">
-        <v>1021.047649054711</v>
+        <v>1068.022112070528</v>
       </c>
       <c r="AP229">
         <v>666.7047257916457</v>
@@ -46765,10 +46765,10 @@
         <v>297.5951422320151</v>
       </c>
       <c r="DA229">
-        <v>413.8540699802353</v>
+        <v>460.8285329960515</v>
       </c>
       <c r="DB229">
-        <v>3852.526803889377</v>
+        <v>3817.188913151557</v>
       </c>
       <c r="DC229">
         <v>2992.86657224267</v>
@@ -46812,7 +46812,7 @@
         <v>865.2629956632151</v>
       </c>
       <c r="R230">
-        <v>4315.500633657341</v>
+        <v>4327.206195828401</v>
       </c>
       <c r="T230">
         <v>3084.266906276007</v>
@@ -46848,7 +46848,7 @@
         <v>1924.271514513389</v>
       </c>
       <c r="AH230">
-        <v>3283.839626456711</v>
+        <v>3248.082445951196</v>
       </c>
       <c r="AI230">
         <v>913.0685592536303</v>
@@ -46866,7 +46866,7 @@
         <v>27.29721845994503</v>
       </c>
       <c r="AN230">
-        <v>1031.66100720063</v>
+        <v>1079.123749877205</v>
       </c>
       <c r="AP230">
         <v>675.4442649428198</v>
@@ -47046,10 +47046,10 @@
         <v>297.9155464877823</v>
       </c>
       <c r="DA230">
-        <v>416.5079944347822</v>
+        <v>463.9707371113573</v>
       </c>
       <c r="DB230">
-        <v>3898.992639222559</v>
+        <v>3863.235458717044</v>
       </c>
       <c r="DC230">
         <v>3057.109764916245</v>
@@ -47093,7 +47093,7 @@
         <v>876.4585897620133</v>
       </c>
       <c r="R231">
-        <v>4363.06723553425</v>
+        <v>4374.868797446733</v>
       </c>
       <c r="T231">
         <v>3150.639909171452</v>
@@ -47129,7 +47129,7 @@
         <v>1942.432043029871</v>
       </c>
       <c r="AH231">
-        <v>3320.615389282251</v>
+        <v>3284.457763645681</v>
       </c>
       <c r="AI231">
         <v>922.1165875520156</v>
@@ -47147,7 +47147,7 @@
         <v>27.5934430147791</v>
       </c>
       <c r="AN231">
-        <v>1042.451846251999</v>
+        <v>1090.411033801052</v>
       </c>
       <c r="AP231">
         <v>684.183804093994</v>
@@ -47327,10 +47327,10 @@
         <v>299.0041410947957</v>
       </c>
       <c r="DA231">
-        <v>419.3393997947794</v>
+        <v>467.2985873438317</v>
       </c>
       <c r="DB231">
-        <v>3943.727835739471</v>
+        <v>3907.570210102901</v>
       </c>
       <c r="DC231">
         <v>3121.418545368173</v>
@@ -47374,7 +47374,7 @@
         <v>887.6541838608114</v>
       </c>
       <c r="R232">
-        <v>4410.145365260369</v>
+        <v>4422.046226251508</v>
       </c>
       <c r="T232">
         <v>3217.101203306988</v>
@@ -47410,7 +47410,7 @@
         <v>1960.592571546354</v>
       </c>
       <c r="AH232">
-        <v>3356.938176138091</v>
+        <v>3320.385037750044</v>
       </c>
       <c r="AI232">
         <v>930.5175197330805</v>
@@ -47428,7 +47428,7 @@
         <v>27.89318806517149</v>
       </c>
       <c r="AN232">
-        <v>1053.207189122278</v>
+        <v>1101.661188501464</v>
       </c>
       <c r="AP232">
         <v>692.9233432451681</v>
@@ -47608,10 +47608,10 @@
         <v>299.4456395844886</v>
       </c>
       <c r="DA232">
-        <v>422.1353089736865</v>
+        <v>470.5893083528724</v>
       </c>
       <c r="DB232">
-        <v>3988.010056286682</v>
+        <v>3951.456917898636</v>
       </c>
       <c r="DC232">
         <v>3185.815617060192</v>
@@ -47655,7 +47655,7 @@
         <v>899.2728342348645</v>
       </c>
       <c r="R233">
-        <v>4500.543878201987</v>
+        <v>4512.078388526789</v>
       </c>
       <c r="T233">
         <v>3283.575110476823</v>
@@ -47691,7 +47691,7 @@
         <v>1979.19523950645</v>
       </c>
       <c r="AH233">
-        <v>3436.47485766616</v>
+        <v>3399.055657654611</v>
       </c>
       <c r="AI233">
         <v>939.7234321455406</v>
@@ -47709,7 +47709,7 @@
         <v>28.19343604350077</v>
       </c>
       <c r="AN233">
-        <v>1064.069020535828</v>
+        <v>1113.022730872178</v>
       </c>
       <c r="AP233">
         <v>701.9931298890713</v>
@@ -47889,10 +47889,10 @@
         <v>300.3913492404522</v>
       </c>
       <c r="DA233">
-        <v>424.7369376307391</v>
+        <v>473.6906479670896</v>
       </c>
       <c r="DB233">
-        <v>4075.806940571248</v>
+        <v>4038.3877405597</v>
       </c>
       <c r="DC233">
         <v>3219.37925053651</v>
@@ -47936,7 +47936,7 @@
         <v>910.8914846089176</v>
       </c>
       <c r="R234">
-        <v>4586.232642240277</v>
+        <v>4597.460163784188</v>
       </c>
       <c r="T234">
         <v>3317.9321753248</v>
@@ -47972,7 +47972,7 @@
         <v>1997.797907466546</v>
       </c>
       <c r="AH234">
-        <v>3511.15980556654</v>
+        <v>3472.927373647561</v>
       </c>
       <c r="AI234">
         <v>948.2683609986685</v>
@@ -47990,7 +47990,7 @@
         <v>28.48764888658726</v>
       </c>
       <c r="AN234">
-        <v>1075.072836673737</v>
+        <v>1124.532790136627</v>
       </c>
       <c r="AP234">
         <v>711.0629165329746</v>
@@ -48170,10 +48170,10 @@
         <v>300.6760753370834</v>
       </c>
       <c r="DA234">
-        <v>427.4805510121518</v>
+        <v>476.9405044750414</v>
       </c>
       <c r="DB234">
-        <v>4158.752091228125</v>
+        <v>4120.519659309146</v>
       </c>
       <c r="DC234">
         <v>3252.791527601243</v>
@@ -48217,7 +48217,7 @@
         <v>922.5101349829706</v>
       </c>
       <c r="R235">
-        <v>4667.936160485634</v>
+        <v>4678.900087923603</v>
       </c>
       <c r="T235">
         <v>3352.089954230858</v>
@@ -48253,7 +48253,7 @@
         <v>2016.400575426642</v>
       </c>
       <c r="AH235">
-        <v>3581.859507673988</v>
+        <v>3542.857238522528</v>
       </c>
       <c r="AI235">
         <v>957.6343615651296</v>
@@ -48271,7 +48271,7 @@
         <v>28.77391546827072</v>
       </c>
       <c r="AN235">
-        <v>1086.076652811646</v>
+        <v>1136.042849401075</v>
       </c>
       <c r="AP235">
         <v>720.1327031768777</v>
@@ -48451,10 +48451,10 @@
         <v>301.7818731470479</v>
       </c>
       <c r="DA235">
-        <v>430.2241643935646</v>
+        <v>480.1903609829936</v>
       </c>
       <c r="DB235">
-        <v>4237.711996092069</v>
+        <v>4198.709726940609</v>
       </c>
       <c r="DC235">
         <v>3286.004518724057</v>
@@ -48498,7 +48498,7 @@
         <v>934.1287853570237</v>
       </c>
       <c r="R236">
-        <v>4744.918131347928</v>
+        <v>4755.667857265458</v>
       </c>
       <c r="T236">
         <v>3386.184667965422</v>
@@ -48534,7 +48534,7 @@
         <v>2035.003243386738</v>
       </c>
       <c r="AH236">
-        <v>3647.873158579462</v>
+        <v>3608.152077823368</v>
       </c>
       <c r="AI236">
         <v>967.0807541678432</v>
@@ -48552,7 +48552,7 @@
         <v>29.05766741026968</v>
       </c>
       <c r="AN236">
-        <v>1097.044972768465</v>
+        <v>1147.51577944209</v>
       </c>
       <c r="AP236">
         <v>729.2024898207809</v>
@@ -48732,10 +48732,10 @@
         <v>302.968062993265</v>
       </c>
       <c r="DA236">
-        <v>432.9322815938872</v>
+        <v>483.403088267512</v>
       </c>
       <c r="DB236">
-        <v>4311.98584975404</v>
+        <v>4272.264768997946</v>
       </c>
       <c r="DC236">
         <v>3319.154444675377</v>
@@ -48779,7 +48779,7 @@
         <v>946.4304113296903</v>
       </c>
       <c r="R237">
-        <v>4718.717291103354</v>
+        <v>4730.378375428693</v>
       </c>
       <c r="T237">
         <v>3420.279381699986</v>
@@ -48815,7 +48815,7 @@
         <v>2053.393274782216</v>
       </c>
       <c r="AH237">
-        <v>3610.66850219698</v>
+        <v>3571.352536722155</v>
       </c>
       <c r="AI237">
         <v>975.8709903825484</v>
@@ -48833,7 +48833,7 @@
         <v>29.34141935226864</v>
       </c>
       <c r="AN237">
-        <v>1108.048788906375</v>
+        <v>1159.025838706539</v>
       </c>
       <c r="AP237">
         <v>738.8054229802424</v>
@@ -49013,10 +49013,10 @@
         <v>303.0125394598555</v>
       </c>
       <c r="DA237">
-        <v>435.1903379836818</v>
+        <v>486.1673877838458</v>
       </c>
       <c r="DB237">
-        <v>4283.526953119673</v>
+        <v>4244.210987644848</v>
       </c>
       <c r="DC237">
         <v>3354.170536376698</v>
@@ -49060,7 +49060,7 @@
         <v>958.7320373023568</v>
       </c>
       <c r="R238">
-        <v>4704.022495255692</v>
+        <v>4716.469650595664</v>
       </c>
       <c r="T238">
         <v>3456.2297854303</v>
@@ -49096,7 +49096,7 @@
         <v>2071.783306177694</v>
       </c>
       <c r="AH238">
-        <v>3584.969890211408</v>
+        <v>3545.933752624677</v>
       </c>
       <c r="AI238">
         <v>985.472124041594</v>
@@ -49114,7 +49114,7 @@
         <v>29.62205314105883</v>
       </c>
       <c r="AN238">
-        <v>1119.052605044284</v>
+        <v>1170.535897970987</v>
       </c>
       <c r="AP238">
         <v>748.4083561397039</v>
@@ -49294,10 +49294,10 @@
         <v>303.8679133707865</v>
       </c>
       <c r="DA238">
-        <v>437.4483943734763</v>
+        <v>488.9316873001796</v>
       </c>
       <c r="DB238">
-        <v>4266.574100882216</v>
+        <v>4227.537963295485</v>
       </c>
       <c r="DC238">
         <v>3389.108427265367</v>
@@ -49341,7 +49341,7 @@
         <v>971.0336632750235</v>
       </c>
       <c r="R239">
-        <v>4702.30535925705</v>
+        <v>4715.401313152579</v>
       </c>
       <c r="T239">
         <v>3492.240731725247</v>
@@ -49377,7 +49377,7 @@
         <v>2090.173337573172</v>
       </c>
       <c r="AH239">
-        <v>3572.177945712677</v>
+        <v>3533.281097470276</v>
       </c>
       <c r="AI239">
         <v>994.3982597686056</v>
@@ -49395,7 +49395,7 @@
         <v>29.90510098394613</v>
       </c>
       <c r="AN239">
-        <v>1130.127413544373</v>
+        <v>1182.120215682303</v>
       </c>
       <c r="AP239">
         <v>758.0112892991655</v>
@@ -49575,10 +49575,10 @@
         <v>304.0482893496833</v>
       </c>
       <c r="DA239">
-        <v>439.7774431254509</v>
+        <v>491.770245263381</v>
       </c>
       <c r="DB239">
-        <v>4262.527916131599</v>
+        <v>4223.631067889199</v>
       </c>
       <c r="DC239">
         <v>3424.106860718669</v>
@@ -49622,7 +49622,7 @@
         <v>983.3352892476903</v>
       </c>
       <c r="R240">
-        <v>4712.655909226422</v>
+        <v>4726.261180445902</v>
       </c>
       <c r="T240">
         <v>3528.29708494367</v>
@@ -49658,7 +49658,7 @@
         <v>2108.563368968651</v>
       </c>
       <c r="AH240">
-        <v>3571.59567190632</v>
+        <v>3532.705163946018</v>
       </c>
       <c r="AI240">
         <v>1004.09845288792</v>
@@ -49676,7 +49676,7 @@
         <v>30.18995936740627</v>
       </c>
       <c r="AN240">
-        <v>1141.060237320102</v>
+        <v>1193.556016499884</v>
       </c>
       <c r="AP240">
         <v>767.6142224586271</v>
@@ -49856,10 +49856,10 @@
         <v>305.0027227208825</v>
       </c>
       <c r="DA240">
-        <v>441.9645071530651</v>
+        <v>494.4602863328473</v>
       </c>
       <c r="DB240">
-        <v>4270.691402073357</v>
+        <v>4231.800894113055</v>
       </c>
       <c r="DC240">
         <v>3459.150701095446</v>
@@ -49903,7 +49903,7 @@
         <v>996.7645764878478</v>
       </c>
       <c r="R241">
-        <v>4830.299361529345</v>
+        <v>4843.245655602853</v>
       </c>
       <c r="T241">
         <v>3564.401367692429</v>
@@ -49939,7 +49939,7 @@
         <v>2126.558848286688</v>
       </c>
       <c r="AH241">
-        <v>3678.306300433514</v>
+        <v>3638.253838285387</v>
       </c>
       <c r="AI241">
         <v>1013.845439796806</v>
@@ -49957,7 +49957,7 @@
         <v>30.47672887702664</v>
       </c>
       <c r="AN241">
-        <v>1151.993061095832</v>
+        <v>1204.991817317466</v>
       </c>
       <c r="AP241">
         <v>778.0974340302505</v>
@@ -50137,10 +50137,10 @@
         <v>305.202246550351</v>
       </c>
       <c r="DA241">
-        <v>443.3498678493768</v>
+        <v>496.348624071011</v>
       </c>
       <c r="DB241">
-        <v>4386.949493679968</v>
+        <v>4346.897031531842</v>
       </c>
       <c r="DC241">
         <v>3494.054717252559</v>
@@ -50184,7 +50184,7 @@
         <v>1010.193863728005</v>
       </c>
       <c r="R242">
-        <v>4937.693395002359</v>
+        <v>4950.100394354722</v>
       </c>
       <c r="T242">
         <v>3600.3741480876</v>
@@ -50220,7 +50220,7 @@
         <v>2144.554327604725</v>
       </c>
       <c r="AH242">
-        <v>3774.625525406439</v>
+        <v>3733.52425932594</v>
       </c>
       <c r="AI242">
         <v>1022.885432077503</v>
@@ -50238,7 +50238,7 @@
         <v>30.76601302633151</v>
       </c>
       <c r="AN242">
-        <v>1163.067869595921</v>
+        <v>1216.576135028782</v>
       </c>
       <c r="AP242">
         <v>788.580645601874</v>
@@ -50418,10 +50418,10 @@
         <v>304.6947757516308</v>
       </c>
       <c r="DA242">
-        <v>444.8772132700482</v>
+        <v>498.3854787029092</v>
       </c>
       <c r="DB242">
-        <v>4492.816181732312</v>
+        <v>4451.714915651813</v>
       </c>
       <c r="DC242">
         <v>3529.021798581166</v>
@@ -50465,7 +50465,7 @@
         <v>1023.623150968163</v>
       </c>
       <c r="R243">
-        <v>5029.100306557543</v>
+        <v>5041.131994514032</v>
       </c>
       <c r="T243">
         <v>3636.387290192526</v>
@@ -50501,7 +50501,7 @@
         <v>2162.549806922763</v>
       </c>
       <c r="AH243">
-        <v>3855.135109366983</v>
+        <v>3813.157187891103</v>
       </c>
       <c r="AI243">
         <v>1032.70918970005</v>
@@ -50519,7 +50519,7 @@
         <v>31.05690654503445</v>
       </c>
       <c r="AN243">
-        <v>1173.96519719056</v>
+        <v>1227.974806622929</v>
       </c>
       <c r="AP243">
         <v>799.0638571734975</v>
@@ -50699,10 +50699,10 @@
         <v>304.9710702947599</v>
       </c>
       <c r="DA243">
-        <v>446.2270777852699</v>
+        <v>500.2366872176391</v>
       </c>
       <c r="DB243">
-        <v>4582.873228772273</v>
+        <v>4540.895307296393</v>
       </c>
       <c r="DC243">
         <v>3564.029241619528</v>
@@ -50746,7 +50746,7 @@
         <v>1037.05243820832</v>
       </c>
       <c r="R244">
-        <v>5107.971153372956</v>
+        <v>5119.768072154646</v>
       </c>
       <c r="T244">
         <v>3672.438271400349</v>
@@ -50782,7 +50782,7 @@
         <v>2180.545286240801</v>
       </c>
       <c r="AH244">
-        <v>3923.037636225577</v>
+        <v>3880.320335490702</v>
       </c>
       <c r="AI244">
         <v>1042.557002146181</v>
@@ -50800,7 +50800,7 @@
         <v>31.3493088475481</v>
       </c>
       <c r="AN244">
-        <v>1184.933517147379</v>
+        <v>1239.447736663944</v>
       </c>
       <c r="AP244">
         <v>809.547068745121</v>
@@ -50980,10 +50980,10 @@
         <v>305.2714196614735</v>
       </c>
       <c r="DA244">
-        <v>447.6479346626714</v>
+        <v>502.1621541792362</v>
       </c>
       <c r="DB244">
-        <v>4660.323218710284</v>
+        <v>4617.60591797541</v>
       </c>
       <c r="DC244">
         <v>3599.074523760786</v>
@@ -51045,7 +51045,7 @@
         <v>31.6434211050472</v>
       </c>
       <c r="AN245">
-        <v>1195.901837104198</v>
+        <v>1250.920666704959</v>
       </c>
       <c r="AR245">
         <v>106.7251513373335</v>

--- a/results/12-2020/xx.xlsx
+++ b/results/12-2020/xx.xlsx
@@ -39375,7 +39375,7 @@
         <v>834.9333333333333</v>
       </c>
       <c r="CK203">
-        <v>277.6</v>
+        <v>249.0666666666667</v>
       </c>
       <c r="CL203">
         <v>0.629670798</v>
@@ -39530,7 +39530,7 @@
         <v>1435.4</v>
       </c>
       <c r="AH204">
-        <v>3457.9</v>
+        <v>3414.9</v>
       </c>
       <c r="AI204">
         <v>728.2</v>
@@ -39548,7 +39548,7 @@
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>865.5</v>
+        <v>908.5</v>
       </c>
       <c r="AO204">
         <v>3160.3</v>
@@ -39689,13 +39689,13 @@
         <v>1649.461652</v>
       </c>
       <c r="CI204">
-        <v>874.878</v>
+        <v>881.354</v>
       </c>
       <c r="CJ204">
-        <v>738.2</v>
+        <v>695.2</v>
       </c>
       <c r="CK204">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="CL204">
         <v>0.629670798</v>
@@ -39743,10 +39743,10 @@
         <v>242.128</v>
       </c>
       <c r="DA204">
-        <v>379.428</v>
+        <v>422.428</v>
       </c>
       <c r="DB204">
-        <v>3943.972</v>
+        <v>3900.972</v>
       </c>
     </row>
     <row r="205">
@@ -39787,7 +39787,7 @@
         <v>709.791280906564</v>
       </c>
       <c r="R205">
-        <v>3981.231964941214</v>
+        <v>3985.621331611021</v>
       </c>
       <c r="T205">
         <v>2211.584932832352</v>
@@ -39823,7 +39823,7 @@
         <v>1455.257136912153</v>
       </c>
       <c r="AH205">
-        <v>3113.568214941214</v>
+        <v>3074.850081611021</v>
       </c>
       <c r="AI205">
         <v>733.7521447987803</v>
@@ -39841,7 +39841,7 @@
         <v>20.60847807035016</v>
       </c>
       <c r="AN205">
-        <v>867.6637499999999</v>
+        <v>910.7712499999999</v>
       </c>
       <c r="AP205">
         <v>554.0794560702121</v>
@@ -39967,13 +39967,13 @@
         <v>1656.63723675</v>
       </c>
       <c r="CI205">
-        <v>337.8</v>
+        <v>344.8</v>
       </c>
       <c r="CJ205">
         <v>257.8</v>
       </c>
       <c r="CK205">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="CL205">
         <v>0.629670798</v>
@@ -40021,10 +40021,10 @@
         <v>229.1307209391703</v>
       </c>
       <c r="DA205">
-        <v>363.0423261403899</v>
+        <v>406.1498261403899</v>
       </c>
       <c r="DB205">
-        <v>3618.189638800824</v>
+        <v>3579.471505470631</v>
       </c>
       <c r="DC205">
         <v>2173.481543207396</v>
@@ -40068,7 +40068,7 @@
         <v>735.8825618131279</v>
       </c>
       <c r="R206">
-        <v>3709.608928678839</v>
+        <v>3717.51075029906</v>
       </c>
       <c r="T206">
         <v>2227.497377316697</v>
@@ -40104,7 +40104,7 @@
         <v>1475.114273824306</v>
       </c>
       <c r="AH206">
-        <v>2839.776019303839</v>
+        <v>2804.462572174059</v>
       </c>
       <c r="AI206">
         <v>736.6971955181332</v>
@@ -40122,7 +40122,7 @@
         <v>20.95026789626738</v>
       </c>
       <c r="AN206">
-        <v>869.8329093749999</v>
+        <v>913.0481781249998</v>
       </c>
       <c r="AP206">
         <v>574.4469121404243</v>
@@ -40248,10 +40248,10 @@
         <v>1663.8128215</v>
       </c>
       <c r="CI206">
-        <v>244</v>
+        <v>724</v>
       </c>
       <c r="CJ206">
-        <v>184</v>
+        <v>664</v>
       </c>
       <c r="CK206">
         <v>60</v>
@@ -40302,10 +40302,10 @@
         <v>213.5263477989132</v>
       </c>
       <c r="DA206">
-        <v>346.6620616557799</v>
+        <v>389.8773304057798</v>
       </c>
       <c r="DB206">
-        <v>3362.946867023059</v>
+        <v>3327.63341989328</v>
       </c>
       <c r="DC206">
         <v>2189.228946066785</v>
@@ -40349,7 +40349,7 @@
         <v>761.973842719692</v>
       </c>
       <c r="R207">
-        <v>3488.775830340336</v>
+        <v>3499.558856003715</v>
       </c>
       <c r="T207">
         <v>2243.192877611105</v>
@@ -40385,7 +40385,7 @@
         <v>1494.971410736459</v>
       </c>
       <c r="AH207">
-        <v>2616.768338691898</v>
+        <v>2584.228057433403</v>
       </c>
       <c r="AI207">
         <v>740.0767619173906</v>
@@ -40403,7 +40403,7 @@
         <v>21.28340736166992</v>
       </c>
       <c r="AN207">
-        <v>872.0074916484373</v>
+        <v>915.3307985703123</v>
       </c>
       <c r="AP207">
         <v>594.8143682106365</v>
@@ -40583,10 +40583,10 @@
         <v>198.3564903385607</v>
       </c>
       <c r="DA207">
-        <v>330.2872200696073</v>
+        <v>373.6105269914823</v>
       </c>
       <c r="DB207">
-        <v>3158.488610270728</v>
+        <v>3125.948329012233</v>
       </c>
       <c r="DC207">
         <v>2204.759404736237</v>
@@ -40630,7 +40630,7 @@
         <v>788.0651236262559</v>
       </c>
       <c r="R208">
-        <v>3333.663631241299</v>
+        <v>3346.646357441707</v>
       </c>
       <c r="T208">
         <v>2259.463532269534</v>
@@ -40666,7 +40666,7 @@
         <v>1514.828547648612</v>
       </c>
       <c r="AH208">
-        <v>2457.29610213462</v>
+        <v>2426.738904878543</v>
       </c>
       <c r="AI208">
         <v>744.0356825565207</v>
@@ -40684,7 +40684,7 @@
         <v>21.6394803409951</v>
       </c>
       <c r="AN208">
-        <v>876.3675291066794</v>
+        <v>919.9074525631637</v>
       </c>
       <c r="AP208">
         <v>615.1818242808486</v>
@@ -40864,10 +40864,10 @@
         <v>183.7659871180808</v>
       </c>
       <c r="DA208">
-        <v>316.0978336682396</v>
+        <v>359.6377571247239</v>
       </c>
       <c r="DB208">
-        <v>3017.56579757306</v>
+        <v>2987.008600316983</v>
       </c>
       <c r="DC208">
         <v>2220.865017769709</v>
@@ -40911,7 +40911,7 @@
         <v>780.2209857392268</v>
       </c>
       <c r="R209">
-        <v>3425.306801055291</v>
+        <v>3437.558201157788</v>
       </c>
       <c r="T209">
         <v>2286.970123544343</v>
@@ -40947,7 +40947,7 @@
         <v>1538.112214654067</v>
       </c>
       <c r="AH209">
-        <v>2542.366515480311</v>
+        <v>2510.7514427004</v>
       </c>
       <c r="AI209">
         <v>749.7462776422768</v>
@@ -40965,7 +40965,7 @@
         <v>21.87796876867306</v>
       </c>
       <c r="AN209">
-        <v>882.9402855749795</v>
+        <v>926.8067584573874</v>
       </c>
       <c r="AP209">
         <v>609.0585092011908</v>
@@ -41145,10 +41145,10 @@
         <v>195.0533202337098</v>
       </c>
       <c r="DA209">
-        <v>328.2473281664124</v>
+        <v>372.1138010488204</v>
       </c>
       <c r="DB209">
-        <v>3097.059472888878</v>
+        <v>3065.444400108967</v>
       </c>
       <c r="DC209">
         <v>2247.887644634147</v>
@@ -41192,7 +41192,7 @@
         <v>772.3768478521977</v>
       </c>
       <c r="R210">
-        <v>3490.923532880751</v>
+        <v>3502.907430632139</v>
       </c>
       <c r="T210">
         <v>2313.969670840344</v>
@@ -41228,7 +41228,7 @@
         <v>1561.395881659522</v>
       </c>
       <c r="AH210">
-        <v>2599.153844450022</v>
+        <v>2566.832604590178</v>
       </c>
       <c r="AI210">
         <v>756.250632039193</v>
@@ -41246,7 +41246,7 @@
         <v>22.09623949328765</v>
       </c>
       <c r="AN210">
-        <v>891.7696884307293</v>
+        <v>936.0748260419613</v>
       </c>
       <c r="AP210">
         <v>602.935194121533</v>
@@ -41426,10 +41426,10 @@
         <v>207.1344126604987</v>
       </c>
       <c r="DA210">
-        <v>342.653469052035</v>
+        <v>386.958606663267</v>
       </c>
       <c r="DB210">
-        <v>3148.270063828716</v>
+        <v>3115.948823968873</v>
       </c>
       <c r="DC210">
         <v>2274.403227519778</v>
@@ -41473,7 +41473,7 @@
         <v>764.5327099651686</v>
       </c>
       <c r="R211">
-        <v>3539.116350869613</v>
+        <v>3551.084470103777</v>
       </c>
       <c r="T211">
         <v>2340.913720785433</v>
@@ -41509,7 +41509,7 @@
         <v>1584.679548664977</v>
       </c>
       <c r="AH211">
-        <v>2637.952968910156</v>
+        <v>2605.149250565746</v>
       </c>
       <c r="AI211">
         <v>762.8367986466193</v>
@@ -41527,7 +41527,7 @@
         <v>22.31229733497988</v>
       </c>
       <c r="AN211">
-        <v>901.1633819594565</v>
+        <v>945.9352195380314</v>
       </c>
       <c r="AP211">
         <v>596.8118790418752</v>
@@ -41707,10 +41707,10 @@
         <v>219.2973172977977</v>
       </c>
       <c r="DA211">
-        <v>357.6239006106349</v>
+        <v>402.3957381892099</v>
       </c>
       <c r="DB211">
-        <v>3181.492450258978</v>
+        <v>3148.688731914567</v>
       </c>
       <c r="DC211">
         <v>2300.863313054496</v>
@@ -41754,7 +41754,7 @@
         <v>756.6885720781395</v>
       </c>
       <c r="R212">
-        <v>3561.473045106598</v>
+        <v>3573.689006177921</v>
       </c>
       <c r="T212">
         <v>2368.104986202774</v>
@@ -41790,7 +41790,7 @@
         <v>1607.963215670431</v>
       </c>
       <c r="AH212">
-        <v>2651.844200204256</v>
+        <v>2618.867740327225</v>
       </c>
       <c r="AI212">
         <v>770.1532346556107</v>
@@ -41808,7 +41808,7 @@
         <v>22.53821256423534</v>
       </c>
       <c r="AN212">
-        <v>909.6288449023414</v>
+        <v>954.8212658506957</v>
       </c>
       <c r="AP212">
         <v>590.6885639622172</v>
@@ -41988,10 +41988,10 @@
         <v>232.1904913366619</v>
       </c>
       <c r="DA212">
-        <v>371.6661015833926</v>
+        <v>416.8585225317469</v>
       </c>
       <c r="DB212">
-        <v>3189.806943523205</v>
+        <v>3156.830483646174</v>
       </c>
       <c r="DC212">
         <v>2327.570614061467</v>
@@ -42035,7 +42035,7 @@
         <v>748.9214201684099</v>
       </c>
       <c r="R213">
-        <v>3580.440467029465</v>
+        <v>3592.884144362243</v>
       </c>
       <c r="T213">
         <v>2396.571737144275</v>
@@ -42071,7 +42071,7 @@
         <v>1631.250508806328</v>
       </c>
       <c r="AH213">
-        <v>2663.348648216949</v>
+        <v>2630.229127156962</v>
       </c>
       <c r="AI213">
         <v>776.8847561165927</v>
@@ -42089,7 +42089,7 @@
         <v>22.76744711787435</v>
       </c>
       <c r="AN213">
-        <v>917.0918188125162</v>
+        <v>962.6550172052812</v>
       </c>
       <c r="AP213">
         <v>584.6253459132987</v>
@@ -42269,10 +42269,10 @@
         <v>244.4440181553535</v>
       </c>
       <c r="DA213">
-        <v>384.651080851277</v>
+        <v>430.214279244042</v>
       </c>
       <c r="DB213">
-        <v>3195.789386178189</v>
+        <v>3162.669865118201</v>
       </c>
       <c r="DC213">
         <v>2355.52659509481</v>
@@ -42316,7 +42316,7 @@
         <v>741.1542682586802</v>
       </c>
       <c r="R214">
-        <v>3600.187805656338</v>
+        <v>3612.833356121016</v>
       </c>
       <c r="T214">
         <v>2425.068759368092</v>
@@ -42352,7 +42352,7 @@
         <v>1654.537801942225</v>
       </c>
       <c r="AH214">
-        <v>2675.892917497683</v>
+        <v>2642.617404772503</v>
       </c>
       <c r="AI214">
         <v>784.3612746822325</v>
@@ -42370,7 +42370,7 @@
         <v>22.99788869856192</v>
       </c>
       <c r="AN214">
-        <v>924.294888158655</v>
+        <v>970.2159513485129</v>
       </c>
       <c r="AP214">
         <v>578.56212786438</v>
@@ -42550,10 +42550,10 @@
         <v>257.4425420787031</v>
       </c>
       <c r="DA214">
-        <v>397.3761555551256</v>
+        <v>443.2972187449835</v>
       </c>
       <c r="DB214">
-        <v>3202.811650101213</v>
+        <v>3169.536137376032</v>
       </c>
       <c r="DC214">
         <v>2383.512847410469</v>
@@ -42597,7 +42597,7 @@
         <v>733.3871163489505</v>
       </c>
       <c r="R215">
-        <v>3621.463120056596</v>
+        <v>3634.342283113511</v>
       </c>
       <c r="T215">
         <v>2453.326133940234</v>
@@ -42633,7 +42633,7 @@
         <v>1677.825095078122</v>
       </c>
       <c r="AH215">
-        <v>2689.148319636261</v>
+        <v>2655.707972100369</v>
       </c>
       <c r="AI215">
         <v>791.2209639585725</v>
@@ -42651,7 +42651,7 @@
         <v>23.21877464844838</v>
       </c>
       <c r="AN215">
-        <v>932.3148004203354</v>
+        <v>978.6343110131422</v>
       </c>
       <c r="AP215">
         <v>572.4989098154614</v>
@@ -42831,10 +42831,10 @@
         <v>269.8242367127528</v>
       </c>
       <c r="DA215">
-        <v>410.9180731745157</v>
+        <v>457.2375837673226</v>
       </c>
       <c r="DB215">
-        <v>3210.545046882081</v>
+        <v>3177.104699346189</v>
       </c>
       <c r="DC215">
         <v>2411.259452074453</v>
@@ -42878,7 +42878,7 @@
         <v>725.6199644392209</v>
       </c>
       <c r="R216">
-        <v>3644.70171596012</v>
+        <v>3657.78546487499</v>
       </c>
       <c r="T216">
         <v>2481.979557789356</v>
@@ -42914,7 +42914,7 @@
         <v>1701.112388214019</v>
       </c>
       <c r="AH216">
-        <v>2704.441261724972</v>
+        <v>2670.810741971891</v>
       </c>
       <c r="AI216">
         <v>798.8326408490778</v>
@@ -42932,7 +42932,7 @@
         <v>23.45545253555351</v>
       </c>
       <c r="AN216">
-        <v>940.2604542351484</v>
+        <v>986.974722903099</v>
       </c>
       <c r="AP216">
         <v>566.4356917665428</v>
@@ -43112,10 +43112,10 @@
         <v>282.9579189609678</v>
       </c>
       <c r="DA216">
-        <v>424.3857323470384</v>
+        <v>471.1000010149889</v>
       </c>
       <c r="DB216">
-        <v>3220.315983613082</v>
+        <v>3186.685463860001</v>
       </c>
       <c r="DC216">
         <v>2439.402106015416</v>
@@ -43159,7 +43159,7 @@
         <v>733.7966084282052</v>
       </c>
       <c r="R217">
-        <v>3675.773999993778</v>
+        <v>3688.969533312033</v>
       </c>
       <c r="T217">
         <v>2505.386810103341</v>
@@ -43195,7 +43195,7 @@
         <v>1716.432444970307</v>
       </c>
       <c r="AH217">
-        <v>2727.49363349695</v>
+        <v>2693.576450744305</v>
       </c>
       <c r="AI217">
         <v>806.5319388433021</v>
@@ -43213,7 +43213,7 @@
         <v>23.70560889136755</v>
       </c>
       <c r="AN217">
-        <v>948.2803664968286</v>
+        <v>995.393082567728</v>
       </c>
       <c r="AP217">
         <v>572.818568783727</v>
@@ -43393,10 +43393,10 @@
         <v>284.8440859079293</v>
       </c>
       <c r="DA217">
-        <v>426.5925135614558</v>
+        <v>473.7052296323552</v>
       </c>
       <c r="DB217">
-        <v>3249.181486432322</v>
+        <v>3215.264303679677</v>
       </c>
       <c r="DC217">
         <v>2462.424139775585</v>
@@ -43440,7 +43440,7 @@
         <v>741.9732524171894</v>
       </c>
       <c r="R218">
-        <v>3706.607774206148</v>
+        <v>3719.945734387462</v>
       </c>
       <c r="T218">
         <v>2529.114433488514</v>
@@ -43476,7 +43476,7 @@
         <v>1731.752501726594</v>
       </c>
       <c r="AH218">
-        <v>2749.861944766435</v>
+        <v>2715.66660550707</v>
       </c>
       <c r="AI218">
         <v>814.307732890513</v>
@@ -43494,7 +43494,7 @@
         <v>23.96853961677886</v>
       </c>
       <c r="AN218">
-        <v>956.7458294397135</v>
+        <v>1004.279128880392</v>
       </c>
       <c r="AP218">
         <v>579.2014458009111</v>
@@ -43674,10 +43674,10 @@
         <v>286.8067489078774</v>
       </c>
       <c r="DA218">
-        <v>429.2448454570779</v>
+        <v>476.7781448977566</v>
       </c>
       <c r="DB218">
-        <v>3277.362928749071</v>
+        <v>3243.167589489705</v>
       </c>
       <c r="DC218">
         <v>2485.76654460694</v>
@@ -43721,7 +43721,7 @@
         <v>750.1498964061738</v>
       </c>
       <c r="R219">
-        <v>3734.660460491658</v>
+        <v>3748.200801322992</v>
       </c>
       <c r="T219">
         <v>2552.726016958139</v>
@@ -43757,7 +43757,7 @@
         <v>1747.072558482882</v>
       </c>
       <c r="AH219">
-        <v>2769.040746651289</v>
+        <v>2734.606913369237</v>
       </c>
       <c r="AI219">
         <v>822.1287274629184</v>
@@ -43775,7 +43775,7 @@
         <v>24.22684340517068</v>
       </c>
       <c r="AN219">
-        <v>965.6197138403688</v>
+        <v>1013.593887953755</v>
       </c>
       <c r="AP219">
         <v>585.5843228180952</v>
@@ -43955,10 +43955,10 @@
         <v>288.81461243302</v>
       </c>
       <c r="DA219">
-        <v>432.3055988104704</v>
+        <v>480.2797729238565</v>
       </c>
       <c r="DB219">
-        <v>3302.354861681188</v>
+        <v>3267.921028399136</v>
       </c>
       <c r="DC219">
         <v>2508.992909522746</v>
@@ -44002,7 +44002,7 @@
         <v>758.3265403951581</v>
       </c>
       <c r="R220">
-        <v>3761.352142930883</v>
+        <v>3775.148690920827</v>
       </c>
       <c r="T220">
         <v>2576.282103076849</v>
@@ -44038,7 +44038,7 @@
         <v>1762.392615239169</v>
       </c>
       <c r="AH220">
-        <v>2786.26447711492</v>
+        <v>2751.616461696329</v>
       </c>
       <c r="AI220">
         <v>830.0070606085214</v>
@@ -44056,7 +44056,7 @@
         <v>24.48293431064015</v>
       </c>
       <c r="AN220">
-        <v>975.0876658159638</v>
+        <v>1023.532229224498</v>
       </c>
       <c r="AP220">
         <v>591.9671998352793</v>
@@ -44236,10 +44236,10 @@
         <v>290.8798145313602</v>
       </c>
       <c r="DA220">
-        <v>435.9604197388026</v>
+        <v>484.4049831473366</v>
       </c>
       <c r="DB220">
-        <v>3325.391723192081</v>
+        <v>3290.74370777349</v>
       </c>
       <c r="DC220">
         <v>2532.163777087639</v>
@@ -44283,7 +44283,7 @@
         <v>768.6844537409598</v>
       </c>
       <c r="R221">
-        <v>3841.462194097471</v>
+        <v>3854.857595304173</v>
       </c>
       <c r="T221">
         <v>2609.350466069382</v>
@@ -44319,7 +44319,7 @@
         <v>1775.800149504891</v>
       </c>
       <c r="AH221">
-        <v>2856.795188635611</v>
+        <v>2821.270103146923</v>
       </c>
       <c r="AI221">
         <v>837.9430301913528</v>
@@ -44337,7 +44337,7 @@
         <v>24.74375273871648</v>
       </c>
       <c r="AN221">
-        <v>984.6670054618597</v>
+        <v>1033.587492157249</v>
       </c>
       <c r="AP221">
         <v>600.0528260567428</v>
@@ -44517,10 +44517,10 @@
         <v>291.4518940223084</v>
       </c>
       <c r="DA221">
-        <v>438.1758692928153</v>
+        <v>487.0963559882048</v>
       </c>
       <c r="DB221">
-        <v>3403.286324804656</v>
+        <v>3367.761239315968</v>
       </c>
       <c r="DC221">
         <v>2564.635719674939</v>
@@ -44564,7 +44564,7 @@
         <v>779.0423670867615</v>
       </c>
       <c r="R222">
-        <v>3915.06267863974</v>
+        <v>3928.13326867875</v>
       </c>
       <c r="T222">
         <v>2642.734154919381</v>
@@ -44600,7 +44600,7 @@
         <v>1789.207683770613</v>
       </c>
       <c r="AH222">
-        <v>2920.890591978851</v>
+        <v>2884.568461363422</v>
       </c>
       <c r="AI222">
         <v>846.614460877178</v>
@@ -44618,7 +44618,7 @@
         <v>25.01714436521531</v>
       </c>
       <c r="AN222">
-        <v>994.1720866608882</v>
+        <v>1043.564807315328</v>
       </c>
       <c r="AP222">
         <v>608.1384522782062</v>
@@ -44798,10 +44798,10 @@
         <v>292.7594346162504</v>
       </c>
       <c r="DA222">
-        <v>440.3170603999606</v>
+        <v>489.7097810544005</v>
       </c>
       <c r="DB222">
-        <v>3474.745618239779</v>
+        <v>3438.423487624349</v>
       </c>
       <c r="DC222">
         <v>2597.422988119707</v>
@@ -44845,7 +44845,7 @@
         <v>789.4002804325634</v>
       </c>
       <c r="R223">
-        <v>3983.259381924747</v>
+        <v>3996.090809413259</v>
       </c>
       <c r="T223">
         <v>2676.198567188892</v>
@@ -44881,7 +44881,7 @@
         <v>1802.615218036335</v>
       </c>
       <c r="AH223">
-        <v>2979.28518027736</v>
+        <v>2942.236895841162</v>
       </c>
       <c r="AI223">
         <v>854.6167970617449</v>
@@ -44899,7 +44899,7 @@
         <v>25.29375473051029</v>
       </c>
       <c r="AN223">
-        <v>1003.974201647386</v>
+        <v>1053.853913572097</v>
       </c>
       <c r="AP223">
         <v>616.2240784996698</v>
@@ -45079,10 +45079,10 @@
         <v>293.3978807089341</v>
       </c>
       <c r="DA223">
-        <v>442.7552852945755</v>
+        <v>492.6349972192862</v>
       </c>
       <c r="DB223">
-        <v>3540.504096630171</v>
+        <v>3503.455812193973</v>
       </c>
       <c r="DC223">
         <v>2630.290979983986</v>
@@ -45126,7 +45126,7 @@
         <v>799.7581937783651</v>
       </c>
       <c r="R224">
-        <v>4045.475943025647</v>
+        <v>4058.163330174588</v>
       </c>
       <c r="T224">
         <v>2709.731089843617</v>
@@ -45162,7 +45162,7 @@
         <v>1816.022752302056</v>
       </c>
       <c r="AH224">
-        <v>3031.365463380859</v>
+        <v>2993.669545359695</v>
       </c>
       <c r="AI224">
         <v>862.6608072115934</v>
@@ -45180,7 +45180,7 @@
         <v>25.57308090666454</v>
       </c>
       <c r="AN224">
-        <v>1014.110479644788</v>
+        <v>1064.493784814892</v>
       </c>
       <c r="AP224">
         <v>624.3097047211332</v>
@@ -45360,10 +45360,10 @@
         <v>294.0780007668992</v>
       </c>
       <c r="DA224">
-        <v>445.5276732000938</v>
+        <v>495.9109783701983</v>
       </c>
       <c r="DB224">
-        <v>3599.948269825553</v>
+        <v>3562.252351804389</v>
       </c>
       <c r="DC224">
         <v>2663.227082233478</v>
@@ -45407,7 +45407,7 @@
         <v>810.5365972001786</v>
       </c>
       <c r="R225">
-        <v>4087.923669980054</v>
+        <v>4100.731299049648</v>
       </c>
       <c r="T225">
         <v>2743.668790671699</v>
@@ -45443,7 +45443,7 @@
         <v>1834.004678596648</v>
       </c>
       <c r="AH225">
-        <v>3063.379878550395</v>
+        <v>3025.28585189327</v>
       </c>
       <c r="AI225">
         <v>870.7424418384411</v>
@@ -45461,7 +45461,7 @@
         <v>25.8548211369159</v>
       </c>
       <c r="AN225">
-        <v>1024.543791429659</v>
+        <v>1075.445447156377</v>
       </c>
       <c r="AP225">
         <v>632.7235752009678</v>
@@ -45641,10 +45641,10 @@
         <v>294.4968006591445</v>
       </c>
       <c r="DA225">
-        <v>448.2981502503624</v>
+        <v>499.1998059770808</v>
       </c>
       <c r="DB225">
-        <v>3639.625519729691</v>
+        <v>3601.531493072567</v>
       </c>
       <c r="DC225">
         <v>2729.513722047604</v>
@@ -45688,7 +45688,7 @@
         <v>821.3150006219922</v>
       </c>
       <c r="R226">
-        <v>4131.855430215965</v>
+        <v>4144.757927687356</v>
       </c>
       <c r="T226">
         <v>2812.162634329136</v>
@@ -45724,7 +45724,7 @@
         <v>1851.98660489124</v>
       </c>
       <c r="AH226">
-        <v>3096.989714671736</v>
+        <v>3058.477739851502</v>
       </c>
       <c r="AI226">
         <v>879.5597836386368</v>
@@ -45742,7 +45742,7 @@
         <v>26.138874835677</v>
       </c>
       <c r="AN226">
-        <v>1034.865715544229</v>
+        <v>1086.280187835854</v>
       </c>
       <c r="AP226">
         <v>641.1374456808026</v>
@@ -45922,10 +45922,10 @@
         <v>295.6513077247375</v>
       </c>
       <c r="DA226">
-        <v>450.9572396303298</v>
+        <v>502.3717119219547</v>
       </c>
       <c r="DB226">
-        <v>3680.898190585635</v>
+        <v>3642.386215765401</v>
       </c>
       <c r="DC226">
         <v>2795.858381819503</v>
@@ -45969,7 +45969,7 @@
         <v>832.0934040438057</v>
       </c>
       <c r="R227">
-        <v>4179.224928980696</v>
+        <v>4192.214141217863</v>
       </c>
       <c r="T227">
         <v>2880.701884910048</v>
@@ -46005,7 +46005,7 @@
         <v>1869.968531185832</v>
       </c>
       <c r="AH227">
-        <v>3133.480350970392</v>
+        <v>3094.514604392488</v>
       </c>
       <c r="AI227">
         <v>887.6990075178636</v>
@@ -46023,7 +46023,7 @@
         <v>26.42473907501095</v>
       </c>
       <c r="AN227">
-        <v>1045.744578010305</v>
+        <v>1097.699536825374</v>
       </c>
       <c r="AP227">
         <v>649.5513161606372</v>
@@ -46203,10 +46203,10 @@
         <v>296.1276968693619</v>
       </c>
       <c r="DA227">
-        <v>454.1732673618029</v>
+        <v>506.1282261768723</v>
       </c>
       <c r="DB227">
-        <v>3725.051661618893</v>
+        <v>3686.08591504099</v>
       </c>
       <c r="DC227">
         <v>2862.248448514879</v>
@@ -46250,7 +46250,7 @@
         <v>842.8718074656191</v>
       </c>
       <c r="R228">
-        <v>4229.019288464044</v>
+        <v>4242.076593496622</v>
       </c>
       <c r="T228">
         <v>2949.296632841875</v>
@@ -46286,7 +46286,7 @@
         <v>1887.950457480424</v>
       </c>
       <c r="AH228">
-        <v>3172.210201870495</v>
+        <v>3132.762838245047</v>
       </c>
       <c r="AI228">
         <v>896.5716001620206</v>
@@ -46304,7 +46304,7 @@
         <v>26.71281619726726</v>
       </c>
       <c r="AN228">
-        <v>1056.809086593549</v>
+        <v>1109.313755251575</v>
       </c>
       <c r="AP228">
         <v>657.9651866404718</v>
@@ -46484,10 +46484,10 @@
         <v>297.3374547789164</v>
       </c>
       <c r="DA228">
-        <v>457.5749412104445</v>
+        <v>510.0796098684713</v>
       </c>
       <c r="DB228">
-        <v>3771.444347253599</v>
+        <v>3731.996983628151</v>
       </c>
       <c r="DC228">
         <v>2928.694012561168</v>
@@ -46531,7 +46531,7 @@
         <v>854.067401564417</v>
       </c>
       <c r="R229">
-        <v>4278.017446147608</v>
+        <v>4291.161970485058</v>
       </c>
       <c r="T229">
         <v>3017.959491158915</v>
@@ -46567,7 +46567,7 @@
         <v>1906.110985996907</v>
       </c>
       <c r="AH229">
-        <v>3209.995334077081</v>
+        <v>3170.078101257936</v>
       </c>
       <c r="AI229">
         <v>904.7887213064911</v>
@@ -46585,7 +46585,7 @@
         <v>27.00360913038282</v>
       </c>
       <c r="AN229">
-        <v>1068.022112070528</v>
+        <v>1121.083869227122</v>
       </c>
       <c r="AP229">
         <v>666.7047257916457</v>
@@ -46765,10 +46765,10 @@
         <v>297.5951422320151</v>
       </c>
       <c r="DA229">
-        <v>460.8285329960515</v>
+        <v>513.8902901526455</v>
       </c>
       <c r="DB229">
-        <v>3817.188913151557</v>
+        <v>3777.271680332412</v>
       </c>
       <c r="DC229">
         <v>2992.86657224267</v>
@@ -46812,7 +46812,7 @@
         <v>865.2629956632151</v>
       </c>
       <c r="R230">
-        <v>4327.206195828401</v>
+        <v>4340.428650273339</v>
       </c>
       <c r="T230">
         <v>3084.266906276007</v>
@@ -46848,7 +46848,7 @@
         <v>1924.271514513389</v>
       </c>
       <c r="AH230">
-        <v>3248.082445951196</v>
+        <v>3207.69158873268</v>
       </c>
       <c r="AI230">
         <v>913.0685592536303</v>
@@ -46866,7 +46866,7 @@
         <v>27.29721845994503</v>
       </c>
       <c r="AN230">
-        <v>1079.123749877205</v>
+        <v>1132.737061540659</v>
       </c>
       <c r="AP230">
         <v>675.4442649428198</v>
@@ -47046,10 +47046,10 @@
         <v>297.9155464877823</v>
       </c>
       <c r="DA230">
-        <v>463.9707371113573</v>
+        <v>517.5840487748112</v>
       </c>
       <c r="DB230">
-        <v>3863.235458717044</v>
+        <v>3822.844601498528</v>
       </c>
       <c r="DC230">
         <v>3057.109764916245</v>
@@ -47093,7 +47093,7 @@
         <v>876.4585897620133</v>
       </c>
       <c r="R231">
-        <v>4374.868797446733</v>
+        <v>4388.199691981017</v>
       </c>
       <c r="T231">
         <v>3150.639909171452</v>
@@ -47129,7 +47129,7 @@
         <v>1942.432043029871</v>
       </c>
       <c r="AH231">
-        <v>3284.457763645681</v>
+        <v>3243.614568690139</v>
       </c>
       <c r="AI231">
         <v>922.1165875520156</v>
@@ -47147,7 +47147,7 @@
         <v>27.5934430147791</v>
       </c>
       <c r="AN231">
-        <v>1090.411033801052</v>
+        <v>1144.585123290878</v>
       </c>
       <c r="AP231">
         <v>684.183804093994</v>
@@ -47327,10 +47327,10 @@
         <v>299.0041410947957</v>
       </c>
       <c r="DA231">
-        <v>467.2985873438317</v>
+        <v>521.4726768336582</v>
       </c>
       <c r="DB231">
-        <v>3907.570210102901</v>
+        <v>3866.727015147359</v>
       </c>
       <c r="DC231">
         <v>3121.418545368173</v>
@@ -47374,7 +47374,7 @@
         <v>887.6541838608114</v>
       </c>
       <c r="R232">
-        <v>4422.046226251508</v>
+        <v>4435.489287764599</v>
       </c>
       <c r="T232">
         <v>3217.101203306988</v>
@@ -47410,7 +47410,7 @@
         <v>1960.592571546354</v>
       </c>
       <c r="AH232">
-        <v>3320.385037750044</v>
+        <v>3279.095076610839</v>
       </c>
       <c r="AI232">
         <v>930.5175197330805</v>
@@ -47428,7 +47428,7 @@
         <v>27.89318806517149</v>
       </c>
       <c r="AN232">
-        <v>1101.661188501464</v>
+        <v>1156.394211153761</v>
       </c>
       <c r="AP232">
         <v>692.9233432451681</v>
@@ -47608,10 +47608,10 @@
         <v>299.4456395844886</v>
       </c>
       <c r="DA232">
-        <v>470.5893083528724</v>
+        <v>525.3223310051687</v>
       </c>
       <c r="DB232">
-        <v>3951.456917898636</v>
+        <v>3910.16695675943</v>
       </c>
       <c r="DC232">
         <v>3185.815617060192</v>
@@ -47655,7 +47655,7 @@
         <v>899.2728342348645</v>
       </c>
       <c r="R233">
-        <v>4512.078388526789</v>
+        <v>4525.107624977424</v>
       </c>
       <c r="T233">
         <v>3283.575110476823</v>
@@ -47691,7 +47691,7 @@
         <v>1979.19523950645</v>
       </c>
       <c r="AH233">
-        <v>3399.055657654611</v>
+        <v>3356.787404298772</v>
       </c>
       <c r="AI233">
         <v>939.7234321455406</v>
@@ -47709,7 +47709,7 @@
         <v>28.19343604350077</v>
       </c>
       <c r="AN233">
-        <v>1113.022730872178</v>
+        <v>1168.320220678652</v>
       </c>
       <c r="AP233">
         <v>701.9931298890713</v>
@@ -47889,10 +47889,10 @@
         <v>300.3913492404522</v>
       </c>
       <c r="DA233">
-        <v>473.6906479670896</v>
+        <v>528.9881377735636</v>
       </c>
       <c r="DB233">
-        <v>4038.3877405597</v>
+        <v>3996.119487203861</v>
       </c>
       <c r="DC233">
         <v>3219.37925053651</v>
@@ -47936,7 +47936,7 @@
         <v>910.8914846089176</v>
       </c>
       <c r="R234">
-        <v>4597.460163784188</v>
+        <v>4610.142629604663</v>
       </c>
       <c r="T234">
         <v>3317.9321753248</v>
@@ -47972,7 +47972,7 @@
         <v>1997.797907466546</v>
       </c>
       <c r="AH234">
-        <v>3472.927373647561</v>
+        <v>3429.740503851775</v>
       </c>
       <c r="AI234">
         <v>948.2683609986685</v>
@@ -47990,7 +47990,7 @@
         <v>28.48764888658726</v>
       </c>
       <c r="AN234">
-        <v>1124.532790136627</v>
+        <v>1180.402125752888</v>
       </c>
       <c r="AP234">
         <v>711.0629165329746</v>
@@ -48170,10 +48170,10 @@
         <v>300.6760753370834</v>
       </c>
       <c r="DA234">
-        <v>476.9405044750414</v>
+        <v>532.8098400913033</v>
       </c>
       <c r="DB234">
-        <v>4120.519659309146</v>
+        <v>4077.33278951336</v>
       </c>
       <c r="DC234">
         <v>3252.791527601243</v>
@@ -48217,7 +48217,7 @@
         <v>922.5101349829706</v>
       </c>
       <c r="R235">
-        <v>4678.900087923603</v>
+        <v>4691.284801187914</v>
       </c>
       <c r="T235">
         <v>3352.089954230858</v>
@@ -48253,7 +48253,7 @@
         <v>2016.400575426642</v>
       </c>
       <c r="AH235">
-        <v>3542.857238522528</v>
+        <v>3498.80077036079</v>
       </c>
       <c r="AI235">
         <v>957.6343615651296</v>
@@ -48271,7 +48271,7 @@
         <v>28.77391546827072</v>
       </c>
       <c r="AN235">
-        <v>1136.042849401075</v>
+        <v>1192.484030827125</v>
       </c>
       <c r="AP235">
         <v>720.1327031768777</v>
@@ -48451,10 +48451,10 @@
         <v>301.7818731470479</v>
       </c>
       <c r="DA235">
-        <v>480.1903609829936</v>
+        <v>536.6315424090432</v>
       </c>
       <c r="DB235">
-        <v>4198.709726940609</v>
+        <v>4154.653258778872</v>
       </c>
       <c r="DC235">
         <v>3286.004518724057</v>
@@ -48498,7 +48498,7 @@
         <v>934.1287853570237</v>
       </c>
       <c r="R236">
-        <v>4755.667857265458</v>
+        <v>4767.810611211229</v>
       </c>
       <c r="T236">
         <v>3386.184667965422</v>
@@ -48534,7 +48534,7 @@
         <v>2035.003243386738</v>
       </c>
       <c r="AH236">
-        <v>3608.152077823368</v>
+        <v>3563.283649197204</v>
       </c>
       <c r="AI236">
         <v>967.0807541678432</v>
@@ -48552,7 +48552,7 @@
         <v>29.05766741026968</v>
       </c>
       <c r="AN236">
-        <v>1147.51577944209</v>
+        <v>1204.526962014025</v>
       </c>
       <c r="AP236">
         <v>729.2024898207809</v>
@@ -48732,10 +48732,10 @@
         <v>302.968062993265</v>
       </c>
       <c r="DA236">
-        <v>483.403088267512</v>
+        <v>540.4142708394465</v>
       </c>
       <c r="DB236">
-        <v>4272.264768997946</v>
+        <v>4227.396340371783</v>
       </c>
       <c r="DC236">
         <v>3319.154444675377</v>
@@ -48779,7 +48779,7 @@
         <v>946.4304113296903</v>
       </c>
       <c r="R237">
-        <v>4730.378375428693</v>
+        <v>4743.55058826368</v>
       </c>
       <c r="T237">
         <v>3420.279381699986</v>
@@ -48815,7 +48815,7 @@
         <v>2053.393274782216</v>
       </c>
       <c r="AH237">
-        <v>3571.352536722155</v>
+        <v>3526.941721175418</v>
       </c>
       <c r="AI237">
         <v>975.8709903825484</v>
@@ -48833,7 +48833,7 @@
         <v>29.34141935226864</v>
       </c>
       <c r="AN237">
-        <v>1159.025838706539</v>
+        <v>1216.608867088261</v>
       </c>
       <c r="AP237">
         <v>738.8054229802424</v>
@@ -49013,10 +49013,10 @@
         <v>303.0125394598555</v>
       </c>
       <c r="DA237">
-        <v>486.1673877838458</v>
+        <v>543.7504161655683</v>
       </c>
       <c r="DB237">
-        <v>4244.210987644848</v>
+        <v>4199.800172098111</v>
       </c>
       <c r="DC237">
         <v>3354.170536376698</v>
@@ -49060,7 +49060,7 @@
         <v>958.7320373023568</v>
       </c>
       <c r="R238">
-        <v>4716.469650595664</v>
+        <v>4730.529799270858</v>
       </c>
       <c r="T238">
         <v>3456.2297854303</v>
@@ -49096,7 +49096,7 @@
         <v>2071.783306177694</v>
       </c>
       <c r="AH238">
-        <v>3545.933752624677</v>
+        <v>3501.839027108361</v>
       </c>
       <c r="AI238">
         <v>985.472124041594</v>
@@ -49114,7 +49114,7 @@
         <v>29.62205314105883</v>
       </c>
       <c r="AN238">
-        <v>1170.535897970987</v>
+        <v>1228.690772162497</v>
       </c>
       <c r="AP238">
         <v>748.4083561397039</v>
@@ -49294,10 +49294,10 @@
         <v>303.8679133707865</v>
       </c>
       <c r="DA238">
-        <v>488.9316873001796</v>
+        <v>547.0865614916897</v>
       </c>
       <c r="DB238">
-        <v>4227.537963295485</v>
+        <v>4183.443237779169</v>
       </c>
       <c r="DC238">
         <v>3389.108427265367</v>
@@ -49341,7 +49341,7 @@
         <v>971.0336632750235</v>
       </c>
       <c r="R239">
-        <v>4715.401313152579</v>
+        <v>4730.194336440667</v>
       </c>
       <c r="T239">
         <v>3492.240731725247</v>
@@ -49377,7 +49377,7 @@
         <v>2090.173337573172</v>
       </c>
       <c r="AH239">
-        <v>3533.281097470276</v>
+        <v>3489.343711429261</v>
       </c>
       <c r="AI239">
         <v>994.3982597686056</v>
@@ -49395,7 +49395,7 @@
         <v>29.90510098394613</v>
       </c>
       <c r="AN239">
-        <v>1182.120215682303</v>
+        <v>1240.850625011406</v>
       </c>
       <c r="AP239">
         <v>758.0112892991655</v>
@@ -49575,10 +49575,10 @@
         <v>304.0482893496833</v>
       </c>
       <c r="DA239">
-        <v>491.770245263381</v>
+        <v>550.5006545924837</v>
       </c>
       <c r="DB239">
-        <v>4223.631067889199</v>
+        <v>4179.693681848183</v>
       </c>
       <c r="DC239">
         <v>3424.106860718669</v>
@@ -49622,7 +49622,7 @@
         <v>983.3352892476903</v>
       </c>
       <c r="R240">
-        <v>4726.261180445902</v>
+        <v>4741.62952211815</v>
       </c>
       <c r="T240">
         <v>3528.29708494367</v>
@@ -49658,7 +49658,7 @@
         <v>2108.563368968651</v>
       </c>
       <c r="AH240">
-        <v>3532.705163946018</v>
+        <v>3488.774939807181</v>
       </c>
       <c r="AI240">
         <v>1004.09845288792</v>
@@ -49676,7 +49676,7 @@
         <v>30.18995936740627</v>
       </c>
       <c r="AN240">
-        <v>1193.556016499884</v>
+        <v>1252.85458231097</v>
       </c>
       <c r="AP240">
         <v>767.6142224586271</v>
@@ -49856,10 +49856,10 @@
         <v>305.0027227208825</v>
       </c>
       <c r="DA240">
-        <v>494.4602863328473</v>
+        <v>553.7588521439327</v>
       </c>
       <c r="DB240">
-        <v>4231.800894113055</v>
+        <v>4187.870669974218</v>
       </c>
       <c r="DC240">
         <v>3459.150701095446</v>
@@ -49903,7 +49903,7 @@
         <v>996.7645764878478</v>
       </c>
       <c r="R241">
-        <v>4843.245655602853</v>
+        <v>4857.869625055678</v>
       </c>
       <c r="T241">
         <v>3564.401367692429</v>
@@ -49939,7 +49939,7 @@
         <v>2126.558848286688</v>
       </c>
       <c r="AH241">
-        <v>3638.253838285387</v>
+        <v>3593.011085445144</v>
       </c>
       <c r="AI241">
         <v>1013.845439796806</v>
@@ -49957,7 +49957,7 @@
         <v>30.47672887702664</v>
       </c>
       <c r="AN241">
-        <v>1204.991817317466</v>
+        <v>1264.858539610534</v>
       </c>
       <c r="AP241">
         <v>778.0974340302505</v>
@@ -50137,10 +50137,10 @@
         <v>305.202246550351</v>
       </c>
       <c r="DA241">
-        <v>496.348624071011</v>
+        <v>556.2153463640791</v>
       </c>
       <c r="DB241">
-        <v>4346.897031531842</v>
+        <v>4301.654278691598</v>
       </c>
       <c r="DC241">
         <v>3494.054717252559</v>
@@ -50184,7 +50184,7 @@
         <v>1010.193863728005</v>
       </c>
       <c r="R242">
-        <v>4950.100394354722</v>
+        <v>4964.115183336029</v>
       </c>
       <c r="T242">
         <v>3600.3741480876</v>
@@ -50220,7 +50220,7 @@
         <v>2144.554327604725</v>
       </c>
       <c r="AH242">
-        <v>3733.52425932594</v>
+        <v>3687.096790876586</v>
       </c>
       <c r="AI242">
         <v>1022.885432077503</v>
@@ -50238,7 +50238,7 @@
         <v>30.76601302633151</v>
       </c>
       <c r="AN242">
-        <v>1216.576135028782</v>
+        <v>1277.018392459443</v>
       </c>
       <c r="AP242">
         <v>788.580645601874</v>
@@ -50418,10 +50418,10 @@
         <v>304.6947757516308</v>
       </c>
       <c r="DA242">
-        <v>498.3854787029092</v>
+        <v>558.8277361335701</v>
       </c>
       <c r="DB242">
-        <v>4451.714915651813</v>
+        <v>4405.287447202459</v>
       </c>
       <c r="DC242">
         <v>3529.021798581166</v>
@@ -50465,7 +50465,7 @@
         <v>1023.623150968163</v>
       </c>
       <c r="R243">
-        <v>5041.131994514032</v>
+        <v>5054.722836506541</v>
       </c>
       <c r="T243">
         <v>3636.387290192526</v>
@@ -50501,7 +50501,7 @@
         <v>2162.549806922763</v>
       </c>
       <c r="AH243">
-        <v>3813.157187891103</v>
+        <v>3765.739460634871</v>
       </c>
       <c r="AI243">
         <v>1032.70918970005</v>
@@ -50519,7 +50519,7 @@
         <v>31.05690654503445</v>
       </c>
       <c r="AN243">
-        <v>1227.974806622929</v>
+        <v>1288.98337587167</v>
       </c>
       <c r="AP243">
         <v>799.0638571734975</v>
@@ -50699,10 +50699,10 @@
         <v>304.9710702947599</v>
       </c>
       <c r="DA243">
-        <v>500.2366872176391</v>
+        <v>561.2452564663801</v>
       </c>
       <c r="DB243">
-        <v>4540.895307296393</v>
+        <v>4493.477580040161</v>
       </c>
       <c r="DC243">
         <v>3564.029241619528</v>
@@ -50746,7 +50746,7 @@
         <v>1037.05243820832</v>
       </c>
       <c r="R244">
-        <v>5119.768072154646</v>
+        <v>5133.093721867324</v>
       </c>
       <c r="T244">
         <v>3672.438271400349</v>
@@ -50782,7 +50782,7 @@
         <v>2180.545286240801</v>
       </c>
       <c r="AH244">
-        <v>3880.320335490702</v>
+        <v>3832.067414808755</v>
       </c>
       <c r="AI244">
         <v>1042.557002146181</v>
@@ -50800,7 +50800,7 @@
         <v>31.3493088475481</v>
       </c>
       <c r="AN244">
-        <v>1239.447736663944</v>
+        <v>1301.02630705857</v>
       </c>
       <c r="AP244">
         <v>809.547068745121</v>
@@ -50980,10 +50980,10 @@
         <v>305.2714196614735</v>
       </c>
       <c r="DA244">
-        <v>502.1621541792362</v>
+        <v>563.7407245738624</v>
       </c>
       <c r="DB244">
-        <v>4617.60591797541</v>
+        <v>4569.352997293462</v>
       </c>
       <c r="DC244">
         <v>3599.074523760786</v>
@@ -51045,7 +51045,7 @@
         <v>31.6434211050472</v>
       </c>
       <c r="AN245">
-        <v>1250.920666704959</v>
+        <v>1313.06923824547</v>
       </c>
       <c r="AR245">
         <v>106.7251513373335</v>
